--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -32,19 +32,6 @@
   <customWorkbookViews>
     <customWorkbookView name="Usuario de Windows - Vista personalizada" guid="{5A3D1950-3803-405C-80C5-3BF9571F0071}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="761" activeSheetId="1"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -725,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="354">
   <si>
     <t>N°</t>
   </si>
@@ -1874,12 +1861,20 @@
   <si>
     <t>Comentarios-Observaciones</t>
   </si>
+  <si>
+    <t>Administrar 
+Usuarios</t>
+  </si>
+  <si>
+    <t>Gestionar 
+Configuración</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,6 +2114,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -3972,7 +3982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4916,6 +4926,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4964,18 +5010,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5012,36 +5049,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5090,90 +5184,6 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5270,12 +5280,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5288,9 +5376,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5300,79 +5385,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5384,43 +5430,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5446,9 +5463,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5474,7 +5488,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,62 +5849,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="391" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="382"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="394"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="400" t="s">
+      <c r="B3" s="409" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="402" t="s">
+      <c r="C3" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="402" t="s">
+      <c r="D3" s="411" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="404" t="s">
+      <c r="E3" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="407" t="s">
+      <c r="G3" s="416" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="388" t="s">
+      <c r="H3" s="400" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="383" t="s">
+      <c r="M3" s="395" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="377" t="s">
+      <c r="N3" s="389" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="401"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="408"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="417"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -5904,14 +5918,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="378"/>
+      <c r="M4" s="396"/>
+      <c r="N4" s="390"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="402" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="377" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -5932,8 +5946,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="405"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -5949,8 +5963,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="392"/>
-      <c r="C7" s="395"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="379"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -5969,8 +5983,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="392"/>
-      <c r="C8" s="395"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="379"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -5989,9 +6003,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="392"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="385" t="s">
+      <c r="B9" s="404"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="397" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6022,9 +6036,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="392"/>
-      <c r="C10" s="395"/>
-      <c r="D10" s="386"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="398"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6043,9 +6057,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="392"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="386"/>
+      <c r="B11" s="404"/>
+      <c r="C11" s="379"/>
+      <c r="D11" s="398"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6064,9 +6078,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="392"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="386"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="398"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6085,9 +6099,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="392"/>
-      <c r="C13" s="395"/>
-      <c r="D13" s="386"/>
+      <c r="B13" s="404"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="398"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6105,9 +6119,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="392"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="386"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="398"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6125,9 +6139,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="392"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="386"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="398"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6145,9 +6159,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="392"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="386"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="398"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6165,9 +6179,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="392"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="386"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="398"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6186,9 +6200,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="392"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="386"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="398"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6207,9 +6221,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="392"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="386"/>
+      <c r="B19" s="404"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="398"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6226,9 +6240,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="392"/>
-      <c r="C20" s="395"/>
-      <c r="D20" s="386"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="398"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6245,9 +6259,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="392"/>
-      <c r="C21" s="395"/>
-      <c r="D21" s="386"/>
+      <c r="B21" s="404"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="398"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6264,9 +6278,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="392"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="386"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="398"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6283,9 +6297,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="392"/>
-      <c r="C23" s="395"/>
-      <c r="D23" s="386"/>
+      <c r="B23" s="404"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="398"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6302,9 +6316,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="392"/>
-      <c r="C24" s="395"/>
-      <c r="D24" s="386"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="379"/>
+      <c r="D24" s="398"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6321,9 +6335,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="392"/>
-      <c r="C25" s="395"/>
-      <c r="D25" s="386"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="398"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6337,9 +6351,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="392"/>
-      <c r="C26" s="395"/>
-      <c r="D26" s="386"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="398"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6353,9 +6367,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="392"/>
-      <c r="C27" s="395"/>
-      <c r="D27" s="386"/>
+      <c r="B27" s="404"/>
+      <c r="C27" s="379"/>
+      <c r="D27" s="398"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6369,9 +6383,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="392"/>
-      <c r="C28" s="395"/>
-      <c r="D28" s="386"/>
+      <c r="B28" s="404"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="398"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6385,9 +6399,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="392"/>
-      <c r="C29" s="395"/>
-      <c r="D29" s="386"/>
+      <c r="B29" s="404"/>
+      <c r="C29" s="379"/>
+      <c r="D29" s="398"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6401,9 +6415,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="392"/>
-      <c r="C30" s="395"/>
-      <c r="D30" s="386"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="398"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6417,9 +6431,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="392"/>
-      <c r="C31" s="395"/>
-      <c r="D31" s="386"/>
+      <c r="B31" s="404"/>
+      <c r="C31" s="379"/>
+      <c r="D31" s="398"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6433,9 +6447,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="392"/>
-      <c r="C32" s="395"/>
-      <c r="D32" s="386"/>
+      <c r="B32" s="404"/>
+      <c r="C32" s="379"/>
+      <c r="D32" s="398"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6449,9 +6463,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="392"/>
-      <c r="C33" s="395"/>
-      <c r="D33" s="386"/>
+      <c r="B33" s="404"/>
+      <c r="C33" s="379"/>
+      <c r="D33" s="398"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6465,9 +6479,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="392"/>
-      <c r="C34" s="395"/>
-      <c r="D34" s="386"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="379"/>
+      <c r="D34" s="398"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6481,9 +6495,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="392"/>
-      <c r="C35" s="395"/>
-      <c r="D35" s="386"/>
+      <c r="B35" s="404"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="398"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6497,9 +6511,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="392"/>
-      <c r="C36" s="395"/>
-      <c r="D36" s="386"/>
+      <c r="B36" s="404"/>
+      <c r="C36" s="379"/>
+      <c r="D36" s="398"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6513,9 +6527,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="392"/>
-      <c r="C37" s="395"/>
-      <c r="D37" s="386"/>
+      <c r="B37" s="404"/>
+      <c r="C37" s="379"/>
+      <c r="D37" s="398"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6529,9 +6543,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="392"/>
-      <c r="C38" s="395"/>
-      <c r="D38" s="386"/>
+      <c r="B38" s="404"/>
+      <c r="C38" s="379"/>
+      <c r="D38" s="398"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6545,9 +6559,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="392"/>
-      <c r="C39" s="395"/>
-      <c r="D39" s="386"/>
+      <c r="B39" s="404"/>
+      <c r="C39" s="379"/>
+      <c r="D39" s="398"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6561,9 +6575,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="392"/>
-      <c r="C40" s="395"/>
-      <c r="D40" s="386"/>
+      <c r="B40" s="404"/>
+      <c r="C40" s="379"/>
+      <c r="D40" s="398"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6577,9 +6591,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="392"/>
-      <c r="C41" s="395"/>
-      <c r="D41" s="386"/>
+      <c r="B41" s="404"/>
+      <c r="C41" s="379"/>
+      <c r="D41" s="398"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6593,9 +6607,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="392"/>
-      <c r="C42" s="395"/>
-      <c r="D42" s="386"/>
+      <c r="B42" s="404"/>
+      <c r="C42" s="379"/>
+      <c r="D42" s="398"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6609,9 +6623,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="392"/>
-      <c r="C43" s="395"/>
-      <c r="D43" s="387"/>
+      <c r="B43" s="404"/>
+      <c r="C43" s="379"/>
+      <c r="D43" s="399"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6624,8 +6638,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="392"/>
-      <c r="C44" s="395"/>
+      <c r="B44" s="404"/>
+      <c r="C44" s="379"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6647,8 +6661,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="392"/>
-      <c r="C45" s="395"/>
+      <c r="B45" s="404"/>
+      <c r="C45" s="379"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6667,8 +6681,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="392"/>
-      <c r="C46" s="395"/>
+      <c r="B46" s="404"/>
+      <c r="C46" s="379"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6690,8 +6704,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="392"/>
-      <c r="C47" s="395"/>
+      <c r="B47" s="404"/>
+      <c r="C47" s="379"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6714,8 +6728,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="392"/>
-      <c r="C48" s="395"/>
+      <c r="B48" s="404"/>
+      <c r="C48" s="379"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6737,9 +6751,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="392"/>
-      <c r="C49" s="395"/>
-      <c r="D49" s="397" t="s">
+      <c r="B49" s="404"/>
+      <c r="C49" s="379"/>
+      <c r="D49" s="406" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6760,9 +6774,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="392"/>
-      <c r="C50" s="396"/>
-      <c r="D50" s="398"/>
+      <c r="B50" s="404"/>
+      <c r="C50" s="380"/>
+      <c r="D50" s="407"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6773,8 +6787,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="392"/>
-      <c r="C51" s="399" t="s">
+      <c r="B51" s="404"/>
+      <c r="C51" s="408" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6795,8 +6809,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="392"/>
-      <c r="C52" s="392"/>
+      <c r="B52" s="404"/>
+      <c r="C52" s="404"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6818,8 +6832,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="392"/>
-      <c r="C53" s="392"/>
+      <c r="B53" s="404"/>
+      <c r="C53" s="404"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6841,8 +6855,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="392"/>
-      <c r="C54" s="392"/>
+      <c r="B54" s="404"/>
+      <c r="C54" s="404"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6861,8 +6875,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="392"/>
-      <c r="C55" s="392"/>
+      <c r="B55" s="404"/>
+      <c r="C55" s="404"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6884,8 +6898,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="392"/>
-      <c r="C56" s="392"/>
+      <c r="B56" s="404"/>
+      <c r="C56" s="404"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -6907,8 +6921,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="392"/>
-      <c r="C57" s="392"/>
+      <c r="B57" s="404"/>
+      <c r="C57" s="404"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -6934,8 +6948,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="392"/>
-      <c r="C58" s="392"/>
+      <c r="B58" s="404"/>
+      <c r="C58" s="404"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -6949,13 +6963,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="393" t="s">
+      <c r="B59" s="377" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="410" t="s">
+      <c r="C59" s="381" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="414" t="s">
+      <c r="D59" s="385" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -6975,9 +6989,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="409"/>
-      <c r="C60" s="411"/>
-      <c r="D60" s="415"/>
+      <c r="B60" s="378"/>
+      <c r="C60" s="382"/>
+      <c r="D60" s="386"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -6994,9 +7008,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="395"/>
-      <c r="C61" s="412"/>
-      <c r="D61" s="415"/>
+      <c r="B61" s="379"/>
+      <c r="C61" s="383"/>
+      <c r="D61" s="386"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7014,8 +7028,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="395"/>
-      <c r="C62" s="412"/>
+      <c r="B62" s="379"/>
+      <c r="C62" s="383"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7042,9 +7056,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="395"/>
-      <c r="C63" s="412"/>
-      <c r="D63" s="416" t="s">
+      <c r="B63" s="379"/>
+      <c r="C63" s="383"/>
+      <c r="D63" s="387" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7075,9 +7089,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="395"/>
-      <c r="C64" s="412"/>
-      <c r="D64" s="416"/>
+      <c r="B64" s="379"/>
+      <c r="C64" s="383"/>
+      <c r="D64" s="387"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7104,9 +7118,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="395"/>
-      <c r="C65" s="412"/>
-      <c r="D65" s="416"/>
+      <c r="B65" s="379"/>
+      <c r="C65" s="383"/>
+      <c r="D65" s="387"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7119,9 +7133,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="395"/>
-      <c r="C66" s="412"/>
-      <c r="D66" s="416" t="s">
+      <c r="B66" s="379"/>
+      <c r="C66" s="383"/>
+      <c r="D66" s="387" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7143,9 +7157,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="396"/>
-      <c r="C67" s="413"/>
-      <c r="D67" s="417"/>
+      <c r="B67" s="380"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="388"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7842,11 +7856,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7862,6 +7871,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7903,66 +7917,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="421" t="s">
+      <c r="B2" s="449" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="422"/>
-      <c r="J2" s="422"/>
-      <c r="K2" s="422"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="422"/>
-      <c r="N2" s="422"/>
-      <c r="O2" s="422"/>
-      <c r="P2" s="423"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
+      <c r="K2" s="450"/>
+      <c r="L2" s="450"/>
+      <c r="M2" s="450"/>
+      <c r="N2" s="450"/>
+      <c r="O2" s="450"/>
+      <c r="P2" s="451"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="452" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="426" t="s">
+      <c r="C3" s="454" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="426" t="s">
+      <c r="D3" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="429" t="s">
+      <c r="E3" s="457" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="426" t="s">
+      <c r="F3" s="454" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="426" t="s">
+      <c r="G3" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="426" t="s">
+      <c r="H3" s="454" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="426" t="s">
+      <c r="I3" s="454" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="459"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="426" t="s">
+      <c r="M3" s="454" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="426" t="s">
+      <c r="N3" s="454" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="426" t="s">
+      <c r="O3" s="454" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="433" t="s">
+      <c r="P3" s="461" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -7971,13 +7985,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="425"/>
-      <c r="C4" s="427"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="430"/>
-      <c r="F4" s="427"/>
-      <c r="G4" s="427"/>
-      <c r="H4" s="427"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -7990,10 +8004,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="427"/>
-      <c r="N4" s="427"/>
-      <c r="O4" s="432"/>
-      <c r="P4" s="434"/>
+      <c r="M4" s="455"/>
+      <c r="N4" s="455"/>
+      <c r="O4" s="460"/>
+      <c r="P4" s="462"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8096,14 +8110,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="428" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="448" t="s">
+      <c r="C9" s="431" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="450" t="s">
+      <c r="E9" s="433" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8134,10 +8148,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="446"/>
-      <c r="C10" s="449"/>
+      <c r="B10" s="429"/>
+      <c r="C10" s="432"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="451"/>
+      <c r="E10" s="434"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8159,10 +8173,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="446"/>
-      <c r="C11" s="449"/>
+      <c r="B11" s="429"/>
+      <c r="C11" s="432"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="451"/>
+      <c r="E11" s="434"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8184,10 +8198,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="446"/>
-      <c r="C12" s="449"/>
+      <c r="B12" s="429"/>
+      <c r="C12" s="432"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="451"/>
+      <c r="E12" s="434"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8209,10 +8223,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="446"/>
-      <c r="C13" s="449"/>
+      <c r="B13" s="429"/>
+      <c r="C13" s="432"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="452" t="s">
+      <c r="E13" s="435" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8235,10 +8249,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="446"/>
-      <c r="C14" s="449"/>
+      <c r="B14" s="429"/>
+      <c r="C14" s="432"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="452"/>
+      <c r="E14" s="435"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8259,10 +8273,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="446"/>
-      <c r="C15" s="449"/>
+      <c r="B15" s="429"/>
+      <c r="C15" s="432"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="452"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8284,10 +8298,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="446"/>
-      <c r="C16" s="449"/>
+      <c r="B16" s="429"/>
+      <c r="C16" s="432"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="452"/>
+      <c r="E16" s="435"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8309,10 +8323,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="446"/>
-      <c r="C17" s="449"/>
+      <c r="B17" s="429"/>
+      <c r="C17" s="432"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="452"/>
+      <c r="E17" s="435"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8334,10 +8348,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="446"/>
-      <c r="C18" s="449"/>
+      <c r="B18" s="429"/>
+      <c r="C18" s="432"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="452"/>
+      <c r="E18" s="435"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8359,10 +8373,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="446"/>
-      <c r="C19" s="449"/>
+      <c r="B19" s="429"/>
+      <c r="C19" s="432"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="452"/>
+      <c r="E19" s="435"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8383,10 +8397,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="446"/>
-      <c r="C20" s="449"/>
+      <c r="B20" s="429"/>
+      <c r="C20" s="432"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="452"/>
+      <c r="E20" s="435"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8407,10 +8421,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="446"/>
-      <c r="C21" s="449"/>
+      <c r="B21" s="429"/>
+      <c r="C21" s="432"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="451" t="s">
+      <c r="E21" s="434" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8434,10 +8448,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="446"/>
-      <c r="C22" s="449"/>
+      <c r="B22" s="429"/>
+      <c r="C22" s="432"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="451"/>
+      <c r="E22" s="434"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8459,10 +8473,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="446"/>
-      <c r="C23" s="449"/>
+      <c r="B23" s="429"/>
+      <c r="C23" s="432"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="451"/>
+      <c r="E23" s="434"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8484,10 +8498,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="446"/>
-      <c r="C24" s="438"/>
+      <c r="B24" s="429"/>
+      <c r="C24" s="421"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="451"/>
+      <c r="E24" s="434"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8509,10 +8523,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="446"/>
-      <c r="C25" s="438"/>
+      <c r="B25" s="429"/>
+      <c r="C25" s="421"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="453" t="s">
+      <c r="E25" s="436" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8536,10 +8550,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="446"/>
-      <c r="C26" s="438"/>
+      <c r="B26" s="429"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="453"/>
+      <c r="E26" s="436"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8561,10 +8575,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="446"/>
-      <c r="C27" s="438"/>
+      <c r="B27" s="429"/>
+      <c r="C27" s="421"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="453"/>
+      <c r="E27" s="436"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8586,10 +8600,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="446"/>
-      <c r="C28" s="438"/>
+      <c r="B28" s="429"/>
+      <c r="C28" s="421"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="453"/>
+      <c r="E28" s="436"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8611,10 +8625,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="446"/>
-      <c r="C29" s="438"/>
+      <c r="B29" s="429"/>
+      <c r="C29" s="421"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="451" t="s">
+      <c r="E29" s="434" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8638,10 +8652,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="446"/>
-      <c r="C30" s="438"/>
+      <c r="B30" s="429"/>
+      <c r="C30" s="421"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="451"/>
+      <c r="E30" s="434"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8663,10 +8677,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="446"/>
-      <c r="C31" s="438"/>
+      <c r="B31" s="429"/>
+      <c r="C31" s="421"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="451"/>
+      <c r="E31" s="434"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8688,10 +8702,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="446"/>
-      <c r="C32" s="438"/>
+      <c r="B32" s="429"/>
+      <c r="C32" s="421"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="451"/>
+      <c r="E32" s="434"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8713,10 +8727,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="446"/>
-      <c r="C33" s="438"/>
+      <c r="B33" s="429"/>
+      <c r="C33" s="421"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="452"/>
+      <c r="E33" s="435"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8732,10 +8746,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="446"/>
-      <c r="C34" s="438"/>
+      <c r="B34" s="429"/>
+      <c r="C34" s="421"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="452"/>
+      <c r="E34" s="435"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8751,10 +8765,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="446"/>
-      <c r="C35" s="438"/>
+      <c r="B35" s="429"/>
+      <c r="C35" s="421"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="452"/>
+      <c r="E35" s="435"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8770,10 +8784,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="446"/>
-      <c r="C36" s="438"/>
+      <c r="B36" s="429"/>
+      <c r="C36" s="421"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="418"/>
+      <c r="E36" s="437"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8789,7 +8803,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="446"/>
+      <c r="B37" s="429"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8808,12 +8822,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="446"/>
-      <c r="C38" s="454" t="s">
+      <c r="B38" s="429"/>
+      <c r="C38" s="438" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="457" t="s">
+      <c r="E38" s="441" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8837,10 +8851,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="446"/>
-      <c r="C39" s="455"/>
+      <c r="B39" s="429"/>
+      <c r="C39" s="439"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="458"/>
+      <c r="E39" s="442"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8862,10 +8876,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="446"/>
-      <c r="C40" s="455"/>
+      <c r="B40" s="429"/>
+      <c r="C40" s="439"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="458"/>
+      <c r="E40" s="442"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8887,10 +8901,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="446"/>
-      <c r="C41" s="455"/>
+      <c r="B41" s="429"/>
+      <c r="C41" s="439"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="459"/>
+      <c r="E41" s="443"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -8912,8 +8926,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="446"/>
-      <c r="C42" s="455"/>
+      <c r="B42" s="429"/>
+      <c r="C42" s="439"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -8931,8 +8945,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="446"/>
-      <c r="C43" s="455"/>
+      <c r="B43" s="429"/>
+      <c r="C43" s="439"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -8949,8 +8963,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="446"/>
-      <c r="C44" s="455"/>
+      <c r="B44" s="429"/>
+      <c r="C44" s="439"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -8967,8 +8981,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="446"/>
-      <c r="C45" s="455"/>
+      <c r="B45" s="429"/>
+      <c r="C45" s="439"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -8985,8 +8999,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="446"/>
-      <c r="C46" s="456"/>
+      <c r="B46" s="429"/>
+      <c r="C46" s="440"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9003,12 +9017,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="446"/>
-      <c r="C47" s="454" t="s">
+      <c r="B47" s="429"/>
+      <c r="C47" s="438" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="461" t="s">
+      <c r="E47" s="445" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9031,10 +9045,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="446"/>
-      <c r="C48" s="455"/>
+      <c r="B48" s="429"/>
+      <c r="C48" s="439"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="462"/>
+      <c r="E48" s="446"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9055,10 +9069,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="446"/>
-      <c r="C49" s="455"/>
+      <c r="B49" s="429"/>
+      <c r="C49" s="439"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="462"/>
+      <c r="E49" s="446"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9079,10 +9093,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="446"/>
-      <c r="C50" s="455"/>
+      <c r="B50" s="429"/>
+      <c r="C50" s="439"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="462"/>
+      <c r="E50" s="446"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9103,10 +9117,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="446"/>
-      <c r="C51" s="455"/>
+      <c r="B51" s="429"/>
+      <c r="C51" s="439"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="462"/>
+      <c r="E51" s="446"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9127,10 +9141,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="446"/>
-      <c r="C52" s="455"/>
+      <c r="B52" s="429"/>
+      <c r="C52" s="439"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="462"/>
+      <c r="E52" s="446"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9151,10 +9165,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="446"/>
-      <c r="C53" s="455"/>
+      <c r="B53" s="429"/>
+      <c r="C53" s="439"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="462"/>
+      <c r="E53" s="446"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9175,10 +9189,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="446"/>
-      <c r="C54" s="455"/>
+      <c r="B54" s="429"/>
+      <c r="C54" s="439"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="462"/>
+      <c r="E54" s="446"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9199,10 +9213,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="446"/>
-      <c r="C55" s="455"/>
+      <c r="B55" s="429"/>
+      <c r="C55" s="439"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="462"/>
+      <c r="E55" s="446"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9223,10 +9237,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="446"/>
-      <c r="C56" s="455"/>
+      <c r="B56" s="429"/>
+      <c r="C56" s="439"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="462"/>
+      <c r="E56" s="446"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9247,10 +9261,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="446"/>
-      <c r="C57" s="455"/>
+      <c r="B57" s="429"/>
+      <c r="C57" s="439"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="462"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9271,10 +9285,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="446"/>
-      <c r="C58" s="455"/>
+      <c r="B58" s="429"/>
+      <c r="C58" s="439"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="462"/>
+      <c r="E58" s="446"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9295,10 +9309,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="446"/>
-      <c r="C59" s="455"/>
+      <c r="B59" s="429"/>
+      <c r="C59" s="439"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="418" t="s">
+      <c r="E59" s="437" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9321,10 +9335,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="446"/>
-      <c r="C60" s="455"/>
+      <c r="B60" s="429"/>
+      <c r="C60" s="439"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="419"/>
+      <c r="E60" s="447"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9345,10 +9359,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="446"/>
-      <c r="C61" s="455"/>
+      <c r="B61" s="429"/>
+      <c r="C61" s="439"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="419"/>
+      <c r="E61" s="447"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9369,10 +9383,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="446"/>
-      <c r="C62" s="455"/>
+      <c r="B62" s="429"/>
+      <c r="C62" s="439"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="419"/>
+      <c r="E62" s="447"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9393,10 +9407,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="446"/>
-      <c r="C63" s="455"/>
+      <c r="B63" s="429"/>
+      <c r="C63" s="439"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="419"/>
+      <c r="E63" s="447"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9417,10 +9431,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="446"/>
-      <c r="C64" s="455"/>
+      <c r="B64" s="429"/>
+      <c r="C64" s="439"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="419"/>
+      <c r="E64" s="447"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9441,10 +9455,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="446"/>
-      <c r="C65" s="455"/>
+      <c r="B65" s="429"/>
+      <c r="C65" s="439"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="419"/>
+      <c r="E65" s="447"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9465,10 +9479,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="446"/>
-      <c r="C66" s="455"/>
+      <c r="B66" s="429"/>
+      <c r="C66" s="439"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="419"/>
+      <c r="E66" s="447"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9489,10 +9503,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="446"/>
-      <c r="C67" s="455"/>
+      <c r="B67" s="429"/>
+      <c r="C67" s="439"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="419"/>
+      <c r="E67" s="447"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9513,10 +9527,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="446"/>
-      <c r="C68" s="455"/>
+      <c r="B68" s="429"/>
+      <c r="C68" s="439"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="419"/>
+      <c r="E68" s="447"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9537,10 +9551,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="446"/>
-      <c r="C69" s="455"/>
+      <c r="B69" s="429"/>
+      <c r="C69" s="439"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="419"/>
+      <c r="E69" s="447"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9561,10 +9575,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="446"/>
-      <c r="C70" s="455"/>
+      <c r="B70" s="429"/>
+      <c r="C70" s="439"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="419"/>
+      <c r="E70" s="447"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9585,10 +9599,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="446"/>
-      <c r="C71" s="455"/>
+      <c r="B71" s="429"/>
+      <c r="C71" s="439"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="419"/>
+      <c r="E71" s="447"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9609,10 +9623,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="446"/>
-      <c r="C72" s="455"/>
+      <c r="B72" s="429"/>
+      <c r="C72" s="439"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="419"/>
+      <c r="E72" s="447"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9633,10 +9647,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="446"/>
-      <c r="C73" s="455"/>
+      <c r="B73" s="429"/>
+      <c r="C73" s="439"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="419"/>
+      <c r="E73" s="447"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9657,10 +9671,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="446"/>
-      <c r="C74" s="460"/>
+      <c r="B74" s="429"/>
+      <c r="C74" s="444"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="419"/>
+      <c r="E74" s="447"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9681,10 +9695,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="446"/>
+      <c r="B75" s="429"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="419"/>
+      <c r="E75" s="447"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9705,10 +9719,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="446"/>
+      <c r="B76" s="429"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="419"/>
+      <c r="E76" s="447"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9729,10 +9743,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="446"/>
+      <c r="B77" s="429"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="419"/>
+      <c r="E77" s="447"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9753,10 +9767,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="446"/>
+      <c r="B78" s="429"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="419"/>
+      <c r="E78" s="447"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9777,10 +9791,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="446"/>
+      <c r="B79" s="429"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="419"/>
+      <c r="E79" s="447"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9801,10 +9815,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="446"/>
+      <c r="B80" s="429"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="419"/>
+      <c r="E80" s="447"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9825,10 +9839,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="446"/>
+      <c r="B81" s="429"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="419"/>
+      <c r="E81" s="447"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9849,10 +9863,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="446"/>
+      <c r="B82" s="429"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="419"/>
+      <c r="E82" s="447"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9873,10 +9887,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="446"/>
+      <c r="B83" s="429"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="419"/>
+      <c r="E83" s="447"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9897,10 +9911,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="446"/>
+      <c r="B84" s="429"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="419"/>
+      <c r="E84" s="447"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -9921,10 +9935,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="446"/>
+      <c r="B85" s="429"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="419"/>
+      <c r="E85" s="447"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -9945,10 +9959,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="446"/>
+      <c r="B86" s="429"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="420"/>
+      <c r="E86" s="448"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -9969,10 +9983,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="446"/>
+      <c r="B87" s="429"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="419" t="s">
+      <c r="E87" s="447" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -9995,10 +10009,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="446"/>
+      <c r="B88" s="429"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="419"/>
+      <c r="E88" s="447"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10019,10 +10033,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="446"/>
+      <c r="B89" s="429"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="419"/>
+      <c r="E89" s="447"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10043,10 +10057,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="446"/>
+      <c r="B90" s="429"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="419"/>
+      <c r="E90" s="447"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10067,7 +10081,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="446"/>
+      <c r="B91" s="429"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10085,7 +10099,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="447"/>
+      <c r="B92" s="430"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10103,14 +10117,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="435" t="s">
+      <c r="B93" s="418" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="437" t="s">
+      <c r="C93" s="420" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="439" t="s">
+      <c r="E93" s="422" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10131,10 +10145,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="436"/>
-      <c r="C94" s="438"/>
+      <c r="B94" s="419"/>
+      <c r="C94" s="421"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="440"/>
+      <c r="E94" s="423"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10151,10 +10165,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="436"/>
-      <c r="C95" s="438"/>
+      <c r="B95" s="419"/>
+      <c r="C95" s="421"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="440"/>
+      <c r="E95" s="423"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10171,10 +10185,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="436"/>
-      <c r="C96" s="438"/>
+      <c r="B96" s="419"/>
+      <c r="C96" s="421"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="441"/>
+      <c r="E96" s="424"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10191,8 +10205,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="436"/>
-      <c r="C97" s="438"/>
+      <c r="B97" s="419"/>
+      <c r="C97" s="421"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10209,8 +10223,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="436"/>
-      <c r="C98" s="438"/>
+      <c r="B98" s="419"/>
+      <c r="C98" s="421"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10227,8 +10241,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="436"/>
-      <c r="C99" s="438"/>
+      <c r="B99" s="419"/>
+      <c r="C99" s="421"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10245,7 +10259,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="436"/>
+      <c r="B100" s="419"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10263,7 +10277,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="436"/>
+      <c r="B101" s="419"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10281,7 +10295,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="436"/>
+      <c r="B102" s="419"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10299,7 +10313,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="436"/>
+      <c r="B103" s="419"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10317,7 +10331,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="436"/>
+      <c r="B104" s="419"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10336,7 +10350,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="442" t="s">
+      <c r="C105" s="425" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10356,7 +10370,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="443"/>
+      <c r="C106" s="426"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10374,7 +10388,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="443"/>
+      <c r="C107" s="426"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10392,7 +10406,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="443"/>
+      <c r="C108" s="426"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10410,7 +10424,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="443"/>
+      <c r="C109" s="426"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10428,7 +10442,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="443"/>
+      <c r="C110" s="426"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10446,7 +10460,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="443"/>
+      <c r="C111" s="426"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10464,7 +10478,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="443"/>
+      <c r="C112" s="426"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10482,7 +10496,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="443"/>
+      <c r="C113" s="426"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10500,7 +10514,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="443"/>
+      <c r="C114" s="426"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10518,7 +10532,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="443"/>
+      <c r="C115" s="426"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10536,7 +10550,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="444"/>
+      <c r="C116" s="427"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -10586,10 +10600,10 @@
     <row r="121" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M121" s="229"/>
     </row>
-    <row r="122" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M122" s="229"/>
     </row>
-    <row r="123" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M123" s="229"/>
     </row>
     <row r="124" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10921,6 +10935,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -10937,21 +10966,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63">
@@ -11918,10 +11932,10 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5546875" style="331" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="310" customWidth="1"/>
@@ -12053,7 +12067,7 @@
       <c r="G11" s="351"/>
       <c r="H11" s="370"/>
     </row>
-    <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="474"/>
       <c r="C12" s="322"/>
       <c r="D12" s="481"/>
@@ -12062,7 +12076,7 @@
       <c r="G12" s="351"/>
       <c r="H12" s="370"/>
     </row>
-    <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="474"/>
       <c r="C13" s="322"/>
       <c r="D13" s="482" t="s">
@@ -12073,34 +12087,34 @@
       <c r="G13" s="351"/>
       <c r="H13" s="370"/>
     </row>
-    <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="474"/>
       <c r="C14" s="330"/>
-      <c r="D14" s="440"/>
+      <c r="D14" s="423"/>
       <c r="E14" s="315"/>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
       <c r="H14" s="370"/>
     </row>
-    <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="474"/>
       <c r="C15" s="330"/>
-      <c r="D15" s="440"/>
+      <c r="D15" s="423"/>
       <c r="E15" s="315"/>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
       <c r="H15" s="370"/>
     </row>
-    <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="474"/>
       <c r="C16" s="322"/>
-      <c r="D16" s="441"/>
+      <c r="D16" s="424"/>
       <c r="E16" s="315"/>
       <c r="F16" s="356"/>
       <c r="G16" s="351"/>
       <c r="H16" s="370"/>
     </row>
-    <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="474"/>
       <c r="C17" s="322"/>
       <c r="D17" s="482" t="s">
@@ -12111,34 +12125,34 @@
       <c r="G17" s="351"/>
       <c r="H17" s="370"/>
     </row>
-    <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="474"/>
       <c r="C18" s="322"/>
-      <c r="D18" s="440"/>
+      <c r="D18" s="423"/>
       <c r="E18" s="315"/>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="370"/>
     </row>
-    <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="474"/>
       <c r="C19" s="330"/>
-      <c r="D19" s="440"/>
+      <c r="D19" s="423"/>
       <c r="E19" s="315"/>
       <c r="F19" s="356"/>
       <c r="G19" s="351"/>
       <c r="H19" s="370"/>
     </row>
-    <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="474"/>
       <c r="C20" s="330"/>
-      <c r="D20" s="440"/>
+      <c r="D20" s="423"/>
       <c r="E20" s="315"/>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
       <c r="H20" s="370"/>
     </row>
-    <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="474"/>
       <c r="C21" s="330"/>
       <c r="D21" s="482" t="s">
@@ -12149,34 +12163,34 @@
       <c r="G21" s="351"/>
       <c r="H21" s="370"/>
     </row>
-    <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="474"/>
       <c r="C22" s="322"/>
-      <c r="D22" s="440"/>
+      <c r="D22" s="423"/>
       <c r="E22" s="315"/>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="370"/>
     </row>
-    <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="474"/>
       <c r="C23" s="322"/>
-      <c r="D23" s="440"/>
+      <c r="D23" s="423"/>
       <c r="E23" s="315"/>
       <c r="F23" s="315"/>
       <c r="G23" s="351"/>
       <c r="H23" s="370"/>
     </row>
-    <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="474"/>
       <c r="C24" s="359"/>
-      <c r="D24" s="440"/>
+      <c r="D24" s="423"/>
       <c r="E24" s="315"/>
       <c r="F24" s="315"/>
       <c r="G24" s="351"/>
       <c r="H24" s="370"/>
     </row>
-    <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="474"/>
       <c r="C25" s="359"/>
       <c r="D25" s="482" t="s">
@@ -12187,34 +12201,34 @@
       <c r="G25" s="351"/>
       <c r="H25" s="370"/>
     </row>
-    <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="474"/>
       <c r="C26" s="359"/>
-      <c r="D26" s="440"/>
+      <c r="D26" s="423"/>
       <c r="E26" s="315"/>
       <c r="F26" s="315"/>
       <c r="G26" s="351"/>
       <c r="H26" s="370"/>
     </row>
-    <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="474"/>
       <c r="C27" s="359"/>
-      <c r="D27" s="440"/>
+      <c r="D27" s="423"/>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
       <c r="H27" s="370"/>
     </row>
-    <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="474"/>
       <c r="C28" s="359"/>
-      <c r="D28" s="440"/>
+      <c r="D28" s="423"/>
       <c r="E28" s="315"/>
       <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="370"/>
     </row>
-    <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="474"/>
       <c r="C29" s="359"/>
       <c r="D29" s="482" t="s">
@@ -12225,10 +12239,10 @@
       <c r="G29" s="351"/>
       <c r="H29" s="370"/>
     </row>
-    <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="474"/>
       <c r="C30" s="359"/>
-      <c r="D30" s="440"/>
+      <c r="D30" s="423"/>
       <c r="E30" s="315"/>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
@@ -12237,7 +12251,7 @@
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="474"/>
       <c r="C31" s="359"/>
-      <c r="D31" s="440"/>
+      <c r="D31" s="423"/>
       <c r="E31" s="315"/>
       <c r="F31" s="315"/>
       <c r="G31" s="351"/>
@@ -12246,7 +12260,7 @@
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="474"/>
       <c r="C32" s="359"/>
-      <c r="D32" s="440"/>
+      <c r="D32" s="423"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
       <c r="G32" s="351"/>
@@ -12266,7 +12280,7 @@
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="474"/>
       <c r="C34" s="359"/>
-      <c r="D34" s="440"/>
+      <c r="D34" s="423"/>
       <c r="E34" s="315"/>
       <c r="F34" s="315"/>
       <c r="G34" s="351"/>
@@ -12275,7 +12289,7 @@
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="474"/>
       <c r="C35" s="359"/>
-      <c r="D35" s="440"/>
+      <c r="D35" s="423"/>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
       <c r="G35" s="351"/>
@@ -12284,7 +12298,7 @@
     <row r="36" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="474"/>
       <c r="C36" s="355"/>
-      <c r="D36" s="440"/>
+      <c r="D36" s="423"/>
       <c r="E36" s="355"/>
       <c r="F36" s="355"/>
       <c r="G36" s="360"/>
@@ -12293,7 +12307,7 @@
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="474"/>
       <c r="C37" s="359"/>
-      <c r="D37" s="482" t="s">
+      <c r="D37" s="546" t="s">
         <v>344</v>
       </c>
       <c r="E37" s="315"/>
@@ -12304,7 +12318,7 @@
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="474"/>
       <c r="C38" s="359"/>
-      <c r="D38" s="440"/>
+      <c r="D38" s="548"/>
       <c r="E38" s="315"/>
       <c r="F38" s="315"/>
       <c r="G38" s="351"/>
@@ -12313,7 +12327,7 @@
     <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="474"/>
       <c r="C39" s="359"/>
-      <c r="D39" s="440"/>
+      <c r="D39" s="548"/>
       <c r="E39" s="315"/>
       <c r="F39" s="315"/>
       <c r="G39" s="351"/>
@@ -12322,7 +12336,7 @@
     <row r="40" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="474"/>
       <c r="C40" s="355"/>
-      <c r="D40" s="440"/>
+      <c r="D40" s="548"/>
       <c r="E40" s="355"/>
       <c r="F40" s="355"/>
       <c r="G40" s="360"/>
@@ -12331,8 +12345,8 @@
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="474"/>
       <c r="C41" s="359"/>
-      <c r="D41" s="482" t="s">
-        <v>343</v>
+      <c r="D41" s="546" t="s">
+        <v>352</v>
       </c>
       <c r="E41" s="315"/>
       <c r="F41" s="315"/>
@@ -12342,7 +12356,7 @@
     <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="474"/>
       <c r="C42" s="359"/>
-      <c r="D42" s="440"/>
+      <c r="D42" s="548"/>
       <c r="E42" s="315"/>
       <c r="F42" s="315"/>
       <c r="G42" s="351"/>
@@ -12351,7 +12365,7 @@
     <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="474"/>
       <c r="C43" s="359"/>
-      <c r="D43" s="440"/>
+      <c r="D43" s="548"/>
       <c r="E43" s="315"/>
       <c r="F43" s="315"/>
       <c r="G43" s="351"/>
@@ -12360,7 +12374,7 @@
     <row r="44" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="474"/>
       <c r="C44" s="355"/>
-      <c r="D44" s="440"/>
+      <c r="D44" s="548"/>
       <c r="E44" s="355"/>
       <c r="F44" s="355"/>
       <c r="G44" s="360"/>
@@ -12369,7 +12383,9 @@
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="474"/>
       <c r="C45" s="359"/>
-      <c r="D45" s="359"/>
+      <c r="D45" s="546" t="s">
+        <v>353</v>
+      </c>
       <c r="E45" s="315"/>
       <c r="F45" s="315"/>
       <c r="G45" s="351"/>
@@ -12378,7 +12394,7 @@
     <row r="46" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="474"/>
       <c r="C46" s="359"/>
-      <c r="D46" s="359"/>
+      <c r="D46" s="548"/>
       <c r="E46" s="315"/>
       <c r="F46" s="315"/>
       <c r="G46" s="351"/>
@@ -12387,7 +12403,7 @@
     <row r="47" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="474"/>
       <c r="C47" s="355"/>
-      <c r="D47" s="355"/>
+      <c r="D47" s="548"/>
       <c r="E47" s="355"/>
       <c r="F47" s="355"/>
       <c r="G47" s="360"/>
@@ -12396,7 +12412,7 @@
     <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="474"/>
       <c r="C48" s="359"/>
-      <c r="D48" s="359"/>
+      <c r="D48" s="548"/>
       <c r="E48" s="315"/>
       <c r="F48" s="315"/>
       <c r="G48" s="351"/>
@@ -12405,7 +12421,9 @@
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="474"/>
       <c r="C49" s="359"/>
-      <c r="D49" s="359"/>
+      <c r="D49" s="546" t="s">
+        <v>343</v>
+      </c>
       <c r="E49" s="315"/>
       <c r="F49" s="315"/>
       <c r="G49" s="351"/>
@@ -12414,7 +12432,7 @@
     <row r="50" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="474"/>
       <c r="C50" s="355"/>
-      <c r="D50" s="355"/>
+      <c r="D50" s="548"/>
       <c r="E50" s="355"/>
       <c r="F50" s="355"/>
       <c r="G50" s="360"/>
@@ -12423,7 +12441,7 @@
     <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="474"/>
       <c r="C51" s="359"/>
-      <c r="D51" s="359"/>
+      <c r="D51" s="548"/>
       <c r="E51" s="315"/>
       <c r="F51" s="315"/>
       <c r="G51" s="351"/>
@@ -12432,7 +12450,7 @@
     <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="474"/>
       <c r="C52" s="359"/>
-      <c r="D52" s="359"/>
+      <c r="D52" s="548"/>
       <c r="E52" s="315"/>
       <c r="F52" s="315"/>
       <c r="G52" s="351"/>
@@ -12441,7 +12459,7 @@
     <row r="53" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="474"/>
       <c r="C53" s="355"/>
-      <c r="D53" s="355"/>
+      <c r="D53" s="547"/>
       <c r="E53" s="355"/>
       <c r="F53" s="355"/>
       <c r="G53" s="360"/>
@@ -14450,7 +14468,13 @@
       <c r="H277" s="358"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D45:D48"/>
     <mergeCell ref="B4:B79"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:D12"/>
@@ -14458,10 +14482,6 @@
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14517,10 +14537,10 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="402" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="486"/>
@@ -14528,12 +14548,12 @@
       <c r="J3" s="488"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="401"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -14541,10 +14561,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="402" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="377" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -14564,8 +14584,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="405"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -14583,8 +14603,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="392"/>
-      <c r="C7" s="395"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="379"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -14604,8 +14624,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="392"/>
-      <c r="C8" s="395"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="379"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -14623,8 +14643,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="392"/>
-      <c r="C9" s="395"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="379"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -14642,8 +14662,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="392"/>
-      <c r="C10" s="395"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="379"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -14661,8 +14681,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="392"/>
-      <c r="C11" s="395"/>
+      <c r="B11" s="404"/>
+      <c r="C11" s="379"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -14680,8 +14700,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="392"/>
-      <c r="C12" s="395"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="379"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -14699,8 +14719,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="392"/>
-      <c r="C13" s="395"/>
+      <c r="B13" s="404"/>
+      <c r="C13" s="379"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -14718,8 +14738,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="392"/>
-      <c r="C14" s="395"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="379"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -14737,8 +14757,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="392"/>
-      <c r="C15" s="395"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="379"/>
       <c r="D15" s="490" t="s">
         <v>50</v>
       </c>
@@ -14756,8 +14776,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="392"/>
-      <c r="C16" s="396"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="380"/>
       <c r="D16" s="491"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -14767,8 +14787,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="392"/>
-      <c r="C17" s="399" t="s">
+      <c r="B17" s="404"/>
+      <c r="C17" s="408" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -14788,8 +14808,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="392"/>
-      <c r="C18" s="392"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="404"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -14807,8 +14827,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="392"/>
-      <c r="C19" s="392"/>
+      <c r="B19" s="404"/>
+      <c r="C19" s="404"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -14826,8 +14846,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="392"/>
-      <c r="C20" s="392"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="404"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -14845,8 +14865,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="392"/>
-      <c r="C21" s="392"/>
+      <c r="B21" s="404"/>
+      <c r="C21" s="404"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -14864,8 +14884,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="392"/>
-      <c r="C22" s="392"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="404"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -14940,11 +14960,11 @@
       <c r="D30" s="27"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
     </row>
@@ -15594,17 +15614,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -15622,16 +15642,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="402" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -15640,83 +15660,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="401"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="402" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -15767,9 +15787,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -15796,9 +15816,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="391"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="403"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -15839,9 +15859,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="391"/>
-      <c r="C8" s="395"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="379"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -15866,9 +15886,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="392"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="404"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -15913,9 +15933,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="392"/>
-      <c r="C10" s="395"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -15940,9 +15960,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="392"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="404"/>
+      <c r="C11" s="379"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -15983,9 +16003,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="392"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16012,9 +16032,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="392"/>
-      <c r="C13" s="395"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="404"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16047,9 +16067,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="392"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16076,9 +16096,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="392"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="404"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16115,9 +16135,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="392"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16144,9 +16164,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="392"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="404"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16189,9 +16209,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="392"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16218,9 +16238,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="392"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="404"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16257,9 +16277,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="392"/>
-      <c r="C20" s="395"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16286,9 +16306,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="392"/>
-      <c r="C21" s="395"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="404"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16321,9 +16341,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="392"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16350,8 +16370,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="392"/>
-      <c r="C23" s="395"/>
+      <c r="B23" s="404"/>
+      <c r="C23" s="379"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16391,8 +16411,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="392"/>
-      <c r="C24" s="395"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="379"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16418,8 +16438,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="392"/>
-      <c r="C25" s="395"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="379"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -16457,9 +16477,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="392"/>
-      <c r="C26" s="396"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16486,11 +16506,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="392"/>
-      <c r="C27" s="399" t="s">
+      <c r="B27" s="404"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16527,9 +16547,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="392"/>
-      <c r="C28" s="391"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="404"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16556,9 +16576,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="392"/>
-      <c r="C29" s="392"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="404"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -16595,9 +16615,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="392"/>
-      <c r="C30" s="392"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -16624,9 +16644,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="392"/>
-      <c r="C31" s="392"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="404"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -16663,9 +16683,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="392"/>
-      <c r="C32" s="392"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="404"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -16692,9 +16712,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="404"/>
+      <c r="C33" s="404"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -16731,9 +16751,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="392"/>
-      <c r="C34" s="392"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -16760,9 +16780,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="392"/>
-      <c r="C35" s="392"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="404"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -16799,9 +16819,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="392"/>
-      <c r="C36" s="392"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="404"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -16828,9 +16848,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="392"/>
-      <c r="C37" s="392"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="404"/>
+      <c r="C37" s="404"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -16867,9 +16887,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="392"/>
-      <c r="C38" s="392"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="404"/>
+      <c r="C38" s="404"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -16896,9 +16916,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="392"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="404"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -16929,9 +16949,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="392"/>
-      <c r="C40" s="392"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="404"/>
+      <c r="C40" s="404"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -16958,9 +16978,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="392"/>
-      <c r="C41" s="392"/>
-      <c r="D41" s="503" t="s">
+      <c r="B41" s="404"/>
+      <c r="C41" s="404"/>
+      <c r="D41" s="528" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -16993,9 +17013,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="392"/>
-      <c r="C42" s="392"/>
-      <c r="D42" s="504"/>
+      <c r="B42" s="404"/>
+      <c r="C42" s="404"/>
+      <c r="D42" s="529"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -17022,13 +17042,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="393" t="s">
+      <c r="B43" s="377" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="410" t="s">
+      <c r="C43" s="381" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="414" t="s">
+      <c r="D43" s="385" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -17063,9 +17083,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="409"/>
-      <c r="C44" s="411"/>
-      <c r="D44" s="415"/>
+      <c r="B44" s="378"/>
+      <c r="C44" s="382"/>
+      <c r="D44" s="386"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -17081,9 +17101,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="395"/>
-      <c r="C45" s="412"/>
-      <c r="D45" s="415"/>
+      <c r="B45" s="379"/>
+      <c r="C45" s="383"/>
+      <c r="D45" s="386"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -17099,9 +17119,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="395"/>
-      <c r="C46" s="412"/>
-      <c r="D46" s="416" t="s">
+      <c r="B46" s="379"/>
+      <c r="C46" s="383"/>
+      <c r="D46" s="387" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -17116,18 +17136,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="395"/>
-      <c r="C47" s="412"/>
-      <c r="D47" s="416"/>
+      <c r="B47" s="379"/>
+      <c r="C47" s="383"/>
+      <c r="D47" s="387"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="395"/>
-      <c r="C48" s="412"/>
-      <c r="D48" s="416" t="s">
+      <c r="B48" s="379"/>
+      <c r="C48" s="383"/>
+      <c r="D48" s="387" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -17142,18 +17162,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="395"/>
-      <c r="C49" s="412"/>
-      <c r="D49" s="416"/>
+      <c r="B49" s="379"/>
+      <c r="C49" s="383"/>
+      <c r="D49" s="387"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="395"/>
-      <c r="C50" s="412"/>
-      <c r="D50" s="416" t="s">
+      <c r="B50" s="379"/>
+      <c r="C50" s="383"/>
+      <c r="D50" s="387" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -17168,9 +17188,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="396"/>
-      <c r="C51" s="413"/>
-      <c r="D51" s="417"/>
+      <c r="B51" s="380"/>
+      <c r="C51" s="384"/>
+      <c r="D51" s="388"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -17481,12 +17501,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X3:Z4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:B4"/>
@@ -17503,34 +17545,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X3:Z4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17587,17 +17607,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -17615,16 +17635,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="402" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -17633,83 +17653,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="401"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="402" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -17760,9 +17780,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -17789,9 +17809,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="391"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="403"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -17832,9 +17852,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="391"/>
-      <c r="C8" s="395"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="379"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -17859,9 +17879,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="392"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="404"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -17906,9 +17926,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="392"/>
-      <c r="C10" s="395"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -17933,9 +17953,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="392"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="404"/>
+      <c r="C11" s="379"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -17976,9 +17996,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="392"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18005,9 +18025,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="392"/>
-      <c r="C13" s="395"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="404"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18040,9 +18060,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="392"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18069,9 +18089,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="392"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="404"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18108,9 +18128,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="392"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18137,9 +18157,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="392"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="404"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18182,9 +18202,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="392"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18211,9 +18231,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="392"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="404"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18250,9 +18270,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="392"/>
-      <c r="C20" s="395"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18279,9 +18299,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="392"/>
-      <c r="C21" s="395"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="404"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -18316,9 +18336,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="392"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18345,8 +18365,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="392"/>
-      <c r="C23" s="395"/>
+      <c r="B23" s="404"/>
+      <c r="C23" s="379"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -18386,8 +18406,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="392"/>
-      <c r="C24" s="395"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="379"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18413,8 +18433,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="392"/>
-      <c r="C25" s="395"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="379"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -18452,9 +18472,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="392"/>
-      <c r="C26" s="396"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18481,11 +18501,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="392"/>
-      <c r="C27" s="399" t="s">
+      <c r="B27" s="404"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18522,9 +18542,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="392"/>
-      <c r="C28" s="391"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="404"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18551,9 +18571,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="392"/>
-      <c r="C29" s="392"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="404"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18590,9 +18610,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="392"/>
-      <c r="C30" s="392"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -18619,9 +18639,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="392"/>
-      <c r="C31" s="392"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="404"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -18658,9 +18678,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="392"/>
-      <c r="C32" s="392"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="404"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -18687,9 +18707,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="404"/>
+      <c r="C33" s="404"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -18726,9 +18746,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="392"/>
-      <c r="C34" s="392"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -18755,9 +18775,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="392"/>
-      <c r="C35" s="392"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="404"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -18794,9 +18814,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="392"/>
-      <c r="C36" s="392"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="404"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -18823,9 +18843,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="392"/>
-      <c r="C37" s="392"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="404"/>
+      <c r="C37" s="404"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -18862,9 +18882,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="392"/>
-      <c r="C38" s="392"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="404"/>
+      <c r="C38" s="404"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -18891,9 +18911,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="392"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="404"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -18924,9 +18944,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="392"/>
-      <c r="C40" s="392"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="404"/>
+      <c r="C40" s="404"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -18953,8 +18973,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="392"/>
-      <c r="C41" s="392"/>
+      <c r="B41" s="404"/>
+      <c r="C41" s="404"/>
       <c r="D41" s="490" t="s">
         <v>25</v>
       </c>
@@ -19130,7 +19150,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="20"/>
@@ -19353,24 +19373,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -19387,16 +19399,24 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -19484,16 +19504,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="402" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="402" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="402" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -19505,34 +19525,34 @@
       <c r="L3" s="493" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="544" t="s">
+      <c r="V3" s="532" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="540" t="s">
@@ -19550,51 +19570,51 @@
       <c r="AA3" s="538" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="542" t="s">
+      <c r="AB3" s="530" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="506"/>
-      <c r="AD3" s="507"/>
+      <c r="AC3" s="504"/>
+      <c r="AD3" s="505"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="401"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="525"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="545"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="533"/>
       <c r="W4" s="541"/>
       <c r="X4" s="537"/>
       <c r="Y4" s="537"/>
       <c r="Z4" s="537"/>
       <c r="AA4" s="539"/>
-      <c r="AB4" s="543"/>
-      <c r="AC4" s="508"/>
-      <c r="AD4" s="509"/>
+      <c r="AB4" s="531"/>
+      <c r="AC4" s="506"/>
+      <c r="AD4" s="507"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="390" t="s">
+      <c r="B5" s="402" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -19649,9 +19669,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="391"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="403"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -19682,9 +19702,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="391"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="403"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -19725,9 +19745,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="391"/>
-      <c r="C8" s="395"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="379"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -19756,9 +19776,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="392"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="533" t="s">
+      <c r="B9" s="404"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="534" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -19809,9 +19829,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="392"/>
-      <c r="C10" s="395"/>
-      <c r="D10" s="534"/>
+      <c r="B10" s="404"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="535"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -19840,9 +19860,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="392"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="533" t="s">
+      <c r="B11" s="404"/>
+      <c r="C11" s="379"/>
+      <c r="D11" s="534" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -19889,9 +19909,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="392"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="534"/>
+      <c r="B12" s="404"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="535"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -19922,9 +19942,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="392"/>
-      <c r="C13" s="395"/>
-      <c r="D13" s="495" t="s">
+      <c r="B13" s="404"/>
+      <c r="C13" s="379"/>
+      <c r="D13" s="511" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -19961,9 +19981,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="392"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="496"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="512"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -19994,9 +20014,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="392"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="533" t="s">
+      <c r="B15" s="404"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="534" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -20037,9 +20057,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="392"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="534"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="535"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -20070,9 +20090,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="392"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="533" t="s">
+      <c r="B17" s="404"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="534" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -20121,9 +20141,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="392"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="534"/>
+      <c r="B18" s="404"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="535"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -20154,9 +20174,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="392"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="404"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -20195,9 +20215,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="392"/>
-      <c r="C20" s="395"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="404"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -20228,8 +20248,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="392"/>
-      <c r="C21" s="395"/>
+      <c r="B21" s="404"/>
+      <c r="C21" s="379"/>
       <c r="D21" s="490" t="s">
         <v>32</v>
       </c>
@@ -20271,9 +20291,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="392"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="532"/>
+      <c r="B22" s="404"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="544"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -20304,8 +20324,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="392"/>
-      <c r="C23" s="395"/>
+      <c r="B23" s="404"/>
+      <c r="C23" s="379"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -20347,8 +20367,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="392"/>
-      <c r="C24" s="395"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="379"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -20378,8 +20398,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="392"/>
-      <c r="C25" s="395"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="379"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -20419,9 +20439,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="392"/>
-      <c r="C26" s="396"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -20452,11 +20472,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="392"/>
-      <c r="C27" s="399" t="s">
+      <c r="B27" s="404"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -20497,9 +20517,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="392"/>
-      <c r="C28" s="391"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="404"/>
+      <c r="C28" s="403"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -20530,9 +20550,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="392"/>
-      <c r="C29" s="392"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="404"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -20571,9 +20591,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="392"/>
-      <c r="C30" s="392"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -20604,9 +20624,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="392"/>
-      <c r="C31" s="392"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="404"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -20645,9 +20665,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="392"/>
-      <c r="C32" s="392"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="404"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -20678,9 +20698,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="392"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="404"/>
+      <c r="C33" s="404"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -20719,9 +20739,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="392"/>
-      <c r="C34" s="392"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -20752,9 +20772,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="392"/>
-      <c r="C35" s="392"/>
-      <c r="D35" s="533" t="s">
+      <c r="B35" s="404"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="534" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -20795,9 +20815,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="392"/>
-      <c r="C36" s="392"/>
-      <c r="D36" s="534"/>
+      <c r="B36" s="404"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="535"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -20828,9 +20848,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="392"/>
-      <c r="C37" s="392"/>
-      <c r="D37" s="533" t="s">
+      <c r="B37" s="404"/>
+      <c r="C37" s="404"/>
+      <c r="D37" s="534" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -20869,9 +20889,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="392"/>
-      <c r="C38" s="392"/>
-      <c r="D38" s="534"/>
+      <c r="B38" s="404"/>
+      <c r="C38" s="404"/>
+      <c r="D38" s="535"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -20902,9 +20922,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="392"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="495" t="s">
+      <c r="B39" s="404"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="511" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -20939,9 +20959,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="392"/>
-      <c r="C40" s="392"/>
-      <c r="D40" s="535"/>
+      <c r="B40" s="404"/>
+      <c r="C40" s="404"/>
+      <c r="D40" s="545"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -20972,9 +20992,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="392"/>
-      <c r="C41" s="392"/>
-      <c r="D41" s="530" t="s">
+      <c r="B41" s="404"/>
+      <c r="C41" s="404"/>
+      <c r="D41" s="542" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -21015,7 +21035,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="489"/>
       <c r="C42" s="489"/>
-      <c r="D42" s="531"/>
+      <c r="D42" s="543"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -21378,6 +21398,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -21394,39 +21447,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -1800,9 +1800,6 @@
     <t>Editar Entidad</t>
   </si>
   <si>
-    <t>Épicas</t>
-  </si>
-  <si>
     <t>Gestionar Entidad</t>
   </si>
   <si>
@@ -1868,6 +1865,9 @@
   <si>
     <t>Gestionar 
 Configuración</t>
+  </si>
+  <si>
+    <t>Módulos</t>
   </si>
 </sst>
 </file>
@@ -4926,18 +4926,106 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4962,91 +5050,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5106,9 +5158,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5136,54 +5185,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5214,6 +5215,15 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5241,9 +5251,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5280,6 +5287,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5304,86 +5392,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5395,49 +5438,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5488,7 +5488,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,62 +5849,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="391" t="s">
+      <c r="B2" s="380" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="393"/>
-      <c r="N2" s="394"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="382"/>
+      <c r="N2" s="383"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="409" t="s">
+      <c r="B3" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="411" t="s">
+      <c r="D3" s="403" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="413" t="s">
+      <c r="E3" s="405" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="403" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="416" t="s">
+      <c r="G3" s="408" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="400" t="s">
+      <c r="H3" s="389" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="395" t="s">
+      <c r="M3" s="384" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="389" t="s">
+      <c r="N3" s="378" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="410"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="417"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="409"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -5918,14 +5918,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="396"/>
-      <c r="N4" s="390"/>
+      <c r="M4" s="385"/>
+      <c r="N4" s="379"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="394" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -5946,8 +5946,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="395"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -5963,8 +5963,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="404"/>
-      <c r="C7" s="379"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="396"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +5983,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="404"/>
-      <c r="C8" s="379"/>
+      <c r="B8" s="393"/>
+      <c r="C8" s="396"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6003,9 +6003,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="404"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="397" t="s">
+      <c r="B9" s="393"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="386" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6036,9 +6036,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="404"/>
-      <c r="C10" s="379"/>
-      <c r="D10" s="398"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="396"/>
+      <c r="D10" s="387"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6057,9 +6057,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="404"/>
-      <c r="C11" s="379"/>
-      <c r="D11" s="398"/>
+      <c r="B11" s="393"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="387"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6078,9 +6078,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="404"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="398"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="396"/>
+      <c r="D12" s="387"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6099,9 +6099,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="404"/>
-      <c r="C13" s="379"/>
-      <c r="D13" s="398"/>
+      <c r="B13" s="393"/>
+      <c r="C13" s="396"/>
+      <c r="D13" s="387"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6119,9 +6119,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="404"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="398"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="387"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6139,9 +6139,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="404"/>
-      <c r="C15" s="379"/>
-      <c r="D15" s="398"/>
+      <c r="B15" s="393"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="387"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6159,9 +6159,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="404"/>
-      <c r="C16" s="379"/>
-      <c r="D16" s="398"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="387"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6179,9 +6179,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="404"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="398"/>
+      <c r="B17" s="393"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="387"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6200,9 +6200,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="404"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="398"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="387"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6221,9 +6221,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="404"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="398"/>
+      <c r="B19" s="393"/>
+      <c r="C19" s="396"/>
+      <c r="D19" s="387"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6240,9 +6240,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="404"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="398"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="396"/>
+      <c r="D20" s="387"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6259,9 +6259,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="404"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="398"/>
+      <c r="B21" s="393"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="387"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6278,9 +6278,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="404"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="398"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="387"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6297,9 +6297,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="404"/>
-      <c r="C23" s="379"/>
-      <c r="D23" s="398"/>
+      <c r="B23" s="393"/>
+      <c r="C23" s="396"/>
+      <c r="D23" s="387"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6316,9 +6316,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="404"/>
-      <c r="C24" s="379"/>
-      <c r="D24" s="398"/>
+      <c r="B24" s="393"/>
+      <c r="C24" s="396"/>
+      <c r="D24" s="387"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6335,9 +6335,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="404"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="398"/>
+      <c r="B25" s="393"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="387"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6351,9 +6351,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="404"/>
-      <c r="C26" s="379"/>
-      <c r="D26" s="398"/>
+      <c r="B26" s="393"/>
+      <c r="C26" s="396"/>
+      <c r="D26" s="387"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6367,9 +6367,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="404"/>
-      <c r="C27" s="379"/>
-      <c r="D27" s="398"/>
+      <c r="B27" s="393"/>
+      <c r="C27" s="396"/>
+      <c r="D27" s="387"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6383,9 +6383,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="404"/>
-      <c r="C28" s="379"/>
-      <c r="D28" s="398"/>
+      <c r="B28" s="393"/>
+      <c r="C28" s="396"/>
+      <c r="D28" s="387"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6399,9 +6399,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="404"/>
-      <c r="C29" s="379"/>
-      <c r="D29" s="398"/>
+      <c r="B29" s="393"/>
+      <c r="C29" s="396"/>
+      <c r="D29" s="387"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6415,9 +6415,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="404"/>
-      <c r="C30" s="379"/>
-      <c r="D30" s="398"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="396"/>
+      <c r="D30" s="387"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6431,9 +6431,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="404"/>
-      <c r="C31" s="379"/>
-      <c r="D31" s="398"/>
+      <c r="B31" s="393"/>
+      <c r="C31" s="396"/>
+      <c r="D31" s="387"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6447,9 +6447,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="404"/>
-      <c r="C32" s="379"/>
-      <c r="D32" s="398"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="396"/>
+      <c r="D32" s="387"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6463,9 +6463,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="404"/>
-      <c r="C33" s="379"/>
-      <c r="D33" s="398"/>
+      <c r="B33" s="393"/>
+      <c r="C33" s="396"/>
+      <c r="D33" s="387"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6479,9 +6479,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="404"/>
-      <c r="C34" s="379"/>
-      <c r="D34" s="398"/>
+      <c r="B34" s="393"/>
+      <c r="C34" s="396"/>
+      <c r="D34" s="387"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6495,9 +6495,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="404"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="398"/>
+      <c r="B35" s="393"/>
+      <c r="C35" s="396"/>
+      <c r="D35" s="387"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6511,9 +6511,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="404"/>
-      <c r="C36" s="379"/>
-      <c r="D36" s="398"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="396"/>
+      <c r="D36" s="387"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6527,9 +6527,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="404"/>
-      <c r="C37" s="379"/>
-      <c r="D37" s="398"/>
+      <c r="B37" s="393"/>
+      <c r="C37" s="396"/>
+      <c r="D37" s="387"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6543,9 +6543,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="404"/>
-      <c r="C38" s="379"/>
-      <c r="D38" s="398"/>
+      <c r="B38" s="393"/>
+      <c r="C38" s="396"/>
+      <c r="D38" s="387"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6559,9 +6559,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="404"/>
-      <c r="C39" s="379"/>
-      <c r="D39" s="398"/>
+      <c r="B39" s="393"/>
+      <c r="C39" s="396"/>
+      <c r="D39" s="387"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6575,9 +6575,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="404"/>
-      <c r="C40" s="379"/>
-      <c r="D40" s="398"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="396"/>
+      <c r="D40" s="387"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6591,9 +6591,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="404"/>
-      <c r="C41" s="379"/>
-      <c r="D41" s="398"/>
+      <c r="B41" s="393"/>
+      <c r="C41" s="396"/>
+      <c r="D41" s="387"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6607,9 +6607,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="404"/>
-      <c r="C42" s="379"/>
-      <c r="D42" s="398"/>
+      <c r="B42" s="393"/>
+      <c r="C42" s="396"/>
+      <c r="D42" s="387"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6623,9 +6623,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="404"/>
-      <c r="C43" s="379"/>
-      <c r="D43" s="399"/>
+      <c r="B43" s="393"/>
+      <c r="C43" s="396"/>
+      <c r="D43" s="388"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6638,8 +6638,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="404"/>
-      <c r="C44" s="379"/>
+      <c r="B44" s="393"/>
+      <c r="C44" s="396"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6661,8 +6661,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="404"/>
-      <c r="C45" s="379"/>
+      <c r="B45" s="393"/>
+      <c r="C45" s="396"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6681,8 +6681,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="404"/>
-      <c r="C46" s="379"/>
+      <c r="B46" s="393"/>
+      <c r="C46" s="396"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6704,8 +6704,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="404"/>
-      <c r="C47" s="379"/>
+      <c r="B47" s="393"/>
+      <c r="C47" s="396"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6728,8 +6728,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="404"/>
-      <c r="C48" s="379"/>
+      <c r="B48" s="393"/>
+      <c r="C48" s="396"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6751,9 +6751,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="404"/>
-      <c r="C49" s="379"/>
-      <c r="D49" s="406" t="s">
+      <c r="B49" s="393"/>
+      <c r="C49" s="396"/>
+      <c r="D49" s="398" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6774,9 +6774,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="404"/>
-      <c r="C50" s="380"/>
-      <c r="D50" s="407"/>
+      <c r="B50" s="393"/>
+      <c r="C50" s="397"/>
+      <c r="D50" s="399"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6787,8 +6787,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="404"/>
-      <c r="C51" s="408" t="s">
+      <c r="B51" s="393"/>
+      <c r="C51" s="400" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6809,8 +6809,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="404"/>
-      <c r="C52" s="404"/>
+      <c r="B52" s="393"/>
+      <c r="C52" s="393"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6832,8 +6832,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="404"/>
-      <c r="C53" s="404"/>
+      <c r="B53" s="393"/>
+      <c r="C53" s="393"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6855,8 +6855,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="404"/>
-      <c r="C54" s="404"/>
+      <c r="B54" s="393"/>
+      <c r="C54" s="393"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6875,8 +6875,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="404"/>
-      <c r="C55" s="404"/>
+      <c r="B55" s="393"/>
+      <c r="C55" s="393"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6898,8 +6898,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="404"/>
-      <c r="C56" s="404"/>
+      <c r="B56" s="393"/>
+      <c r="C56" s="393"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -6921,8 +6921,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="404"/>
-      <c r="C57" s="404"/>
+      <c r="B57" s="393"/>
+      <c r="C57" s="393"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -6948,8 +6948,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="404"/>
-      <c r="C58" s="404"/>
+      <c r="B58" s="393"/>
+      <c r="C58" s="393"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -6963,13 +6963,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="377" t="s">
+      <c r="B59" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="381" t="s">
+      <c r="C59" s="411" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="385" t="s">
+      <c r="D59" s="415" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -6989,9 +6989,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="378"/>
-      <c r="C60" s="382"/>
-      <c r="D60" s="386"/>
+      <c r="B60" s="410"/>
+      <c r="C60" s="412"/>
+      <c r="D60" s="416"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7008,9 +7008,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="379"/>
-      <c r="C61" s="383"/>
-      <c r="D61" s="386"/>
+      <c r="B61" s="396"/>
+      <c r="C61" s="413"/>
+      <c r="D61" s="416"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7028,8 +7028,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="379"/>
-      <c r="C62" s="383"/>
+      <c r="B62" s="396"/>
+      <c r="C62" s="413"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7056,9 +7056,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="379"/>
-      <c r="C63" s="383"/>
-      <c r="D63" s="387" t="s">
+      <c r="B63" s="396"/>
+      <c r="C63" s="413"/>
+      <c r="D63" s="417" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7089,9 +7089,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="379"/>
-      <c r="C64" s="383"/>
-      <c r="D64" s="387"/>
+      <c r="B64" s="396"/>
+      <c r="C64" s="413"/>
+      <c r="D64" s="417"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7118,9 +7118,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="379"/>
-      <c r="C65" s="383"/>
-      <c r="D65" s="387"/>
+      <c r="B65" s="396"/>
+      <c r="C65" s="413"/>
+      <c r="D65" s="417"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7133,9 +7133,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="379"/>
-      <c r="C66" s="383"/>
-      <c r="D66" s="387" t="s">
+      <c r="B66" s="396"/>
+      <c r="C66" s="413"/>
+      <c r="D66" s="417" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7157,9 +7157,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="380"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="388"/>
+      <c r="B67" s="397"/>
+      <c r="C67" s="414"/>
+      <c r="D67" s="418"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7856,6 +7856,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7871,11 +7876,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7917,66 +7917,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="449" t="s">
+      <c r="B2" s="422" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
-      <c r="M2" s="450"/>
-      <c r="N2" s="450"/>
-      <c r="O2" s="450"/>
-      <c r="P2" s="451"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="424"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="425" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="454" t="s">
+      <c r="C3" s="427" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="454" t="s">
+      <c r="D3" s="427" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="457" t="s">
+      <c r="E3" s="430" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="454" t="s">
+      <c r="F3" s="427" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="454" t="s">
+      <c r="G3" s="427" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="427" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="454" t="s">
+      <c r="I3" s="427" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="459"/>
-      <c r="K3" s="459"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="454" t="s">
+      <c r="M3" s="427" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="454" t="s">
+      <c r="N3" s="427" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="454" t="s">
+      <c r="O3" s="427" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="461" t="s">
+      <c r="P3" s="434" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -7985,13 +7985,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="453"/>
-      <c r="C4" s="455"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="455"/>
-      <c r="H4" s="455"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8004,10 +8004,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="455"/>
-      <c r="N4" s="455"/>
-      <c r="O4" s="460"/>
-      <c r="P4" s="462"/>
+      <c r="M4" s="428"/>
+      <c r="N4" s="428"/>
+      <c r="O4" s="433"/>
+      <c r="P4" s="435"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8110,14 +8110,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="428" t="s">
+      <c r="B9" s="446" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="431" t="s">
+      <c r="C9" s="449" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="433" t="s">
+      <c r="E9" s="451" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8148,10 +8148,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="429"/>
-      <c r="C10" s="432"/>
+      <c r="B10" s="447"/>
+      <c r="C10" s="450"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="434"/>
+      <c r="E10" s="452"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8173,10 +8173,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="429"/>
-      <c r="C11" s="432"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="450"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="434"/>
+      <c r="E11" s="452"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8198,10 +8198,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="429"/>
-      <c r="C12" s="432"/>
+      <c r="B12" s="447"/>
+      <c r="C12" s="450"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="434"/>
+      <c r="E12" s="452"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8223,10 +8223,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="429"/>
-      <c r="C13" s="432"/>
+      <c r="B13" s="447"/>
+      <c r="C13" s="450"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="435" t="s">
+      <c r="E13" s="453" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8249,10 +8249,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="429"/>
-      <c r="C14" s="432"/>
+      <c r="B14" s="447"/>
+      <c r="C14" s="450"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="435"/>
+      <c r="E14" s="453"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8273,10 +8273,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="429"/>
-      <c r="C15" s="432"/>
+      <c r="B15" s="447"/>
+      <c r="C15" s="450"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="435"/>
+      <c r="E15" s="453"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8298,10 +8298,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="429"/>
-      <c r="C16" s="432"/>
+      <c r="B16" s="447"/>
+      <c r="C16" s="450"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="435"/>
+      <c r="E16" s="453"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8323,10 +8323,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="429"/>
-      <c r="C17" s="432"/>
+      <c r="B17" s="447"/>
+      <c r="C17" s="450"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="435"/>
+      <c r="E17" s="453"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8348,10 +8348,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="429"/>
-      <c r="C18" s="432"/>
+      <c r="B18" s="447"/>
+      <c r="C18" s="450"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="435"/>
+      <c r="E18" s="453"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8373,10 +8373,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="429"/>
-      <c r="C19" s="432"/>
+      <c r="B19" s="447"/>
+      <c r="C19" s="450"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="435"/>
+      <c r="E19" s="453"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8397,10 +8397,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="429"/>
-      <c r="C20" s="432"/>
+      <c r="B20" s="447"/>
+      <c r="C20" s="450"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="435"/>
+      <c r="E20" s="453"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8421,10 +8421,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="429"/>
-      <c r="C21" s="432"/>
+      <c r="B21" s="447"/>
+      <c r="C21" s="450"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="434" t="s">
+      <c r="E21" s="452" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8448,10 +8448,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="429"/>
-      <c r="C22" s="432"/>
+      <c r="B22" s="447"/>
+      <c r="C22" s="450"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="434"/>
+      <c r="E22" s="452"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8473,10 +8473,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="429"/>
-      <c r="C23" s="432"/>
+      <c r="B23" s="447"/>
+      <c r="C23" s="450"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="434"/>
+      <c r="E23" s="452"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8498,10 +8498,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="429"/>
-      <c r="C24" s="421"/>
+      <c r="B24" s="447"/>
+      <c r="C24" s="439"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="434"/>
+      <c r="E24" s="452"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8523,10 +8523,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="429"/>
-      <c r="C25" s="421"/>
+      <c r="B25" s="447"/>
+      <c r="C25" s="439"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="436" t="s">
+      <c r="E25" s="454" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8550,10 +8550,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="429"/>
-      <c r="C26" s="421"/>
+      <c r="B26" s="447"/>
+      <c r="C26" s="439"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="436"/>
+      <c r="E26" s="454"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8575,10 +8575,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="429"/>
-      <c r="C27" s="421"/>
+      <c r="B27" s="447"/>
+      <c r="C27" s="439"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="436"/>
+      <c r="E27" s="454"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8600,10 +8600,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="429"/>
-      <c r="C28" s="421"/>
+      <c r="B28" s="447"/>
+      <c r="C28" s="439"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="436"/>
+      <c r="E28" s="454"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8625,10 +8625,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="429"/>
-      <c r="C29" s="421"/>
+      <c r="B29" s="447"/>
+      <c r="C29" s="439"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="434" t="s">
+      <c r="E29" s="452" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8652,10 +8652,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="429"/>
-      <c r="C30" s="421"/>
+      <c r="B30" s="447"/>
+      <c r="C30" s="439"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="434"/>
+      <c r="E30" s="452"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8677,10 +8677,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="429"/>
-      <c r="C31" s="421"/>
+      <c r="B31" s="447"/>
+      <c r="C31" s="439"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="434"/>
+      <c r="E31" s="452"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8702,10 +8702,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="429"/>
-      <c r="C32" s="421"/>
+      <c r="B32" s="447"/>
+      <c r="C32" s="439"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="434"/>
+      <c r="E32" s="452"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8727,10 +8727,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="429"/>
-      <c r="C33" s="421"/>
+      <c r="B33" s="447"/>
+      <c r="C33" s="439"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="435"/>
+      <c r="E33" s="453"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8746,10 +8746,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="429"/>
-      <c r="C34" s="421"/>
+      <c r="B34" s="447"/>
+      <c r="C34" s="439"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="435"/>
+      <c r="E34" s="453"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8765,10 +8765,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="429"/>
-      <c r="C35" s="421"/>
+      <c r="B35" s="447"/>
+      <c r="C35" s="439"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="435"/>
+      <c r="E35" s="453"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8784,10 +8784,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="429"/>
-      <c r="C36" s="421"/>
+      <c r="B36" s="447"/>
+      <c r="C36" s="439"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="437"/>
+      <c r="E36" s="419"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8803,7 +8803,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="429"/>
+      <c r="B37" s="447"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8822,12 +8822,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="429"/>
-      <c r="C38" s="438" t="s">
+      <c r="B38" s="447"/>
+      <c r="C38" s="455" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="441" t="s">
+      <c r="E38" s="458" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8851,10 +8851,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="429"/>
-      <c r="C39" s="439"/>
+      <c r="B39" s="447"/>
+      <c r="C39" s="456"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="442"/>
+      <c r="E39" s="459"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8876,10 +8876,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="429"/>
-      <c r="C40" s="439"/>
+      <c r="B40" s="447"/>
+      <c r="C40" s="456"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="442"/>
+      <c r="E40" s="459"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8901,10 +8901,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="429"/>
-      <c r="C41" s="439"/>
+      <c r="B41" s="447"/>
+      <c r="C41" s="456"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="443"/>
+      <c r="E41" s="460"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -8926,8 +8926,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="429"/>
-      <c r="C42" s="439"/>
+      <c r="B42" s="447"/>
+      <c r="C42" s="456"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -8945,8 +8945,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="429"/>
-      <c r="C43" s="439"/>
+      <c r="B43" s="447"/>
+      <c r="C43" s="456"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -8963,8 +8963,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="429"/>
-      <c r="C44" s="439"/>
+      <c r="B44" s="447"/>
+      <c r="C44" s="456"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -8981,8 +8981,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="429"/>
-      <c r="C45" s="439"/>
+      <c r="B45" s="447"/>
+      <c r="C45" s="456"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -8999,8 +8999,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="429"/>
-      <c r="C46" s="440"/>
+      <c r="B46" s="447"/>
+      <c r="C46" s="457"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9017,12 +9017,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="429"/>
-      <c r="C47" s="438" t="s">
+      <c r="B47" s="447"/>
+      <c r="C47" s="455" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="445" t="s">
+      <c r="E47" s="462" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9045,10 +9045,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="429"/>
-      <c r="C48" s="439"/>
+      <c r="B48" s="447"/>
+      <c r="C48" s="456"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="446"/>
+      <c r="E48" s="463"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9069,10 +9069,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="429"/>
-      <c r="C49" s="439"/>
+      <c r="B49" s="447"/>
+      <c r="C49" s="456"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="446"/>
+      <c r="E49" s="463"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9093,10 +9093,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="429"/>
-      <c r="C50" s="439"/>
+      <c r="B50" s="447"/>
+      <c r="C50" s="456"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="446"/>
+      <c r="E50" s="463"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9117,10 +9117,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="429"/>
-      <c r="C51" s="439"/>
+      <c r="B51" s="447"/>
+      <c r="C51" s="456"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="446"/>
+      <c r="E51" s="463"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9141,10 +9141,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="429"/>
-      <c r="C52" s="439"/>
+      <c r="B52" s="447"/>
+      <c r="C52" s="456"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="446"/>
+      <c r="E52" s="463"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9165,10 +9165,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="429"/>
-      <c r="C53" s="439"/>
+      <c r="B53" s="447"/>
+      <c r="C53" s="456"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="446"/>
+      <c r="E53" s="463"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9189,10 +9189,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="429"/>
-      <c r="C54" s="439"/>
+      <c r="B54" s="447"/>
+      <c r="C54" s="456"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="446"/>
+      <c r="E54" s="463"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9213,10 +9213,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="429"/>
-      <c r="C55" s="439"/>
+      <c r="B55" s="447"/>
+      <c r="C55" s="456"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="446"/>
+      <c r="E55" s="463"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9237,10 +9237,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="429"/>
-      <c r="C56" s="439"/>
+      <c r="B56" s="447"/>
+      <c r="C56" s="456"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="446"/>
+      <c r="E56" s="463"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9261,10 +9261,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="429"/>
-      <c r="C57" s="439"/>
+      <c r="B57" s="447"/>
+      <c r="C57" s="456"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="446"/>
+      <c r="E57" s="463"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9285,10 +9285,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="429"/>
-      <c r="C58" s="439"/>
+      <c r="B58" s="447"/>
+      <c r="C58" s="456"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="446"/>
+      <c r="E58" s="463"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9309,10 +9309,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="429"/>
-      <c r="C59" s="439"/>
+      <c r="B59" s="447"/>
+      <c r="C59" s="456"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="437" t="s">
+      <c r="E59" s="419" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9335,10 +9335,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="429"/>
-      <c r="C60" s="439"/>
+      <c r="B60" s="447"/>
+      <c r="C60" s="456"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="447"/>
+      <c r="E60" s="420"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9359,10 +9359,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="429"/>
-      <c r="C61" s="439"/>
+      <c r="B61" s="447"/>
+      <c r="C61" s="456"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="447"/>
+      <c r="E61" s="420"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9383,10 +9383,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="429"/>
-      <c r="C62" s="439"/>
+      <c r="B62" s="447"/>
+      <c r="C62" s="456"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="447"/>
+      <c r="E62" s="420"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9407,10 +9407,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="429"/>
-      <c r="C63" s="439"/>
+      <c r="B63" s="447"/>
+      <c r="C63" s="456"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="447"/>
+      <c r="E63" s="420"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9431,10 +9431,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="429"/>
-      <c r="C64" s="439"/>
+      <c r="B64" s="447"/>
+      <c r="C64" s="456"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="447"/>
+      <c r="E64" s="420"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9455,10 +9455,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="429"/>
-      <c r="C65" s="439"/>
+      <c r="B65" s="447"/>
+      <c r="C65" s="456"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="447"/>
+      <c r="E65" s="420"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9479,10 +9479,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="429"/>
-      <c r="C66" s="439"/>
+      <c r="B66" s="447"/>
+      <c r="C66" s="456"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="447"/>
+      <c r="E66" s="420"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9503,10 +9503,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="429"/>
-      <c r="C67" s="439"/>
+      <c r="B67" s="447"/>
+      <c r="C67" s="456"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="447"/>
+      <c r="E67" s="420"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9527,10 +9527,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="429"/>
-      <c r="C68" s="439"/>
+      <c r="B68" s="447"/>
+      <c r="C68" s="456"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="447"/>
+      <c r="E68" s="420"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9551,10 +9551,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="429"/>
-      <c r="C69" s="439"/>
+      <c r="B69" s="447"/>
+      <c r="C69" s="456"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="447"/>
+      <c r="E69" s="420"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9575,10 +9575,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="429"/>
-      <c r="C70" s="439"/>
+      <c r="B70" s="447"/>
+      <c r="C70" s="456"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="447"/>
+      <c r="E70" s="420"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9599,10 +9599,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="429"/>
-      <c r="C71" s="439"/>
+      <c r="B71" s="447"/>
+      <c r="C71" s="456"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="447"/>
+      <c r="E71" s="420"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9623,10 +9623,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="429"/>
-      <c r="C72" s="439"/>
+      <c r="B72" s="447"/>
+      <c r="C72" s="456"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="447"/>
+      <c r="E72" s="420"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9647,10 +9647,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="429"/>
-      <c r="C73" s="439"/>
+      <c r="B73" s="447"/>
+      <c r="C73" s="456"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="447"/>
+      <c r="E73" s="420"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9671,10 +9671,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="429"/>
-      <c r="C74" s="444"/>
+      <c r="B74" s="447"/>
+      <c r="C74" s="461"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="447"/>
+      <c r="E74" s="420"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9695,10 +9695,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="429"/>
+      <c r="B75" s="447"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="447"/>
+      <c r="E75" s="420"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9719,10 +9719,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="429"/>
+      <c r="B76" s="447"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="447"/>
+      <c r="E76" s="420"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9743,10 +9743,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="429"/>
+      <c r="B77" s="447"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="447"/>
+      <c r="E77" s="420"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9767,10 +9767,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="429"/>
+      <c r="B78" s="447"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="447"/>
+      <c r="E78" s="420"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9791,10 +9791,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="429"/>
+      <c r="B79" s="447"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="447"/>
+      <c r="E79" s="420"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9815,10 +9815,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="429"/>
+      <c r="B80" s="447"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="447"/>
+      <c r="E80" s="420"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9839,10 +9839,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="429"/>
+      <c r="B81" s="447"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="447"/>
+      <c r="E81" s="420"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9863,10 +9863,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="429"/>
+      <c r="B82" s="447"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="447"/>
+      <c r="E82" s="420"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9887,10 +9887,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="429"/>
+      <c r="B83" s="447"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="447"/>
+      <c r="E83" s="420"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9911,10 +9911,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="429"/>
+      <c r="B84" s="447"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="447"/>
+      <c r="E84" s="420"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -9935,10 +9935,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="429"/>
+      <c r="B85" s="447"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="447"/>
+      <c r="E85" s="420"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -9959,10 +9959,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="429"/>
+      <c r="B86" s="447"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="448"/>
+      <c r="E86" s="421"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -9983,10 +9983,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="429"/>
+      <c r="B87" s="447"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="447" t="s">
+      <c r="E87" s="420" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10009,10 +10009,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="429"/>
+      <c r="B88" s="447"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="447"/>
+      <c r="E88" s="420"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10033,10 +10033,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="429"/>
+      <c r="B89" s="447"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="447"/>
+      <c r="E89" s="420"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10057,10 +10057,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="429"/>
+      <c r="B90" s="447"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="447"/>
+      <c r="E90" s="420"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10081,7 +10081,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="429"/>
+      <c r="B91" s="447"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10099,7 +10099,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="430"/>
+      <c r="B92" s="448"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10117,14 +10117,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="418" t="s">
+      <c r="B93" s="436" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="420" t="s">
+      <c r="C93" s="438" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="422" t="s">
+      <c r="E93" s="440" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10145,10 +10145,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="419"/>
-      <c r="C94" s="421"/>
+      <c r="B94" s="437"/>
+      <c r="C94" s="439"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="423"/>
+      <c r="E94" s="441"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10165,10 +10165,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="419"/>
-      <c r="C95" s="421"/>
+      <c r="B95" s="437"/>
+      <c r="C95" s="439"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="423"/>
+      <c r="E95" s="441"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10185,10 +10185,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="419"/>
-      <c r="C96" s="421"/>
+      <c r="B96" s="437"/>
+      <c r="C96" s="439"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="424"/>
+      <c r="E96" s="442"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10205,8 +10205,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="419"/>
-      <c r="C97" s="421"/>
+      <c r="B97" s="437"/>
+      <c r="C97" s="439"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10223,8 +10223,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="419"/>
-      <c r="C98" s="421"/>
+      <c r="B98" s="437"/>
+      <c r="C98" s="439"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10241,8 +10241,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="419"/>
-      <c r="C99" s="421"/>
+      <c r="B99" s="437"/>
+      <c r="C99" s="439"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10259,7 +10259,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="419"/>
+      <c r="B100" s="437"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10277,7 +10277,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="419"/>
+      <c r="B101" s="437"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10295,7 +10295,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="419"/>
+      <c r="B102" s="437"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10313,7 +10313,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="419"/>
+      <c r="B103" s="437"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10331,7 +10331,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="419"/>
+      <c r="B104" s="437"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="425" t="s">
+      <c r="C105" s="443" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="426"/>
+      <c r="C106" s="444"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="426"/>
+      <c r="C107" s="444"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="426"/>
+      <c r="C108" s="444"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="426"/>
+      <c r="C109" s="444"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="426"/>
+      <c r="C110" s="444"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="426"/>
+      <c r="C111" s="444"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10478,7 +10478,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="426"/>
+      <c r="C112" s="444"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="426"/>
+      <c r="C113" s="444"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="426"/>
+      <c r="C114" s="444"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="426"/>
+      <c r="C115" s="444"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="427"/>
+      <c r="C116" s="445"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -10935,21 +10935,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -10966,6 +10951,21 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63">
@@ -11005,44 +11005,44 @@
   <sheetData>
     <row r="1" spans="2:48" ht="16.05" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:48" s="332" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="469" t="s">
+      <c r="B2" s="470" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="470"/>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="470"/>
-      <c r="I2" s="471"/>
+      <c r="C2" s="471"/>
+      <c r="D2" s="471"/>
+      <c r="E2" s="471"/>
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="471"/>
+      <c r="I2" s="472"/>
       <c r="J2" s="334"/>
       <c r="AV2" s="332" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:48" s="333" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="472" t="s">
+      <c r="B3" s="473" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="472" t="s">
+      <c r="C3" s="473" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="472" t="s">
+      <c r="D3" s="473" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="472" t="s">
+      <c r="E3" s="473" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="472" t="s">
+      <c r="F3" s="473" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="472" t="s">
+      <c r="G3" s="473" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="472" t="s">
+      <c r="I3" s="473" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="335"/>
@@ -11052,24 +11052,24 @@
       </c>
     </row>
     <row r="4" spans="2:48" s="333" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
+      <c r="B4" s="473"/>
+      <c r="C4" s="473"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="473"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="473"/>
       <c r="J4" s="335"/>
       <c r="AV4" s="333" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="463" t="s">
+      <c r="B5" s="464" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="466" t="s">
+      <c r="C5" s="467" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="324"/>
@@ -11086,8 +11086,8 @@
       <c r="I5" s="326"/>
     </row>
     <row r="6" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="464"/>
-      <c r="C6" s="467"/>
+      <c r="B6" s="465"/>
+      <c r="C6" s="468"/>
       <c r="D6" s="312"/>
       <c r="E6" s="312"/>
       <c r="F6" s="338"/>
@@ -11096,8 +11096,8 @@
       <c r="I6" s="314"/>
     </row>
     <row r="7" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="464"/>
-      <c r="C7" s="467"/>
+      <c r="B7" s="465"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="328"/>
       <c r="E7" s="323" t="s">
         <v>325</v>
@@ -11112,8 +11112,8 @@
       <c r="I7" s="329"/>
     </row>
     <row r="8" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="464"/>
-      <c r="C8" s="467"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="468"/>
       <c r="D8" s="328"/>
       <c r="E8" s="337" t="s">
         <v>284</v>
@@ -11124,8 +11124,8 @@
       <c r="I8" s="329"/>
     </row>
     <row r="9" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="464"/>
-      <c r="C9" s="467"/>
+      <c r="B9" s="465"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="328"/>
       <c r="E9" s="337" t="s">
         <v>285</v>
@@ -11136,8 +11136,8 @@
       <c r="I9" s="329"/>
     </row>
     <row r="10" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="464"/>
-      <c r="C10" s="467"/>
+      <c r="B10" s="465"/>
+      <c r="C10" s="468"/>
       <c r="D10" s="322"/>
       <c r="E10" s="316"/>
       <c r="F10" s="340"/>
@@ -11146,8 +11146,8 @@
       <c r="I10" s="314"/>
     </row>
     <row r="11" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="464"/>
-      <c r="C11" s="467"/>
+      <c r="B11" s="465"/>
+      <c r="C11" s="468"/>
       <c r="D11" s="322"/>
       <c r="E11" s="317" t="s">
         <v>286</v>
@@ -11162,8 +11162,8 @@
       <c r="I11" s="314"/>
     </row>
     <row r="12" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="464"/>
-      <c r="C12" s="467"/>
+      <c r="B12" s="465"/>
+      <c r="C12" s="468"/>
       <c r="D12" s="322"/>
       <c r="E12" s="315" t="s">
         <v>287</v>
@@ -11174,8 +11174,8 @@
       <c r="I12" s="314"/>
     </row>
     <row r="13" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="464"/>
-      <c r="C13" s="467"/>
+      <c r="B13" s="465"/>
+      <c r="C13" s="468"/>
       <c r="D13" s="322"/>
       <c r="E13" s="315" t="s">
         <v>288</v>
@@ -11186,8 +11186,8 @@
       <c r="I13" s="314"/>
     </row>
     <row r="14" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="464"/>
-      <c r="C14" s="467"/>
+      <c r="B14" s="465"/>
+      <c r="C14" s="468"/>
       <c r="D14" s="322"/>
       <c r="E14" s="315" t="s">
         <v>315</v>
@@ -11198,8 +11198,8 @@
       <c r="I14" s="314"/>
     </row>
     <row r="15" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="464"/>
-      <c r="C15" s="467"/>
+      <c r="B15" s="465"/>
+      <c r="C15" s="468"/>
       <c r="D15" s="322"/>
       <c r="E15" s="316"/>
       <c r="F15" s="340"/>
@@ -11208,8 +11208,8 @@
       <c r="I15" s="314"/>
     </row>
     <row r="16" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="464"/>
-      <c r="C16" s="467"/>
+      <c r="B16" s="465"/>
+      <c r="C16" s="468"/>
       <c r="D16" s="330"/>
       <c r="E16" s="323" t="s">
         <v>289</v>
@@ -11224,8 +11224,8 @@
       <c r="I16" s="329"/>
     </row>
     <row r="17" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="464"/>
-      <c r="C17" s="467"/>
+      <c r="B17" s="465"/>
+      <c r="C17" s="468"/>
       <c r="D17" s="330"/>
       <c r="E17" s="323" t="s">
         <v>290</v>
@@ -11236,8 +11236,8 @@
       <c r="I17" s="329"/>
     </row>
     <row r="18" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="464"/>
-      <c r="C18" s="467"/>
+      <c r="B18" s="465"/>
+      <c r="C18" s="468"/>
       <c r="D18" s="330"/>
       <c r="E18" s="323" t="s">
         <v>291</v>
@@ -11248,8 +11248,8 @@
       <c r="I18" s="329"/>
     </row>
     <row r="19" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="464"/>
-      <c r="C19" s="467"/>
+      <c r="B19" s="465"/>
+      <c r="C19" s="468"/>
       <c r="D19" s="322"/>
       <c r="E19" s="315"/>
       <c r="F19" s="340"/>
@@ -11258,8 +11258,8 @@
       <c r="I19" s="314"/>
     </row>
     <row r="20" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B20" s="464"/>
-      <c r="C20" s="467"/>
+      <c r="B20" s="465"/>
+      <c r="C20" s="468"/>
       <c r="D20" s="322"/>
       <c r="E20" s="315" t="s">
         <v>292</v>
@@ -11274,8 +11274,8 @@
       <c r="I20" s="314"/>
     </row>
     <row r="21" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B21" s="464"/>
-      <c r="C21" s="467"/>
+      <c r="B21" s="465"/>
+      <c r="C21" s="468"/>
       <c r="D21" s="322"/>
       <c r="E21" s="315" t="s">
         <v>293</v>
@@ -11286,8 +11286,8 @@
       <c r="I21" s="314"/>
     </row>
     <row r="22" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B22" s="464"/>
-      <c r="C22" s="467"/>
+      <c r="B22" s="465"/>
+      <c r="C22" s="468"/>
       <c r="D22" s="322"/>
       <c r="E22" s="315" t="s">
         <v>294</v>
@@ -11298,8 +11298,8 @@
       <c r="I22" s="314"/>
     </row>
     <row r="23" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B23" s="464"/>
-      <c r="C23" s="467"/>
+      <c r="B23" s="465"/>
+      <c r="C23" s="468"/>
       <c r="D23" s="322"/>
       <c r="E23" s="315"/>
       <c r="F23" s="340"/>
@@ -11308,8 +11308,8 @@
       <c r="I23" s="314"/>
     </row>
     <row r="24" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B24" s="464"/>
-      <c r="C24" s="467"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="468"/>
       <c r="D24" s="330"/>
       <c r="E24" s="323" t="s">
         <v>295</v>
@@ -11324,8 +11324,8 @@
       <c r="I24" s="329"/>
     </row>
     <row r="25" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B25" s="464"/>
-      <c r="C25" s="467"/>
+      <c r="B25" s="465"/>
+      <c r="C25" s="468"/>
       <c r="D25" s="330"/>
       <c r="E25" s="323" t="s">
         <v>296</v>
@@ -11336,8 +11336,8 @@
       <c r="I25" s="329"/>
     </row>
     <row r="26" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B26" s="464"/>
-      <c r="C26" s="467"/>
+      <c r="B26" s="465"/>
+      <c r="C26" s="468"/>
       <c r="D26" s="330"/>
       <c r="E26" s="323" t="s">
         <v>297</v>
@@ -11348,8 +11348,8 @@
       <c r="I26" s="329"/>
     </row>
     <row r="27" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B27" s="464"/>
-      <c r="C27" s="467"/>
+      <c r="B27" s="465"/>
+      <c r="C27" s="468"/>
       <c r="D27" s="322"/>
       <c r="E27" s="315"/>
       <c r="F27" s="340"/>
@@ -11358,8 +11358,8 @@
       <c r="I27" s="314"/>
     </row>
     <row r="28" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B28" s="464"/>
-      <c r="C28" s="467"/>
+      <c r="B28" s="465"/>
+      <c r="C28" s="468"/>
       <c r="D28" s="322"/>
       <c r="E28" s="315" t="s">
         <v>298</v>
@@ -11374,8 +11374,8 @@
       <c r="I28" s="314"/>
     </row>
     <row r="29" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B29" s="464"/>
-      <c r="C29" s="467"/>
+      <c r="B29" s="465"/>
+      <c r="C29" s="468"/>
       <c r="D29" s="322"/>
       <c r="E29" s="315" t="s">
         <v>299</v>
@@ -11386,8 +11386,8 @@
       <c r="I29" s="314"/>
     </row>
     <row r="30" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B30" s="464"/>
-      <c r="C30" s="467"/>
+      <c r="B30" s="465"/>
+      <c r="C30" s="468"/>
       <c r="D30" s="322"/>
       <c r="E30" s="315" t="s">
         <v>300</v>
@@ -11398,8 +11398,8 @@
       <c r="I30" s="314"/>
     </row>
     <row r="31" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B31" s="464"/>
-      <c r="C31" s="467"/>
+      <c r="B31" s="465"/>
+      <c r="C31" s="468"/>
       <c r="D31" s="322"/>
       <c r="E31" s="315"/>
       <c r="F31" s="340"/>
@@ -11408,8 +11408,8 @@
       <c r="I31" s="314"/>
     </row>
     <row r="32" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B32" s="464"/>
-      <c r="C32" s="467"/>
+      <c r="B32" s="465"/>
+      <c r="C32" s="468"/>
       <c r="D32" s="330"/>
       <c r="E32" s="323" t="s">
         <v>301</v>
@@ -11424,8 +11424,8 @@
       <c r="I32" s="329"/>
     </row>
     <row r="33" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B33" s="464"/>
-      <c r="C33" s="467"/>
+      <c r="B33" s="465"/>
+      <c r="C33" s="468"/>
       <c r="D33" s="330"/>
       <c r="E33" s="323" t="s">
         <v>302</v>
@@ -11436,8 +11436,8 @@
       <c r="I33" s="329"/>
     </row>
     <row r="34" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B34" s="464"/>
-      <c r="C34" s="467"/>
+      <c r="B34" s="465"/>
+      <c r="C34" s="468"/>
       <c r="D34" s="330"/>
       <c r="E34" s="323" t="s">
         <v>303</v>
@@ -11448,8 +11448,8 @@
       <c r="I34" s="329"/>
     </row>
     <row r="35" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B35" s="464"/>
-      <c r="C35" s="467"/>
+      <c r="B35" s="465"/>
+      <c r="C35" s="468"/>
       <c r="D35" s="322"/>
       <c r="E35" s="315"/>
       <c r="F35" s="340"/>
@@ -11458,8 +11458,8 @@
       <c r="I35" s="314"/>
     </row>
     <row r="36" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B36" s="464"/>
-      <c r="C36" s="467"/>
+      <c r="B36" s="465"/>
+      <c r="C36" s="468"/>
       <c r="D36" s="322"/>
       <c r="E36" s="315" t="s">
         <v>304</v>
@@ -11474,8 +11474,8 @@
       <c r="I36" s="314"/>
     </row>
     <row r="37" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B37" s="464"/>
-      <c r="C37" s="467"/>
+      <c r="B37" s="465"/>
+      <c r="C37" s="468"/>
       <c r="D37" s="322"/>
       <c r="E37" s="315" t="s">
         <v>305</v>
@@ -11486,8 +11486,8 @@
       <c r="I37" s="314"/>
     </row>
     <row r="38" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="464"/>
-      <c r="C38" s="467"/>
+      <c r="B38" s="465"/>
+      <c r="C38" s="468"/>
       <c r="D38" s="322"/>
       <c r="E38" s="315" t="s">
         <v>306</v>
@@ -11498,8 +11498,8 @@
       <c r="I38" s="314"/>
     </row>
     <row r="39" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="464"/>
-      <c r="C39" s="467"/>
+      <c r="B39" s="465"/>
+      <c r="C39" s="468"/>
       <c r="D39" s="322"/>
       <c r="E39" s="315"/>
       <c r="F39" s="340"/>
@@ -11508,8 +11508,8 @@
       <c r="I39" s="314"/>
     </row>
     <row r="40" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B40" s="464"/>
-      <c r="C40" s="467"/>
+      <c r="B40" s="465"/>
+      <c r="C40" s="468"/>
       <c r="D40" s="330"/>
       <c r="E40" s="323" t="s">
         <v>307</v>
@@ -11524,8 +11524,8 @@
       <c r="I40" s="329"/>
     </row>
     <row r="41" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B41" s="464"/>
-      <c r="C41" s="467"/>
+      <c r="B41" s="465"/>
+      <c r="C41" s="468"/>
       <c r="D41" s="330"/>
       <c r="E41" s="323" t="s">
         <v>308</v>
@@ -11536,8 +11536,8 @@
       <c r="I41" s="329"/>
     </row>
     <row r="42" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B42" s="464"/>
-      <c r="C42" s="467"/>
+      <c r="B42" s="465"/>
+      <c r="C42" s="468"/>
       <c r="D42" s="330"/>
       <c r="E42" s="323" t="s">
         <v>309</v>
@@ -11548,8 +11548,8 @@
       <c r="I42" s="329"/>
     </row>
     <row r="43" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B43" s="464"/>
-      <c r="C43" s="467"/>
+      <c r="B43" s="465"/>
+      <c r="C43" s="468"/>
       <c r="D43" s="322"/>
       <c r="E43" s="315"/>
       <c r="F43" s="340"/>
@@ -11558,8 +11558,8 @@
       <c r="I43" s="314"/>
     </row>
     <row r="44" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="464"/>
-      <c r="C44" s="467"/>
+      <c r="B44" s="465"/>
+      <c r="C44" s="468"/>
       <c r="D44" s="322"/>
       <c r="E44" s="315" t="s">
         <v>310</v>
@@ -11574,8 +11574,8 @@
       <c r="I44" s="314"/>
     </row>
     <row r="45" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="464"/>
-      <c r="C45" s="467"/>
+      <c r="B45" s="465"/>
+      <c r="C45" s="468"/>
       <c r="D45" s="322"/>
       <c r="E45" s="315" t="s">
         <v>311</v>
@@ -11586,8 +11586,8 @@
       <c r="I45" s="314"/>
     </row>
     <row r="46" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="464"/>
-      <c r="C46" s="467"/>
+      <c r="B46" s="465"/>
+      <c r="C46" s="468"/>
       <c r="D46" s="322"/>
       <c r="E46" s="315"/>
       <c r="F46" s="341"/>
@@ -11596,8 +11596,8 @@
       <c r="I46" s="314"/>
     </row>
     <row r="47" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="464"/>
-      <c r="C47" s="467"/>
+      <c r="B47" s="465"/>
+      <c r="C47" s="468"/>
       <c r="D47" s="330"/>
       <c r="E47" s="323" t="s">
         <v>312</v>
@@ -11612,8 +11612,8 @@
       <c r="I47" s="329"/>
     </row>
     <row r="48" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="464"/>
-      <c r="C48" s="467"/>
+      <c r="B48" s="465"/>
+      <c r="C48" s="468"/>
       <c r="D48" s="330"/>
       <c r="E48" s="323" t="s">
         <v>313</v>
@@ -11624,8 +11624,8 @@
       <c r="I48" s="329"/>
     </row>
     <row r="49" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="464"/>
-      <c r="C49" s="467"/>
+      <c r="B49" s="465"/>
+      <c r="C49" s="468"/>
       <c r="D49" s="322"/>
       <c r="E49" s="315"/>
       <c r="F49" s="340"/>
@@ -11634,8 +11634,8 @@
       <c r="I49" s="314"/>
     </row>
     <row r="50" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="464"/>
-      <c r="C50" s="467"/>
+      <c r="B50" s="465"/>
+      <c r="C50" s="468"/>
       <c r="D50" s="322"/>
       <c r="E50" s="315" t="s">
         <v>314</v>
@@ -11650,8 +11650,8 @@
       <c r="I50" s="314"/>
     </row>
     <row r="51" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="464"/>
-      <c r="C51" s="467"/>
+      <c r="B51" s="465"/>
+      <c r="C51" s="468"/>
       <c r="D51" s="312"/>
       <c r="E51" s="312"/>
       <c r="F51" s="343"/>
@@ -11660,8 +11660,8 @@
       <c r="I51" s="318"/>
     </row>
     <row r="52" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="464"/>
-      <c r="C52" s="467"/>
+      <c r="B52" s="465"/>
+      <c r="C52" s="468"/>
       <c r="D52" s="312"/>
       <c r="E52" s="315"/>
       <c r="F52" s="343"/>
@@ -11670,8 +11670,8 @@
       <c r="I52" s="318"/>
     </row>
     <row r="53" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="464"/>
-      <c r="C53" s="467"/>
+      <c r="B53" s="465"/>
+      <c r="C53" s="468"/>
       <c r="D53" s="312"/>
       <c r="E53" s="315"/>
       <c r="F53" s="343"/>
@@ -11680,8 +11680,8 @@
       <c r="I53" s="318"/>
     </row>
     <row r="54" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="464"/>
-      <c r="C54" s="467"/>
+      <c r="B54" s="465"/>
+      <c r="C54" s="468"/>
       <c r="D54" s="312"/>
       <c r="E54" s="319" t="s">
         <v>281</v>
@@ -11692,8 +11692,8 @@
       <c r="I54" s="318"/>
     </row>
     <row r="55" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="464"/>
-      <c r="C55" s="467"/>
+      <c r="B55" s="465"/>
+      <c r="C55" s="468"/>
       <c r="D55" s="312"/>
       <c r="E55" s="319" t="s">
         <v>282</v>
@@ -11704,8 +11704,8 @@
       <c r="I55" s="318"/>
     </row>
     <row r="56" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="464"/>
-      <c r="C56" s="467"/>
+      <c r="B56" s="465"/>
+      <c r="C56" s="468"/>
       <c r="D56" s="312"/>
       <c r="E56" s="319" t="s">
         <v>283</v>
@@ -11716,8 +11716,8 @@
       <c r="I56" s="318"/>
     </row>
     <row r="57" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="464"/>
-      <c r="C57" s="467"/>
+      <c r="B57" s="465"/>
+      <c r="C57" s="468"/>
       <c r="D57" s="312"/>
       <c r="E57" s="319"/>
       <c r="F57" s="312"/>
@@ -11726,8 +11726,8 @@
       <c r="I57" s="318"/>
     </row>
     <row r="58" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="464"/>
-      <c r="C58" s="467"/>
+      <c r="B58" s="465"/>
+      <c r="C58" s="468"/>
       <c r="D58" s="322"/>
       <c r="E58" s="319" t="s">
         <v>316</v>
@@ -11738,8 +11738,8 @@
       <c r="I58" s="318"/>
     </row>
     <row r="59" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="464"/>
-      <c r="C59" s="467"/>
+      <c r="B59" s="465"/>
+      <c r="C59" s="468"/>
       <c r="D59" s="336"/>
       <c r="E59" s="319" t="s">
         <v>317</v>
@@ -11750,8 +11750,8 @@
       <c r="I59" s="318"/>
     </row>
     <row r="60" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="464"/>
-      <c r="C60" s="467"/>
+      <c r="B60" s="465"/>
+      <c r="C60" s="468"/>
       <c r="D60" s="336"/>
       <c r="E60" s="319" t="s">
         <v>318</v>
@@ -11762,8 +11762,8 @@
       <c r="I60" s="318"/>
     </row>
     <row r="61" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="464"/>
-      <c r="C61" s="467"/>
+      <c r="B61" s="465"/>
+      <c r="C61" s="468"/>
       <c r="D61" s="336"/>
       <c r="E61" s="319" t="s">
         <v>319</v>
@@ -11774,8 +11774,8 @@
       <c r="I61" s="318"/>
     </row>
     <row r="62" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="464"/>
-      <c r="C62" s="467"/>
+      <c r="B62" s="465"/>
+      <c r="C62" s="468"/>
       <c r="D62" s="336"/>
       <c r="E62" s="319"/>
       <c r="F62" s="312"/>
@@ -11784,8 +11784,8 @@
       <c r="I62" s="318"/>
     </row>
     <row r="63" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="464"/>
-      <c r="C63" s="467"/>
+      <c r="B63" s="465"/>
+      <c r="C63" s="468"/>
       <c r="D63" s="312"/>
       <c r="E63" s="319" t="s">
         <v>320</v>
@@ -11796,8 +11796,8 @@
       <c r="I63" s="318"/>
     </row>
     <row r="64" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="464"/>
-      <c r="C64" s="467"/>
+      <c r="B64" s="465"/>
+      <c r="C64" s="468"/>
       <c r="D64" s="312"/>
       <c r="E64" s="319" t="s">
         <v>321</v>
@@ -11808,8 +11808,8 @@
       <c r="I64" s="318"/>
     </row>
     <row r="65" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="464"/>
-      <c r="C65" s="467"/>
+      <c r="B65" s="465"/>
+      <c r="C65" s="468"/>
       <c r="D65" s="312"/>
       <c r="E65" s="319" t="s">
         <v>322</v>
@@ -11820,8 +11820,8 @@
       <c r="I65" s="318"/>
     </row>
     <row r="66" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="464"/>
-      <c r="C66" s="467"/>
+      <c r="B66" s="465"/>
+      <c r="C66" s="468"/>
       <c r="D66" s="312"/>
       <c r="E66" s="319" t="s">
         <v>323</v>
@@ -11832,8 +11832,8 @@
       <c r="I66" s="318"/>
     </row>
     <row r="67" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="464"/>
-      <c r="C67" s="467"/>
+      <c r="B67" s="465"/>
+      <c r="C67" s="468"/>
       <c r="D67" s="312"/>
       <c r="E67" s="315"/>
       <c r="F67" s="312"/>
@@ -11842,8 +11842,8 @@
       <c r="I67" s="318"/>
     </row>
     <row r="68" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="464"/>
-      <c r="C68" s="467"/>
+      <c r="B68" s="465"/>
+      <c r="C68" s="468"/>
       <c r="D68" s="312"/>
       <c r="E68" s="315"/>
       <c r="F68" s="312"/>
@@ -11852,8 +11852,8 @@
       <c r="I68" s="318"/>
     </row>
     <row r="69" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="464"/>
-      <c r="C69" s="467"/>
+      <c r="B69" s="465"/>
+      <c r="C69" s="468"/>
       <c r="D69" s="312"/>
       <c r="E69" s="312"/>
       <c r="F69" s="312"/>
@@ -11862,8 +11862,8 @@
       <c r="I69" s="318"/>
     </row>
     <row r="70" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="464"/>
-      <c r="C70" s="467"/>
+      <c r="B70" s="465"/>
+      <c r="C70" s="468"/>
       <c r="D70" s="312"/>
       <c r="E70" s="312"/>
       <c r="F70" s="312"/>
@@ -11872,8 +11872,8 @@
       <c r="I70" s="318"/>
     </row>
     <row r="71" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="464"/>
-      <c r="C71" s="467"/>
+      <c r="B71" s="465"/>
+      <c r="C71" s="468"/>
       <c r="D71" s="312"/>
       <c r="E71" s="312"/>
       <c r="F71" s="312"/>
@@ -11882,8 +11882,8 @@
       <c r="I71" s="318"/>
     </row>
     <row r="72" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="465"/>
-      <c r="C72" s="468"/>
+      <c r="B72" s="466"/>
+      <c r="C72" s="469"/>
       <c r="D72" s="320"/>
       <c r="E72" s="320"/>
       <c r="F72" s="320"/>
@@ -11932,7 +11932,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17:D20"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11950,26 +11950,26 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" s="332" customFormat="1" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="476" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="477"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="477"/>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
+      <c r="B2" s="480" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
       <c r="I2" s="334"/>
     </row>
     <row r="3" spans="2:9" s="349" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="367" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="363" t="s">
         <v>332</v>
       </c>
       <c r="D3" s="363" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="E3" s="363" t="s">
         <v>154</v>
@@ -11977,17 +11977,17 @@
       <c r="F3" s="363"/>
       <c r="G3" s="363"/>
       <c r="H3" s="368" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="348"/>
     </row>
     <row r="4" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="473" t="s">
-        <v>350</v>
+      <c r="B4" s="477" t="s">
+        <v>349</v>
       </c>
       <c r="C4" s="352"/>
-      <c r="D4" s="479" t="s">
-        <v>336</v>
+      <c r="D4" s="483" t="s">
+        <v>335</v>
       </c>
       <c r="E4" s="353" t="s">
         <v>333</v>
@@ -11997,9 +11997,9 @@
       <c r="H4" s="369"/>
     </row>
     <row r="5" spans="2:9" s="327" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="474"/>
+      <c r="B5" s="478"/>
       <c r="C5" s="328"/>
-      <c r="D5" s="480"/>
+      <c r="D5" s="484"/>
       <c r="E5" s="356" t="s">
         <v>334</v>
       </c>
@@ -12008,79 +12008,79 @@
       <c r="H5" s="370"/>
     </row>
     <row r="6" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="474"/>
+      <c r="B6" s="478"/>
       <c r="C6" s="322"/>
-      <c r="D6" s="480"/>
+      <c r="D6" s="484"/>
       <c r="E6" s="357" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
       <c r="H6" s="370"/>
     </row>
     <row r="7" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="474"/>
+      <c r="B7" s="478"/>
       <c r="C7" s="322"/>
-      <c r="D7" s="480"/>
+      <c r="D7" s="484"/>
       <c r="E7" s="357" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
       <c r="H7" s="370"/>
     </row>
     <row r="8" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="474"/>
+      <c r="B8" s="478"/>
       <c r="C8" s="322"/>
-      <c r="D8" s="480"/>
+      <c r="D8" s="484"/>
       <c r="E8" s="357"/>
       <c r="F8" s="356"/>
       <c r="G8" s="351"/>
       <c r="H8" s="370"/>
     </row>
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="474"/>
+      <c r="B9" s="478"/>
       <c r="C9" s="322"/>
-      <c r="D9" s="480"/>
+      <c r="D9" s="484"/>
       <c r="E9" s="357" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9" s="356"/>
       <c r="G9" s="351"/>
       <c r="H9" s="370"/>
     </row>
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="474"/>
+      <c r="B10" s="478"/>
       <c r="C10" s="322"/>
-      <c r="D10" s="480"/>
+      <c r="D10" s="484"/>
       <c r="E10" s="357"/>
       <c r="F10" s="356"/>
       <c r="G10" s="351"/>
       <c r="H10" s="370"/>
     </row>
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="474"/>
+      <c r="B11" s="478"/>
       <c r="C11" s="322"/>
-      <c r="D11" s="480"/>
+      <c r="D11" s="484"/>
       <c r="E11" s="357"/>
       <c r="F11" s="356"/>
       <c r="G11" s="351"/>
       <c r="H11" s="370"/>
     </row>
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="474"/>
+      <c r="B12" s="478"/>
       <c r="C12" s="322"/>
-      <c r="D12" s="481"/>
+      <c r="D12" s="485"/>
       <c r="E12" s="315"/>
       <c r="F12" s="315"/>
       <c r="G12" s="351"/>
       <c r="H12" s="370"/>
     </row>
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="474"/>
+      <c r="B13" s="478"/>
       <c r="C13" s="322"/>
-      <c r="D13" s="482" t="s">
-        <v>340</v>
+      <c r="D13" s="476" t="s">
+        <v>339</v>
       </c>
       <c r="E13" s="315"/>
       <c r="F13" s="315"/>
@@ -12088,37 +12088,37 @@
       <c r="H13" s="370"/>
     </row>
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="474"/>
+      <c r="B14" s="478"/>
       <c r="C14" s="330"/>
-      <c r="D14" s="423"/>
+      <c r="D14" s="441"/>
       <c r="E14" s="315"/>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
       <c r="H14" s="370"/>
     </row>
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="474"/>
+      <c r="B15" s="478"/>
       <c r="C15" s="330"/>
-      <c r="D15" s="423"/>
+      <c r="D15" s="441"/>
       <c r="E15" s="315"/>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
       <c r="H15" s="370"/>
     </row>
     <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="474"/>
+      <c r="B16" s="478"/>
       <c r="C16" s="322"/>
-      <c r="D16" s="424"/>
+      <c r="D16" s="442"/>
       <c r="E16" s="315"/>
       <c r="F16" s="356"/>
       <c r="G16" s="351"/>
       <c r="H16" s="370"/>
     </row>
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="474"/>
+      <c r="B17" s="478"/>
       <c r="C17" s="322"/>
-      <c r="D17" s="482" t="s">
-        <v>341</v>
+      <c r="D17" s="476" t="s">
+        <v>340</v>
       </c>
       <c r="E17" s="315"/>
       <c r="F17" s="315"/>
@@ -12126,37 +12126,37 @@
       <c r="H17" s="370"/>
     </row>
     <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="474"/>
+      <c r="B18" s="478"/>
       <c r="C18" s="322"/>
-      <c r="D18" s="423"/>
+      <c r="D18" s="441"/>
       <c r="E18" s="315"/>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="370"/>
     </row>
     <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="474"/>
+      <c r="B19" s="478"/>
       <c r="C19" s="330"/>
-      <c r="D19" s="423"/>
+      <c r="D19" s="441"/>
       <c r="E19" s="315"/>
       <c r="F19" s="356"/>
       <c r="G19" s="351"/>
       <c r="H19" s="370"/>
     </row>
     <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="474"/>
+      <c r="B20" s="478"/>
       <c r="C20" s="330"/>
-      <c r="D20" s="423"/>
+      <c r="D20" s="441"/>
       <c r="E20" s="315"/>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
       <c r="H20" s="370"/>
     </row>
     <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="474"/>
+      <c r="B21" s="478"/>
       <c r="C21" s="330"/>
-      <c r="D21" s="482" t="s">
-        <v>346</v>
+      <c r="D21" s="476" t="s">
+        <v>345</v>
       </c>
       <c r="E21" s="315"/>
       <c r="F21" s="315"/>
@@ -12164,37 +12164,37 @@
       <c r="H21" s="370"/>
     </row>
     <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="474"/>
+      <c r="B22" s="478"/>
       <c r="C22" s="322"/>
-      <c r="D22" s="423"/>
+      <c r="D22" s="441"/>
       <c r="E22" s="315"/>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="370"/>
     </row>
     <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="474"/>
+      <c r="B23" s="478"/>
       <c r="C23" s="322"/>
-      <c r="D23" s="423"/>
+      <c r="D23" s="441"/>
       <c r="E23" s="315"/>
       <c r="F23" s="315"/>
       <c r="G23" s="351"/>
       <c r="H23" s="370"/>
     </row>
     <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="474"/>
+      <c r="B24" s="478"/>
       <c r="C24" s="359"/>
-      <c r="D24" s="423"/>
+      <c r="D24" s="441"/>
       <c r="E24" s="315"/>
       <c r="F24" s="315"/>
       <c r="G24" s="351"/>
       <c r="H24" s="370"/>
     </row>
     <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="474"/>
+      <c r="B25" s="478"/>
       <c r="C25" s="359"/>
-      <c r="D25" s="482" t="s">
-        <v>342</v>
+      <c r="D25" s="476" t="s">
+        <v>341</v>
       </c>
       <c r="E25" s="315"/>
       <c r="F25" s="356"/>
@@ -12202,37 +12202,37 @@
       <c r="H25" s="370"/>
     </row>
     <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="474"/>
+      <c r="B26" s="478"/>
       <c r="C26" s="359"/>
-      <c r="D26" s="423"/>
+      <c r="D26" s="441"/>
       <c r="E26" s="315"/>
       <c r="F26" s="315"/>
       <c r="G26" s="351"/>
       <c r="H26" s="370"/>
     </row>
     <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="474"/>
+      <c r="B27" s="478"/>
       <c r="C27" s="359"/>
-      <c r="D27" s="423"/>
+      <c r="D27" s="441"/>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
       <c r="H27" s="370"/>
     </row>
     <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="474"/>
+      <c r="B28" s="478"/>
       <c r="C28" s="359"/>
-      <c r="D28" s="423"/>
+      <c r="D28" s="441"/>
       <c r="E28" s="315"/>
       <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="370"/>
     </row>
     <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="474"/>
+      <c r="B29" s="478"/>
       <c r="C29" s="359"/>
-      <c r="D29" s="482" t="s">
-        <v>347</v>
+      <c r="D29" s="476" t="s">
+        <v>346</v>
       </c>
       <c r="E29" s="315"/>
       <c r="F29" s="315"/>
@@ -12240,37 +12240,37 @@
       <c r="H29" s="370"/>
     </row>
     <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="474"/>
+      <c r="B30" s="478"/>
       <c r="C30" s="359"/>
-      <c r="D30" s="423"/>
+      <c r="D30" s="441"/>
       <c r="E30" s="315"/>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
       <c r="H30" s="370"/>
     </row>
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="474"/>
+      <c r="B31" s="478"/>
       <c r="C31" s="359"/>
-      <c r="D31" s="423"/>
+      <c r="D31" s="441"/>
       <c r="E31" s="315"/>
       <c r="F31" s="315"/>
       <c r="G31" s="351"/>
       <c r="H31" s="370"/>
     </row>
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="474"/>
+      <c r="B32" s="478"/>
       <c r="C32" s="359"/>
-      <c r="D32" s="423"/>
+      <c r="D32" s="441"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
       <c r="G32" s="351"/>
       <c r="H32" s="370"/>
     </row>
     <row r="33" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="474"/>
+      <c r="B33" s="478"/>
       <c r="C33" s="359"/>
-      <c r="D33" s="482" t="s">
-        <v>345</v>
+      <c r="D33" s="476" t="s">
+        <v>344</v>
       </c>
       <c r="E33" s="315"/>
       <c r="F33" s="315"/>
@@ -12278,37 +12278,37 @@
       <c r="H33" s="370"/>
     </row>
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="474"/>
+      <c r="B34" s="478"/>
       <c r="C34" s="359"/>
-      <c r="D34" s="423"/>
+      <c r="D34" s="441"/>
       <c r="E34" s="315"/>
       <c r="F34" s="315"/>
       <c r="G34" s="351"/>
       <c r="H34" s="370"/>
     </row>
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="474"/>
+      <c r="B35" s="478"/>
       <c r="C35" s="359"/>
-      <c r="D35" s="423"/>
+      <c r="D35" s="441"/>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
       <c r="G35" s="351"/>
       <c r="H35" s="370"/>
     </row>
     <row r="36" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="474"/>
+      <c r="B36" s="478"/>
       <c r="C36" s="355"/>
-      <c r="D36" s="423"/>
+      <c r="D36" s="441"/>
       <c r="E36" s="355"/>
       <c r="F36" s="355"/>
       <c r="G36" s="360"/>
       <c r="H36" s="371"/>
     </row>
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="474"/>
+      <c r="B37" s="478"/>
       <c r="C37" s="359"/>
-      <c r="D37" s="546" t="s">
-        <v>344</v>
+      <c r="D37" s="474" t="s">
+        <v>343</v>
       </c>
       <c r="E37" s="315"/>
       <c r="F37" s="315"/>
@@ -12316,37 +12316,37 @@
       <c r="H37" s="370"/>
     </row>
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="474"/>
+      <c r="B38" s="478"/>
       <c r="C38" s="359"/>
-      <c r="D38" s="548"/>
+      <c r="D38" s="475"/>
       <c r="E38" s="315"/>
       <c r="F38" s="315"/>
       <c r="G38" s="351"/>
       <c r="H38" s="370"/>
     </row>
     <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="474"/>
+      <c r="B39" s="478"/>
       <c r="C39" s="359"/>
-      <c r="D39" s="548"/>
+      <c r="D39" s="475"/>
       <c r="E39" s="315"/>
       <c r="F39" s="315"/>
       <c r="G39" s="351"/>
       <c r="H39" s="370"/>
     </row>
     <row r="40" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="474"/>
+      <c r="B40" s="478"/>
       <c r="C40" s="355"/>
-      <c r="D40" s="548"/>
+      <c r="D40" s="475"/>
       <c r="E40" s="355"/>
       <c r="F40" s="355"/>
       <c r="G40" s="360"/>
       <c r="H40" s="371"/>
     </row>
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="474"/>
+      <c r="B41" s="478"/>
       <c r="C41" s="359"/>
-      <c r="D41" s="546" t="s">
-        <v>352</v>
+      <c r="D41" s="474" t="s">
+        <v>351</v>
       </c>
       <c r="E41" s="315"/>
       <c r="F41" s="315"/>
@@ -12354,37 +12354,37 @@
       <c r="H41" s="370"/>
     </row>
     <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="474"/>
+      <c r="B42" s="478"/>
       <c r="C42" s="359"/>
-      <c r="D42" s="548"/>
+      <c r="D42" s="475"/>
       <c r="E42" s="315"/>
       <c r="F42" s="315"/>
       <c r="G42" s="351"/>
       <c r="H42" s="370"/>
     </row>
     <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="474"/>
+      <c r="B43" s="478"/>
       <c r="C43" s="359"/>
-      <c r="D43" s="548"/>
+      <c r="D43" s="475"/>
       <c r="E43" s="315"/>
       <c r="F43" s="315"/>
       <c r="G43" s="351"/>
       <c r="H43" s="370"/>
     </row>
     <row r="44" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="474"/>
+      <c r="B44" s="478"/>
       <c r="C44" s="355"/>
-      <c r="D44" s="548"/>
+      <c r="D44" s="475"/>
       <c r="E44" s="355"/>
       <c r="F44" s="355"/>
       <c r="G44" s="360"/>
       <c r="H44" s="371"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="474"/>
+      <c r="B45" s="478"/>
       <c r="C45" s="359"/>
-      <c r="D45" s="546" t="s">
-        <v>353</v>
+      <c r="D45" s="474" t="s">
+        <v>352</v>
       </c>
       <c r="E45" s="315"/>
       <c r="F45" s="315"/>
@@ -12392,37 +12392,37 @@
       <c r="H45" s="370"/>
     </row>
     <row r="46" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="474"/>
+      <c r="B46" s="478"/>
       <c r="C46" s="359"/>
-      <c r="D46" s="548"/>
+      <c r="D46" s="475"/>
       <c r="E46" s="315"/>
       <c r="F46" s="315"/>
       <c r="G46" s="351"/>
       <c r="H46" s="370"/>
     </row>
     <row r="47" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="474"/>
+      <c r="B47" s="478"/>
       <c r="C47" s="355"/>
-      <c r="D47" s="548"/>
+      <c r="D47" s="475"/>
       <c r="E47" s="355"/>
       <c r="F47" s="355"/>
       <c r="G47" s="360"/>
       <c r="H47" s="371"/>
     </row>
     <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="474"/>
+      <c r="B48" s="478"/>
       <c r="C48" s="359"/>
-      <c r="D48" s="548"/>
+      <c r="D48" s="475"/>
       <c r="E48" s="315"/>
       <c r="F48" s="315"/>
       <c r="G48" s="351"/>
       <c r="H48" s="370"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="474"/>
+      <c r="B49" s="478"/>
       <c r="C49" s="359"/>
-      <c r="D49" s="546" t="s">
-        <v>343</v>
+      <c r="D49" s="474" t="s">
+        <v>342</v>
       </c>
       <c r="E49" s="315"/>
       <c r="F49" s="315"/>
@@ -12430,43 +12430,43 @@
       <c r="H49" s="370"/>
     </row>
     <row r="50" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="474"/>
+      <c r="B50" s="478"/>
       <c r="C50" s="355"/>
-      <c r="D50" s="548"/>
+      <c r="D50" s="475"/>
       <c r="E50" s="355"/>
       <c r="F50" s="355"/>
       <c r="G50" s="360"/>
       <c r="H50" s="371"/>
     </row>
     <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="474"/>
+      <c r="B51" s="478"/>
       <c r="C51" s="359"/>
-      <c r="D51" s="548"/>
+      <c r="D51" s="475"/>
       <c r="E51" s="315"/>
       <c r="F51" s="315"/>
       <c r="G51" s="351"/>
       <c r="H51" s="370"/>
     </row>
     <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="474"/>
+      <c r="B52" s="478"/>
       <c r="C52" s="359"/>
-      <c r="D52" s="548"/>
+      <c r="D52" s="475"/>
       <c r="E52" s="315"/>
       <c r="F52" s="315"/>
       <c r="G52" s="351"/>
       <c r="H52" s="370"/>
     </row>
     <row r="53" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="474"/>
+      <c r="B53" s="478"/>
       <c r="C53" s="355"/>
-      <c r="D53" s="547"/>
+      <c r="D53" s="377"/>
       <c r="E53" s="355"/>
       <c r="F53" s="355"/>
       <c r="G53" s="360"/>
       <c r="H53" s="371"/>
     </row>
     <row r="54" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="474"/>
+      <c r="B54" s="478"/>
       <c r="C54" s="359"/>
       <c r="D54" s="359"/>
       <c r="E54" s="315"/>
@@ -12475,7 +12475,7 @@
       <c r="H54" s="370"/>
     </row>
     <row r="55" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="474"/>
+      <c r="B55" s="478"/>
       <c r="C55" s="359"/>
       <c r="D55" s="359"/>
       <c r="E55" s="315"/>
@@ -12484,7 +12484,7 @@
       <c r="H55" s="370"/>
     </row>
     <row r="56" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="474"/>
+      <c r="B56" s="478"/>
       <c r="C56" s="355"/>
       <c r="D56" s="355"/>
       <c r="E56" s="355"/>
@@ -12493,7 +12493,7 @@
       <c r="H56" s="371"/>
     </row>
     <row r="57" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="474"/>
+      <c r="B57" s="478"/>
       <c r="C57" s="359"/>
       <c r="D57" s="359"/>
       <c r="E57" s="315"/>
@@ -12502,7 +12502,7 @@
       <c r="H57" s="370"/>
     </row>
     <row r="58" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="474"/>
+      <c r="B58" s="478"/>
       <c r="C58" s="359"/>
       <c r="D58" s="359"/>
       <c r="E58" s="315"/>
@@ -12511,7 +12511,7 @@
       <c r="H58" s="370"/>
     </row>
     <row r="59" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="474"/>
+      <c r="B59" s="478"/>
       <c r="C59" s="355"/>
       <c r="D59" s="355"/>
       <c r="E59" s="355"/>
@@ -12520,7 +12520,7 @@
       <c r="H59" s="371"/>
     </row>
     <row r="60" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="474"/>
+      <c r="B60" s="478"/>
       <c r="C60" s="359"/>
       <c r="D60" s="359"/>
       <c r="E60" s="315"/>
@@ -12529,7 +12529,7 @@
       <c r="H60" s="370"/>
     </row>
     <row r="61" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="474"/>
+      <c r="B61" s="478"/>
       <c r="C61" s="359"/>
       <c r="D61" s="359"/>
       <c r="E61" s="315"/>
@@ -12538,7 +12538,7 @@
       <c r="H61" s="370"/>
     </row>
     <row r="62" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="474"/>
+      <c r="B62" s="478"/>
       <c r="C62" s="355"/>
       <c r="D62" s="355"/>
       <c r="E62" s="355"/>
@@ -12547,7 +12547,7 @@
       <c r="H62" s="371"/>
     </row>
     <row r="63" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="474"/>
+      <c r="B63" s="478"/>
       <c r="C63" s="359"/>
       <c r="D63" s="359"/>
       <c r="E63" s="315"/>
@@ -12556,7 +12556,7 @@
       <c r="H63" s="370"/>
     </row>
     <row r="64" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="474"/>
+      <c r="B64" s="478"/>
       <c r="C64" s="359"/>
       <c r="D64" s="359"/>
       <c r="E64" s="315"/>
@@ -12565,7 +12565,7 @@
       <c r="H64" s="370"/>
     </row>
     <row r="65" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="474"/>
+      <c r="B65" s="478"/>
       <c r="C65" s="355"/>
       <c r="D65" s="355"/>
       <c r="E65" s="355"/>
@@ -12574,7 +12574,7 @@
       <c r="H65" s="371"/>
     </row>
     <row r="66" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="474"/>
+      <c r="B66" s="478"/>
       <c r="C66" s="359"/>
       <c r="D66" s="359"/>
       <c r="E66" s="315"/>
@@ -12583,7 +12583,7 @@
       <c r="H66" s="370"/>
     </row>
     <row r="67" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="474"/>
+      <c r="B67" s="478"/>
       <c r="C67" s="359"/>
       <c r="D67" s="359"/>
       <c r="E67" s="315"/>
@@ -12592,7 +12592,7 @@
       <c r="H67" s="370"/>
     </row>
     <row r="68" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="474"/>
+      <c r="B68" s="478"/>
       <c r="C68" s="355"/>
       <c r="D68" s="355"/>
       <c r="E68" s="355"/>
@@ -12601,7 +12601,7 @@
       <c r="H68" s="371"/>
     </row>
     <row r="69" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="474"/>
+      <c r="B69" s="478"/>
       <c r="C69" s="359"/>
       <c r="D69" s="359"/>
       <c r="E69" s="315"/>
@@ -12610,7 +12610,7 @@
       <c r="H69" s="370"/>
     </row>
     <row r="70" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="474"/>
+      <c r="B70" s="478"/>
       <c r="C70" s="359"/>
       <c r="D70" s="359"/>
       <c r="E70" s="315"/>
@@ -12619,7 +12619,7 @@
       <c r="H70" s="370"/>
     </row>
     <row r="71" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="474"/>
+      <c r="B71" s="478"/>
       <c r="C71" s="355"/>
       <c r="D71" s="355"/>
       <c r="E71" s="355"/>
@@ -12628,7 +12628,7 @@
       <c r="H71" s="371"/>
     </row>
     <row r="72" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="474"/>
+      <c r="B72" s="478"/>
       <c r="C72" s="359"/>
       <c r="D72" s="359"/>
       <c r="E72" s="315"/>
@@ -12637,7 +12637,7 @@
       <c r="H72" s="370"/>
     </row>
     <row r="73" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="474"/>
+      <c r="B73" s="478"/>
       <c r="C73" s="359"/>
       <c r="D73" s="359"/>
       <c r="E73" s="315"/>
@@ -12646,7 +12646,7 @@
       <c r="H73" s="370"/>
     </row>
     <row r="74" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="474"/>
+      <c r="B74" s="478"/>
       <c r="C74" s="355"/>
       <c r="D74" s="355"/>
       <c r="E74" s="355"/>
@@ -12655,7 +12655,7 @@
       <c r="H74" s="371"/>
     </row>
     <row r="75" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="474"/>
+      <c r="B75" s="478"/>
       <c r="C75" s="359"/>
       <c r="D75" s="359"/>
       <c r="E75" s="315"/>
@@ -12664,7 +12664,7 @@
       <c r="H75" s="370"/>
     </row>
     <row r="76" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="474"/>
+      <c r="B76" s="478"/>
       <c r="C76" s="362"/>
       <c r="D76" s="359"/>
       <c r="E76" s="315"/>
@@ -12673,7 +12673,7 @@
       <c r="H76" s="370"/>
     </row>
     <row r="77" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="474"/>
+      <c r="B77" s="478"/>
       <c r="D77" s="359"/>
       <c r="E77" s="315"/>
       <c r="F77" s="315"/>
@@ -12681,7 +12681,7 @@
       <c r="H77" s="370"/>
     </row>
     <row r="78" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="474"/>
+      <c r="B78" s="478"/>
       <c r="D78" s="359"/>
       <c r="E78" s="315"/>
       <c r="F78" s="315"/>
@@ -12689,7 +12689,7 @@
       <c r="H78" s="370"/>
     </row>
     <row r="79" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="475"/>
+      <c r="B79" s="479"/>
       <c r="C79" s="372"/>
       <c r="D79" s="373"/>
       <c r="E79" s="374"/>
@@ -14469,12 +14469,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D45:D48"/>
     <mergeCell ref="B4:B79"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:D12"/>
@@ -14482,6 +14476,12 @@
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D45:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14512,48 +14512,48 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="62.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="488"/>
     </row>
     <row r="3" spans="2:10" ht="4.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="403" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="411" t="s">
+      <c r="G3" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="486"/>
-      <c r="I3" s="487"/>
-      <c r="J3" s="488"/>
+      <c r="H3" s="489"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="491"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="410"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -14561,10 +14561,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="394" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -14584,8 +14584,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="395"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -14603,8 +14603,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="404"/>
-      <c r="C7" s="379"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="396"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -14624,8 +14624,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="404"/>
-      <c r="C8" s="379"/>
+      <c r="B8" s="393"/>
+      <c r="C8" s="396"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -14643,8 +14643,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="404"/>
-      <c r="C9" s="379"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="396"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -14662,8 +14662,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="404"/>
-      <c r="C10" s="379"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="396"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -14681,8 +14681,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="404"/>
-      <c r="C11" s="379"/>
+      <c r="B11" s="393"/>
+      <c r="C11" s="396"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -14700,8 +14700,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="404"/>
-      <c r="C12" s="379"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="396"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -14719,8 +14719,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="404"/>
-      <c r="C13" s="379"/>
+      <c r="B13" s="393"/>
+      <c r="C13" s="396"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -14738,8 +14738,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="404"/>
-      <c r="C14" s="379"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="396"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -14757,9 +14757,9 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="404"/>
-      <c r="C15" s="379"/>
-      <c r="D15" s="490" t="s">
+      <c r="B15" s="393"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="22">
@@ -14776,9 +14776,9 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="404"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="491"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="397"/>
+      <c r="D16" s="494"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
       <c r="G16" s="113"/>
@@ -14787,8 +14787,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="404"/>
-      <c r="C17" s="408" t="s">
+      <c r="B17" s="393"/>
+      <c r="C17" s="400" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -14808,8 +14808,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="404"/>
-      <c r="C18" s="404"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="393"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -14827,8 +14827,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="404"/>
-      <c r="C19" s="404"/>
+      <c r="B19" s="393"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -14846,8 +14846,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="404"/>
-      <c r="C20" s="404"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="393"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -14865,8 +14865,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="404"/>
-      <c r="C21" s="404"/>
+      <c r="B21" s="393"/>
+      <c r="C21" s="393"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -14884,8 +14884,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="404"/>
-      <c r="C22" s="404"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="393"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -14903,8 +14903,8 @@
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="489"/>
-      <c r="C23" s="489"/>
+      <c r="B23" s="492"/>
+      <c r="C23" s="492"/>
       <c r="D23" s="143" t="s">
         <v>137</v>
       </c>
@@ -15601,142 +15601,142 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="488"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="403" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="411" t="s">
+      <c r="G3" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="403" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="403" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="410"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="415"/>
-      <c r="I4" s="415"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
+      <c r="H4" s="407"/>
+      <c r="I4" s="407"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="394" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -15787,9 +15787,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="395"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -15816,9 +15816,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="403"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="392"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -15859,9 +15859,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="403"/>
-      <c r="C8" s="379"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="392"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -15886,9 +15886,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="404"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="511" t="s">
+      <c r="B9" s="393"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -15933,9 +15933,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="404"/>
-      <c r="C10" s="379"/>
-      <c r="D10" s="512"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="396"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -15960,9 +15960,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="404"/>
-      <c r="C11" s="379"/>
-      <c r="D11" s="511" t="s">
+      <c r="B11" s="393"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16003,9 +16003,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="404"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="512"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="396"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16032,9 +16032,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="404"/>
-      <c r="C13" s="379"/>
-      <c r="D13" s="513" t="s">
+      <c r="B13" s="393"/>
+      <c r="C13" s="396"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16067,9 +16067,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="404"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="514"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16096,9 +16096,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="404"/>
-      <c r="C15" s="379"/>
-      <c r="D15" s="511" t="s">
+      <c r="B15" s="393"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16135,9 +16135,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="404"/>
-      <c r="C16" s="379"/>
-      <c r="D16" s="512"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16164,9 +16164,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="404"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="511" t="s">
+      <c r="B17" s="393"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16209,9 +16209,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="404"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="512"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16238,9 +16238,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="404"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="393"/>
+      <c r="C19" s="396"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16277,9 +16277,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="404"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="396"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16306,9 +16306,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="404"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="523" t="s">
+      <c r="B21" s="393"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16341,9 +16341,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="404"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="524"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16370,8 +16370,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="404"/>
-      <c r="C23" s="379"/>
+      <c r="B23" s="393"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16411,8 +16411,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="404"/>
-      <c r="C24" s="379"/>
+      <c r="B24" s="393"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16438,9 +16438,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="404"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="393"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -16477,9 +16477,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="404"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="393"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16506,11 +16506,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="404"/>
-      <c r="C27" s="408" t="s">
+      <c r="B27" s="393"/>
+      <c r="C27" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16547,9 +16547,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="404"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="393"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16576,9 +16576,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="404"/>
-      <c r="C29" s="404"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="393"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -16615,9 +16615,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="404"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="393"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -16644,9 +16644,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="404"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="393"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -16683,9 +16683,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="404"/>
-      <c r="C32" s="404"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -16712,9 +16712,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="404"/>
-      <c r="C33" s="404"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="393"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -16751,9 +16751,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="404"/>
-      <c r="C34" s="404"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="393"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -16780,9 +16780,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="404"/>
-      <c r="C35" s="404"/>
-      <c r="D35" s="511" t="s">
+      <c r="B35" s="393"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -16819,9 +16819,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="404"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="512"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -16848,9 +16848,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="404"/>
-      <c r="C37" s="404"/>
-      <c r="D37" s="511" t="s">
+      <c r="B37" s="393"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -16887,9 +16887,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="404"/>
-      <c r="C38" s="404"/>
-      <c r="D38" s="512"/>
+      <c r="B38" s="393"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -16916,9 +16916,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="404"/>
-      <c r="C39" s="404"/>
-      <c r="D39" s="513" t="s">
+      <c r="B39" s="393"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -16949,9 +16949,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="404"/>
-      <c r="C40" s="404"/>
-      <c r="D40" s="527"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -16978,9 +16978,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="404"/>
-      <c r="C41" s="404"/>
-      <c r="D41" s="528" t="s">
+      <c r="B41" s="393"/>
+      <c r="C41" s="393"/>
+      <c r="D41" s="506" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -17013,9 +17013,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="404"/>
-      <c r="C42" s="404"/>
-      <c r="D42" s="529"/>
+      <c r="B42" s="393"/>
+      <c r="C42" s="393"/>
+      <c r="D42" s="507"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -17042,13 +17042,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="377" t="s">
+      <c r="B43" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="381" t="s">
+      <c r="C43" s="411" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="385" t="s">
+      <c r="D43" s="415" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -17083,9 +17083,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="378"/>
-      <c r="C44" s="382"/>
-      <c r="D44" s="386"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="412"/>
+      <c r="D44" s="416"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -17101,9 +17101,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="379"/>
-      <c r="C45" s="383"/>
-      <c r="D45" s="386"/>
+      <c r="B45" s="396"/>
+      <c r="C45" s="413"/>
+      <c r="D45" s="416"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -17119,9 +17119,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="379"/>
-      <c r="C46" s="383"/>
-      <c r="D46" s="387" t="s">
+      <c r="B46" s="396"/>
+      <c r="C46" s="413"/>
+      <c r="D46" s="417" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -17136,18 +17136,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="379"/>
-      <c r="C47" s="383"/>
-      <c r="D47" s="387"/>
+      <c r="B47" s="396"/>
+      <c r="C47" s="413"/>
+      <c r="D47" s="417"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="379"/>
-      <c r="C48" s="383"/>
-      <c r="D48" s="387" t="s">
+      <c r="B48" s="396"/>
+      <c r="C48" s="413"/>
+      <c r="D48" s="417" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -17162,18 +17162,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="379"/>
-      <c r="C49" s="383"/>
-      <c r="D49" s="387"/>
+      <c r="B49" s="396"/>
+      <c r="C49" s="413"/>
+      <c r="D49" s="417"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="379"/>
-      <c r="C50" s="383"/>
-      <c r="D50" s="387" t="s">
+      <c r="B50" s="396"/>
+      <c r="C50" s="413"/>
+      <c r="D50" s="417" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -17188,9 +17188,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="380"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="388"/>
+      <c r="B51" s="397"/>
+      <c r="C51" s="414"/>
+      <c r="D51" s="418"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -17501,18 +17501,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="X3:Z4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
@@ -17529,28 +17539,18 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17594,142 +17594,142 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="488"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="403" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="411" t="s">
+      <c r="G3" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="403" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="403" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="410"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="415"/>
-      <c r="I4" s="415"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
+      <c r="H4" s="407"/>
+      <c r="I4" s="407"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="394" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -17780,9 +17780,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="395"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -17809,9 +17809,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="403"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="392"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -17852,9 +17852,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="403"/>
-      <c r="C8" s="379"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="392"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -17879,9 +17879,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="404"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="511" t="s">
+      <c r="B9" s="393"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -17926,9 +17926,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="404"/>
-      <c r="C10" s="379"/>
-      <c r="D10" s="512"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="396"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -17953,9 +17953,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="404"/>
-      <c r="C11" s="379"/>
-      <c r="D11" s="511" t="s">
+      <c r="B11" s="393"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -17996,9 +17996,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="404"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="512"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="396"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18025,9 +18025,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="404"/>
-      <c r="C13" s="379"/>
-      <c r="D13" s="513" t="s">
+      <c r="B13" s="393"/>
+      <c r="C13" s="396"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18060,9 +18060,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="404"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="514"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18089,9 +18089,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="404"/>
-      <c r="C15" s="379"/>
-      <c r="D15" s="511" t="s">
+      <c r="B15" s="393"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18128,9 +18128,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="404"/>
-      <c r="C16" s="379"/>
-      <c r="D16" s="512"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18157,9 +18157,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="404"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="511" t="s">
+      <c r="B17" s="393"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18202,9 +18202,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="404"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="512"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18231,9 +18231,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="404"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="393"/>
+      <c r="C19" s="396"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18270,9 +18270,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="404"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="396"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18299,9 +18299,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="404"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="523" t="s">
+      <c r="B21" s="393"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -18336,9 +18336,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="404"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="524"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18365,8 +18365,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="404"/>
-      <c r="C23" s="379"/>
+      <c r="B23" s="393"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -18406,8 +18406,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="404"/>
-      <c r="C24" s="379"/>
+      <c r="B24" s="393"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18433,9 +18433,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="404"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="393"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -18472,9 +18472,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="404"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="393"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18501,11 +18501,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="404"/>
-      <c r="C27" s="408" t="s">
+      <c r="B27" s="393"/>
+      <c r="C27" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18542,9 +18542,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="404"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="393"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18571,9 +18571,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="404"/>
-      <c r="C29" s="404"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="393"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18610,9 +18610,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="404"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="393"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -18639,9 +18639,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="404"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="393"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -18678,9 +18678,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="404"/>
-      <c r="C32" s="404"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -18707,9 +18707,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="404"/>
-      <c r="C33" s="404"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="393"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -18746,9 +18746,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="404"/>
-      <c r="C34" s="404"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="393"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -18775,9 +18775,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="404"/>
-      <c r="C35" s="404"/>
-      <c r="D35" s="511" t="s">
+      <c r="B35" s="393"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -18814,9 +18814,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="404"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="512"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -18843,9 +18843,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="404"/>
-      <c r="C37" s="404"/>
-      <c r="D37" s="511" t="s">
+      <c r="B37" s="393"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -18882,9 +18882,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="404"/>
-      <c r="C38" s="404"/>
-      <c r="D38" s="512"/>
+      <c r="B38" s="393"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -18911,9 +18911,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="404"/>
-      <c r="C39" s="404"/>
-      <c r="D39" s="513" t="s">
+      <c r="B39" s="393"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -18944,9 +18944,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="404"/>
-      <c r="C40" s="404"/>
-      <c r="D40" s="527"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -18973,9 +18973,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="404"/>
-      <c r="C41" s="404"/>
-      <c r="D41" s="490" t="s">
+      <c r="B41" s="393"/>
+      <c r="C41" s="393"/>
+      <c r="D41" s="493" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19010,9 +19010,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="489"/>
-      <c r="C42" s="489"/>
-      <c r="D42" s="491"/>
+      <c r="B42" s="492"/>
+      <c r="C42" s="492"/>
+      <c r="D42" s="494"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19373,16 +19373,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -19399,24 +19407,16 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -19459,162 +19459,162 @@
   <sheetData>
     <row r="1" spans="2:30" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:30" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="484"/>
-      <c r="O2" s="484"/>
-      <c r="P2" s="484"/>
-      <c r="Q2" s="484"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="484"/>
-      <c r="T2" s="484"/>
-      <c r="U2" s="484"/>
-      <c r="V2" s="484"/>
-      <c r="W2" s="484"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="484"/>
-      <c r="AA2" s="484"/>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="484"/>
-      <c r="AD2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="487"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="487"/>
+      <c r="P2" s="487"/>
+      <c r="Q2" s="487"/>
+      <c r="R2" s="487"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="487"/>
+      <c r="U2" s="487"/>
+      <c r="V2" s="487"/>
+      <c r="W2" s="487"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="487"/>
+      <c r="AA2" s="487"/>
+      <c r="AB2" s="487"/>
+      <c r="AC2" s="487"/>
+      <c r="AD2" s="488"/>
     </row>
     <row r="3" spans="2:30" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="403" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="411" t="s">
+      <c r="G3" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="411" t="s">
+      <c r="H3" s="403" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="403" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="493" t="s">
+      <c r="L3" s="496" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="532" t="s">
+      <c r="V3" s="547" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="540" t="s">
+      <c r="W3" s="543" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="536" t="s">
+      <c r="X3" s="539" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="536" t="s">
+      <c r="Y3" s="539" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="536" t="s">
+      <c r="Z3" s="539" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="538" t="s">
+      <c r="AA3" s="541" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="530" t="s">
+      <c r="AB3" s="545" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="504"/>
-      <c r="AD3" s="505"/>
+      <c r="AC3" s="509"/>
+      <c r="AD3" s="510"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="410"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="415"/>
-      <c r="G4" s="415"/>
-      <c r="H4" s="415"/>
-      <c r="I4" s="415"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="533"/>
-      <c r="W4" s="541"/>
-      <c r="X4" s="537"/>
-      <c r="Y4" s="537"/>
-      <c r="Z4" s="537"/>
-      <c r="AA4" s="539"/>
-      <c r="AB4" s="531"/>
-      <c r="AC4" s="506"/>
-      <c r="AD4" s="507"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
+      <c r="H4" s="407"/>
+      <c r="I4" s="407"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="528"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="548"/>
+      <c r="W4" s="544"/>
+      <c r="X4" s="540"/>
+      <c r="Y4" s="540"/>
+      <c r="Z4" s="540"/>
+      <c r="AA4" s="542"/>
+      <c r="AB4" s="546"/>
+      <c r="AC4" s="511"/>
+      <c r="AD4" s="512"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="377" t="s">
+      <c r="C5" s="394" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -19669,9 +19669,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="395"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -19702,9 +19702,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="403"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="392"/>
+      <c r="C7" s="395"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -19745,9 +19745,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="403"/>
-      <c r="C8" s="379"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="392"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -19776,9 +19776,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="404"/>
-      <c r="C9" s="379"/>
-      <c r="D9" s="534" t="s">
+      <c r="B9" s="393"/>
+      <c r="C9" s="396"/>
+      <c r="D9" s="536" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -19829,9 +19829,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="404"/>
-      <c r="C10" s="379"/>
-      <c r="D10" s="535"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="396"/>
+      <c r="D10" s="537"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -19860,9 +19860,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="404"/>
-      <c r="C11" s="379"/>
-      <c r="D11" s="534" t="s">
+      <c r="B11" s="393"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="536" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -19909,9 +19909,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="404"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="535"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="396"/>
+      <c r="D12" s="537"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -19942,9 +19942,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="404"/>
-      <c r="C13" s="379"/>
-      <c r="D13" s="511" t="s">
+      <c r="B13" s="393"/>
+      <c r="C13" s="396"/>
+      <c r="D13" s="498" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -19981,9 +19981,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="404"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="512"/>
+      <c r="B14" s="393"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="499"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -20014,9 +20014,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="404"/>
-      <c r="C15" s="379"/>
-      <c r="D15" s="534" t="s">
+      <c r="B15" s="393"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="536" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -20057,9 +20057,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="404"/>
-      <c r="C16" s="379"/>
-      <c r="D16" s="535"/>
+      <c r="B16" s="393"/>
+      <c r="C16" s="396"/>
+      <c r="D16" s="537"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -20090,9 +20090,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="404"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="534" t="s">
+      <c r="B17" s="393"/>
+      <c r="C17" s="396"/>
+      <c r="D17" s="536" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -20141,9 +20141,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="404"/>
-      <c r="C18" s="379"/>
-      <c r="D18" s="535"/>
+      <c r="B18" s="393"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="537"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -20174,9 +20174,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="404"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="393"/>
+      <c r="C19" s="396"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -20215,9 +20215,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="404"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="393"/>
+      <c r="C20" s="396"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -20248,9 +20248,9 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="404"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="490" t="s">
+      <c r="B21" s="393"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="493" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -20291,9 +20291,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="404"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="544"/>
+      <c r="B22" s="393"/>
+      <c r="C22" s="396"/>
+      <c r="D22" s="535"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -20324,8 +20324,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="404"/>
-      <c r="C23" s="379"/>
+      <c r="B23" s="393"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -20367,8 +20367,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="404"/>
-      <c r="C24" s="379"/>
+      <c r="B24" s="393"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -20398,9 +20398,9 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="404"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="393"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -20439,9 +20439,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="404"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="393"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -20472,11 +20472,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="404"/>
-      <c r="C27" s="408" t="s">
+      <c r="B27" s="393"/>
+      <c r="C27" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -20517,9 +20517,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="404"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="393"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -20550,9 +20550,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="404"/>
-      <c r="C29" s="404"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="393"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -20591,9 +20591,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="404"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="393"/>
+      <c r="C30" s="393"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -20624,9 +20624,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="404"/>
-      <c r="C31" s="404"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="393"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -20665,9 +20665,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="404"/>
-      <c r="C32" s="404"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -20698,9 +20698,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="404"/>
-      <c r="C33" s="404"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="393"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -20739,9 +20739,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="404"/>
-      <c r="C34" s="404"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="393"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -20772,9 +20772,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="404"/>
-      <c r="C35" s="404"/>
-      <c r="D35" s="534" t="s">
+      <c r="B35" s="393"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="536" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -20815,9 +20815,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="404"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="535"/>
+      <c r="B36" s="393"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="537"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -20848,9 +20848,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="404"/>
-      <c r="C37" s="404"/>
-      <c r="D37" s="534" t="s">
+      <c r="B37" s="393"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="536" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -20889,9 +20889,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="404"/>
-      <c r="C38" s="404"/>
-      <c r="D38" s="535"/>
+      <c r="B38" s="393"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="537"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -20922,9 +20922,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="404"/>
-      <c r="C39" s="404"/>
-      <c r="D39" s="511" t="s">
+      <c r="B39" s="393"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="498" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -20959,9 +20959,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="404"/>
-      <c r="C40" s="404"/>
-      <c r="D40" s="545"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="538"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -20992,9 +20992,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="404"/>
-      <c r="C41" s="404"/>
-      <c r="D41" s="542" t="s">
+      <c r="B41" s="393"/>
+      <c r="C41" s="393"/>
+      <c r="D41" s="533" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -21033,9 +21033,9 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="489"/>
-      <c r="C42" s="489"/>
-      <c r="D42" s="543"/>
+      <c r="B42" s="492"/>
+      <c r="C42" s="492"/>
+      <c r="D42" s="534"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -21398,23 +21398,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="D5:D6"/>
@@ -21431,22 +21430,23 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="358">
   <si>
     <t>N°</t>
   </si>
@@ -1794,19 +1794,7 @@
     <t>Func</t>
   </si>
   <si>
-    <t>Registrar Entidad</t>
-  </si>
-  <si>
-    <t>Editar Entidad</t>
-  </si>
-  <si>
     <t>Gestionar Entidad</t>
-  </si>
-  <si>
-    <t>Consultar Entidad</t>
-  </si>
-  <si>
-    <t>Registrar Baja/Supensión Entidad</t>
   </si>
   <si>
     <t>PROYECTO MID
@@ -1847,9 +1835,6 @@
 (Bancos, etc)</t>
   </si>
   <si>
-    <t>Registrar Descuentos por Transacción Entidad</t>
-  </si>
-  <si>
     <t>Proy</t>
   </si>
   <si>
@@ -1868,6 +1853,34 @@
   </si>
   <si>
     <t>Módulos</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-001-Registrar Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-002-Editar Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-004-Consultar Entidad</t>
+  </si>
+  <si>
+    <t>Gestionar Estados 
+Entidad</t>
+  </si>
+  <si>
+    <t>Consultar Bandeja de Entidades</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-005-Consultar Bandeja de Entidades</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-003-Cambio de estado Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-006-Registrar Baja/Supensión Entidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado </t>
   </si>
 </sst>
 </file>
@@ -4927,6 +4940,42 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4975,18 +5024,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5023,36 +5063,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5101,90 +5198,6 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5215,42 +5228,42 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5287,12 +5300,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5305,9 +5396,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5317,79 +5405,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5401,44 +5450,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5488,7 +5501,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,62 +5862,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.55" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="380" t="s">
+      <c r="B2" s="392" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="382"/>
-      <c r="N2" s="383"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="395"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="401" t="s">
+      <c r="B3" s="410" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="403" t="s">
+      <c r="C3" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="403" t="s">
+      <c r="D3" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="405" t="s">
+      <c r="E3" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="403" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="417" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="389" t="s">
+      <c r="H3" s="401" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="390"/>
-      <c r="J3" s="390"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="384" t="s">
+      <c r="M3" s="396" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="378" t="s">
+      <c r="N3" s="390" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="402"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="409"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="418"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -5918,14 +5931,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="385"/>
-      <c r="N4" s="379"/>
+      <c r="M4" s="397"/>
+      <c r="N4" s="391"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="378" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -5946,8 +5959,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="392"/>
-      <c r="C6" s="395"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="406"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -5963,8 +5976,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="393"/>
-      <c r="C7" s="396"/>
+      <c r="B7" s="405"/>
+      <c r="C7" s="380"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +5996,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="393"/>
-      <c r="C8" s="396"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="380"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6003,9 +6016,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="393"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="386" t="s">
+      <c r="B9" s="405"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="398" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6036,9 +6049,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="393"/>
-      <c r="C10" s="396"/>
-      <c r="D10" s="387"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="399"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6057,9 +6070,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="393"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="387"/>
+      <c r="B11" s="405"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="399"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6078,9 +6091,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="393"/>
-      <c r="C12" s="396"/>
-      <c r="D12" s="387"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="399"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6099,9 +6112,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="393"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="387"/>
+      <c r="B13" s="405"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="399"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6119,9 +6132,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="393"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="387"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="399"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6139,9 +6152,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="393"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="387"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="399"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6159,9 +6172,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="393"/>
-      <c r="C16" s="396"/>
-      <c r="D16" s="387"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="399"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6179,9 +6192,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="393"/>
-      <c r="C17" s="396"/>
-      <c r="D17" s="387"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="399"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6200,9 +6213,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="393"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="387"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="399"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6221,9 +6234,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="393"/>
-      <c r="C19" s="396"/>
-      <c r="D19" s="387"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="399"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6240,9 +6253,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="393"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="387"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="399"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6259,9 +6272,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="393"/>
-      <c r="C21" s="396"/>
-      <c r="D21" s="387"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="399"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6278,9 +6291,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="393"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="387"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="399"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6297,9 +6310,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="393"/>
-      <c r="C23" s="396"/>
-      <c r="D23" s="387"/>
+      <c r="B23" s="405"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="399"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6316,9 +6329,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="393"/>
-      <c r="C24" s="396"/>
-      <c r="D24" s="387"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="380"/>
+      <c r="D24" s="399"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6335,9 +6348,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="393"/>
-      <c r="C25" s="396"/>
-      <c r="D25" s="387"/>
+      <c r="B25" s="405"/>
+      <c r="C25" s="380"/>
+      <c r="D25" s="399"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6351,9 +6364,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="393"/>
-      <c r="C26" s="396"/>
-      <c r="D26" s="387"/>
+      <c r="B26" s="405"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="399"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6367,9 +6380,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="393"/>
-      <c r="C27" s="396"/>
-      <c r="D27" s="387"/>
+      <c r="B27" s="405"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="399"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6383,9 +6396,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="393"/>
-      <c r="C28" s="396"/>
-      <c r="D28" s="387"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="399"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6399,9 +6412,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="393"/>
-      <c r="C29" s="396"/>
-      <c r="D29" s="387"/>
+      <c r="B29" s="405"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="399"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6415,9 +6428,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="393"/>
-      <c r="C30" s="396"/>
-      <c r="D30" s="387"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="399"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6431,9 +6444,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="393"/>
-      <c r="C31" s="396"/>
-      <c r="D31" s="387"/>
+      <c r="B31" s="405"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="399"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6447,9 +6460,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="393"/>
-      <c r="C32" s="396"/>
-      <c r="D32" s="387"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="380"/>
+      <c r="D32" s="399"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6463,9 +6476,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="393"/>
-      <c r="C33" s="396"/>
-      <c r="D33" s="387"/>
+      <c r="B33" s="405"/>
+      <c r="C33" s="380"/>
+      <c r="D33" s="399"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6479,9 +6492,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="393"/>
-      <c r="C34" s="396"/>
-      <c r="D34" s="387"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="380"/>
+      <c r="D34" s="399"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6495,9 +6508,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="393"/>
-      <c r="C35" s="396"/>
-      <c r="D35" s="387"/>
+      <c r="B35" s="405"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="399"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6511,9 +6524,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="393"/>
-      <c r="C36" s="396"/>
-      <c r="D36" s="387"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="380"/>
+      <c r="D36" s="399"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6527,9 +6540,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="393"/>
-      <c r="C37" s="396"/>
-      <c r="D37" s="387"/>
+      <c r="B37" s="405"/>
+      <c r="C37" s="380"/>
+      <c r="D37" s="399"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6543,9 +6556,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="393"/>
-      <c r="C38" s="396"/>
-      <c r="D38" s="387"/>
+      <c r="B38" s="405"/>
+      <c r="C38" s="380"/>
+      <c r="D38" s="399"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6559,9 +6572,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="393"/>
-      <c r="C39" s="396"/>
-      <c r="D39" s="387"/>
+      <c r="B39" s="405"/>
+      <c r="C39" s="380"/>
+      <c r="D39" s="399"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6575,9 +6588,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="393"/>
-      <c r="C40" s="396"/>
-      <c r="D40" s="387"/>
+      <c r="B40" s="405"/>
+      <c r="C40" s="380"/>
+      <c r="D40" s="399"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6591,9 +6604,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="393"/>
-      <c r="C41" s="396"/>
-      <c r="D41" s="387"/>
+      <c r="B41" s="405"/>
+      <c r="C41" s="380"/>
+      <c r="D41" s="399"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6607,9 +6620,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="393"/>
-      <c r="C42" s="396"/>
-      <c r="D42" s="387"/>
+      <c r="B42" s="405"/>
+      <c r="C42" s="380"/>
+      <c r="D42" s="399"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6623,9 +6636,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="393"/>
-      <c r="C43" s="396"/>
-      <c r="D43" s="388"/>
+      <c r="B43" s="405"/>
+      <c r="C43" s="380"/>
+      <c r="D43" s="400"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6638,8 +6651,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="393"/>
-      <c r="C44" s="396"/>
+      <c r="B44" s="405"/>
+      <c r="C44" s="380"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6661,8 +6674,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="393"/>
-      <c r="C45" s="396"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="380"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6681,8 +6694,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="393"/>
-      <c r="C46" s="396"/>
+      <c r="B46" s="405"/>
+      <c r="C46" s="380"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6704,8 +6717,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="393"/>
-      <c r="C47" s="396"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="380"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6728,8 +6741,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="393"/>
-      <c r="C48" s="396"/>
+      <c r="B48" s="405"/>
+      <c r="C48" s="380"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6751,9 +6764,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="393"/>
-      <c r="C49" s="396"/>
-      <c r="D49" s="398" t="s">
+      <c r="B49" s="405"/>
+      <c r="C49" s="380"/>
+      <c r="D49" s="407" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6774,9 +6787,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="393"/>
-      <c r="C50" s="397"/>
-      <c r="D50" s="399"/>
+      <c r="B50" s="405"/>
+      <c r="C50" s="381"/>
+      <c r="D50" s="408"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6787,8 +6800,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="393"/>
-      <c r="C51" s="400" t="s">
+      <c r="B51" s="405"/>
+      <c r="C51" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6809,8 +6822,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="393"/>
-      <c r="C52" s="393"/>
+      <c r="B52" s="405"/>
+      <c r="C52" s="405"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6832,8 +6845,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="393"/>
-      <c r="C53" s="393"/>
+      <c r="B53" s="405"/>
+      <c r="C53" s="405"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6855,8 +6868,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="393"/>
-      <c r="C54" s="393"/>
+      <c r="B54" s="405"/>
+      <c r="C54" s="405"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6875,8 +6888,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="393"/>
-      <c r="C55" s="393"/>
+      <c r="B55" s="405"/>
+      <c r="C55" s="405"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6898,8 +6911,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="393"/>
-      <c r="C56" s="393"/>
+      <c r="B56" s="405"/>
+      <c r="C56" s="405"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -6921,8 +6934,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="393"/>
-      <c r="C57" s="393"/>
+      <c r="B57" s="405"/>
+      <c r="C57" s="405"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -6948,8 +6961,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="393"/>
-      <c r="C58" s="393"/>
+      <c r="B58" s="405"/>
+      <c r="C58" s="405"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -6963,13 +6976,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="394" t="s">
+      <c r="B59" s="378" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="411" t="s">
+      <c r="C59" s="382" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="415" t="s">
+      <c r="D59" s="386" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -6989,9 +7002,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="410"/>
-      <c r="C60" s="412"/>
-      <c r="D60" s="416"/>
+      <c r="B60" s="379"/>
+      <c r="C60" s="383"/>
+      <c r="D60" s="387"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7008,9 +7021,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="396"/>
-      <c r="C61" s="413"/>
-      <c r="D61" s="416"/>
+      <c r="B61" s="380"/>
+      <c r="C61" s="384"/>
+      <c r="D61" s="387"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7028,8 +7041,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="396"/>
-      <c r="C62" s="413"/>
+      <c r="B62" s="380"/>
+      <c r="C62" s="384"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7056,9 +7069,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="396"/>
-      <c r="C63" s="413"/>
-      <c r="D63" s="417" t="s">
+      <c r="B63" s="380"/>
+      <c r="C63" s="384"/>
+      <c r="D63" s="388" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7089,9 +7102,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="396"/>
-      <c r="C64" s="413"/>
-      <c r="D64" s="417"/>
+      <c r="B64" s="380"/>
+      <c r="C64" s="384"/>
+      <c r="D64" s="388"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7118,9 +7131,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="396"/>
-      <c r="C65" s="413"/>
-      <c r="D65" s="417"/>
+      <c r="B65" s="380"/>
+      <c r="C65" s="384"/>
+      <c r="D65" s="388"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7133,9 +7146,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="396"/>
-      <c r="C66" s="413"/>
-      <c r="D66" s="417" t="s">
+      <c r="B66" s="380"/>
+      <c r="C66" s="384"/>
+      <c r="D66" s="388" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7157,9 +7170,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="397"/>
-      <c r="C67" s="414"/>
-      <c r="D67" s="418"/>
+      <c r="B67" s="381"/>
+      <c r="C67" s="385"/>
+      <c r="D67" s="389"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7856,11 +7869,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7876,6 +7884,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7917,66 +7930,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="422" t="s">
+      <c r="B2" s="450" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
-      <c r="J2" s="423"/>
-      <c r="K2" s="423"/>
-      <c r="L2" s="423"/>
-      <c r="M2" s="423"/>
-      <c r="N2" s="423"/>
-      <c r="O2" s="423"/>
-      <c r="P2" s="424"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="451"/>
+      <c r="L2" s="451"/>
+      <c r="M2" s="451"/>
+      <c r="N2" s="451"/>
+      <c r="O2" s="451"/>
+      <c r="P2" s="452"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="453" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="427" t="s">
+      <c r="C3" s="455" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="427" t="s">
+      <c r="D3" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="430" t="s">
+      <c r="E3" s="458" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="427" t="s">
+      <c r="F3" s="455" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="427" t="s">
+      <c r="G3" s="455" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="427" t="s">
+      <c r="H3" s="455" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="427" t="s">
+      <c r="I3" s="455" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
+      <c r="J3" s="460"/>
+      <c r="K3" s="460"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="427" t="s">
+      <c r="M3" s="455" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="427" t="s">
+      <c r="N3" s="455" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="427" t="s">
+      <c r="O3" s="455" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="434" t="s">
+      <c r="P3" s="462" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -7985,13 +7998,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="426"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="431"/>
-      <c r="F4" s="428"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="456"/>
+      <c r="G4" s="456"/>
+      <c r="H4" s="456"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8004,10 +8017,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="428"/>
-      <c r="N4" s="428"/>
-      <c r="O4" s="433"/>
-      <c r="P4" s="435"/>
+      <c r="M4" s="456"/>
+      <c r="N4" s="456"/>
+      <c r="O4" s="461"/>
+      <c r="P4" s="463"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8110,14 +8123,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="446" t="s">
+      <c r="B9" s="429" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="449" t="s">
+      <c r="C9" s="432" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="451" t="s">
+      <c r="E9" s="434" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8148,10 +8161,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="447"/>
-      <c r="C10" s="450"/>
+      <c r="B10" s="430"/>
+      <c r="C10" s="433"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="452"/>
+      <c r="E10" s="435"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8173,10 +8186,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="447"/>
-      <c r="C11" s="450"/>
+      <c r="B11" s="430"/>
+      <c r="C11" s="433"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="452"/>
+      <c r="E11" s="435"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8198,10 +8211,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="447"/>
-      <c r="C12" s="450"/>
+      <c r="B12" s="430"/>
+      <c r="C12" s="433"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="452"/>
+      <c r="E12" s="435"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8223,10 +8236,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="447"/>
-      <c r="C13" s="450"/>
+      <c r="B13" s="430"/>
+      <c r="C13" s="433"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="453" t="s">
+      <c r="E13" s="436" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8249,10 +8262,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="447"/>
-      <c r="C14" s="450"/>
+      <c r="B14" s="430"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="453"/>
+      <c r="E14" s="436"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8273,10 +8286,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="447"/>
-      <c r="C15" s="450"/>
+      <c r="B15" s="430"/>
+      <c r="C15" s="433"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="453"/>
+      <c r="E15" s="436"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8298,10 +8311,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="447"/>
-      <c r="C16" s="450"/>
+      <c r="B16" s="430"/>
+      <c r="C16" s="433"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="453"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8323,10 +8336,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="447"/>
-      <c r="C17" s="450"/>
+      <c r="B17" s="430"/>
+      <c r="C17" s="433"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="453"/>
+      <c r="E17" s="436"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8348,10 +8361,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="447"/>
-      <c r="C18" s="450"/>
+      <c r="B18" s="430"/>
+      <c r="C18" s="433"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="453"/>
+      <c r="E18" s="436"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8373,10 +8386,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="447"/>
-      <c r="C19" s="450"/>
+      <c r="B19" s="430"/>
+      <c r="C19" s="433"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="453"/>
+      <c r="E19" s="436"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8397,10 +8410,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="447"/>
-      <c r="C20" s="450"/>
+      <c r="B20" s="430"/>
+      <c r="C20" s="433"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="453"/>
+      <c r="E20" s="436"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8421,10 +8434,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="447"/>
-      <c r="C21" s="450"/>
+      <c r="B21" s="430"/>
+      <c r="C21" s="433"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="452" t="s">
+      <c r="E21" s="435" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8448,10 +8461,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="447"/>
-      <c r="C22" s="450"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="433"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="452"/>
+      <c r="E22" s="435"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8473,10 +8486,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="447"/>
-      <c r="C23" s="450"/>
+      <c r="B23" s="430"/>
+      <c r="C23" s="433"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="452"/>
+      <c r="E23" s="435"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8498,10 +8511,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="447"/>
-      <c r="C24" s="439"/>
+      <c r="B24" s="430"/>
+      <c r="C24" s="422"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="452"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8523,10 +8536,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="447"/>
-      <c r="C25" s="439"/>
+      <c r="B25" s="430"/>
+      <c r="C25" s="422"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="454" t="s">
+      <c r="E25" s="437" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8550,10 +8563,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="447"/>
-      <c r="C26" s="439"/>
+      <c r="B26" s="430"/>
+      <c r="C26" s="422"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="454"/>
+      <c r="E26" s="437"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8575,10 +8588,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="447"/>
-      <c r="C27" s="439"/>
+      <c r="B27" s="430"/>
+      <c r="C27" s="422"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="454"/>
+      <c r="E27" s="437"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8600,10 +8613,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="447"/>
-      <c r="C28" s="439"/>
+      <c r="B28" s="430"/>
+      <c r="C28" s="422"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="454"/>
+      <c r="E28" s="437"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8625,10 +8638,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="447"/>
-      <c r="C29" s="439"/>
+      <c r="B29" s="430"/>
+      <c r="C29" s="422"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="452" t="s">
+      <c r="E29" s="435" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8652,10 +8665,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="447"/>
-      <c r="C30" s="439"/>
+      <c r="B30" s="430"/>
+      <c r="C30" s="422"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="452"/>
+      <c r="E30" s="435"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8677,10 +8690,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="447"/>
-      <c r="C31" s="439"/>
+      <c r="B31" s="430"/>
+      <c r="C31" s="422"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="452"/>
+      <c r="E31" s="435"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8702,10 +8715,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="447"/>
-      <c r="C32" s="439"/>
+      <c r="B32" s="430"/>
+      <c r="C32" s="422"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="452"/>
+      <c r="E32" s="435"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8727,10 +8740,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="447"/>
-      <c r="C33" s="439"/>
+      <c r="B33" s="430"/>
+      <c r="C33" s="422"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="453"/>
+      <c r="E33" s="436"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8746,10 +8759,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="447"/>
-      <c r="C34" s="439"/>
+      <c r="B34" s="430"/>
+      <c r="C34" s="422"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="453"/>
+      <c r="E34" s="436"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8765,10 +8778,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="447"/>
-      <c r="C35" s="439"/>
+      <c r="B35" s="430"/>
+      <c r="C35" s="422"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="453"/>
+      <c r="E35" s="436"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8784,10 +8797,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="447"/>
-      <c r="C36" s="439"/>
+      <c r="B36" s="430"/>
+      <c r="C36" s="422"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="419"/>
+      <c r="E36" s="438"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8803,7 +8816,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="447"/>
+      <c r="B37" s="430"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8822,12 +8835,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="447"/>
-      <c r="C38" s="455" t="s">
+      <c r="B38" s="430"/>
+      <c r="C38" s="439" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="458" t="s">
+      <c r="E38" s="442" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8851,10 +8864,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="447"/>
-      <c r="C39" s="456"/>
+      <c r="B39" s="430"/>
+      <c r="C39" s="440"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="459"/>
+      <c r="E39" s="443"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8876,10 +8889,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="447"/>
-      <c r="C40" s="456"/>
+      <c r="B40" s="430"/>
+      <c r="C40" s="440"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="459"/>
+      <c r="E40" s="443"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8901,10 +8914,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="447"/>
-      <c r="C41" s="456"/>
+      <c r="B41" s="430"/>
+      <c r="C41" s="440"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="460"/>
+      <c r="E41" s="444"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -8926,8 +8939,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="447"/>
-      <c r="C42" s="456"/>
+      <c r="B42" s="430"/>
+      <c r="C42" s="440"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -8945,8 +8958,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="447"/>
-      <c r="C43" s="456"/>
+      <c r="B43" s="430"/>
+      <c r="C43" s="440"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -8963,8 +8976,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="447"/>
-      <c r="C44" s="456"/>
+      <c r="B44" s="430"/>
+      <c r="C44" s="440"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -8981,8 +8994,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="447"/>
-      <c r="C45" s="456"/>
+      <c r="B45" s="430"/>
+      <c r="C45" s="440"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -8999,8 +9012,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="447"/>
-      <c r="C46" s="457"/>
+      <c r="B46" s="430"/>
+      <c r="C46" s="441"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9017,12 +9030,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="447"/>
-      <c r="C47" s="455" t="s">
+      <c r="B47" s="430"/>
+      <c r="C47" s="439" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="462" t="s">
+      <c r="E47" s="446" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9045,10 +9058,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="447"/>
-      <c r="C48" s="456"/>
+      <c r="B48" s="430"/>
+      <c r="C48" s="440"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="463"/>
+      <c r="E48" s="447"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9069,10 +9082,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="447"/>
-      <c r="C49" s="456"/>
+      <c r="B49" s="430"/>
+      <c r="C49" s="440"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="463"/>
+      <c r="E49" s="447"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9093,10 +9106,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="447"/>
-      <c r="C50" s="456"/>
+      <c r="B50" s="430"/>
+      <c r="C50" s="440"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="463"/>
+      <c r="E50" s="447"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9117,10 +9130,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="447"/>
-      <c r="C51" s="456"/>
+      <c r="B51" s="430"/>
+      <c r="C51" s="440"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="463"/>
+      <c r="E51" s="447"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9141,10 +9154,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="447"/>
-      <c r="C52" s="456"/>
+      <c r="B52" s="430"/>
+      <c r="C52" s="440"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="463"/>
+      <c r="E52" s="447"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9165,10 +9178,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="447"/>
-      <c r="C53" s="456"/>
+      <c r="B53" s="430"/>
+      <c r="C53" s="440"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="463"/>
+      <c r="E53" s="447"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9189,10 +9202,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="447"/>
-      <c r="C54" s="456"/>
+      <c r="B54" s="430"/>
+      <c r="C54" s="440"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="463"/>
+      <c r="E54" s="447"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9213,10 +9226,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="447"/>
-      <c r="C55" s="456"/>
+      <c r="B55" s="430"/>
+      <c r="C55" s="440"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="463"/>
+      <c r="E55" s="447"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9237,10 +9250,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="447"/>
-      <c r="C56" s="456"/>
+      <c r="B56" s="430"/>
+      <c r="C56" s="440"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="463"/>
+      <c r="E56" s="447"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9261,10 +9274,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="447"/>
-      <c r="C57" s="456"/>
+      <c r="B57" s="430"/>
+      <c r="C57" s="440"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="463"/>
+      <c r="E57" s="447"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9285,10 +9298,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="447"/>
-      <c r="C58" s="456"/>
+      <c r="B58" s="430"/>
+      <c r="C58" s="440"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="463"/>
+      <c r="E58" s="447"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9309,10 +9322,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="447"/>
-      <c r="C59" s="456"/>
+      <c r="B59" s="430"/>
+      <c r="C59" s="440"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="419" t="s">
+      <c r="E59" s="438" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9335,10 +9348,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="447"/>
-      <c r="C60" s="456"/>
+      <c r="B60" s="430"/>
+      <c r="C60" s="440"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="420"/>
+      <c r="E60" s="448"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9359,10 +9372,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="447"/>
-      <c r="C61" s="456"/>
+      <c r="B61" s="430"/>
+      <c r="C61" s="440"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="420"/>
+      <c r="E61" s="448"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9383,10 +9396,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="447"/>
-      <c r="C62" s="456"/>
+      <c r="B62" s="430"/>
+      <c r="C62" s="440"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="420"/>
+      <c r="E62" s="448"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9407,10 +9420,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="447"/>
-      <c r="C63" s="456"/>
+      <c r="B63" s="430"/>
+      <c r="C63" s="440"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="420"/>
+      <c r="E63" s="448"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9431,10 +9444,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="447"/>
-      <c r="C64" s="456"/>
+      <c r="B64" s="430"/>
+      <c r="C64" s="440"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="420"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9455,10 +9468,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="447"/>
-      <c r="C65" s="456"/>
+      <c r="B65" s="430"/>
+      <c r="C65" s="440"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="420"/>
+      <c r="E65" s="448"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9479,10 +9492,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="447"/>
-      <c r="C66" s="456"/>
+      <c r="B66" s="430"/>
+      <c r="C66" s="440"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="420"/>
+      <c r="E66" s="448"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9503,10 +9516,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="447"/>
-      <c r="C67" s="456"/>
+      <c r="B67" s="430"/>
+      <c r="C67" s="440"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="420"/>
+      <c r="E67" s="448"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9527,10 +9540,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="447"/>
-      <c r="C68" s="456"/>
+      <c r="B68" s="430"/>
+      <c r="C68" s="440"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="420"/>
+      <c r="E68" s="448"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9551,10 +9564,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="447"/>
-      <c r="C69" s="456"/>
+      <c r="B69" s="430"/>
+      <c r="C69" s="440"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="420"/>
+      <c r="E69" s="448"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9575,10 +9588,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="447"/>
-      <c r="C70" s="456"/>
+      <c r="B70" s="430"/>
+      <c r="C70" s="440"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="420"/>
+      <c r="E70" s="448"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9599,10 +9612,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="447"/>
-      <c r="C71" s="456"/>
+      <c r="B71" s="430"/>
+      <c r="C71" s="440"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="420"/>
+      <c r="E71" s="448"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9623,10 +9636,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="447"/>
-      <c r="C72" s="456"/>
+      <c r="B72" s="430"/>
+      <c r="C72" s="440"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="420"/>
+      <c r="E72" s="448"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9647,10 +9660,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="447"/>
-      <c r="C73" s="456"/>
+      <c r="B73" s="430"/>
+      <c r="C73" s="440"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="420"/>
+      <c r="E73" s="448"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9671,10 +9684,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="447"/>
-      <c r="C74" s="461"/>
+      <c r="B74" s="430"/>
+      <c r="C74" s="445"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="420"/>
+      <c r="E74" s="448"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9695,10 +9708,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="447"/>
+      <c r="B75" s="430"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="420"/>
+      <c r="E75" s="448"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9719,10 +9732,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="447"/>
+      <c r="B76" s="430"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="420"/>
+      <c r="E76" s="448"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9743,10 +9756,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="447"/>
+      <c r="B77" s="430"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="420"/>
+      <c r="E77" s="448"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9767,10 +9780,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="447"/>
+      <c r="B78" s="430"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="420"/>
+      <c r="E78" s="448"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9791,10 +9804,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="447"/>
+      <c r="B79" s="430"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="420"/>
+      <c r="E79" s="448"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9815,10 +9828,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="447"/>
+      <c r="B80" s="430"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="420"/>
+      <c r="E80" s="448"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9839,10 +9852,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="447"/>
+      <c r="B81" s="430"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="420"/>
+      <c r="E81" s="448"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9863,10 +9876,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="447"/>
+      <c r="B82" s="430"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="420"/>
+      <c r="E82" s="448"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9887,10 +9900,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="447"/>
+      <c r="B83" s="430"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="420"/>
+      <c r="E83" s="448"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9911,10 +9924,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="447"/>
+      <c r="B84" s="430"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="420"/>
+      <c r="E84" s="448"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -9935,10 +9948,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="447"/>
+      <c r="B85" s="430"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="420"/>
+      <c r="E85" s="448"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -9959,10 +9972,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="447"/>
+      <c r="B86" s="430"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="421"/>
+      <c r="E86" s="449"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -9983,10 +9996,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="447"/>
+      <c r="B87" s="430"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="420" t="s">
+      <c r="E87" s="448" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10009,10 +10022,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="447"/>
+      <c r="B88" s="430"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="420"/>
+      <c r="E88" s="448"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10033,10 +10046,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="447"/>
+      <c r="B89" s="430"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="420"/>
+      <c r="E89" s="448"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10057,10 +10070,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="447"/>
+      <c r="B90" s="430"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="420"/>
+      <c r="E90" s="448"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10081,7 +10094,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="447"/>
+      <c r="B91" s="430"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10099,7 +10112,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="448"/>
+      <c r="B92" s="431"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10117,14 +10130,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="436" t="s">
+      <c r="B93" s="419" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="438" t="s">
+      <c r="C93" s="421" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="440" t="s">
+      <c r="E93" s="423" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10145,10 +10158,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="437"/>
-      <c r="C94" s="439"/>
+      <c r="B94" s="420"/>
+      <c r="C94" s="422"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="441"/>
+      <c r="E94" s="424"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10165,10 +10178,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="437"/>
-      <c r="C95" s="439"/>
+      <c r="B95" s="420"/>
+      <c r="C95" s="422"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="441"/>
+      <c r="E95" s="424"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10185,10 +10198,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="437"/>
-      <c r="C96" s="439"/>
+      <c r="B96" s="420"/>
+      <c r="C96" s="422"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="442"/>
+      <c r="E96" s="425"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10205,8 +10218,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="437"/>
-      <c r="C97" s="439"/>
+      <c r="B97" s="420"/>
+      <c r="C97" s="422"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10223,8 +10236,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="437"/>
-      <c r="C98" s="439"/>
+      <c r="B98" s="420"/>
+      <c r="C98" s="422"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10241,8 +10254,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="437"/>
-      <c r="C99" s="439"/>
+      <c r="B99" s="420"/>
+      <c r="C99" s="422"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10259,7 +10272,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="437"/>
+      <c r="B100" s="420"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10277,7 +10290,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="437"/>
+      <c r="B101" s="420"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10295,7 +10308,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="437"/>
+      <c r="B102" s="420"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10313,7 +10326,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="437"/>
+      <c r="B103" s="420"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10331,7 +10344,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="437"/>
+      <c r="B104" s="420"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10350,7 +10363,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="443" t="s">
+      <c r="C105" s="426" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10370,7 +10383,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="444"/>
+      <c r="C106" s="427"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10388,7 +10401,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="444"/>
+      <c r="C107" s="427"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10406,7 +10419,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="444"/>
+      <c r="C108" s="427"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10424,7 +10437,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="444"/>
+      <c r="C109" s="427"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10442,7 +10455,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="444"/>
+      <c r="C110" s="427"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10460,7 +10473,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="444"/>
+      <c r="C111" s="427"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10478,7 +10491,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="444"/>
+      <c r="C112" s="427"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10496,7 +10509,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="444"/>
+      <c r="C113" s="427"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10514,7 +10527,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="444"/>
+      <c r="C114" s="427"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10532,7 +10545,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="444"/>
+      <c r="C115" s="427"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10550,7 +10563,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="445"/>
+      <c r="C116" s="428"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -10935,6 +10948,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -10951,21 +10979,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63">
@@ -11926,13 +11939,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I277"/>
+  <dimension ref="B1:I280"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B79"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11940,7 +11953,7 @@
     <col min="1" max="1" width="1.5546875" style="331" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="310" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="310" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="310" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="310" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" style="310" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="310" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="310" customWidth="1"/>
@@ -11950,550 +11963,560 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" s="332" customFormat="1" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
+      <c r="B2" s="477" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="479"/>
       <c r="I2" s="334"/>
     </row>
     <row r="3" spans="2:9" s="349" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="367" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="363" t="s">
         <v>332</v>
       </c>
       <c r="D3" s="363" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E3" s="363" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
+      <c r="F3" s="363" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="363" t="s">
+        <v>189</v>
+      </c>
       <c r="H3" s="368" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I3" s="348"/>
     </row>
     <row r="4" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="477" t="s">
+      <c r="B4" s="474" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="352"/>
+      <c r="D4" s="480" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="353" t="s">
         <v>349</v>
-      </c>
-      <c r="C4" s="352"/>
-      <c r="D4" s="483" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="353" t="s">
-        <v>333</v>
       </c>
       <c r="F4" s="353"/>
       <c r="G4" s="354"/>
       <c r="H4" s="369"/>
     </row>
     <row r="5" spans="2:9" s="327" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="478"/>
+      <c r="B5" s="475"/>
       <c r="C5" s="328"/>
-      <c r="D5" s="484"/>
+      <c r="D5" s="481"/>
       <c r="E5" s="356" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F5" s="356"/>
       <c r="G5" s="350"/>
       <c r="H5" s="370"/>
     </row>
     <row r="6" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="478"/>
+      <c r="B6" s="475"/>
       <c r="C6" s="322"/>
-      <c r="D6" s="484"/>
+      <c r="D6" s="481"/>
       <c r="E6" s="357" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
       <c r="H6" s="370"/>
     </row>
     <row r="7" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="478"/>
+      <c r="B7" s="475"/>
       <c r="C7" s="322"/>
-      <c r="D7" s="484"/>
+      <c r="D7" s="481"/>
       <c r="E7" s="357" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
       <c r="H7" s="370"/>
     </row>
     <row r="8" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="478"/>
+      <c r="B8" s="475"/>
       <c r="C8" s="322"/>
-      <c r="D8" s="484"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="356"/>
+      <c r="D8" s="482"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="315"/>
       <c r="G8" s="351"/>
       <c r="H8" s="370"/>
     </row>
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="478"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="484"/>
-      <c r="E9" s="357" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="356"/>
+      <c r="B9" s="475"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="483" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="315" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="315"/>
       <c r="G9" s="351"/>
       <c r="H9" s="370"/>
     </row>
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="478"/>
+      <c r="B10" s="475"/>
       <c r="C10" s="322"/>
-      <c r="D10" s="484"/>
-      <c r="E10" s="357"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="315"/>
       <c r="F10" s="356"/>
       <c r="G10" s="351"/>
       <c r="H10" s="370"/>
     </row>
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="478"/>
+      <c r="B11" s="475"/>
       <c r="C11" s="322"/>
-      <c r="D11" s="484"/>
-      <c r="E11" s="357"/>
-      <c r="F11" s="356"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="315"/>
       <c r="G11" s="351"/>
       <c r="H11" s="370"/>
     </row>
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="478"/>
-      <c r="C12" s="322"/>
-      <c r="D12" s="485"/>
+      <c r="B12" s="475"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="424"/>
       <c r="E12" s="315"/>
       <c r="F12" s="315"/>
       <c r="G12" s="351"/>
       <c r="H12" s="370"/>
     </row>
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="478"/>
-      <c r="C13" s="322"/>
-      <c r="D13" s="476" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="315"/>
+      <c r="B13" s="475"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="483" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="315" t="s">
+        <v>354</v>
+      </c>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
       <c r="H13" s="370"/>
     </row>
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="478"/>
-      <c r="C14" s="330"/>
-      <c r="D14" s="441"/>
+      <c r="B14" s="475"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="424"/>
       <c r="E14" s="315"/>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
       <c r="H14" s="370"/>
     </row>
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="478"/>
-      <c r="C15" s="330"/>
-      <c r="D15" s="441"/>
+      <c r="B15" s="475"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="425"/>
       <c r="E15" s="315"/>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
       <c r="H15" s="370"/>
     </row>
     <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="478"/>
+      <c r="B16" s="475"/>
       <c r="C16" s="322"/>
-      <c r="D16" s="442"/>
+      <c r="D16" s="483" t="s">
+        <v>335</v>
+      </c>
       <c r="E16" s="315"/>
-      <c r="F16" s="356"/>
+      <c r="F16" s="315"/>
       <c r="G16" s="351"/>
       <c r="H16" s="370"/>
     </row>
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="478"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="476" t="s">
-        <v>340</v>
-      </c>
+      <c r="B17" s="475"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="424"/>
       <c r="E17" s="315"/>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
       <c r="H17" s="370"/>
     </row>
     <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="478"/>
-      <c r="C18" s="322"/>
-      <c r="D18" s="441"/>
+      <c r="B18" s="475"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="424"/>
       <c r="E18" s="315"/>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="370"/>
     </row>
     <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="478"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="441"/>
+      <c r="B19" s="475"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="425"/>
       <c r="E19" s="315"/>
       <c r="F19" s="356"/>
       <c r="G19" s="351"/>
       <c r="H19" s="370"/>
     </row>
     <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="478"/>
-      <c r="C20" s="330"/>
-      <c r="D20" s="441"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="483" t="s">
+        <v>336</v>
+      </c>
       <c r="E20" s="315"/>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
       <c r="H20" s="370"/>
     </row>
     <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="478"/>
-      <c r="C21" s="330"/>
-      <c r="D21" s="476" t="s">
-        <v>345</v>
-      </c>
+      <c r="B21" s="475"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="424"/>
       <c r="E21" s="315"/>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
       <c r="H21" s="370"/>
     </row>
     <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="478"/>
-      <c r="C22" s="322"/>
-      <c r="D22" s="441"/>
+      <c r="B22" s="475"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="424"/>
       <c r="E22" s="315"/>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="370"/>
     </row>
     <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="478"/>
-      <c r="C23" s="322"/>
-      <c r="D23" s="441"/>
+      <c r="B23" s="475"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="424"/>
       <c r="E23" s="315"/>
       <c r="F23" s="315"/>
       <c r="G23" s="351"/>
       <c r="H23" s="370"/>
     </row>
     <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="478"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="441"/>
+      <c r="B24" s="475"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="483" t="s">
+        <v>341</v>
+      </c>
       <c r="E24" s="315"/>
       <c r="F24" s="315"/>
       <c r="G24" s="351"/>
       <c r="H24" s="370"/>
     </row>
     <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="478"/>
-      <c r="C25" s="359"/>
-      <c r="D25" s="476" t="s">
-        <v>341</v>
-      </c>
+      <c r="B25" s="475"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="424"/>
       <c r="E25" s="315"/>
       <c r="F25" s="356"/>
       <c r="G25" s="351"/>
       <c r="H25" s="370"/>
     </row>
     <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="478"/>
-      <c r="C26" s="359"/>
-      <c r="D26" s="441"/>
+      <c r="B26" s="475"/>
+      <c r="C26" s="322"/>
+      <c r="D26" s="424"/>
       <c r="E26" s="315"/>
       <c r="F26" s="315"/>
       <c r="G26" s="351"/>
       <c r="H26" s="370"/>
     </row>
     <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="478"/>
+      <c r="B27" s="475"/>
       <c r="C27" s="359"/>
-      <c r="D27" s="441"/>
+      <c r="D27" s="424"/>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
       <c r="H27" s="370"/>
     </row>
     <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="478"/>
+      <c r="B28" s="475"/>
       <c r="C28" s="359"/>
-      <c r="D28" s="441"/>
+      <c r="D28" s="483" t="s">
+        <v>337</v>
+      </c>
       <c r="E28" s="315"/>
       <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="370"/>
     </row>
     <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="478"/>
+      <c r="B29" s="475"/>
       <c r="C29" s="359"/>
-      <c r="D29" s="476" t="s">
-        <v>346</v>
-      </c>
+      <c r="D29" s="424"/>
       <c r="E29" s="315"/>
       <c r="F29" s="315"/>
       <c r="G29" s="351"/>
       <c r="H29" s="370"/>
     </row>
     <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="478"/>
+      <c r="B30" s="475"/>
       <c r="C30" s="359"/>
-      <c r="D30" s="441"/>
+      <c r="D30" s="424"/>
       <c r="E30" s="315"/>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
       <c r="H30" s="370"/>
     </row>
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="478"/>
+      <c r="B31" s="475"/>
       <c r="C31" s="359"/>
-      <c r="D31" s="441"/>
+      <c r="D31" s="424"/>
       <c r="E31" s="315"/>
-      <c r="F31" s="315"/>
+      <c r="F31" s="356"/>
       <c r="G31" s="351"/>
       <c r="H31" s="370"/>
     </row>
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="478"/>
+      <c r="B32" s="475"/>
       <c r="C32" s="359"/>
-      <c r="D32" s="441"/>
+      <c r="D32" s="483" t="s">
+        <v>342</v>
+      </c>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
       <c r="G32" s="351"/>
       <c r="H32" s="370"/>
     </row>
     <row r="33" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="478"/>
+      <c r="B33" s="475"/>
       <c r="C33" s="359"/>
-      <c r="D33" s="476" t="s">
-        <v>344</v>
-      </c>
+      <c r="D33" s="424"/>
       <c r="E33" s="315"/>
       <c r="F33" s="315"/>
       <c r="G33" s="351"/>
       <c r="H33" s="370"/>
     </row>
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="478"/>
+      <c r="B34" s="475"/>
       <c r="C34" s="359"/>
-      <c r="D34" s="441"/>
+      <c r="D34" s="424"/>
       <c r="E34" s="315"/>
       <c r="F34" s="315"/>
       <c r="G34" s="351"/>
       <c r="H34" s="370"/>
     </row>
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="478"/>
+      <c r="B35" s="475"/>
       <c r="C35" s="359"/>
-      <c r="D35" s="441"/>
+      <c r="D35" s="424"/>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
       <c r="G35" s="351"/>
       <c r="H35" s="370"/>
     </row>
-    <row r="36" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="478"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="441"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="371"/>
+    <row r="36" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="475"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="483" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="351"/>
+      <c r="H36" s="370"/>
     </row>
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="478"/>
+      <c r="B37" s="475"/>
       <c r="C37" s="359"/>
-      <c r="D37" s="474" t="s">
-        <v>343</v>
-      </c>
+      <c r="D37" s="424"/>
       <c r="E37" s="315"/>
       <c r="F37" s="315"/>
       <c r="G37" s="351"/>
       <c r="H37" s="370"/>
     </row>
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="478"/>
+      <c r="B38" s="475"/>
       <c r="C38" s="359"/>
-      <c r="D38" s="475"/>
+      <c r="D38" s="424"/>
       <c r="E38" s="315"/>
       <c r="F38" s="315"/>
       <c r="G38" s="351"/>
       <c r="H38" s="370"/>
     </row>
-    <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="478"/>
-      <c r="C39" s="359"/>
-      <c r="D39" s="475"/>
-      <c r="E39" s="315"/>
-      <c r="F39" s="315"/>
-      <c r="G39" s="351"/>
-      <c r="H39" s="370"/>
-    </row>
-    <row r="40" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="478"/>
-      <c r="C40" s="355"/>
-      <c r="D40" s="475"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="360"/>
-      <c r="H40" s="371"/>
+    <row r="39" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="475"/>
+      <c r="C39" s="355"/>
+      <c r="D39" s="424"/>
+      <c r="E39" s="355"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="360"/>
+      <c r="H39" s="371"/>
+    </row>
+    <row r="40" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="475"/>
+      <c r="C40" s="359"/>
+      <c r="D40" s="484" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="315"/>
+      <c r="F40" s="315"/>
+      <c r="G40" s="351"/>
+      <c r="H40" s="370"/>
     </row>
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="478"/>
+      <c r="B41" s="475"/>
       <c r="C41" s="359"/>
-      <c r="D41" s="474" t="s">
-        <v>351</v>
-      </c>
+      <c r="D41" s="485"/>
       <c r="E41" s="315"/>
       <c r="F41" s="315"/>
       <c r="G41" s="351"/>
       <c r="H41" s="370"/>
     </row>
     <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="478"/>
+      <c r="B42" s="475"/>
       <c r="C42" s="359"/>
-      <c r="D42" s="475"/>
+      <c r="D42" s="485"/>
       <c r="E42" s="315"/>
       <c r="F42" s="315"/>
       <c r="G42" s="351"/>
       <c r="H42" s="370"/>
     </row>
-    <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="478"/>
-      <c r="C43" s="359"/>
-      <c r="D43" s="475"/>
-      <c r="E43" s="315"/>
-      <c r="F43" s="315"/>
-      <c r="G43" s="351"/>
-      <c r="H43" s="370"/>
-    </row>
-    <row r="44" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="478"/>
-      <c r="C44" s="355"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="355"/>
-      <c r="F44" s="355"/>
-      <c r="G44" s="360"/>
-      <c r="H44" s="371"/>
+    <row r="43" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="475"/>
+      <c r="C43" s="355"/>
+      <c r="D43" s="485"/>
+      <c r="E43" s="355"/>
+      <c r="F43" s="355"/>
+      <c r="G43" s="360"/>
+      <c r="H43" s="371"/>
+    </row>
+    <row r="44" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="475"/>
+      <c r="C44" s="359"/>
+      <c r="D44" s="484" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="315"/>
+      <c r="F44" s="315"/>
+      <c r="G44" s="351"/>
+      <c r="H44" s="370"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="478"/>
+      <c r="B45" s="475"/>
       <c r="C45" s="359"/>
-      <c r="D45" s="474" t="s">
-        <v>352</v>
-      </c>
+      <c r="D45" s="485"/>
       <c r="E45" s="315"/>
       <c r="F45" s="315"/>
       <c r="G45" s="351"/>
       <c r="H45" s="370"/>
     </row>
     <row r="46" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="478"/>
+      <c r="B46" s="475"/>
       <c r="C46" s="359"/>
-      <c r="D46" s="475"/>
+      <c r="D46" s="485"/>
       <c r="E46" s="315"/>
       <c r="F46" s="315"/>
       <c r="G46" s="351"/>
       <c r="H46" s="370"/>
     </row>
     <row r="47" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="478"/>
+      <c r="B47" s="475"/>
       <c r="C47" s="355"/>
-      <c r="D47" s="475"/>
+      <c r="D47" s="485"/>
       <c r="E47" s="355"/>
       <c r="F47" s="355"/>
       <c r="G47" s="360"/>
       <c r="H47" s="371"/>
     </row>
     <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="478"/>
+      <c r="B48" s="475"/>
       <c r="C48" s="359"/>
-      <c r="D48" s="475"/>
+      <c r="D48" s="484" t="s">
+        <v>347</v>
+      </c>
       <c r="E48" s="315"/>
       <c r="F48" s="315"/>
       <c r="G48" s="351"/>
       <c r="H48" s="370"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="478"/>
+      <c r="B49" s="475"/>
       <c r="C49" s="359"/>
-      <c r="D49" s="474" t="s">
-        <v>342</v>
-      </c>
+      <c r="D49" s="485"/>
       <c r="E49" s="315"/>
       <c r="F49" s="315"/>
       <c r="G49" s="351"/>
       <c r="H49" s="370"/>
     </row>
     <row r="50" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="478"/>
+      <c r="B50" s="475"/>
       <c r="C50" s="355"/>
-      <c r="D50" s="475"/>
+      <c r="D50" s="485"/>
       <c r="E50" s="355"/>
       <c r="F50" s="355"/>
       <c r="G50" s="360"/>
       <c r="H50" s="371"/>
     </row>
     <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="478"/>
+      <c r="B51" s="475"/>
       <c r="C51" s="359"/>
-      <c r="D51" s="475"/>
+      <c r="D51" s="485"/>
       <c r="E51" s="315"/>
       <c r="F51" s="315"/>
       <c r="G51" s="351"/>
       <c r="H51" s="370"/>
     </row>
     <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="478"/>
+      <c r="B52" s="475"/>
       <c r="C52" s="359"/>
-      <c r="D52" s="475"/>
+      <c r="D52" s="484" t="s">
+        <v>338</v>
+      </c>
       <c r="E52" s="315"/>
       <c r="F52" s="315"/>
       <c r="G52" s="351"/>
       <c r="H52" s="370"/>
     </row>
     <row r="53" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="478"/>
+      <c r="B53" s="475"/>
       <c r="C53" s="355"/>
-      <c r="D53" s="377"/>
+      <c r="D53" s="485"/>
       <c r="E53" s="355"/>
       <c r="F53" s="355"/>
       <c r="G53" s="360"/>
       <c r="H53" s="371"/>
     </row>
     <row r="54" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="478"/>
+      <c r="B54" s="475"/>
       <c r="C54" s="359"/>
-      <c r="D54" s="359"/>
+      <c r="D54" s="485"/>
       <c r="E54" s="315"/>
       <c r="F54" s="315"/>
       <c r="G54" s="351"/>
       <c r="H54" s="370"/>
     </row>
     <row r="55" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="478"/>
+      <c r="B55" s="475"/>
       <c r="C55" s="359"/>
-      <c r="D55" s="359"/>
+      <c r="D55" s="485"/>
       <c r="E55" s="315"/>
       <c r="F55" s="315"/>
       <c r="G55" s="351"/>
       <c r="H55" s="370"/>
     </row>
     <row r="56" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="478"/>
+      <c r="B56" s="475"/>
       <c r="C56" s="355"/>
-      <c r="D56" s="355"/>
+      <c r="D56" s="377"/>
       <c r="E56" s="355"/>
       <c r="F56" s="355"/>
       <c r="G56" s="360"/>
       <c r="H56" s="371"/>
     </row>
     <row r="57" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="478"/>
+      <c r="B57" s="475"/>
       <c r="C57" s="359"/>
       <c r="D57" s="359"/>
       <c r="E57" s="315"/>
@@ -12502,7 +12525,7 @@
       <c r="H57" s="370"/>
     </row>
     <row r="58" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="478"/>
+      <c r="B58" s="475"/>
       <c r="C58" s="359"/>
       <c r="D58" s="359"/>
       <c r="E58" s="315"/>
@@ -12511,7 +12534,7 @@
       <c r="H58" s="370"/>
     </row>
     <row r="59" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="478"/>
+      <c r="B59" s="475"/>
       <c r="C59" s="355"/>
       <c r="D59" s="355"/>
       <c r="E59" s="355"/>
@@ -12520,7 +12543,7 @@
       <c r="H59" s="371"/>
     </row>
     <row r="60" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="478"/>
+      <c r="B60" s="475"/>
       <c r="C60" s="359"/>
       <c r="D60" s="359"/>
       <c r="E60" s="315"/>
@@ -12529,7 +12552,7 @@
       <c r="H60" s="370"/>
     </row>
     <row r="61" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="478"/>
+      <c r="B61" s="475"/>
       <c r="C61" s="359"/>
       <c r="D61" s="359"/>
       <c r="E61" s="315"/>
@@ -12538,7 +12561,7 @@
       <c r="H61" s="370"/>
     </row>
     <row r="62" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="478"/>
+      <c r="B62" s="475"/>
       <c r="C62" s="355"/>
       <c r="D62" s="355"/>
       <c r="E62" s="355"/>
@@ -12547,7 +12570,7 @@
       <c r="H62" s="371"/>
     </row>
     <row r="63" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="478"/>
+      <c r="B63" s="475"/>
       <c r="C63" s="359"/>
       <c r="D63" s="359"/>
       <c r="E63" s="315"/>
@@ -12556,7 +12579,7 @@
       <c r="H63" s="370"/>
     </row>
     <row r="64" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="478"/>
+      <c r="B64" s="475"/>
       <c r="C64" s="359"/>
       <c r="D64" s="359"/>
       <c r="E64" s="315"/>
@@ -12565,7 +12588,7 @@
       <c r="H64" s="370"/>
     </row>
     <row r="65" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="478"/>
+      <c r="B65" s="475"/>
       <c r="C65" s="355"/>
       <c r="D65" s="355"/>
       <c r="E65" s="355"/>
@@ -12574,7 +12597,7 @@
       <c r="H65" s="371"/>
     </row>
     <row r="66" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="478"/>
+      <c r="B66" s="475"/>
       <c r="C66" s="359"/>
       <c r="D66" s="359"/>
       <c r="E66" s="315"/>
@@ -12583,7 +12606,7 @@
       <c r="H66" s="370"/>
     </row>
     <row r="67" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="478"/>
+      <c r="B67" s="475"/>
       <c r="C67" s="359"/>
       <c r="D67" s="359"/>
       <c r="E67" s="315"/>
@@ -12592,7 +12615,7 @@
       <c r="H67" s="370"/>
     </row>
     <row r="68" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="478"/>
+      <c r="B68" s="475"/>
       <c r="C68" s="355"/>
       <c r="D68" s="355"/>
       <c r="E68" s="355"/>
@@ -12601,7 +12624,7 @@
       <c r="H68" s="371"/>
     </row>
     <row r="69" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="478"/>
+      <c r="B69" s="475"/>
       <c r="C69" s="359"/>
       <c r="D69" s="359"/>
       <c r="E69" s="315"/>
@@ -12610,7 +12633,7 @@
       <c r="H69" s="370"/>
     </row>
     <row r="70" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="478"/>
+      <c r="B70" s="475"/>
       <c r="C70" s="359"/>
       <c r="D70" s="359"/>
       <c r="E70" s="315"/>
@@ -12619,7 +12642,7 @@
       <c r="H70" s="370"/>
     </row>
     <row r="71" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="478"/>
+      <c r="B71" s="475"/>
       <c r="C71" s="355"/>
       <c r="D71" s="355"/>
       <c r="E71" s="355"/>
@@ -12628,7 +12651,7 @@
       <c r="H71" s="371"/>
     </row>
     <row r="72" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="478"/>
+      <c r="B72" s="475"/>
       <c r="C72" s="359"/>
       <c r="D72" s="359"/>
       <c r="E72" s="315"/>
@@ -12637,7 +12660,7 @@
       <c r="H72" s="370"/>
     </row>
     <row r="73" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="478"/>
+      <c r="B73" s="475"/>
       <c r="C73" s="359"/>
       <c r="D73" s="359"/>
       <c r="E73" s="315"/>
@@ -12646,7 +12669,7 @@
       <c r="H73" s="370"/>
     </row>
     <row r="74" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="478"/>
+      <c r="B74" s="475"/>
       <c r="C74" s="355"/>
       <c r="D74" s="355"/>
       <c r="E74" s="355"/>
@@ -12655,7 +12678,7 @@
       <c r="H74" s="371"/>
     </row>
     <row r="75" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="478"/>
+      <c r="B75" s="475"/>
       <c r="C75" s="359"/>
       <c r="D75" s="359"/>
       <c r="E75" s="315"/>
@@ -12664,82 +12687,82 @@
       <c r="H75" s="370"/>
     </row>
     <row r="76" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="478"/>
-      <c r="C76" s="362"/>
+      <c r="B76" s="475"/>
+      <c r="C76" s="359"/>
       <c r="D76" s="359"/>
       <c r="E76" s="315"/>
       <c r="F76" s="315"/>
       <c r="G76" s="351"/>
       <c r="H76" s="370"/>
     </row>
-    <row r="77" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="478"/>
-      <c r="D77" s="359"/>
-      <c r="E77" s="315"/>
-      <c r="F77" s="315"/>
-      <c r="G77" s="351"/>
-      <c r="H77" s="370"/>
-    </row>
-    <row r="78" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="478"/>
+    <row r="77" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="475"/>
+      <c r="C77" s="355"/>
+      <c r="D77" s="355"/>
+      <c r="E77" s="355"/>
+      <c r="F77" s="355"/>
+      <c r="G77" s="360"/>
+      <c r="H77" s="371"/>
+    </row>
+    <row r="78" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="475"/>
+      <c r="C78" s="359"/>
       <c r="D78" s="359"/>
       <c r="E78" s="315"/>
       <c r="F78" s="315"/>
       <c r="G78" s="351"/>
       <c r="H78" s="370"/>
     </row>
-    <row r="79" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="479"/>
-      <c r="C79" s="372"/>
-      <c r="D79" s="373"/>
-      <c r="E79" s="374"/>
-      <c r="F79" s="374"/>
-      <c r="G79" s="375"/>
-      <c r="H79" s="376"/>
-    </row>
-    <row r="80" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="364"/>
-      <c r="F80" s="365"/>
-      <c r="G80" s="366"/>
+    <row r="79" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="475"/>
+      <c r="C79" s="362"/>
+      <c r="D79" s="359"/>
+      <c r="E79" s="315"/>
+      <c r="F79" s="315"/>
+      <c r="G79" s="351"/>
+      <c r="H79" s="370"/>
+    </row>
+    <row r="80" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="475"/>
+      <c r="D80" s="359"/>
+      <c r="E80" s="315"/>
+      <c r="F80" s="315"/>
+      <c r="G80" s="351"/>
+      <c r="H80" s="370"/>
     </row>
     <row r="81" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="364"/>
-      <c r="F81" s="365"/>
-      <c r="G81" s="366"/>
-    </row>
-    <row r="82" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="364"/>
-      <c r="F82" s="365"/>
-      <c r="G82" s="366"/>
-    </row>
-    <row r="83" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="358"/>
-      <c r="C83" s="358"/>
-      <c r="D83" s="358"/>
-      <c r="E83" s="358"/>
-      <c r="F83" s="358"/>
-      <c r="G83" s="358"/>
-      <c r="H83" s="358"/>
+      <c r="B81" s="475"/>
+      <c r="D81" s="359"/>
+      <c r="E81" s="315"/>
+      <c r="F81" s="315"/>
+      <c r="G81" s="351"/>
+      <c r="H81" s="370"/>
+    </row>
+    <row r="82" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="476"/>
+      <c r="C82" s="372"/>
+      <c r="D82" s="373"/>
+      <c r="E82" s="374"/>
+      <c r="F82" s="374"/>
+      <c r="G82" s="375"/>
+      <c r="H82" s="376"/>
+    </row>
+    <row r="83" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="364"/>
+      <c r="F83" s="365"/>
+      <c r="G83" s="366"/>
     </row>
     <row r="84" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="358"/>
-      <c r="C84" s="358"/>
-      <c r="D84" s="358"/>
-      <c r="E84" s="358"/>
-      <c r="F84" s="358"/>
-      <c r="G84" s="358"/>
-      <c r="H84" s="358"/>
-    </row>
-    <row r="85" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="358"/>
-      <c r="C85" s="358"/>
-      <c r="D85" s="358"/>
-      <c r="E85" s="358"/>
-      <c r="F85" s="358"/>
-      <c r="G85" s="358"/>
-      <c r="H85" s="358"/>
-    </row>
-    <row r="86" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="364"/>
+      <c r="F84" s="365"/>
+      <c r="G84" s="366"/>
+    </row>
+    <row r="85" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="364"/>
+      <c r="F85" s="365"/>
+      <c r="G85" s="366"/>
+    </row>
+    <row r="86" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="358"/>
       <c r="C86" s="358"/>
       <c r="D86" s="358"/>
@@ -12748,7 +12771,7 @@
       <c r="G86" s="358"/>
       <c r="H86" s="358"/>
     </row>
-    <row r="87" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="361" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="358"/>
       <c r="C87" s="358"/>
       <c r="D87" s="358"/>
@@ -14467,21 +14490,50 @@
       <c r="G277" s="358"/>
       <c r="H277" s="358"/>
     </row>
+    <row r="278" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="358"/>
+      <c r="C278" s="358"/>
+      <c r="D278" s="358"/>
+      <c r="E278" s="358"/>
+      <c r="F278" s="358"/>
+      <c r="G278" s="358"/>
+      <c r="H278" s="358"/>
+    </row>
+    <row r="279" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="358"/>
+      <c r="C279" s="358"/>
+      <c r="D279" s="358"/>
+      <c r="E279" s="358"/>
+      <c r="F279" s="358"/>
+      <c r="G279" s="358"/>
+      <c r="H279" s="358"/>
+    </row>
+    <row r="280" spans="2:8" s="361" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="358"/>
+      <c r="C280" s="358"/>
+      <c r="D280" s="358"/>
+      <c r="E280" s="358"/>
+      <c r="F280" s="358"/>
+      <c r="G280" s="358"/>
+      <c r="H280" s="358"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B4:B79"/>
+  <mergeCells count="15">
+    <mergeCell ref="B4:B82"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14537,10 +14589,10 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="403" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="403" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="489"/>
@@ -14548,12 +14600,12 @@
       <c r="J3" s="491"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="402"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="407"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -14561,10 +14613,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="378" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -14584,8 +14636,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="392"/>
-      <c r="C6" s="395"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="406"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -14603,8 +14655,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="393"/>
-      <c r="C7" s="396"/>
+      <c r="B7" s="405"/>
+      <c r="C7" s="380"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -14624,8 +14676,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="393"/>
-      <c r="C8" s="396"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="380"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -14643,8 +14695,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="393"/>
-      <c r="C9" s="396"/>
+      <c r="B9" s="405"/>
+      <c r="C9" s="380"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -14662,8 +14714,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="393"/>
-      <c r="C10" s="396"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="380"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -14681,8 +14733,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="393"/>
-      <c r="C11" s="396"/>
+      <c r="B11" s="405"/>
+      <c r="C11" s="380"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -14700,8 +14752,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="393"/>
-      <c r="C12" s="396"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="380"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -14719,8 +14771,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="393"/>
-      <c r="C13" s="396"/>
+      <c r="B13" s="405"/>
+      <c r="C13" s="380"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -14738,8 +14790,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="393"/>
-      <c r="C14" s="396"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="380"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -14757,8 +14809,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="393"/>
-      <c r="C15" s="396"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="380"/>
       <c r="D15" s="493" t="s">
         <v>50</v>
       </c>
@@ -14776,8 +14828,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="393"/>
-      <c r="C16" s="397"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="381"/>
       <c r="D16" s="494"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -14787,8 +14839,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="393"/>
-      <c r="C17" s="400" t="s">
+      <c r="B17" s="405"/>
+      <c r="C17" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -14808,8 +14860,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="393"/>
-      <c r="C18" s="393"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="405"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -14827,8 +14879,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="393"/>
-      <c r="C19" s="393"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="405"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -14846,8 +14898,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="393"/>
-      <c r="C20" s="393"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="405"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -14865,8 +14917,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="393"/>
-      <c r="C21" s="393"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="405"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -14884,8 +14936,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="393"/>
-      <c r="C22" s="393"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="405"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -15614,17 +15666,17 @@
       <c r="J2" s="487"/>
       <c r="K2" s="487"/>
       <c r="L2" s="487"/>
-      <c r="M2" s="527"/>
-      <c r="N2" s="527"/>
-      <c r="O2" s="527"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
-      <c r="R2" s="527"/>
-      <c r="S2" s="527"/>
-      <c r="T2" s="527"/>
-      <c r="U2" s="527"/>
-      <c r="V2" s="527"/>
-      <c r="W2" s="527"/>
+      <c r="M2" s="500"/>
+      <c r="N2" s="500"/>
+      <c r="O2" s="500"/>
+      <c r="P2" s="500"/>
+      <c r="Q2" s="500"/>
+      <c r="R2" s="500"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="500"/>
+      <c r="U2" s="500"/>
+      <c r="V2" s="500"/>
+      <c r="W2" s="500"/>
       <c r="X2" s="487"/>
       <c r="Y2" s="487"/>
       <c r="Z2" s="488"/>
@@ -15642,16 +15694,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="403" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="403" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -15660,83 +15712,83 @@
       <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="529" t="s">
+      <c r="L3" s="502" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="504" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="498" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="498" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="520" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="522" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="522" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="523" t="s">
+      <c r="V3" s="524" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="508" t="s">
+      <c r="X3" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="509"/>
-      <c r="Z3" s="510"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="402"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="524"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="501"/>
+      <c r="K4" s="501"/>
+      <c r="L4" s="503"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
+      <c r="Q4" s="519"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="523"/>
+      <c r="T4" s="523"/>
+      <c r="U4" s="523"/>
+      <c r="V4" s="525"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="511"/>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="512"/>
+      <c r="X4" s="509"/>
+      <c r="Y4" s="509"/>
+      <c r="Z4" s="510"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="378" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="511" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -15787,9 +15839,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="392"/>
-      <c r="C6" s="395"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="512"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -15816,9 +15868,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="392"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="404"/>
+      <c r="C7" s="406"/>
+      <c r="D7" s="513" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -15859,9 +15911,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="392"/>
-      <c r="C8" s="396"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="513"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -15886,9 +15938,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="393"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="498" t="s">
+      <c r="B9" s="405"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="514" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -15933,9 +15985,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="393"/>
-      <c r="C10" s="396"/>
-      <c r="D10" s="499"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="515"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -15960,9 +16012,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="393"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="498" t="s">
+      <c r="B11" s="405"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="514" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16003,9 +16055,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="393"/>
-      <c r="C12" s="396"/>
-      <c r="D12" s="499"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="515"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16032,9 +16084,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="393"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="504" t="s">
+      <c r="B13" s="405"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="516" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16067,9 +16119,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="393"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="516"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="517"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16096,9 +16148,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="393"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="498" t="s">
+      <c r="B15" s="405"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="514" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16135,9 +16187,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="393"/>
-      <c r="C16" s="396"/>
-      <c r="D16" s="499"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="515"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16164,9 +16216,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="393"/>
-      <c r="C17" s="396"/>
-      <c r="D17" s="498" t="s">
+      <c r="B17" s="405"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="514" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16209,9 +16261,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="393"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="499"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="515"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16238,9 +16290,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="393"/>
-      <c r="C19" s="396"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="405"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="514" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16277,9 +16329,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="393"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="515"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16306,9 +16358,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="393"/>
-      <c r="C21" s="396"/>
-      <c r="D21" s="500" t="s">
+      <c r="B21" s="405"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="526" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16341,9 +16393,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="393"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="501"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="527"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16370,8 +16422,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="393"/>
-      <c r="C23" s="396"/>
+      <c r="B23" s="405"/>
+      <c r="C23" s="380"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16411,8 +16463,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="393"/>
-      <c r="C24" s="396"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="380"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16438,8 +16490,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="393"/>
-      <c r="C25" s="396"/>
+      <c r="B25" s="405"/>
+      <c r="C25" s="380"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -16477,9 +16529,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="393"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="405"/>
+      <c r="C26" s="381"/>
+      <c r="D26" s="528"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16506,11 +16558,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="393"/>
-      <c r="C27" s="400" t="s">
+      <c r="B27" s="405"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="529" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16547,9 +16599,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="393"/>
-      <c r="C28" s="392"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="515"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16576,9 +16628,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="393"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="405"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="514" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -16615,9 +16667,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="393"/>
-      <c r="C30" s="393"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="515"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -16644,9 +16696,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="393"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="405"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="514" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -16683,9 +16735,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="393"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="515"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -16712,9 +16764,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="393"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="405"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="514" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -16751,9 +16803,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="393"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="515"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -16780,9 +16832,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="393"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="498" t="s">
+      <c r="B35" s="405"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="514" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -16819,9 +16871,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="393"/>
-      <c r="C36" s="393"/>
-      <c r="D36" s="499"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="515"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -16848,9 +16900,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="393"/>
-      <c r="C37" s="393"/>
-      <c r="D37" s="498" t="s">
+      <c r="B37" s="405"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="514" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -16887,9 +16939,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="393"/>
-      <c r="C38" s="393"/>
-      <c r="D38" s="499"/>
+      <c r="B38" s="405"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="515"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -16916,9 +16968,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="393"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="504" t="s">
+      <c r="B39" s="405"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="516" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -16949,9 +17001,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="393"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="505"/>
+      <c r="B40" s="405"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="530"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -16978,9 +17030,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="393"/>
-      <c r="C41" s="393"/>
-      <c r="D41" s="506" t="s">
+      <c r="B41" s="405"/>
+      <c r="C41" s="405"/>
+      <c r="D41" s="531" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -17013,9 +17065,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="393"/>
-      <c r="C42" s="393"/>
-      <c r="D42" s="507"/>
+      <c r="B42" s="405"/>
+      <c r="C42" s="405"/>
+      <c r="D42" s="532"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -17042,13 +17094,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="394" t="s">
+      <c r="B43" s="378" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="411" t="s">
+      <c r="C43" s="382" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="415" t="s">
+      <c r="D43" s="386" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -17083,9 +17135,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="410"/>
-      <c r="C44" s="412"/>
-      <c r="D44" s="416"/>
+      <c r="B44" s="379"/>
+      <c r="C44" s="383"/>
+      <c r="D44" s="387"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -17101,9 +17153,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="396"/>
-      <c r="C45" s="413"/>
-      <c r="D45" s="416"/>
+      <c r="B45" s="380"/>
+      <c r="C45" s="384"/>
+      <c r="D45" s="387"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -17119,9 +17171,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="396"/>
-      <c r="C46" s="413"/>
-      <c r="D46" s="417" t="s">
+      <c r="B46" s="380"/>
+      <c r="C46" s="384"/>
+      <c r="D46" s="388" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -17136,18 +17188,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="396"/>
-      <c r="C47" s="413"/>
-      <c r="D47" s="417"/>
+      <c r="B47" s="380"/>
+      <c r="C47" s="384"/>
+      <c r="D47" s="388"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="396"/>
-      <c r="C48" s="413"/>
-      <c r="D48" s="417" t="s">
+      <c r="B48" s="380"/>
+      <c r="C48" s="384"/>
+      <c r="D48" s="388" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -17162,18 +17214,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="396"/>
-      <c r="C49" s="413"/>
-      <c r="D49" s="417"/>
+      <c r="B49" s="380"/>
+      <c r="C49" s="384"/>
+      <c r="D49" s="388"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="396"/>
-      <c r="C50" s="413"/>
-      <c r="D50" s="417" t="s">
+      <c r="B50" s="380"/>
+      <c r="C50" s="384"/>
+      <c r="D50" s="388" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -17188,9 +17240,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="397"/>
-      <c r="C51" s="414"/>
-      <c r="D51" s="418"/>
+      <c r="B51" s="381"/>
+      <c r="C51" s="385"/>
+      <c r="D51" s="389"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -17501,12 +17553,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X3:Z4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:B4"/>
@@ -17523,34 +17597,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X3:Z4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17607,17 +17659,17 @@
       <c r="J2" s="487"/>
       <c r="K2" s="487"/>
       <c r="L2" s="487"/>
-      <c r="M2" s="527"/>
-      <c r="N2" s="527"/>
-      <c r="O2" s="527"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
-      <c r="R2" s="527"/>
-      <c r="S2" s="527"/>
-      <c r="T2" s="527"/>
-      <c r="U2" s="527"/>
-      <c r="V2" s="527"/>
-      <c r="W2" s="527"/>
+      <c r="M2" s="500"/>
+      <c r="N2" s="500"/>
+      <c r="O2" s="500"/>
+      <c r="P2" s="500"/>
+      <c r="Q2" s="500"/>
+      <c r="R2" s="500"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="500"/>
+      <c r="U2" s="500"/>
+      <c r="V2" s="500"/>
+      <c r="W2" s="500"/>
       <c r="X2" s="487"/>
       <c r="Y2" s="487"/>
       <c r="Z2" s="488"/>
@@ -17635,16 +17687,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="403" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="403" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -17653,83 +17705,83 @@
       <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="529" t="s">
+      <c r="L3" s="502" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="504" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="498" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="498" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="520" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="522" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="522" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="523" t="s">
+      <c r="V3" s="524" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="508" t="s">
+      <c r="X3" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="509"/>
-      <c r="Z3" s="510"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="402"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="524"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="501"/>
+      <c r="K4" s="501"/>
+      <c r="L4" s="503"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
+      <c r="Q4" s="519"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="523"/>
+      <c r="T4" s="523"/>
+      <c r="U4" s="523"/>
+      <c r="V4" s="525"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="511"/>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="512"/>
+      <c r="X4" s="509"/>
+      <c r="Y4" s="509"/>
+      <c r="Z4" s="510"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="378" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="511" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -17780,9 +17832,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="392"/>
-      <c r="C6" s="395"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="512"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -17809,9 +17861,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="392"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="404"/>
+      <c r="C7" s="406"/>
+      <c r="D7" s="513" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -17852,9 +17904,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="392"/>
-      <c r="C8" s="396"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="513"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -17879,9 +17931,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="393"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="498" t="s">
+      <c r="B9" s="405"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="514" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -17926,9 +17978,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="393"/>
-      <c r="C10" s="396"/>
-      <c r="D10" s="499"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="515"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -17953,9 +18005,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="393"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="498" t="s">
+      <c r="B11" s="405"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="514" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -17996,9 +18048,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="393"/>
-      <c r="C12" s="396"/>
-      <c r="D12" s="499"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="515"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18025,9 +18077,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="393"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="504" t="s">
+      <c r="B13" s="405"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="516" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18060,9 +18112,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="393"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="516"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="517"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18089,9 +18141,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="393"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="498" t="s">
+      <c r="B15" s="405"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="514" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18128,9 +18180,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="393"/>
-      <c r="C16" s="396"/>
-      <c r="D16" s="499"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="515"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18157,9 +18209,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="393"/>
-      <c r="C17" s="396"/>
-      <c r="D17" s="498" t="s">
+      <c r="B17" s="405"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="514" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18202,9 +18254,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="393"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="499"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="515"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18231,9 +18283,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="393"/>
-      <c r="C19" s="396"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="405"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="514" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18270,9 +18322,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="393"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="515"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18299,9 +18351,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="393"/>
-      <c r="C21" s="396"/>
-      <c r="D21" s="500" t="s">
+      <c r="B21" s="405"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="526" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -18336,9 +18388,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="393"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="501"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="527"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18365,8 +18417,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="393"/>
-      <c r="C23" s="396"/>
+      <c r="B23" s="405"/>
+      <c r="C23" s="380"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -18406,8 +18458,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="393"/>
-      <c r="C24" s="396"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="380"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18433,8 +18485,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="393"/>
-      <c r="C25" s="396"/>
+      <c r="B25" s="405"/>
+      <c r="C25" s="380"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -18472,9 +18524,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="393"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="405"/>
+      <c r="C26" s="381"/>
+      <c r="D26" s="528"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18501,11 +18553,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="393"/>
-      <c r="C27" s="400" t="s">
+      <c r="B27" s="405"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="529" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18542,9 +18594,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="393"/>
-      <c r="C28" s="392"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="515"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18571,9 +18623,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="393"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="405"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="514" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18610,9 +18662,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="393"/>
-      <c r="C30" s="393"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="515"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -18639,9 +18691,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="393"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="405"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="514" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -18678,9 +18730,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="393"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="515"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -18707,9 +18759,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="393"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="405"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="514" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -18746,9 +18798,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="393"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="515"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -18775,9 +18827,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="393"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="498" t="s">
+      <c r="B35" s="405"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="514" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -18814,9 +18866,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="393"/>
-      <c r="C36" s="393"/>
-      <c r="D36" s="499"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="515"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -18843,9 +18895,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="393"/>
-      <c r="C37" s="393"/>
-      <c r="D37" s="498" t="s">
+      <c r="B37" s="405"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="514" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -18882,9 +18934,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="393"/>
-      <c r="C38" s="393"/>
-      <c r="D38" s="499"/>
+      <c r="B38" s="405"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="515"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -18911,9 +18963,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="393"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="504" t="s">
+      <c r="B39" s="405"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="516" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -18944,9 +18996,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="393"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="505"/>
+      <c r="B40" s="405"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="530"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -18973,8 +19025,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="393"/>
-      <c r="C41" s="393"/>
+      <c r="B41" s="405"/>
+      <c r="C41" s="405"/>
       <c r="D41" s="493" t="s">
         <v>25</v>
       </c>
@@ -19373,24 +19425,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -19407,16 +19451,24 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -19504,16 +19556,16 @@
       <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="403" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="403" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="403" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="496" t="s">
@@ -19525,34 +19577,34 @@
       <c r="L3" s="496" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="504" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="498" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="498" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="520" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="522" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="522" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="547" t="s">
+      <c r="V3" s="535" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="543" t="s">
@@ -19570,51 +19622,51 @@
       <c r="AA3" s="541" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="545" t="s">
+      <c r="AB3" s="533" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="510"/>
+      <c r="AC3" s="507"/>
+      <c r="AD3" s="508"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="402"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="407"/>
-      <c r="G4" s="407"/>
-      <c r="H4" s="407"/>
-      <c r="I4" s="407"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="528"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="548"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="501"/>
+      <c r="K4" s="501"/>
+      <c r="L4" s="501"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
+      <c r="Q4" s="519"/>
+      <c r="R4" s="521"/>
+      <c r="S4" s="523"/>
+      <c r="T4" s="523"/>
+      <c r="U4" s="523"/>
+      <c r="V4" s="536"/>
       <c r="W4" s="544"/>
       <c r="X4" s="540"/>
       <c r="Y4" s="540"/>
       <c r="Z4" s="540"/>
       <c r="AA4" s="542"/>
-      <c r="AB4" s="546"/>
-      <c r="AC4" s="511"/>
-      <c r="AD4" s="512"/>
+      <c r="AB4" s="534"/>
+      <c r="AC4" s="509"/>
+      <c r="AD4" s="510"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="391" t="s">
+      <c r="B5" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="394" t="s">
+      <c r="C5" s="378" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="511" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -19669,9 +19721,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="392"/>
-      <c r="C6" s="395"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="406"/>
+      <c r="D6" s="512"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -19702,9 +19754,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="392"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="404"/>
+      <c r="C7" s="406"/>
+      <c r="D7" s="513" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -19745,9 +19797,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="392"/>
-      <c r="C8" s="396"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="513"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -19776,9 +19828,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="393"/>
-      <c r="C9" s="396"/>
-      <c r="D9" s="536" t="s">
+      <c r="B9" s="405"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="537" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -19829,9 +19881,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="393"/>
-      <c r="C10" s="396"/>
-      <c r="D10" s="537"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="538"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -19860,9 +19912,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="393"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="536" t="s">
+      <c r="B11" s="405"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="537" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -19909,9 +19961,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="393"/>
-      <c r="C12" s="396"/>
-      <c r="D12" s="537"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="538"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -19942,9 +19994,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="393"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="498" t="s">
+      <c r="B13" s="405"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="514" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -19981,9 +20033,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="393"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="499"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="515"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -20014,9 +20066,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="393"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="536" t="s">
+      <c r="B15" s="405"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="537" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -20057,9 +20109,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="393"/>
-      <c r="C16" s="396"/>
-      <c r="D16" s="537"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="538"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -20090,9 +20142,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="393"/>
-      <c r="C17" s="396"/>
-      <c r="D17" s="536" t="s">
+      <c r="B17" s="405"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="537" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -20141,9 +20193,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="393"/>
-      <c r="C18" s="396"/>
-      <c r="D18" s="537"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="538"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -20174,9 +20226,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="393"/>
-      <c r="C19" s="396"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="405"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="514" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -20215,9 +20267,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="393"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="515"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -20248,8 +20300,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="393"/>
-      <c r="C21" s="396"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="380"/>
       <c r="D21" s="493" t="s">
         <v>32</v>
       </c>
@@ -20291,9 +20343,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="393"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="535"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="547"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -20324,8 +20376,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="393"/>
-      <c r="C23" s="396"/>
+      <c r="B23" s="405"/>
+      <c r="C23" s="380"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -20367,8 +20419,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="393"/>
-      <c r="C24" s="396"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="380"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -20398,8 +20450,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="393"/>
-      <c r="C25" s="396"/>
+      <c r="B25" s="405"/>
+      <c r="C25" s="380"/>
       <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
@@ -20439,9 +20491,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="393"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="405"/>
+      <c r="C26" s="381"/>
+      <c r="D26" s="528"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -20472,11 +20524,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="393"/>
-      <c r="C27" s="400" t="s">
+      <c r="B27" s="405"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="529" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -20517,9 +20569,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="393"/>
-      <c r="C28" s="392"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="515"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -20550,9 +20602,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="393"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="405"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="514" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -20591,9 +20643,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="393"/>
-      <c r="C30" s="393"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="515"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -20624,9 +20676,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="393"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="405"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="514" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -20665,9 +20717,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="393"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="515"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -20698,9 +20750,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="393"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="405"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="514" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -20739,9 +20791,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="393"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="515"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -20772,9 +20824,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="393"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="536" t="s">
+      <c r="B35" s="405"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="537" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -20815,9 +20867,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="393"/>
-      <c r="C36" s="393"/>
-      <c r="D36" s="537"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="538"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -20848,9 +20900,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="393"/>
-      <c r="C37" s="393"/>
-      <c r="D37" s="536" t="s">
+      <c r="B37" s="405"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="537" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -20889,9 +20941,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="393"/>
-      <c r="C38" s="393"/>
-      <c r="D38" s="537"/>
+      <c r="B38" s="405"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="538"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -20922,9 +20974,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="393"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="498" t="s">
+      <c r="B39" s="405"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="514" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -20959,9 +21011,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="393"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="538"/>
+      <c r="B40" s="405"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="548"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -20992,9 +21044,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="393"/>
-      <c r="C41" s="393"/>
-      <c r="D41" s="533" t="s">
+      <c r="B41" s="405"/>
+      <c r="C41" s="405"/>
+      <c r="D41" s="545" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -21035,7 +21087,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="492"/>
       <c r="C42" s="492"/>
-      <c r="D42" s="534"/>
+      <c r="D42" s="546"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -21398,6 +21450,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -21414,39 +21499,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D5CB5-941A-4606-BB1A-B39A0767558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A006C-808A-4602-BB76-0E2127AA61E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="365">
   <si>
     <t>N°</t>
   </si>
@@ -1863,16 +1863,6 @@
     <t>HU-MID-ENT-002-Editar Entidad</t>
   </si>
   <si>
-    <t>Gestionar Estados 
-Entidad</t>
-  </si>
-  <si>
-    <t>Consultar Bandeja de Entidades</t>
-  </si>
-  <si>
-    <t>HU-MID-ENT-005-Consultar Bandeja de Entidades</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estado </t>
   </si>
   <si>
@@ -1895,22 +1885,28 @@
 Transacciones</t>
   </si>
   <si>
-    <t>HU-MID-TRA-001- Registrar Transacciones</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-002 - Editar Transacciones</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-003 - Consultar Transacciones</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-004 - Consultar Bandeja de Transacciones</t>
-  </si>
-  <si>
     <t>HU-MID-ENT-001-Cambio de estado Entidad</t>
   </si>
   <si>
     <t>HU-MID-ENT-003-Consultar Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-001-Consultar Bandeja de Entidades</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-001- Registrar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-002 - Editar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-003 - Consultar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-005 - Consultar Bandeja de Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-004 - Registrar bajaTransacciones Generales</t>
   </si>
 </sst>
 </file>
@@ -4967,6 +4963,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5015,18 +5047,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5063,36 +5086,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5141,90 +5221,6 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5327,12 +5323,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5345,9 +5419,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5357,79 +5428,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5441,44 +5473,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5926,62 +5922,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="378"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="379"/>
-      <c r="N2" s="380"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="392"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="398" t="s">
+      <c r="B3" s="407" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="400" t="s">
+      <c r="D3" s="409" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="402" t="s">
+      <c r="E3" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="405" t="s">
+      <c r="G3" s="414" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="386" t="s">
+      <c r="H3" s="398" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="381" t="s">
+      <c r="M3" s="393" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="375" t="s">
+      <c r="N3" s="387" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="399"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="406"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="410"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="415"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -5995,14 +5991,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="376"/>
+      <c r="M4" s="394"/>
+      <c r="N4" s="388"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="375" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6023,8 +6019,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="389"/>
-      <c r="C6" s="392"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="403"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6040,8 +6036,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="390"/>
-      <c r="C7" s="393"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="377"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6060,8 +6056,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="390"/>
-      <c r="C8" s="393"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="377"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6080,9 +6076,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="383" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="395" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6113,9 +6109,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="384"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="396"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6134,9 +6130,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="384"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="396"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6155,9 +6151,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="384"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="396"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6176,9 +6172,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="390"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="384"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="396"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6196,9 +6192,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="393"/>
-      <c r="D14" s="384"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="396"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6216,9 +6212,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="390"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="384"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="396"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6236,9 +6232,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="390"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="384"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="396"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6256,9 +6252,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="393"/>
-      <c r="D17" s="384"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="377"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6277,9 +6273,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="390"/>
-      <c r="C18" s="393"/>
-      <c r="D18" s="384"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6298,9 +6294,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="393"/>
-      <c r="D19" s="384"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6317,9 +6313,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="393"/>
-      <c r="D20" s="384"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6336,9 +6332,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="390"/>
-      <c r="C21" s="393"/>
-      <c r="D21" s="384"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6355,9 +6351,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="390"/>
-      <c r="C22" s="393"/>
-      <c r="D22" s="384"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="396"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6374,9 +6370,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="390"/>
-      <c r="C23" s="393"/>
-      <c r="D23" s="384"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="377"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6393,9 +6389,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="390"/>
-      <c r="C24" s="393"/>
-      <c r="D24" s="384"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6412,9 +6408,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="390"/>
-      <c r="C25" s="393"/>
-      <c r="D25" s="384"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="396"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6428,9 +6424,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="390"/>
-      <c r="C26" s="393"/>
-      <c r="D26" s="384"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="377"/>
+      <c r="D26" s="396"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6444,9 +6440,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="390"/>
-      <c r="C27" s="393"/>
-      <c r="D27" s="384"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="377"/>
+      <c r="D27" s="396"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6460,9 +6456,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="390"/>
-      <c r="C28" s="393"/>
-      <c r="D28" s="384"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="377"/>
+      <c r="D28" s="396"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6476,9 +6472,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="390"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="384"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="396"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6492,9 +6488,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="390"/>
-      <c r="C30" s="393"/>
-      <c r="D30" s="384"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="377"/>
+      <c r="D30" s="396"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6508,9 +6504,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="390"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="384"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="377"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6524,9 +6520,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="390"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="384"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="377"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6540,9 +6536,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="390"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="384"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="377"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6556,9 +6552,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="390"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="384"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="377"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6572,9 +6568,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="390"/>
-      <c r="C35" s="393"/>
-      <c r="D35" s="384"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6588,9 +6584,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="390"/>
-      <c r="C36" s="393"/>
-      <c r="D36" s="384"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="377"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6604,9 +6600,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="390"/>
-      <c r="C37" s="393"/>
-      <c r="D37" s="384"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="377"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6620,9 +6616,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="390"/>
-      <c r="C38" s="393"/>
-      <c r="D38" s="384"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="377"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6636,9 +6632,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="390"/>
-      <c r="C39" s="393"/>
-      <c r="D39" s="384"/>
+      <c r="B39" s="402"/>
+      <c r="C39" s="377"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6652,9 +6648,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="390"/>
-      <c r="C40" s="393"/>
-      <c r="D40" s="384"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="377"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6668,9 +6664,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="390"/>
-      <c r="C41" s="393"/>
-      <c r="D41" s="384"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="377"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6684,9 +6680,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="390"/>
-      <c r="C42" s="393"/>
-      <c r="D42" s="384"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="377"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6700,9 +6696,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="390"/>
-      <c r="C43" s="393"/>
-      <c r="D43" s="385"/>
+      <c r="B43" s="402"/>
+      <c r="C43" s="377"/>
+      <c r="D43" s="397"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6715,8 +6711,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="390"/>
-      <c r="C44" s="393"/>
+      <c r="B44" s="402"/>
+      <c r="C44" s="377"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6738,8 +6734,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="390"/>
-      <c r="C45" s="393"/>
+      <c r="B45" s="402"/>
+      <c r="C45" s="377"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6758,8 +6754,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="390"/>
-      <c r="C46" s="393"/>
+      <c r="B46" s="402"/>
+      <c r="C46" s="377"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6781,8 +6777,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="390"/>
-      <c r="C47" s="393"/>
+      <c r="B47" s="402"/>
+      <c r="C47" s="377"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6805,8 +6801,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="390"/>
-      <c r="C48" s="393"/>
+      <c r="B48" s="402"/>
+      <c r="C48" s="377"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6828,9 +6824,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="390"/>
-      <c r="C49" s="393"/>
-      <c r="D49" s="395" t="s">
+      <c r="B49" s="402"/>
+      <c r="C49" s="377"/>
+      <c r="D49" s="404" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6851,9 +6847,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="390"/>
-      <c r="C50" s="394"/>
-      <c r="D50" s="396"/>
+      <c r="B50" s="402"/>
+      <c r="C50" s="378"/>
+      <c r="D50" s="405"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6864,8 +6860,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="390"/>
-      <c r="C51" s="397" t="s">
+      <c r="B51" s="402"/>
+      <c r="C51" s="406" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6886,8 +6882,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="390"/>
-      <c r="C52" s="390"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="402"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6909,8 +6905,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="390"/>
-      <c r="C53" s="390"/>
+      <c r="B53" s="402"/>
+      <c r="C53" s="402"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6932,8 +6928,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="390"/>
-      <c r="C54" s="390"/>
+      <c r="B54" s="402"/>
+      <c r="C54" s="402"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6952,8 +6948,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="390"/>
-      <c r="C55" s="390"/>
+      <c r="B55" s="402"/>
+      <c r="C55" s="402"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6975,8 +6971,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="390"/>
-      <c r="C56" s="390"/>
+      <c r="B56" s="402"/>
+      <c r="C56" s="402"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -6998,8 +6994,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="390"/>
-      <c r="C57" s="390"/>
+      <c r="B57" s="402"/>
+      <c r="C57" s="402"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7025,8 +7021,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="390"/>
-      <c r="C58" s="390"/>
+      <c r="B58" s="402"/>
+      <c r="C58" s="402"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7040,13 +7036,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="391" t="s">
+      <c r="B59" s="375" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="408" t="s">
+      <c r="C59" s="379" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="412" t="s">
+      <c r="D59" s="383" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7066,9 +7062,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="407"/>
-      <c r="C60" s="409"/>
-      <c r="D60" s="413"/>
+      <c r="B60" s="376"/>
+      <c r="C60" s="380"/>
+      <c r="D60" s="384"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7085,9 +7081,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="393"/>
-      <c r="C61" s="410"/>
-      <c r="D61" s="413"/>
+      <c r="B61" s="377"/>
+      <c r="C61" s="381"/>
+      <c r="D61" s="384"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7105,8 +7101,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="393"/>
-      <c r="C62" s="410"/>
+      <c r="B62" s="377"/>
+      <c r="C62" s="381"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7133,9 +7129,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="393"/>
-      <c r="C63" s="410"/>
-      <c r="D63" s="414" t="s">
+      <c r="B63" s="377"/>
+      <c r="C63" s="381"/>
+      <c r="D63" s="385" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7166,9 +7162,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="393"/>
-      <c r="C64" s="410"/>
-      <c r="D64" s="414"/>
+      <c r="B64" s="377"/>
+      <c r="C64" s="381"/>
+      <c r="D64" s="385"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7195,9 +7191,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="393"/>
-      <c r="C65" s="410"/>
-      <c r="D65" s="414"/>
+      <c r="B65" s="377"/>
+      <c r="C65" s="381"/>
+      <c r="D65" s="385"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7210,9 +7206,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="393"/>
-      <c r="C66" s="410"/>
-      <c r="D66" s="414" t="s">
+      <c r="B66" s="377"/>
+      <c r="C66" s="381"/>
+      <c r="D66" s="385" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7234,9 +7230,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="394"/>
-      <c r="C67" s="411"/>
-      <c r="D67" s="415"/>
+      <c r="B67" s="378"/>
+      <c r="C67" s="382"/>
+      <c r="D67" s="386"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7933,11 +7929,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7953,6 +7944,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7994,66 +7990,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="419" t="s">
+      <c r="B2" s="447" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="420"/>
-      <c r="J2" s="420"/>
-      <c r="K2" s="420"/>
-      <c r="L2" s="420"/>
-      <c r="M2" s="420"/>
-      <c r="N2" s="420"/>
-      <c r="O2" s="420"/>
-      <c r="P2" s="421"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="448"/>
+      <c r="P2" s="449"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="422" t="s">
+      <c r="B3" s="450" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="452" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="424" t="s">
+      <c r="D3" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="427" t="s">
+      <c r="E3" s="455" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="424" t="s">
+      <c r="F3" s="452" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="424" t="s">
+      <c r="G3" s="452" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="424" t="s">
+      <c r="H3" s="452" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="424" t="s">
+      <c r="I3" s="452" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
+      <c r="J3" s="457"/>
+      <c r="K3" s="457"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="424" t="s">
+      <c r="M3" s="452" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="424" t="s">
+      <c r="N3" s="452" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="424" t="s">
+      <c r="O3" s="452" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="431" t="s">
+      <c r="P3" s="459" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8062,13 +8058,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="423"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
+      <c r="B4" s="451"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8081,10 +8077,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="425"/>
-      <c r="N4" s="425"/>
-      <c r="O4" s="430"/>
-      <c r="P4" s="432"/>
+      <c r="M4" s="453"/>
+      <c r="N4" s="453"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="460"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8187,14 +8183,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="443" t="s">
+      <c r="B9" s="426" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="446" t="s">
+      <c r="C9" s="429" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="448" t="s">
+      <c r="E9" s="431" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8225,10 +8221,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="444"/>
-      <c r="C10" s="447"/>
+      <c r="B10" s="427"/>
+      <c r="C10" s="430"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="449"/>
+      <c r="E10" s="432"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8250,10 +8246,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="444"/>
-      <c r="C11" s="447"/>
+      <c r="B11" s="427"/>
+      <c r="C11" s="430"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="449"/>
+      <c r="E11" s="432"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8275,10 +8271,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="444"/>
-      <c r="C12" s="447"/>
+      <c r="B12" s="427"/>
+      <c r="C12" s="430"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="449"/>
+      <c r="E12" s="432"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8300,10 +8296,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="444"/>
-      <c r="C13" s="447"/>
+      <c r="B13" s="427"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="450" t="s">
+      <c r="E13" s="433" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8326,10 +8322,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="444"/>
-      <c r="C14" s="447"/>
+      <c r="B14" s="427"/>
+      <c r="C14" s="430"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="450"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8350,10 +8346,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="444"/>
-      <c r="C15" s="447"/>
+      <c r="B15" s="427"/>
+      <c r="C15" s="430"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="450"/>
+      <c r="E15" s="433"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8375,10 +8371,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="444"/>
-      <c r="C16" s="447"/>
+      <c r="B16" s="427"/>
+      <c r="C16" s="430"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="450"/>
+      <c r="E16" s="433"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8400,10 +8396,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="444"/>
-      <c r="C17" s="447"/>
+      <c r="B17" s="427"/>
+      <c r="C17" s="430"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="450"/>
+      <c r="E17" s="433"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8425,10 +8421,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="444"/>
-      <c r="C18" s="447"/>
+      <c r="B18" s="427"/>
+      <c r="C18" s="430"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="450"/>
+      <c r="E18" s="433"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8450,10 +8446,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="444"/>
-      <c r="C19" s="447"/>
+      <c r="B19" s="427"/>
+      <c r="C19" s="430"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="450"/>
+      <c r="E19" s="433"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8474,10 +8470,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="444"/>
-      <c r="C20" s="447"/>
+      <c r="B20" s="427"/>
+      <c r="C20" s="430"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="450"/>
+      <c r="E20" s="433"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8498,10 +8494,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="444"/>
-      <c r="C21" s="447"/>
+      <c r="B21" s="427"/>
+      <c r="C21" s="430"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="449" t="s">
+      <c r="E21" s="432" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8525,10 +8521,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="444"/>
-      <c r="C22" s="447"/>
+      <c r="B22" s="427"/>
+      <c r="C22" s="430"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="449"/>
+      <c r="E22" s="432"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8550,10 +8546,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="444"/>
-      <c r="C23" s="447"/>
+      <c r="B23" s="427"/>
+      <c r="C23" s="430"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="449"/>
+      <c r="E23" s="432"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8575,10 +8571,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="444"/>
-      <c r="C24" s="436"/>
+      <c r="B24" s="427"/>
+      <c r="C24" s="419"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="449"/>
+      <c r="E24" s="432"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8600,10 +8596,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="444"/>
-      <c r="C25" s="436"/>
+      <c r="B25" s="427"/>
+      <c r="C25" s="419"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="451" t="s">
+      <c r="E25" s="434" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8627,10 +8623,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="444"/>
-      <c r="C26" s="436"/>
+      <c r="B26" s="427"/>
+      <c r="C26" s="419"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="451"/>
+      <c r="E26" s="434"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8652,10 +8648,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="444"/>
-      <c r="C27" s="436"/>
+      <c r="B27" s="427"/>
+      <c r="C27" s="419"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="451"/>
+      <c r="E27" s="434"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8677,10 +8673,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="444"/>
-      <c r="C28" s="436"/>
+      <c r="B28" s="427"/>
+      <c r="C28" s="419"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="451"/>
+      <c r="E28" s="434"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8702,10 +8698,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="444"/>
-      <c r="C29" s="436"/>
+      <c r="B29" s="427"/>
+      <c r="C29" s="419"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="449" t="s">
+      <c r="E29" s="432" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8729,10 +8725,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="444"/>
-      <c r="C30" s="436"/>
+      <c r="B30" s="427"/>
+      <c r="C30" s="419"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="449"/>
+      <c r="E30" s="432"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8754,10 +8750,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="444"/>
-      <c r="C31" s="436"/>
+      <c r="B31" s="427"/>
+      <c r="C31" s="419"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="449"/>
+      <c r="E31" s="432"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8779,10 +8775,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="444"/>
-      <c r="C32" s="436"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="419"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="449"/>
+      <c r="E32" s="432"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8804,10 +8800,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="444"/>
-      <c r="C33" s="436"/>
+      <c r="B33" s="427"/>
+      <c r="C33" s="419"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="450"/>
+      <c r="E33" s="433"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8823,10 +8819,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="444"/>
-      <c r="C34" s="436"/>
+      <c r="B34" s="427"/>
+      <c r="C34" s="419"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="450"/>
+      <c r="E34" s="433"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8842,10 +8838,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="444"/>
-      <c r="C35" s="436"/>
+      <c r="B35" s="427"/>
+      <c r="C35" s="419"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="450"/>
+      <c r="E35" s="433"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8861,10 +8857,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="444"/>
-      <c r="C36" s="436"/>
+      <c r="B36" s="427"/>
+      <c r="C36" s="419"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="416"/>
+      <c r="E36" s="435"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8880,7 +8876,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="444"/>
+      <c r="B37" s="427"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8899,12 +8895,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="444"/>
-      <c r="C38" s="452" t="s">
+      <c r="B38" s="427"/>
+      <c r="C38" s="436" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="455" t="s">
+      <c r="E38" s="439" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8928,10 +8924,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="444"/>
-      <c r="C39" s="453"/>
+      <c r="B39" s="427"/>
+      <c r="C39" s="437"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="456"/>
+      <c r="E39" s="440"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8953,10 +8949,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="444"/>
-      <c r="C40" s="453"/>
+      <c r="B40" s="427"/>
+      <c r="C40" s="437"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="456"/>
+      <c r="E40" s="440"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8978,10 +8974,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="444"/>
-      <c r="C41" s="453"/>
+      <c r="B41" s="427"/>
+      <c r="C41" s="437"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="457"/>
+      <c r="E41" s="441"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9003,8 +8999,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="444"/>
-      <c r="C42" s="453"/>
+      <c r="B42" s="427"/>
+      <c r="C42" s="437"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9022,8 +9018,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="444"/>
-      <c r="C43" s="453"/>
+      <c r="B43" s="427"/>
+      <c r="C43" s="437"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9040,8 +9036,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="444"/>
-      <c r="C44" s="453"/>
+      <c r="B44" s="427"/>
+      <c r="C44" s="437"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9058,8 +9054,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="444"/>
-      <c r="C45" s="453"/>
+      <c r="B45" s="427"/>
+      <c r="C45" s="437"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9076,8 +9072,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="444"/>
-      <c r="C46" s="454"/>
+      <c r="B46" s="427"/>
+      <c r="C46" s="438"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9094,12 +9090,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="444"/>
-      <c r="C47" s="452" t="s">
+      <c r="B47" s="427"/>
+      <c r="C47" s="436" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="459" t="s">
+      <c r="E47" s="443" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9122,10 +9118,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="444"/>
-      <c r="C48" s="453"/>
+      <c r="B48" s="427"/>
+      <c r="C48" s="437"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="460"/>
+      <c r="E48" s="444"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9146,10 +9142,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="444"/>
-      <c r="C49" s="453"/>
+      <c r="B49" s="427"/>
+      <c r="C49" s="437"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="460"/>
+      <c r="E49" s="444"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9170,10 +9166,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="444"/>
-      <c r="C50" s="453"/>
+      <c r="B50" s="427"/>
+      <c r="C50" s="437"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="460"/>
+      <c r="E50" s="444"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9194,10 +9190,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="444"/>
-      <c r="C51" s="453"/>
+      <c r="B51" s="427"/>
+      <c r="C51" s="437"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="460"/>
+      <c r="E51" s="444"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9218,10 +9214,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="444"/>
-      <c r="C52" s="453"/>
+      <c r="B52" s="427"/>
+      <c r="C52" s="437"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="460"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9242,10 +9238,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="444"/>
-      <c r="C53" s="453"/>
+      <c r="B53" s="427"/>
+      <c r="C53" s="437"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="460"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9266,10 +9262,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="444"/>
-      <c r="C54" s="453"/>
+      <c r="B54" s="427"/>
+      <c r="C54" s="437"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="460"/>
+      <c r="E54" s="444"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9290,10 +9286,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="444"/>
-      <c r="C55" s="453"/>
+      <c r="B55" s="427"/>
+      <c r="C55" s="437"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="460"/>
+      <c r="E55" s="444"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9314,10 +9310,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="444"/>
-      <c r="C56" s="453"/>
+      <c r="B56" s="427"/>
+      <c r="C56" s="437"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="460"/>
+      <c r="E56" s="444"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9338,10 +9334,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="444"/>
-      <c r="C57" s="453"/>
+      <c r="B57" s="427"/>
+      <c r="C57" s="437"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="460"/>
+      <c r="E57" s="444"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9362,10 +9358,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="444"/>
-      <c r="C58" s="453"/>
+      <c r="B58" s="427"/>
+      <c r="C58" s="437"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="460"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9386,10 +9382,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="444"/>
-      <c r="C59" s="453"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="437"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="416" t="s">
+      <c r="E59" s="435" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9412,10 +9408,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="444"/>
-      <c r="C60" s="453"/>
+      <c r="B60" s="427"/>
+      <c r="C60" s="437"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="417"/>
+      <c r="E60" s="445"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9436,10 +9432,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="444"/>
-      <c r="C61" s="453"/>
+      <c r="B61" s="427"/>
+      <c r="C61" s="437"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="417"/>
+      <c r="E61" s="445"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9460,10 +9456,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="444"/>
-      <c r="C62" s="453"/>
+      <c r="B62" s="427"/>
+      <c r="C62" s="437"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="417"/>
+      <c r="E62" s="445"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9484,10 +9480,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="444"/>
-      <c r="C63" s="453"/>
+      <c r="B63" s="427"/>
+      <c r="C63" s="437"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="417"/>
+      <c r="E63" s="445"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9508,10 +9504,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="444"/>
-      <c r="C64" s="453"/>
+      <c r="B64" s="427"/>
+      <c r="C64" s="437"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="417"/>
+      <c r="E64" s="445"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9532,10 +9528,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="444"/>
-      <c r="C65" s="453"/>
+      <c r="B65" s="427"/>
+      <c r="C65" s="437"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="417"/>
+      <c r="E65" s="445"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9556,10 +9552,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="444"/>
-      <c r="C66" s="453"/>
+      <c r="B66" s="427"/>
+      <c r="C66" s="437"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="417"/>
+      <c r="E66" s="445"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9580,10 +9576,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="444"/>
-      <c r="C67" s="453"/>
+      <c r="B67" s="427"/>
+      <c r="C67" s="437"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="417"/>
+      <c r="E67" s="445"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9604,10 +9600,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="444"/>
-      <c r="C68" s="453"/>
+      <c r="B68" s="427"/>
+      <c r="C68" s="437"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="417"/>
+      <c r="E68" s="445"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9628,10 +9624,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="444"/>
-      <c r="C69" s="453"/>
+      <c r="B69" s="427"/>
+      <c r="C69" s="437"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="417"/>
+      <c r="E69" s="445"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9652,10 +9648,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="444"/>
-      <c r="C70" s="453"/>
+      <c r="B70" s="427"/>
+      <c r="C70" s="437"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="417"/>
+      <c r="E70" s="445"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9676,10 +9672,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="444"/>
-      <c r="C71" s="453"/>
+      <c r="B71" s="427"/>
+      <c r="C71" s="437"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="417"/>
+      <c r="E71" s="445"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9700,10 +9696,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="444"/>
-      <c r="C72" s="453"/>
+      <c r="B72" s="427"/>
+      <c r="C72" s="437"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="417"/>
+      <c r="E72" s="445"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9724,10 +9720,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="444"/>
-      <c r="C73" s="453"/>
+      <c r="B73" s="427"/>
+      <c r="C73" s="437"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="417"/>
+      <c r="E73" s="445"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9748,10 +9744,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="444"/>
-      <c r="C74" s="458"/>
+      <c r="B74" s="427"/>
+      <c r="C74" s="442"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="417"/>
+      <c r="E74" s="445"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9772,10 +9768,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="444"/>
+      <c r="B75" s="427"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="417"/>
+      <c r="E75" s="445"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9796,10 +9792,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="444"/>
+      <c r="B76" s="427"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="417"/>
+      <c r="E76" s="445"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9820,10 +9816,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="444"/>
+      <c r="B77" s="427"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="417"/>
+      <c r="E77" s="445"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9844,10 +9840,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="444"/>
+      <c r="B78" s="427"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="417"/>
+      <c r="E78" s="445"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9868,10 +9864,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="444"/>
+      <c r="B79" s="427"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="417"/>
+      <c r="E79" s="445"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9892,10 +9888,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="444"/>
+      <c r="B80" s="427"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="417"/>
+      <c r="E80" s="445"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9916,10 +9912,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="444"/>
+      <c r="B81" s="427"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="417"/>
+      <c r="E81" s="445"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9940,10 +9936,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="444"/>
+      <c r="B82" s="427"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="417"/>
+      <c r="E82" s="445"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9964,10 +9960,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="444"/>
+      <c r="B83" s="427"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="417"/>
+      <c r="E83" s="445"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9988,10 +9984,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="444"/>
+      <c r="B84" s="427"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="417"/>
+      <c r="E84" s="445"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10012,10 +10008,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="444"/>
+      <c r="B85" s="427"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="417"/>
+      <c r="E85" s="445"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10036,10 +10032,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="444"/>
+      <c r="B86" s="427"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="418"/>
+      <c r="E86" s="446"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10060,10 +10056,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="444"/>
+      <c r="B87" s="427"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="417" t="s">
+      <c r="E87" s="445" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10086,10 +10082,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="444"/>
+      <c r="B88" s="427"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="417"/>
+      <c r="E88" s="445"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10110,10 +10106,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="444"/>
+      <c r="B89" s="427"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="417"/>
+      <c r="E89" s="445"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10134,10 +10130,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="444"/>
+      <c r="B90" s="427"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="417"/>
+      <c r="E90" s="445"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10158,7 +10154,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="444"/>
+      <c r="B91" s="427"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10176,7 +10172,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="445"/>
+      <c r="B92" s="428"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10194,14 +10190,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="433" t="s">
+      <c r="B93" s="416" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="435" t="s">
+      <c r="C93" s="418" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="437" t="s">
+      <c r="E93" s="420" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10222,10 +10218,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="434"/>
-      <c r="C94" s="436"/>
+      <c r="B94" s="417"/>
+      <c r="C94" s="419"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="438"/>
+      <c r="E94" s="421"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10242,10 +10238,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="434"/>
-      <c r="C95" s="436"/>
+      <c r="B95" s="417"/>
+      <c r="C95" s="419"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="438"/>
+      <c r="E95" s="421"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10262,10 +10258,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="434"/>
-      <c r="C96" s="436"/>
+      <c r="B96" s="417"/>
+      <c r="C96" s="419"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="439"/>
+      <c r="E96" s="422"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10282,8 +10278,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="434"/>
-      <c r="C97" s="436"/>
+      <c r="B97" s="417"/>
+      <c r="C97" s="419"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10300,8 +10296,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="434"/>
-      <c r="C98" s="436"/>
+      <c r="B98" s="417"/>
+      <c r="C98" s="419"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10318,8 +10314,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="434"/>
-      <c r="C99" s="436"/>
+      <c r="B99" s="417"/>
+      <c r="C99" s="419"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10336,7 +10332,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="434"/>
+      <c r="B100" s="417"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10354,7 +10350,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="434"/>
+      <c r="B101" s="417"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10372,7 +10368,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="434"/>
+      <c r="B102" s="417"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10390,7 +10386,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="434"/>
+      <c r="B103" s="417"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10408,7 +10404,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="434"/>
+      <c r="B104" s="417"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10427,7 +10423,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="440" t="s">
+      <c r="C105" s="423" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10447,7 +10443,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="441"/>
+      <c r="C106" s="424"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10465,7 +10461,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="441"/>
+      <c r="C107" s="424"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10483,7 +10479,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="441"/>
+      <c r="C108" s="424"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10501,7 +10497,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="441"/>
+      <c r="C109" s="424"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10519,7 +10515,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="441"/>
+      <c r="C110" s="424"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10537,7 +10533,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="441"/>
+      <c r="C111" s="424"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10555,7 +10551,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="441"/>
+      <c r="C112" s="424"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10573,7 +10569,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="441"/>
+      <c r="C113" s="424"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10591,7 +10587,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="441"/>
+      <c r="C114" s="424"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10609,7 +10605,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="441"/>
+      <c r="C115" s="424"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10627,7 +10623,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="442"/>
+      <c r="C116" s="425"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11012,6 +11008,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11028,21 +11039,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -12003,13 +11999,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I91"/>
+  <dimension ref="B1:I85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +12014,7 @@
     <col min="2" max="2" width="4.44140625" style="310" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="310" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="310" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="310" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" style="310" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="310" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="310" customWidth="1"/>
     <col min="8" max="8" width="61.77734375" style="310" customWidth="1"/>
@@ -12052,7 +12048,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="361" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G3" s="361" t="s">
         <v>189</v>
@@ -12093,7 +12089,7 @@
       <c r="C6" s="322"/>
       <c r="D6" s="478"/>
       <c r="E6" s="357" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
@@ -12103,7 +12099,9 @@
       <c r="B7" s="472"/>
       <c r="C7" s="322"/>
       <c r="D7" s="478"/>
-      <c r="E7" s="357"/>
+      <c r="E7" s="357" t="s">
+        <v>359</v>
+      </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
       <c r="H7" s="368"/>
@@ -12112,19 +12110,21 @@
       <c r="B8" s="472"/>
       <c r="C8" s="322"/>
       <c r="D8" s="479"/>
-      <c r="E8" s="315"/>
+      <c r="E8" s="315" t="s">
+        <v>357</v>
+      </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
       <c r="H8" s="368"/>
     </row>
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="472"/>
-      <c r="C9" s="330"/>
+      <c r="C9" s="358"/>
       <c r="D9" s="480" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E9" s="315" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F9" s="315"/>
       <c r="G9" s="351"/>
@@ -12132,18 +12132,22 @@
     </row>
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="472"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="438"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="356"/>
+      <c r="C10" s="358"/>
+      <c r="D10" s="421"/>
+      <c r="E10" s="315" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="315"/>
       <c r="G10" s="351"/>
       <c r="H10" s="368"/>
     </row>
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="472"/>
-      <c r="C11" s="322"/>
-      <c r="D11" s="438"/>
-      <c r="E11" s="315"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="421"/>
+      <c r="E11" s="315" t="s">
+        <v>352</v>
+      </c>
       <c r="F11" s="315"/>
       <c r="G11" s="351"/>
       <c r="H11" s="368"/>
@@ -12151,29 +12155,29 @@
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="472"/>
       <c r="C12" s="358"/>
-      <c r="D12" s="438"/>
-      <c r="E12" s="315"/>
+      <c r="D12" s="422"/>
+      <c r="E12" s="315" t="s">
+        <v>355</v>
+      </c>
       <c r="F12" s="315"/>
       <c r="G12" s="351"/>
       <c r="H12" s="368"/>
     </row>
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="472"/>
-      <c r="C13" s="358"/>
+      <c r="C13" s="322"/>
       <c r="D13" s="480" t="s">
-        <v>351</v>
-      </c>
-      <c r="E13" s="315" t="s">
-        <v>352</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E13" s="315"/>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
       <c r="H13" s="368"/>
     </row>
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="472"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="438"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="421"/>
       <c r="E14" s="315"/>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
@@ -12181,8 +12185,8 @@
     </row>
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="472"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="439"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="421"/>
       <c r="E15" s="315"/>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
@@ -12190,56 +12194,46 @@
     </row>
     <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="472"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="480" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="315" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="315"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="422"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="356"/>
       <c r="G16" s="351"/>
       <c r="H16" s="368"/>
     </row>
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="472"/>
-      <c r="C17" s="358"/>
-      <c r="D17" s="438"/>
-      <c r="E17" s="315" t="s">
-        <v>356</v>
-      </c>
+      <c r="C17" s="322"/>
+      <c r="D17" s="480" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="315"/>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
       <c r="H17" s="368"/>
     </row>
     <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="472"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="438"/>
-      <c r="E18" s="315" t="s">
-        <v>355</v>
-      </c>
+      <c r="C18" s="322"/>
+      <c r="D18" s="421"/>
+      <c r="E18" s="315"/>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="368"/>
     </row>
     <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="472"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="439"/>
-      <c r="E19" s="315" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="315"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="421"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="356"/>
       <c r="G19" s="351"/>
       <c r="H19" s="368"/>
     </row>
     <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="472"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="480" t="s">
-        <v>335</v>
-      </c>
+      <c r="C20" s="330"/>
+      <c r="D20" s="421"/>
       <c r="E20" s="315"/>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
@@ -12248,7 +12242,9 @@
     <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="472"/>
       <c r="C21" s="330"/>
-      <c r="D21" s="438"/>
+      <c r="D21" s="480" t="s">
+        <v>341</v>
+      </c>
       <c r="E21" s="315"/>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
@@ -12256,28 +12252,26 @@
     </row>
     <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="472"/>
-      <c r="C22" s="330"/>
-      <c r="D22" s="438"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="421"/>
       <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
+      <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="368"/>
     </row>
     <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="472"/>
       <c r="C23" s="322"/>
-      <c r="D23" s="439"/>
+      <c r="D23" s="421"/>
       <c r="E23" s="315"/>
-      <c r="F23" s="356"/>
+      <c r="F23" s="315"/>
       <c r="G23" s="351"/>
       <c r="H23" s="368"/>
     </row>
     <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="472"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="480" t="s">
-        <v>336</v>
-      </c>
+      <c r="C24" s="358"/>
+      <c r="D24" s="421"/>
       <c r="E24" s="315"/>
       <c r="F24" s="315"/>
       <c r="G24" s="351"/>
@@ -12285,26 +12279,28 @@
     </row>
     <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="472"/>
-      <c r="C25" s="322"/>
-      <c r="D25" s="438"/>
+      <c r="C25" s="358"/>
+      <c r="D25" s="480" t="s">
+        <v>337</v>
+      </c>
       <c r="E25" s="315"/>
-      <c r="F25" s="315"/>
+      <c r="F25" s="356"/>
       <c r="G25" s="351"/>
       <c r="H25" s="368"/>
     </row>
     <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="472"/>
-      <c r="C26" s="330"/>
-      <c r="D26" s="438"/>
+      <c r="C26" s="358"/>
+      <c r="D26" s="421"/>
       <c r="E26" s="315"/>
-      <c r="F26" s="356"/>
+      <c r="F26" s="315"/>
       <c r="G26" s="351"/>
       <c r="H26" s="368"/>
     </row>
     <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="472"/>
-      <c r="C27" s="330"/>
-      <c r="D27" s="438"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="421"/>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
@@ -12312,28 +12308,28 @@
     </row>
     <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="472"/>
-      <c r="C28" s="330"/>
-      <c r="D28" s="480" t="s">
-        <v>341</v>
-      </c>
+      <c r="C28" s="358"/>
+      <c r="D28" s="421"/>
       <c r="E28" s="315"/>
-      <c r="F28" s="315"/>
+      <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="368"/>
     </row>
     <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="472"/>
-      <c r="C29" s="322"/>
-      <c r="D29" s="438"/>
+      <c r="C29" s="358"/>
+      <c r="D29" s="480" t="s">
+        <v>342</v>
+      </c>
       <c r="E29" s="315"/>
-      <c r="F29" s="356"/>
+      <c r="F29" s="315"/>
       <c r="G29" s="351"/>
       <c r="H29" s="368"/>
     </row>
     <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="472"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="438"/>
+      <c r="C30" s="358"/>
+      <c r="D30" s="421"/>
       <c r="E30" s="315"/>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
@@ -12342,7 +12338,7 @@
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="472"/>
       <c r="C31" s="358"/>
-      <c r="D31" s="438"/>
+      <c r="D31" s="421"/>
       <c r="E31" s="315"/>
       <c r="F31" s="315"/>
       <c r="G31" s="351"/>
@@ -12351,18 +12347,18 @@
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="472"/>
       <c r="C32" s="358"/>
-      <c r="D32" s="480" t="s">
-        <v>337</v>
-      </c>
+      <c r="D32" s="421"/>
       <c r="E32" s="315"/>
-      <c r="F32" s="356"/>
+      <c r="F32" s="315"/>
       <c r="G32" s="351"/>
       <c r="H32" s="368"/>
     </row>
     <row r="33" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="472"/>
       <c r="C33" s="358"/>
-      <c r="D33" s="438"/>
+      <c r="D33" s="480" t="s">
+        <v>340</v>
+      </c>
       <c r="E33" s="315"/>
       <c r="F33" s="315"/>
       <c r="G33" s="351"/>
@@ -12371,7 +12367,7 @@
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="472"/>
       <c r="C34" s="358"/>
-      <c r="D34" s="438"/>
+      <c r="D34" s="421"/>
       <c r="E34" s="315"/>
       <c r="F34" s="315"/>
       <c r="G34" s="351"/>
@@ -12380,27 +12376,27 @@
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="472"/>
       <c r="C35" s="358"/>
-      <c r="D35" s="438"/>
+      <c r="D35" s="421"/>
       <c r="E35" s="315"/>
-      <c r="F35" s="356"/>
+      <c r="F35" s="315"/>
       <c r="G35" s="351"/>
       <c r="H35" s="368"/>
     </row>
-    <row r="36" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="472"/>
-      <c r="C36" s="358"/>
-      <c r="D36" s="480" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" s="315"/>
-      <c r="F36" s="315"/>
-      <c r="G36" s="351"/>
-      <c r="H36" s="368"/>
+      <c r="C36" s="355"/>
+      <c r="D36" s="421"/>
+      <c r="E36" s="355"/>
+      <c r="F36" s="355"/>
+      <c r="G36" s="359"/>
+      <c r="H36" s="369"/>
     </row>
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="472"/>
       <c r="C37" s="358"/>
-      <c r="D37" s="438"/>
+      <c r="D37" s="481" t="s">
+        <v>339</v>
+      </c>
       <c r="E37" s="315"/>
       <c r="F37" s="315"/>
       <c r="G37" s="351"/>
@@ -12409,7 +12405,7 @@
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="472"/>
       <c r="C38" s="358"/>
-      <c r="D38" s="438"/>
+      <c r="D38" s="482"/>
       <c r="E38" s="315"/>
       <c r="F38" s="315"/>
       <c r="G38" s="351"/>
@@ -12418,27 +12414,27 @@
     <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="472"/>
       <c r="C39" s="358"/>
-      <c r="D39" s="438"/>
+      <c r="D39" s="482"/>
       <c r="E39" s="315"/>
       <c r="F39" s="315"/>
       <c r="G39" s="351"/>
       <c r="H39" s="368"/>
     </row>
-    <row r="40" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="472"/>
-      <c r="C40" s="358"/>
-      <c r="D40" s="480" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="315"/>
-      <c r="F40" s="315"/>
-      <c r="G40" s="351"/>
-      <c r="H40" s="368"/>
+      <c r="C40" s="355"/>
+      <c r="D40" s="482"/>
+      <c r="E40" s="355"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="369"/>
     </row>
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="472"/>
       <c r="C41" s="358"/>
-      <c r="D41" s="438"/>
+      <c r="D41" s="481" t="s">
+        <v>346</v>
+      </c>
       <c r="E41" s="315"/>
       <c r="F41" s="315"/>
       <c r="G41" s="351"/>
@@ -12447,37 +12443,39 @@
     <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="472"/>
       <c r="C42" s="358"/>
-      <c r="D42" s="438"/>
+      <c r="D42" s="482"/>
       <c r="E42" s="315"/>
       <c r="F42" s="315"/>
       <c r="G42" s="351"/>
       <c r="H42" s="368"/>
     </row>
-    <row r="43" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="472"/>
-      <c r="C43" s="355"/>
-      <c r="D43" s="438"/>
-      <c r="E43" s="355"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="359"/>
-      <c r="H43" s="369"/>
-    </row>
-    <row r="44" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="358"/>
+      <c r="D43" s="482"/>
+      <c r="E43" s="315"/>
+      <c r="F43" s="315"/>
+      <c r="G43" s="351"/>
+      <c r="H43" s="368"/>
+    </row>
+    <row r="44" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="472"/>
-      <c r="C44" s="358"/>
-      <c r="D44" s="481" t="s">
-        <v>339</v>
-      </c>
-      <c r="E44" s="315"/>
-      <c r="F44" s="315"/>
-      <c r="G44" s="351"/>
-      <c r="H44" s="368"/>
+      <c r="C44" s="355"/>
+      <c r="D44" s="482"/>
+      <c r="E44" s="355"/>
+      <c r="F44" s="355"/>
+      <c r="G44" s="359"/>
+      <c r="H44" s="369"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="472"/>
       <c r="C45" s="358"/>
-      <c r="D45" s="482"/>
-      <c r="E45" s="315"/>
+      <c r="D45" s="481" t="s">
+        <v>356</v>
+      </c>
+      <c r="E45" s="315" t="s">
+        <v>360</v>
+      </c>
       <c r="F45" s="315"/>
       <c r="G45" s="351"/>
       <c r="H45" s="368"/>
@@ -12486,36 +12484,42 @@
       <c r="B46" s="472"/>
       <c r="C46" s="358"/>
       <c r="D46" s="482"/>
-      <c r="E46" s="315"/>
+      <c r="E46" s="315" t="s">
+        <v>361</v>
+      </c>
       <c r="F46" s="315"/>
       <c r="G46" s="351"/>
       <c r="H46" s="368"/>
     </row>
-    <row r="47" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="472"/>
-      <c r="C47" s="355"/>
+      <c r="C47" s="358"/>
       <c r="D47" s="482"/>
-      <c r="E47" s="355"/>
-      <c r="F47" s="355"/>
-      <c r="G47" s="359"/>
-      <c r="H47" s="369"/>
-    </row>
-    <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="315" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="315"/>
+      <c r="G47" s="351"/>
+      <c r="H47" s="368"/>
+    </row>
+    <row r="48" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="472"/>
-      <c r="C48" s="358"/>
-      <c r="D48" s="481" t="s">
-        <v>346</v>
-      </c>
-      <c r="E48" s="315"/>
-      <c r="F48" s="315"/>
-      <c r="G48" s="351"/>
-      <c r="H48" s="368"/>
+      <c r="C48" s="355"/>
+      <c r="D48" s="482"/>
+      <c r="E48" s="315" t="s">
+        <v>364</v>
+      </c>
+      <c r="F48" s="355"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="369"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="472"/>
       <c r="C49" s="358"/>
       <c r="D49" s="482"/>
-      <c r="E49" s="315"/>
+      <c r="E49" s="315" t="s">
+        <v>363</v>
+      </c>
       <c r="F49" s="315"/>
       <c r="G49" s="351"/>
       <c r="H49" s="368"/>
@@ -12523,7 +12527,9 @@
     <row r="50" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="472"/>
       <c r="C50" s="358"/>
-      <c r="D50" s="482"/>
+      <c r="D50" s="481" t="s">
+        <v>338</v>
+      </c>
       <c r="E50" s="315"/>
       <c r="F50" s="315"/>
       <c r="G50" s="351"/>
@@ -12541,12 +12547,8 @@
     <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="472"/>
       <c r="C52" s="358"/>
-      <c r="D52" s="481" t="s">
-        <v>359</v>
-      </c>
-      <c r="E52" s="315" t="s">
-        <v>360</v>
-      </c>
+      <c r="D52" s="482"/>
+      <c r="E52" s="315"/>
       <c r="F52" s="315"/>
       <c r="G52" s="351"/>
       <c r="H52" s="368"/>
@@ -12555,9 +12557,7 @@
       <c r="B53" s="472"/>
       <c r="C53" s="358"/>
       <c r="D53" s="482"/>
-      <c r="E53" s="315" t="s">
-        <v>361</v>
-      </c>
+      <c r="E53" s="315"/>
       <c r="F53" s="315"/>
       <c r="G53" s="351"/>
       <c r="H53" s="368"/>
@@ -12565,10 +12565,8 @@
     <row r="54" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="472"/>
       <c r="C54" s="355"/>
-      <c r="D54" s="482"/>
-      <c r="E54" s="315" t="s">
-        <v>362</v>
-      </c>
+      <c r="D54" s="355"/>
+      <c r="E54" s="355"/>
       <c r="F54" s="355"/>
       <c r="G54" s="359"/>
       <c r="H54" s="369"/>
@@ -12576,10 +12574,8 @@
     <row r="55" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="472"/>
       <c r="C55" s="358"/>
-      <c r="D55" s="482"/>
-      <c r="E55" s="315" t="s">
-        <v>363</v>
-      </c>
+      <c r="D55" s="358"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="315"/>
       <c r="G55" s="351"/>
       <c r="H55" s="368"/>
@@ -12587,9 +12583,7 @@
     <row r="56" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="472"/>
       <c r="C56" s="358"/>
-      <c r="D56" s="481" t="s">
-        <v>338</v>
-      </c>
+      <c r="D56" s="358"/>
       <c r="E56" s="315"/>
       <c r="F56" s="315"/>
       <c r="G56" s="351"/>
@@ -12598,7 +12592,7 @@
     <row r="57" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="472"/>
       <c r="C57" s="355"/>
-      <c r="D57" s="482"/>
+      <c r="D57" s="355"/>
       <c r="E57" s="355"/>
       <c r="F57" s="355"/>
       <c r="G57" s="359"/>
@@ -12607,7 +12601,7 @@
     <row r="58" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="472"/>
       <c r="C58" s="358"/>
-      <c r="D58" s="482"/>
+      <c r="D58" s="358"/>
       <c r="E58" s="315"/>
       <c r="F58" s="315"/>
       <c r="G58" s="351"/>
@@ -12616,7 +12610,7 @@
     <row r="59" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="472"/>
       <c r="C59" s="358"/>
-      <c r="D59" s="482"/>
+      <c r="D59" s="358"/>
       <c r="E59" s="315"/>
       <c r="F59" s="315"/>
       <c r="G59" s="351"/>
@@ -12777,7 +12771,7 @@
     </row>
     <row r="77" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="472"/>
-      <c r="C77" s="358"/>
+      <c r="C77" s="360"/>
       <c r="D77" s="358"/>
       <c r="E77" s="315"/>
       <c r="F77" s="315"/>
@@ -12786,132 +12780,76 @@
     </row>
     <row r="78" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="472"/>
-      <c r="C78" s="355"/>
-      <c r="D78" s="355"/>
-      <c r="E78" s="355"/>
-      <c r="F78" s="355"/>
-      <c r="G78" s="359"/>
-      <c r="H78" s="369"/>
-    </row>
-    <row r="79" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="331"/>
+      <c r="D78" s="358"/>
+      <c r="E78" s="315"/>
+      <c r="F78" s="315"/>
+      <c r="G78" s="351"/>
+      <c r="H78" s="368"/>
+    </row>
+    <row r="79" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="472"/>
-      <c r="C79" s="358"/>
+      <c r="C79" s="331"/>
       <c r="D79" s="358"/>
       <c r="E79" s="315"/>
       <c r="F79" s="315"/>
       <c r="G79" s="351"/>
       <c r="H79" s="368"/>
     </row>
-    <row r="80" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="472"/>
-      <c r="C80" s="358"/>
-      <c r="D80" s="358"/>
-      <c r="E80" s="315"/>
-      <c r="F80" s="315"/>
-      <c r="G80" s="351"/>
-      <c r="H80" s="368"/>
-    </row>
-    <row r="81" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="472"/>
-      <c r="C81" s="355"/>
-      <c r="D81" s="355"/>
-      <c r="E81" s="355"/>
-      <c r="F81" s="355"/>
-      <c r="G81" s="359"/>
-      <c r="H81" s="369"/>
-    </row>
-    <row r="82" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="472"/>
-      <c r="C82" s="358"/>
-      <c r="D82" s="358"/>
-      <c r="E82" s="315"/>
-      <c r="F82" s="315"/>
-      <c r="G82" s="351"/>
-      <c r="H82" s="368"/>
-    </row>
-    <row r="83" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="472"/>
-      <c r="C83" s="360"/>
-      <c r="D83" s="358"/>
-      <c r="E83" s="315"/>
-      <c r="F83" s="315"/>
-      <c r="G83" s="351"/>
-      <c r="H83" s="368"/>
-    </row>
-    <row r="84" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="472"/>
-      <c r="C84" s="331"/>
-      <c r="D84" s="358"/>
-      <c r="E84" s="315"/>
-      <c r="F84" s="315"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="368"/>
-    </row>
-    <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="472"/>
-      <c r="C85" s="331"/>
-      <c r="D85" s="358"/>
-      <c r="E85" s="315"/>
-      <c r="F85" s="315"/>
-      <c r="G85" s="351"/>
-      <c r="H85" s="368"/>
-    </row>
-    <row r="86" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="473"/>
-      <c r="C86" s="370"/>
-      <c r="D86" s="371"/>
-      <c r="E86" s="372"/>
-      <c r="F86" s="372"/>
-      <c r="G86" s="373"/>
-      <c r="H86" s="374"/>
-    </row>
-    <row r="87" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="331"/>
-      <c r="C87" s="331"/>
-      <c r="D87" s="331"/>
-      <c r="E87" s="362"/>
-      <c r="F87" s="363"/>
-      <c r="G87" s="364"/>
-      <c r="H87" s="331"/>
-    </row>
-    <row r="88" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="331"/>
-      <c r="C88" s="331"/>
-      <c r="D88" s="331"/>
-      <c r="E88" s="362"/>
-      <c r="F88" s="363"/>
-      <c r="G88" s="364"/>
-      <c r="H88" s="331"/>
-    </row>
-    <row r="89" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="331"/>
-      <c r="C89" s="331"/>
-      <c r="D89" s="331"/>
-      <c r="E89" s="362"/>
-      <c r="F89" s="363"/>
-      <c r="G89" s="364"/>
-      <c r="H89" s="331"/>
-    </row>
-    <row r="90" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="473"/>
+      <c r="C80" s="370"/>
+      <c r="D80" s="371"/>
+      <c r="E80" s="372"/>
+      <c r="F80" s="372"/>
+      <c r="G80" s="373"/>
+      <c r="H80" s="374"/>
+    </row>
+    <row r="81" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="331"/>
+      <c r="C81" s="331"/>
+      <c r="D81" s="331"/>
+      <c r="E81" s="362"/>
+      <c r="F81" s="363"/>
+      <c r="G81" s="364"/>
+      <c r="H81" s="331"/>
+    </row>
+    <row r="82" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="331"/>
+      <c r="C82" s="331"/>
+      <c r="D82" s="331"/>
+      <c r="E82" s="362"/>
+      <c r="F82" s="363"/>
+      <c r="G82" s="364"/>
+      <c r="H82" s="331"/>
+    </row>
+    <row r="83" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="331"/>
+      <c r="C83" s="331"/>
+      <c r="D83" s="331"/>
+      <c r="E83" s="362"/>
+      <c r="F83" s="363"/>
+      <c r="G83" s="364"/>
+      <c r="H83" s="331"/>
+    </row>
+    <row r="84" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B4:B86"/>
+  <mergeCells count="14">
+    <mergeCell ref="B4:B80"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D45:D49"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12967,10 +12905,10 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="400" t="s">
+      <c r="G3" s="409" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="486"/>
@@ -12978,12 +12916,12 @@
       <c r="J3" s="488"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="399"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="410"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12991,10 +12929,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="375" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -13014,8 +12952,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="389"/>
-      <c r="C6" s="392"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="403"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -13033,8 +12971,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="390"/>
-      <c r="C7" s="393"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="377"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13054,8 +12992,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="390"/>
-      <c r="C8" s="393"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="377"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13073,8 +13011,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="377"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13092,8 +13030,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="377"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13111,8 +13049,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="377"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13130,8 +13068,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="377"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13149,8 +13087,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="390"/>
-      <c r="C13" s="393"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="377"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13168,8 +13106,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="393"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="377"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13187,8 +13125,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="390"/>
-      <c r="C15" s="393"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="377"/>
       <c r="D15" s="490" t="s">
         <v>50</v>
       </c>
@@ -13206,8 +13144,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="390"/>
-      <c r="C16" s="394"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="378"/>
       <c r="D16" s="491"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -13217,8 +13155,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="397" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="406" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13238,8 +13176,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="390"/>
-      <c r="C18" s="390"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="402"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13257,8 +13195,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="390"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13276,8 +13214,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="390"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="402"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13295,8 +13233,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="390"/>
-      <c r="C21" s="390"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13314,8 +13252,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="390"/>
-      <c r="C22" s="390"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -14044,17 +13982,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -14072,16 +14010,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="400" t="s">
+      <c r="G3" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="400" t="s">
+      <c r="H3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="400" t="s">
+      <c r="I3" s="409" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -14090,83 +14028,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="399"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
-      <c r="I4" s="404"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="410"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14217,9 +14155,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="389"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14246,9 +14184,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="389"/>
-      <c r="C7" s="392"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14289,9 +14227,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="389"/>
-      <c r="C8" s="393"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14316,9 +14254,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14363,9 +14301,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14390,9 +14328,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14433,9 +14371,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14462,9 +14400,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="390"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14497,9 +14435,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="393"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14526,9 +14464,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="390"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14565,9 +14503,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="390"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14594,9 +14532,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="393"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="377"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14639,9 +14577,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="390"/>
-      <c r="C18" s="393"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14668,9 +14606,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="393"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14707,9 +14645,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="393"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14736,9 +14674,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="390"/>
-      <c r="C21" s="393"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14771,9 +14709,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="390"/>
-      <c r="C22" s="393"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14800,8 +14738,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="390"/>
-      <c r="C23" s="393"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="377"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14841,8 +14779,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="390"/>
-      <c r="C24" s="393"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="377"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14868,8 +14806,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="390"/>
-      <c r="C25" s="393"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="377"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -14907,9 +14845,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="390"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14936,11 +14874,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="390"/>
-      <c r="C27" s="397" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="406" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14977,9 +14915,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="390"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -15006,9 +14944,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="390"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15045,9 +14983,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="390"/>
-      <c r="C30" s="390"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15074,9 +15012,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="390"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15113,9 +15051,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="390"/>
-      <c r="C32" s="390"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15142,9 +15080,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="390"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15181,9 +15119,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="390"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15210,9 +15148,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="390"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15249,9 +15187,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="390"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15278,9 +15216,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="390"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15317,9 +15255,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="390"/>
-      <c r="C38" s="390"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15346,9 +15284,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="390"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15379,9 +15317,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="390"/>
-      <c r="C40" s="390"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15408,9 +15346,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="390"/>
-      <c r="C41" s="390"/>
-      <c r="D41" s="503" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="528" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15443,9 +15381,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="390"/>
-      <c r="C42" s="390"/>
-      <c r="D42" s="504"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="402"/>
+      <c r="D42" s="529"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15472,13 +15410,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="391" t="s">
+      <c r="B43" s="375" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="408" t="s">
+      <c r="C43" s="379" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="412" t="s">
+      <c r="D43" s="383" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15513,9 +15451,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="407"/>
-      <c r="C44" s="409"/>
-      <c r="D44" s="413"/>
+      <c r="B44" s="376"/>
+      <c r="C44" s="380"/>
+      <c r="D44" s="384"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15531,9 +15469,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="393"/>
-      <c r="C45" s="410"/>
-      <c r="D45" s="413"/>
+      <c r="B45" s="377"/>
+      <c r="C45" s="381"/>
+      <c r="D45" s="384"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15549,9 +15487,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="393"/>
-      <c r="C46" s="410"/>
-      <c r="D46" s="414" t="s">
+      <c r="B46" s="377"/>
+      <c r="C46" s="381"/>
+      <c r="D46" s="385" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15566,18 +15504,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="393"/>
-      <c r="C47" s="410"/>
-      <c r="D47" s="414"/>
+      <c r="B47" s="377"/>
+      <c r="C47" s="381"/>
+      <c r="D47" s="385"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="393"/>
-      <c r="C48" s="410"/>
-      <c r="D48" s="414" t="s">
+      <c r="B48" s="377"/>
+      <c r="C48" s="381"/>
+      <c r="D48" s="385" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15592,18 +15530,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="393"/>
-      <c r="C49" s="410"/>
-      <c r="D49" s="414"/>
+      <c r="B49" s="377"/>
+      <c r="C49" s="381"/>
+      <c r="D49" s="385"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="393"/>
-      <c r="C50" s="410"/>
-      <c r="D50" s="414" t="s">
+      <c r="B50" s="377"/>
+      <c r="C50" s="381"/>
+      <c r="D50" s="385" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15618,9 +15556,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="394"/>
-      <c r="C51" s="411"/>
-      <c r="D51" s="415"/>
+      <c r="B51" s="378"/>
+      <c r="C51" s="382"/>
+      <c r="D51" s="386"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15931,12 +15869,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X3:Z4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:B4"/>
@@ -15953,34 +15913,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X3:Z4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -16037,17 +15975,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -16065,16 +16003,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="400" t="s">
+      <c r="G3" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="400" t="s">
+      <c r="H3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="400" t="s">
+      <c r="I3" s="409" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -16083,83 +16021,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="399"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
-      <c r="I4" s="404"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="410"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16210,9 +16148,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="389"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16239,9 +16177,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="389"/>
-      <c r="C7" s="392"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16282,9 +16220,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="389"/>
-      <c r="C8" s="393"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16309,9 +16247,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16356,9 +16294,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16383,9 +16321,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16426,9 +16364,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16455,9 +16393,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="390"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16490,9 +16428,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="393"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16519,9 +16457,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="390"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16558,9 +16496,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="390"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16587,9 +16525,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="393"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="377"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16632,9 +16570,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="390"/>
-      <c r="C18" s="393"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16661,9 +16599,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="393"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16700,9 +16638,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="393"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16729,9 +16667,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="390"/>
-      <c r="C21" s="393"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16766,9 +16704,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="390"/>
-      <c r="C22" s="393"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16795,8 +16733,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="390"/>
-      <c r="C23" s="393"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="377"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16836,8 +16774,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="390"/>
-      <c r="C24" s="393"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="377"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16863,8 +16801,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="390"/>
-      <c r="C25" s="393"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="377"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -16902,9 +16840,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="390"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16931,11 +16869,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="390"/>
-      <c r="C27" s="397" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="406" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16972,9 +16910,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="390"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -17001,9 +16939,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="390"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -17040,9 +16978,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="390"/>
-      <c r="C30" s="390"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17069,9 +17007,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="390"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17108,9 +17046,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="390"/>
-      <c r="C32" s="390"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17137,9 +17075,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="390"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17176,9 +17114,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="390"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17205,9 +17143,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="390"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17244,9 +17182,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="390"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17273,9 +17211,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="390"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17312,9 +17250,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="390"/>
-      <c r="C38" s="390"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17341,9 +17279,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="390"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17374,9 +17312,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="390"/>
-      <c r="C40" s="390"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17403,8 +17341,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="390"/>
-      <c r="C41" s="390"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
       <c r="D41" s="490" t="s">
         <v>25</v>
       </c>
@@ -17803,24 +17741,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17837,16 +17767,24 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17934,16 +17872,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="400" t="s">
+      <c r="F3" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="400" t="s">
+      <c r="G3" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="400" t="s">
+      <c r="H3" s="409" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="400" t="s">
+      <c r="I3" s="409" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -17955,34 +17893,34 @@
       <c r="L3" s="493" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="544" t="s">
+      <c r="V3" s="532" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="540" t="s">
@@ -18000,51 +17938,51 @@
       <c r="AA3" s="538" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="542" t="s">
+      <c r="AB3" s="530" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="506"/>
-      <c r="AD3" s="507"/>
+      <c r="AC3" s="504"/>
+      <c r="AD3" s="505"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="399"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
-      <c r="I4" s="404"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="525"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="545"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="410"/>
+      <c r="D4" s="410"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="533"/>
       <c r="W4" s="541"/>
       <c r="X4" s="537"/>
       <c r="Y4" s="537"/>
       <c r="Z4" s="537"/>
       <c r="AA4" s="539"/>
-      <c r="AB4" s="543"/>
-      <c r="AC4" s="508"/>
-      <c r="AD4" s="509"/>
+      <c r="AB4" s="531"/>
+      <c r="AC4" s="506"/>
+      <c r="AD4" s="507"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="391" t="s">
+      <c r="C5" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18099,9 +18037,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="389"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18132,9 +18070,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="389"/>
-      <c r="C7" s="392"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18175,9 +18113,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="389"/>
-      <c r="C8" s="393"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18206,9 +18144,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="390"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="533" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="534" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18259,9 +18197,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="534"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="535"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18290,9 +18228,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="533" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="534" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18339,9 +18277,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="534"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="535"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18372,9 +18310,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="390"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="495" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="511" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18411,9 +18349,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="393"/>
-      <c r="D14" s="496"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="512"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18444,9 +18382,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="390"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="533" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="534" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18487,9 +18425,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="390"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="534"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="377"/>
+      <c r="D16" s="535"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18520,9 +18458,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="393"/>
-      <c r="D17" s="533" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="377"/>
+      <c r="D17" s="534" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18571,9 +18509,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="390"/>
-      <c r="C18" s="393"/>
-      <c r="D18" s="534"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="377"/>
+      <c r="D18" s="535"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18604,9 +18542,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="393"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18645,9 +18583,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="393"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18678,8 +18616,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="390"/>
-      <c r="C21" s="393"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="377"/>
       <c r="D21" s="490" t="s">
         <v>32</v>
       </c>
@@ -18721,9 +18659,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="390"/>
-      <c r="C22" s="393"/>
-      <c r="D22" s="532"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="544"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18754,8 +18692,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="390"/>
-      <c r="C23" s="393"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="377"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18797,8 +18735,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="390"/>
-      <c r="C24" s="393"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="377"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18828,8 +18766,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="390"/>
-      <c r="C25" s="393"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="377"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -18869,9 +18807,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="390"/>
-      <c r="C26" s="394"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18902,11 +18840,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="390"/>
-      <c r="C27" s="397" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="406" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18947,9 +18885,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="390"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18980,9 +18918,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="390"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -19021,9 +18959,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="390"/>
-      <c r="C30" s="390"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19054,9 +18992,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="390"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19095,9 +19033,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="390"/>
-      <c r="C32" s="390"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19128,9 +19066,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="390"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19169,9 +19107,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="390"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19202,9 +19140,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="390"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="533" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="534" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19245,9 +19183,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="390"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="534"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="535"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19278,9 +19216,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="390"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="533" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="534" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19319,9 +19257,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="390"/>
-      <c r="C38" s="390"/>
-      <c r="D38" s="534"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="535"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19352,9 +19290,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="390"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="495" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="511" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19389,9 +19327,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="390"/>
-      <c r="C40" s="390"/>
-      <c r="D40" s="535"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="545"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19422,9 +19360,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="390"/>
-      <c r="C41" s="390"/>
-      <c r="D41" s="530" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="542" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19465,7 +19403,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="489"/>
       <c r="C42" s="489"/>
-      <c r="D42" s="531"/>
+      <c r="D42" s="543"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19828,6 +19766,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -19844,39 +19815,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A006C-808A-4602-BB76-0E2127AA61E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E45EA37-EABF-4AA2-9D16-89823FEA1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="370">
   <si>
     <t>N°</t>
   </si>
@@ -1881,32 +1881,47 @@
     <t>HU-MID-NYA-004- Consultar Bandeja Notificaciones y Alertas</t>
   </si>
   <si>
-    <t>Gestionar 
+    <t>HU-MID-ENT-001-Cambio de estado Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-003-Consultar Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-001-Consultar Bandeja de Entidades</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-001- Registrar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-002 - Editar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-003 - Consultar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-005 - Consultar Bandeja de Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-004 - Registrar bajaTransacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-001- Registrar Transacción Descuento Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-002- Editar Transacción Descuento Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-003 - Consultar Transacción Descuento Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-004- Baja Transacción Descuento Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-005- Consultar BandejaTransacción Descuento Entidad</t>
+  </si>
+  <si>
+    <t>Gestionar Transacciones Generales
 Transacciones</t>
-  </si>
-  <si>
-    <t>HU-MID-ENT-001-Cambio de estado Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-ENT-003-Consultar Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-ENT-001-Consultar Bandeja de Entidades</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-001- Registrar Transacciones Generales</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-002 - Editar Transacciones Generales</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-003 - Consultar Transacciones Generales</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-005 - Consultar Bandeja de Transacciones Generales</t>
-  </si>
-  <si>
-    <t>HU-MID-TRA-004 - Registrar bajaTransacciones Generales</t>
   </si>
 </sst>
 </file>
@@ -4963,18 +4978,141 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4999,91 +5137,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5143,9 +5245,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5173,54 +5272,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5251,42 +5302,6 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5323,6 +5338,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5347,86 +5443,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5439,42 +5490,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5939,22 +5954,22 @@
       <c r="N2" s="392"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="407" t="s">
+      <c r="B3" s="410" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="409" t="s">
+      <c r="C3" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="409" t="s">
+      <c r="D3" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="411" t="s">
+      <c r="E3" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="409" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="414" t="s">
+      <c r="G3" s="417" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="398" t="s">
@@ -5972,12 +5987,12 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="408"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="415"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="418"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -5998,7 +6013,7 @@
       <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="403" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6020,7 +6035,7 @@
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="401"/>
-      <c r="C6" s="403"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6037,7 +6052,7 @@
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="402"/>
-      <c r="C7" s="377"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6057,7 +6072,7 @@
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="402"/>
-      <c r="C8" s="377"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6077,7 +6092,7 @@
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="402"/>
-      <c r="C9" s="377"/>
+      <c r="C9" s="405"/>
       <c r="D9" s="395" t="s">
         <v>158</v>
       </c>
@@ -6110,7 +6125,7 @@
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="402"/>
-      <c r="C10" s="377"/>
+      <c r="C10" s="405"/>
       <c r="D10" s="396"/>
       <c r="E10" s="205">
         <v>2</v>
@@ -6131,7 +6146,7 @@
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="402"/>
-      <c r="C11" s="377"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="396"/>
       <c r="E11" s="205">
         <v>3</v>
@@ -6152,7 +6167,7 @@
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="402"/>
-      <c r="C12" s="377"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="396"/>
       <c r="E12" s="205">
         <v>4</v>
@@ -6173,7 +6188,7 @@
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="402"/>
-      <c r="C13" s="377"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="396"/>
       <c r="E13" s="22">
         <v>5</v>
@@ -6193,7 +6208,7 @@
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="402"/>
-      <c r="C14" s="377"/>
+      <c r="C14" s="405"/>
       <c r="D14" s="396"/>
       <c r="E14" s="22">
         <v>6</v>
@@ -6213,7 +6228,7 @@
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="402"/>
-      <c r="C15" s="377"/>
+      <c r="C15" s="405"/>
       <c r="D15" s="396"/>
       <c r="E15" s="22">
         <v>7</v>
@@ -6233,7 +6248,7 @@
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="402"/>
-      <c r="C16" s="377"/>
+      <c r="C16" s="405"/>
       <c r="D16" s="396"/>
       <c r="E16" s="22">
         <v>8</v>
@@ -6253,7 +6268,7 @@
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="402"/>
-      <c r="C17" s="377"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="396"/>
       <c r="E17" s="205">
         <v>9</v>
@@ -6274,7 +6289,7 @@
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="402"/>
-      <c r="C18" s="377"/>
+      <c r="C18" s="405"/>
       <c r="D18" s="396"/>
       <c r="E18" s="205">
         <v>10</v>
@@ -6295,7 +6310,7 @@
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="402"/>
-      <c r="C19" s="377"/>
+      <c r="C19" s="405"/>
       <c r="D19" s="396"/>
       <c r="E19" s="22">
         <v>11</v>
@@ -6314,7 +6329,7 @@
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="402"/>
-      <c r="C20" s="377"/>
+      <c r="C20" s="405"/>
       <c r="D20" s="396"/>
       <c r="E20" s="22">
         <v>12</v>
@@ -6333,7 +6348,7 @@
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="402"/>
-      <c r="C21" s="377"/>
+      <c r="C21" s="405"/>
       <c r="D21" s="396"/>
       <c r="E21" s="205">
         <v>13</v>
@@ -6352,7 +6367,7 @@
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="402"/>
-      <c r="C22" s="377"/>
+      <c r="C22" s="405"/>
       <c r="D22" s="396"/>
       <c r="E22" s="205">
         <v>14</v>
@@ -6371,7 +6386,7 @@
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="402"/>
-      <c r="C23" s="377"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="396"/>
       <c r="E23" s="22">
         <v>15</v>
@@ -6390,7 +6405,7 @@
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="402"/>
-      <c r="C24" s="377"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="396"/>
       <c r="E24" s="22">
         <v>16</v>
@@ -6409,7 +6424,7 @@
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="402"/>
-      <c r="C25" s="377"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="396"/>
       <c r="E25" s="22">
         <v>17</v>
@@ -6425,7 +6440,7 @@
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="402"/>
-      <c r="C26" s="377"/>
+      <c r="C26" s="405"/>
       <c r="D26" s="396"/>
       <c r="E26" s="22">
         <v>18</v>
@@ -6441,7 +6456,7 @@
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="402"/>
-      <c r="C27" s="377"/>
+      <c r="C27" s="405"/>
       <c r="D27" s="396"/>
       <c r="E27" s="22">
         <v>19</v>
@@ -6457,7 +6472,7 @@
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="402"/>
-      <c r="C28" s="377"/>
+      <c r="C28" s="405"/>
       <c r="D28" s="396"/>
       <c r="E28" s="22">
         <v>20</v>
@@ -6473,7 +6488,7 @@
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="402"/>
-      <c r="C29" s="377"/>
+      <c r="C29" s="405"/>
       <c r="D29" s="396"/>
       <c r="E29" s="22">
         <v>21</v>
@@ -6489,7 +6504,7 @@
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="402"/>
-      <c r="C30" s="377"/>
+      <c r="C30" s="405"/>
       <c r="D30" s="396"/>
       <c r="E30" s="22">
         <v>22</v>
@@ -6505,7 +6520,7 @@
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="402"/>
-      <c r="C31" s="377"/>
+      <c r="C31" s="405"/>
       <c r="D31" s="396"/>
       <c r="E31" s="22">
         <v>23</v>
@@ -6521,7 +6536,7 @@
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="402"/>
-      <c r="C32" s="377"/>
+      <c r="C32" s="405"/>
       <c r="D32" s="396"/>
       <c r="E32" s="22">
         <v>24</v>
@@ -6537,7 +6552,7 @@
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="402"/>
-      <c r="C33" s="377"/>
+      <c r="C33" s="405"/>
       <c r="D33" s="396"/>
       <c r="E33" s="22">
         <v>25</v>
@@ -6553,7 +6568,7 @@
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="402"/>
-      <c r="C34" s="377"/>
+      <c r="C34" s="405"/>
       <c r="D34" s="396"/>
       <c r="E34" s="22">
         <v>26</v>
@@ -6569,7 +6584,7 @@
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="402"/>
-      <c r="C35" s="377"/>
+      <c r="C35" s="405"/>
       <c r="D35" s="396"/>
       <c r="E35" s="22">
         <v>27</v>
@@ -6585,7 +6600,7 @@
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="402"/>
-      <c r="C36" s="377"/>
+      <c r="C36" s="405"/>
       <c r="D36" s="396"/>
       <c r="E36" s="22">
         <v>28</v>
@@ -6601,7 +6616,7 @@
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="402"/>
-      <c r="C37" s="377"/>
+      <c r="C37" s="405"/>
       <c r="D37" s="396"/>
       <c r="E37" s="22">
         <v>29</v>
@@ -6617,7 +6632,7 @@
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="402"/>
-      <c r="C38" s="377"/>
+      <c r="C38" s="405"/>
       <c r="D38" s="396"/>
       <c r="E38" s="22">
         <v>30</v>
@@ -6633,7 +6648,7 @@
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="402"/>
-      <c r="C39" s="377"/>
+      <c r="C39" s="405"/>
       <c r="D39" s="396"/>
       <c r="E39" s="22">
         <v>31</v>
@@ -6649,7 +6664,7 @@
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="402"/>
-      <c r="C40" s="377"/>
+      <c r="C40" s="405"/>
       <c r="D40" s="396"/>
       <c r="E40" s="22">
         <v>32</v>
@@ -6665,7 +6680,7 @@
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="402"/>
-      <c r="C41" s="377"/>
+      <c r="C41" s="405"/>
       <c r="D41" s="396"/>
       <c r="E41" s="22">
         <v>33</v>
@@ -6681,7 +6696,7 @@
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="402"/>
-      <c r="C42" s="377"/>
+      <c r="C42" s="405"/>
       <c r="D42" s="396"/>
       <c r="E42" s="22">
         <v>34</v>
@@ -6697,7 +6712,7 @@
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="402"/>
-      <c r="C43" s="377"/>
+      <c r="C43" s="405"/>
       <c r="D43" s="397"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
@@ -6712,7 +6727,7 @@
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="402"/>
-      <c r="C44" s="377"/>
+      <c r="C44" s="405"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6735,7 +6750,7 @@
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="402"/>
-      <c r="C45" s="377"/>
+      <c r="C45" s="405"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6755,7 +6770,7 @@
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="402"/>
-      <c r="C46" s="377"/>
+      <c r="C46" s="405"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6778,7 +6793,7 @@
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="402"/>
-      <c r="C47" s="377"/>
+      <c r="C47" s="405"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6802,7 +6817,7 @@
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="402"/>
-      <c r="C48" s="377"/>
+      <c r="C48" s="405"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6825,8 +6840,8 @@
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="402"/>
-      <c r="C49" s="377"/>
-      <c r="D49" s="404" t="s">
+      <c r="C49" s="405"/>
+      <c r="D49" s="407" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6848,8 +6863,8 @@
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="402"/>
-      <c r="C50" s="378"/>
-      <c r="D50" s="405"/>
+      <c r="C50" s="406"/>
+      <c r="D50" s="408"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6861,7 +6876,7 @@
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="402"/>
-      <c r="C51" s="406" t="s">
+      <c r="C51" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -7036,13 +7051,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="375" t="s">
+      <c r="B59" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="379" t="s">
+      <c r="C59" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7062,9 +7077,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="376"/>
-      <c r="C60" s="380"/>
-      <c r="D60" s="384"/>
+      <c r="B60" s="419"/>
+      <c r="C60" s="421"/>
+      <c r="D60" s="425"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7081,9 +7096,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="377"/>
-      <c r="C61" s="381"/>
-      <c r="D61" s="384"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="422"/>
+      <c r="D61" s="425"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7101,8 +7116,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="377"/>
-      <c r="C62" s="381"/>
+      <c r="B62" s="405"/>
+      <c r="C62" s="422"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7129,9 +7144,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="377"/>
-      <c r="C63" s="381"/>
-      <c r="D63" s="385" t="s">
+      <c r="B63" s="405"/>
+      <c r="C63" s="422"/>
+      <c r="D63" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7162,9 +7177,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="377"/>
-      <c r="C64" s="381"/>
-      <c r="D64" s="385"/>
+      <c r="B64" s="405"/>
+      <c r="C64" s="422"/>
+      <c r="D64" s="426"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7191,9 +7206,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="377"/>
-      <c r="C65" s="381"/>
-      <c r="D65" s="385"/>
+      <c r="B65" s="405"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="426"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7206,9 +7221,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="377"/>
-      <c r="C66" s="381"/>
-      <c r="D66" s="385" t="s">
+      <c r="B66" s="405"/>
+      <c r="C66" s="422"/>
+      <c r="D66" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7230,9 +7245,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="378"/>
-      <c r="C67" s="382"/>
-      <c r="D67" s="386"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="423"/>
+      <c r="D67" s="427"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7929,6 +7944,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7944,11 +7964,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7990,66 +8005,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="431" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="448"/>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="448"/>
-      <c r="J2" s="448"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="448"/>
-      <c r="N2" s="448"/>
-      <c r="O2" s="448"/>
-      <c r="P2" s="449"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="432"/>
+      <c r="K2" s="432"/>
+      <c r="L2" s="432"/>
+      <c r="M2" s="432"/>
+      <c r="N2" s="432"/>
+      <c r="O2" s="432"/>
+      <c r="P2" s="433"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="450" t="s">
+      <c r="B3" s="434" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="452" t="s">
+      <c r="C3" s="436" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="452" t="s">
+      <c r="D3" s="436" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="455" t="s">
+      <c r="E3" s="439" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="452" t="s">
+      <c r="F3" s="436" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="452" t="s">
+      <c r="G3" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="452" t="s">
+      <c r="H3" s="436" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="452" t="s">
+      <c r="I3" s="436" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="457"/>
-      <c r="K3" s="457"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="441"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="452" t="s">
+      <c r="M3" s="436" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="452" t="s">
+      <c r="N3" s="436" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="452" t="s">
+      <c r="O3" s="436" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="459" t="s">
+      <c r="P3" s="443" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8058,13 +8073,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="451"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="453"/>
-      <c r="G4" s="453"/>
-      <c r="H4" s="453"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
+      <c r="H4" s="437"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8077,10 +8092,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="453"/>
-      <c r="N4" s="453"/>
-      <c r="O4" s="458"/>
-      <c r="P4" s="460"/>
+      <c r="M4" s="437"/>
+      <c r="N4" s="437"/>
+      <c r="O4" s="442"/>
+      <c r="P4" s="444"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8183,14 +8198,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="426" t="s">
+      <c r="B9" s="455" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="429" t="s">
+      <c r="C9" s="458" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="431" t="s">
+      <c r="E9" s="460" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8221,10 +8236,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="427"/>
-      <c r="C10" s="430"/>
+      <c r="B10" s="456"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="432"/>
+      <c r="E10" s="461"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8246,10 +8261,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="427"/>
-      <c r="C11" s="430"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="459"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="432"/>
+      <c r="E11" s="461"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8271,10 +8286,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="427"/>
-      <c r="C12" s="430"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="459"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="432"/>
+      <c r="E12" s="461"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8296,10 +8311,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="427"/>
-      <c r="C13" s="430"/>
+      <c r="B13" s="456"/>
+      <c r="C13" s="459"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="433" t="s">
+      <c r="E13" s="462" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8322,10 +8337,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="427"/>
-      <c r="C14" s="430"/>
+      <c r="B14" s="456"/>
+      <c r="C14" s="459"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="433"/>
+      <c r="E14" s="462"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8346,10 +8361,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="427"/>
-      <c r="C15" s="430"/>
+      <c r="B15" s="456"/>
+      <c r="C15" s="459"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="433"/>
+      <c r="E15" s="462"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8371,10 +8386,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="427"/>
-      <c r="C16" s="430"/>
+      <c r="B16" s="456"/>
+      <c r="C16" s="459"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="433"/>
+      <c r="E16" s="462"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8396,10 +8411,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="427"/>
-      <c r="C17" s="430"/>
+      <c r="B17" s="456"/>
+      <c r="C17" s="459"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="433"/>
+      <c r="E17" s="462"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8421,10 +8436,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="427"/>
-      <c r="C18" s="430"/>
+      <c r="B18" s="456"/>
+      <c r="C18" s="459"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="433"/>
+      <c r="E18" s="462"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8446,10 +8461,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="427"/>
-      <c r="C19" s="430"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="459"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="433"/>
+      <c r="E19" s="462"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8470,10 +8485,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="427"/>
-      <c r="C20" s="430"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="459"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="433"/>
+      <c r="E20" s="462"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8494,10 +8509,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="427"/>
-      <c r="C21" s="430"/>
+      <c r="B21" s="456"/>
+      <c r="C21" s="459"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="432" t="s">
+      <c r="E21" s="461" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8521,10 +8536,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="427"/>
-      <c r="C22" s="430"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="459"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="432"/>
+      <c r="E22" s="461"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8546,10 +8561,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="427"/>
-      <c r="C23" s="430"/>
+      <c r="B23" s="456"/>
+      <c r="C23" s="459"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="432"/>
+      <c r="E23" s="461"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8571,10 +8586,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="427"/>
-      <c r="C24" s="419"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="448"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="432"/>
+      <c r="E24" s="461"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8596,10 +8611,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="427"/>
-      <c r="C25" s="419"/>
+      <c r="B25" s="456"/>
+      <c r="C25" s="448"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="434" t="s">
+      <c r="E25" s="463" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8623,10 +8638,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="427"/>
-      <c r="C26" s="419"/>
+      <c r="B26" s="456"/>
+      <c r="C26" s="448"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="434"/>
+      <c r="E26" s="463"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8648,10 +8663,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="427"/>
-      <c r="C27" s="419"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="448"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="434"/>
+      <c r="E27" s="463"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8673,10 +8688,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="427"/>
-      <c r="C28" s="419"/>
+      <c r="B28" s="456"/>
+      <c r="C28" s="448"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="434"/>
+      <c r="E28" s="463"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8698,10 +8713,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="427"/>
-      <c r="C29" s="419"/>
+      <c r="B29" s="456"/>
+      <c r="C29" s="448"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="432" t="s">
+      <c r="E29" s="461" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8725,10 +8740,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="427"/>
-      <c r="C30" s="419"/>
+      <c r="B30" s="456"/>
+      <c r="C30" s="448"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="432"/>
+      <c r="E30" s="461"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8750,10 +8765,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="427"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="456"/>
+      <c r="C31" s="448"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="432"/>
+      <c r="E31" s="461"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8775,10 +8790,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="427"/>
-      <c r="C32" s="419"/>
+      <c r="B32" s="456"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="432"/>
+      <c r="E32" s="461"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8800,10 +8815,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="427"/>
-      <c r="C33" s="419"/>
+      <c r="B33" s="456"/>
+      <c r="C33" s="448"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="433"/>
+      <c r="E33" s="462"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8819,10 +8834,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="427"/>
-      <c r="C34" s="419"/>
+      <c r="B34" s="456"/>
+      <c r="C34" s="448"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="433"/>
+      <c r="E34" s="462"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8838,10 +8853,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="427"/>
-      <c r="C35" s="419"/>
+      <c r="B35" s="456"/>
+      <c r="C35" s="448"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="433"/>
+      <c r="E35" s="462"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8857,10 +8872,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="427"/>
-      <c r="C36" s="419"/>
+      <c r="B36" s="456"/>
+      <c r="C36" s="448"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="435"/>
+      <c r="E36" s="428"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8876,7 +8891,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="427"/>
+      <c r="B37" s="456"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8895,12 +8910,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="427"/>
-      <c r="C38" s="436" t="s">
+      <c r="B38" s="456"/>
+      <c r="C38" s="464" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="439" t="s">
+      <c r="E38" s="467" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8924,10 +8939,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="427"/>
-      <c r="C39" s="437"/>
+      <c r="B39" s="456"/>
+      <c r="C39" s="465"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="440"/>
+      <c r="E39" s="468"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8949,10 +8964,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="427"/>
-      <c r="C40" s="437"/>
+      <c r="B40" s="456"/>
+      <c r="C40" s="465"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="440"/>
+      <c r="E40" s="468"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8974,10 +8989,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="427"/>
-      <c r="C41" s="437"/>
+      <c r="B41" s="456"/>
+      <c r="C41" s="465"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="441"/>
+      <c r="E41" s="469"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -8999,8 +9014,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="427"/>
-      <c r="C42" s="437"/>
+      <c r="B42" s="456"/>
+      <c r="C42" s="465"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9018,8 +9033,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="427"/>
-      <c r="C43" s="437"/>
+      <c r="B43" s="456"/>
+      <c r="C43" s="465"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9036,8 +9051,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="427"/>
-      <c r="C44" s="437"/>
+      <c r="B44" s="456"/>
+      <c r="C44" s="465"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9054,8 +9069,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="427"/>
-      <c r="C45" s="437"/>
+      <c r="B45" s="456"/>
+      <c r="C45" s="465"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9072,8 +9087,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="427"/>
-      <c r="C46" s="438"/>
+      <c r="B46" s="456"/>
+      <c r="C46" s="466"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9090,12 +9105,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="427"/>
-      <c r="C47" s="436" t="s">
+      <c r="B47" s="456"/>
+      <c r="C47" s="464" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="443" t="s">
+      <c r="E47" s="471" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9118,10 +9133,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="427"/>
-      <c r="C48" s="437"/>
+      <c r="B48" s="456"/>
+      <c r="C48" s="465"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="444"/>
+      <c r="E48" s="472"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9142,10 +9157,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="427"/>
-      <c r="C49" s="437"/>
+      <c r="B49" s="456"/>
+      <c r="C49" s="465"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="444"/>
+      <c r="E49" s="472"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9166,10 +9181,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="427"/>
-      <c r="C50" s="437"/>
+      <c r="B50" s="456"/>
+      <c r="C50" s="465"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="444"/>
+      <c r="E50" s="472"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9190,10 +9205,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="427"/>
-      <c r="C51" s="437"/>
+      <c r="B51" s="456"/>
+      <c r="C51" s="465"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="444"/>
+      <c r="E51" s="472"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9214,10 +9229,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="427"/>
-      <c r="C52" s="437"/>
+      <c r="B52" s="456"/>
+      <c r="C52" s="465"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="444"/>
+      <c r="E52" s="472"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9238,10 +9253,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="427"/>
-      <c r="C53" s="437"/>
+      <c r="B53" s="456"/>
+      <c r="C53" s="465"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="444"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9262,10 +9277,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="427"/>
-      <c r="C54" s="437"/>
+      <c r="B54" s="456"/>
+      <c r="C54" s="465"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="444"/>
+      <c r="E54" s="472"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9286,10 +9301,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="427"/>
-      <c r="C55" s="437"/>
+      <c r="B55" s="456"/>
+      <c r="C55" s="465"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="444"/>
+      <c r="E55" s="472"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9310,10 +9325,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="427"/>
-      <c r="C56" s="437"/>
+      <c r="B56" s="456"/>
+      <c r="C56" s="465"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="444"/>
+      <c r="E56" s="472"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9334,10 +9349,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="427"/>
-      <c r="C57" s="437"/>
+      <c r="B57" s="456"/>
+      <c r="C57" s="465"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="444"/>
+      <c r="E57" s="472"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9358,10 +9373,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="427"/>
-      <c r="C58" s="437"/>
+      <c r="B58" s="456"/>
+      <c r="C58" s="465"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="444"/>
+      <c r="E58" s="472"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9382,10 +9397,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="427"/>
-      <c r="C59" s="437"/>
+      <c r="B59" s="456"/>
+      <c r="C59" s="465"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="435" t="s">
+      <c r="E59" s="428" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9408,10 +9423,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="427"/>
-      <c r="C60" s="437"/>
+      <c r="B60" s="456"/>
+      <c r="C60" s="465"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="445"/>
+      <c r="E60" s="429"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9432,10 +9447,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="427"/>
-      <c r="C61" s="437"/>
+      <c r="B61" s="456"/>
+      <c r="C61" s="465"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="445"/>
+      <c r="E61" s="429"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9456,10 +9471,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="427"/>
-      <c r="C62" s="437"/>
+      <c r="B62" s="456"/>
+      <c r="C62" s="465"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="445"/>
+      <c r="E62" s="429"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9480,10 +9495,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="427"/>
-      <c r="C63" s="437"/>
+      <c r="B63" s="456"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="445"/>
+      <c r="E63" s="429"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9504,10 +9519,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="427"/>
-      <c r="C64" s="437"/>
+      <c r="B64" s="456"/>
+      <c r="C64" s="465"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="445"/>
+      <c r="E64" s="429"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9528,10 +9543,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="427"/>
-      <c r="C65" s="437"/>
+      <c r="B65" s="456"/>
+      <c r="C65" s="465"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="445"/>
+      <c r="E65" s="429"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9552,10 +9567,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="427"/>
-      <c r="C66" s="437"/>
+      <c r="B66" s="456"/>
+      <c r="C66" s="465"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="445"/>
+      <c r="E66" s="429"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9576,10 +9591,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="427"/>
-      <c r="C67" s="437"/>
+      <c r="B67" s="456"/>
+      <c r="C67" s="465"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="445"/>
+      <c r="E67" s="429"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9600,10 +9615,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="427"/>
-      <c r="C68" s="437"/>
+      <c r="B68" s="456"/>
+      <c r="C68" s="465"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="445"/>
+      <c r="E68" s="429"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9624,10 +9639,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="427"/>
-      <c r="C69" s="437"/>
+      <c r="B69" s="456"/>
+      <c r="C69" s="465"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="445"/>
+      <c r="E69" s="429"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9648,10 +9663,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="427"/>
-      <c r="C70" s="437"/>
+      <c r="B70" s="456"/>
+      <c r="C70" s="465"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="445"/>
+      <c r="E70" s="429"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9672,10 +9687,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="427"/>
-      <c r="C71" s="437"/>
+      <c r="B71" s="456"/>
+      <c r="C71" s="465"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="445"/>
+      <c r="E71" s="429"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9696,10 +9711,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="427"/>
-      <c r="C72" s="437"/>
+      <c r="B72" s="456"/>
+      <c r="C72" s="465"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="445"/>
+      <c r="E72" s="429"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9720,10 +9735,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="427"/>
-      <c r="C73" s="437"/>
+      <c r="B73" s="456"/>
+      <c r="C73" s="465"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="445"/>
+      <c r="E73" s="429"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9744,10 +9759,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="427"/>
-      <c r="C74" s="442"/>
+      <c r="B74" s="456"/>
+      <c r="C74" s="470"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="445"/>
+      <c r="E74" s="429"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9768,10 +9783,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="427"/>
+      <c r="B75" s="456"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="445"/>
+      <c r="E75" s="429"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9792,10 +9807,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="427"/>
+      <c r="B76" s="456"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="445"/>
+      <c r="E76" s="429"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9816,10 +9831,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="427"/>
+      <c r="B77" s="456"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="445"/>
+      <c r="E77" s="429"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9840,10 +9855,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="427"/>
+      <c r="B78" s="456"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="445"/>
+      <c r="E78" s="429"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9864,10 +9879,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="427"/>
+      <c r="B79" s="456"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="445"/>
+      <c r="E79" s="429"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9888,10 +9903,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="427"/>
+      <c r="B80" s="456"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="445"/>
+      <c r="E80" s="429"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9912,10 +9927,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="427"/>
+      <c r="B81" s="456"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="445"/>
+      <c r="E81" s="429"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9936,10 +9951,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="427"/>
+      <c r="B82" s="456"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="445"/>
+      <c r="E82" s="429"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9960,10 +9975,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="427"/>
+      <c r="B83" s="456"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="445"/>
+      <c r="E83" s="429"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9984,10 +9999,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="427"/>
+      <c r="B84" s="456"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="445"/>
+      <c r="E84" s="429"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10008,10 +10023,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="427"/>
+      <c r="B85" s="456"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="445"/>
+      <c r="E85" s="429"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10032,10 +10047,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="427"/>
+      <c r="B86" s="456"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="446"/>
+      <c r="E86" s="430"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10056,10 +10071,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="427"/>
+      <c r="B87" s="456"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="445" t="s">
+      <c r="E87" s="429" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10082,10 +10097,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="427"/>
+      <c r="B88" s="456"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="445"/>
+      <c r="E88" s="429"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10106,10 +10121,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="427"/>
+      <c r="B89" s="456"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="445"/>
+      <c r="E89" s="429"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10130,10 +10145,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="427"/>
+      <c r="B90" s="456"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="445"/>
+      <c r="E90" s="429"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10154,7 +10169,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="427"/>
+      <c r="B91" s="456"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10172,7 +10187,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="428"/>
+      <c r="B92" s="457"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10190,14 +10205,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="416" t="s">
+      <c r="B93" s="445" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="418" t="s">
+      <c r="C93" s="447" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="420" t="s">
+      <c r="E93" s="449" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10218,10 +10233,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="417"/>
-      <c r="C94" s="419"/>
+      <c r="B94" s="446"/>
+      <c r="C94" s="448"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="421"/>
+      <c r="E94" s="450"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10238,10 +10253,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="417"/>
-      <c r="C95" s="419"/>
+      <c r="B95" s="446"/>
+      <c r="C95" s="448"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="421"/>
+      <c r="E95" s="450"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10258,10 +10273,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="417"/>
-      <c r="C96" s="419"/>
+      <c r="B96" s="446"/>
+      <c r="C96" s="448"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="422"/>
+      <c r="E96" s="451"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10278,8 +10293,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="417"/>
-      <c r="C97" s="419"/>
+      <c r="B97" s="446"/>
+      <c r="C97" s="448"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10296,8 +10311,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="417"/>
-      <c r="C98" s="419"/>
+      <c r="B98" s="446"/>
+      <c r="C98" s="448"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10314,8 +10329,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="417"/>
-      <c r="C99" s="419"/>
+      <c r="B99" s="446"/>
+      <c r="C99" s="448"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10332,7 +10347,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="417"/>
+      <c r="B100" s="446"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10350,7 +10365,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="417"/>
+      <c r="B101" s="446"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10368,7 +10383,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="417"/>
+      <c r="B102" s="446"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10386,7 +10401,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="417"/>
+      <c r="B103" s="446"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10404,7 +10419,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="417"/>
+      <c r="B104" s="446"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10423,7 +10438,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="423" t="s">
+      <c r="C105" s="452" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10443,7 +10458,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="424"/>
+      <c r="C106" s="453"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10461,7 +10476,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="424"/>
+      <c r="C107" s="453"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10479,7 +10494,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="424"/>
+      <c r="C108" s="453"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10497,7 +10512,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="424"/>
+      <c r="C109" s="453"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10515,7 +10530,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="424"/>
+      <c r="C110" s="453"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10533,7 +10548,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="424"/>
+      <c r="C111" s="453"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10551,7 +10566,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="424"/>
+      <c r="C112" s="453"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10569,7 +10584,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="424"/>
+      <c r="C113" s="453"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10587,7 +10602,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="424"/>
+      <c r="C114" s="453"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10605,7 +10620,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="424"/>
+      <c r="C115" s="453"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10623,7 +10638,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="425"/>
+      <c r="C116" s="454"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11008,21 +11023,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11039,6 +11039,21 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -11078,44 +11093,44 @@
   <sheetData>
     <row r="1" spans="2:48" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:48" s="332" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="479" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="468"/>
-      <c r="D2" s="468"/>
-      <c r="E2" s="468"/>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="469"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="481"/>
       <c r="J2" s="334"/>
       <c r="AV2" s="332" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:48" s="333" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="470" t="s">
+      <c r="B3" s="482" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="470" t="s">
+      <c r="C3" s="482" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="470" t="s">
+      <c r="D3" s="482" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="470" t="s">
+      <c r="E3" s="482" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="470" t="s">
+      <c r="F3" s="482" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="470" t="s">
+      <c r="G3" s="482" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="470" t="s">
+      <c r="H3" s="482" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="470" t="s">
+      <c r="I3" s="482" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="335"/>
@@ -11125,24 +11140,24 @@
       </c>
     </row>
     <row r="4" spans="2:48" s="333" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="470"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="470"/>
-      <c r="F4" s="470"/>
-      <c r="G4" s="470"/>
-      <c r="H4" s="470"/>
-      <c r="I4" s="470"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
       <c r="J4" s="335"/>
       <c r="AV4" s="333" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="461" t="s">
+      <c r="B5" s="473" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="464" t="s">
+      <c r="C5" s="476" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="324"/>
@@ -11159,8 +11174,8 @@
       <c r="I5" s="326"/>
     </row>
     <row r="6" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="462"/>
-      <c r="C6" s="465"/>
+      <c r="B6" s="474"/>
+      <c r="C6" s="477"/>
       <c r="D6" s="312"/>
       <c r="E6" s="312"/>
       <c r="F6" s="338"/>
@@ -11169,8 +11184,8 @@
       <c r="I6" s="314"/>
     </row>
     <row r="7" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="462"/>
-      <c r="C7" s="465"/>
+      <c r="B7" s="474"/>
+      <c r="C7" s="477"/>
       <c r="D7" s="328"/>
       <c r="E7" s="323" t="s">
         <v>325</v>
@@ -11185,8 +11200,8 @@
       <c r="I7" s="329"/>
     </row>
     <row r="8" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="462"/>
-      <c r="C8" s="465"/>
+      <c r="B8" s="474"/>
+      <c r="C8" s="477"/>
       <c r="D8" s="328"/>
       <c r="E8" s="337" t="s">
         <v>284</v>
@@ -11197,8 +11212,8 @@
       <c r="I8" s="329"/>
     </row>
     <row r="9" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="462"/>
-      <c r="C9" s="465"/>
+      <c r="B9" s="474"/>
+      <c r="C9" s="477"/>
       <c r="D9" s="328"/>
       <c r="E9" s="337" t="s">
         <v>285</v>
@@ -11209,8 +11224,8 @@
       <c r="I9" s="329"/>
     </row>
     <row r="10" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="462"/>
-      <c r="C10" s="465"/>
+      <c r="B10" s="474"/>
+      <c r="C10" s="477"/>
       <c r="D10" s="322"/>
       <c r="E10" s="316"/>
       <c r="F10" s="340"/>
@@ -11219,8 +11234,8 @@
       <c r="I10" s="314"/>
     </row>
     <row r="11" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="462"/>
-      <c r="C11" s="465"/>
+      <c r="B11" s="474"/>
+      <c r="C11" s="477"/>
       <c r="D11" s="322"/>
       <c r="E11" s="317" t="s">
         <v>286</v>
@@ -11235,8 +11250,8 @@
       <c r="I11" s="314"/>
     </row>
     <row r="12" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="462"/>
-      <c r="C12" s="465"/>
+      <c r="B12" s="474"/>
+      <c r="C12" s="477"/>
       <c r="D12" s="322"/>
       <c r="E12" s="315" t="s">
         <v>287</v>
@@ -11247,8 +11262,8 @@
       <c r="I12" s="314"/>
     </row>
     <row r="13" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="462"/>
-      <c r="C13" s="465"/>
+      <c r="B13" s="474"/>
+      <c r="C13" s="477"/>
       <c r="D13" s="322"/>
       <c r="E13" s="315" t="s">
         <v>288</v>
@@ -11259,8 +11274,8 @@
       <c r="I13" s="314"/>
     </row>
     <row r="14" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="462"/>
-      <c r="C14" s="465"/>
+      <c r="B14" s="474"/>
+      <c r="C14" s="477"/>
       <c r="D14" s="322"/>
       <c r="E14" s="315" t="s">
         <v>315</v>
@@ -11271,8 +11286,8 @@
       <c r="I14" s="314"/>
     </row>
     <row r="15" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="462"/>
-      <c r="C15" s="465"/>
+      <c r="B15" s="474"/>
+      <c r="C15" s="477"/>
       <c r="D15" s="322"/>
       <c r="E15" s="316"/>
       <c r="F15" s="340"/>
@@ -11281,8 +11296,8 @@
       <c r="I15" s="314"/>
     </row>
     <row r="16" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="462"/>
-      <c r="C16" s="465"/>
+      <c r="B16" s="474"/>
+      <c r="C16" s="477"/>
       <c r="D16" s="330"/>
       <c r="E16" s="323" t="s">
         <v>289</v>
@@ -11297,8 +11312,8 @@
       <c r="I16" s="329"/>
     </row>
     <row r="17" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="462"/>
-      <c r="C17" s="465"/>
+      <c r="B17" s="474"/>
+      <c r="C17" s="477"/>
       <c r="D17" s="330"/>
       <c r="E17" s="323" t="s">
         <v>290</v>
@@ -11309,8 +11324,8 @@
       <c r="I17" s="329"/>
     </row>
     <row r="18" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="462"/>
-      <c r="C18" s="465"/>
+      <c r="B18" s="474"/>
+      <c r="C18" s="477"/>
       <c r="D18" s="330"/>
       <c r="E18" s="323" t="s">
         <v>291</v>
@@ -11321,8 +11336,8 @@
       <c r="I18" s="329"/>
     </row>
     <row r="19" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="462"/>
-      <c r="C19" s="465"/>
+      <c r="B19" s="474"/>
+      <c r="C19" s="477"/>
       <c r="D19" s="322"/>
       <c r="E19" s="315"/>
       <c r="F19" s="340"/>
@@ -11331,8 +11346,8 @@
       <c r="I19" s="314"/>
     </row>
     <row r="20" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B20" s="462"/>
-      <c r="C20" s="465"/>
+      <c r="B20" s="474"/>
+      <c r="C20" s="477"/>
       <c r="D20" s="322"/>
       <c r="E20" s="315" t="s">
         <v>292</v>
@@ -11347,8 +11362,8 @@
       <c r="I20" s="314"/>
     </row>
     <row r="21" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B21" s="462"/>
-      <c r="C21" s="465"/>
+      <c r="B21" s="474"/>
+      <c r="C21" s="477"/>
       <c r="D21" s="322"/>
       <c r="E21" s="315" t="s">
         <v>293</v>
@@ -11359,8 +11374,8 @@
       <c r="I21" s="314"/>
     </row>
     <row r="22" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B22" s="462"/>
-      <c r="C22" s="465"/>
+      <c r="B22" s="474"/>
+      <c r="C22" s="477"/>
       <c r="D22" s="322"/>
       <c r="E22" s="315" t="s">
         <v>294</v>
@@ -11371,8 +11386,8 @@
       <c r="I22" s="314"/>
     </row>
     <row r="23" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B23" s="462"/>
-      <c r="C23" s="465"/>
+      <c r="B23" s="474"/>
+      <c r="C23" s="477"/>
       <c r="D23" s="322"/>
       <c r="E23" s="315"/>
       <c r="F23" s="340"/>
@@ -11381,8 +11396,8 @@
       <c r="I23" s="314"/>
     </row>
     <row r="24" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B24" s="462"/>
-      <c r="C24" s="465"/>
+      <c r="B24" s="474"/>
+      <c r="C24" s="477"/>
       <c r="D24" s="330"/>
       <c r="E24" s="323" t="s">
         <v>295</v>
@@ -11397,8 +11412,8 @@
       <c r="I24" s="329"/>
     </row>
     <row r="25" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B25" s="462"/>
-      <c r="C25" s="465"/>
+      <c r="B25" s="474"/>
+      <c r="C25" s="477"/>
       <c r="D25" s="330"/>
       <c r="E25" s="323" t="s">
         <v>296</v>
@@ -11409,8 +11424,8 @@
       <c r="I25" s="329"/>
     </row>
     <row r="26" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B26" s="462"/>
-      <c r="C26" s="465"/>
+      <c r="B26" s="474"/>
+      <c r="C26" s="477"/>
       <c r="D26" s="330"/>
       <c r="E26" s="323" t="s">
         <v>297</v>
@@ -11421,8 +11436,8 @@
       <c r="I26" s="329"/>
     </row>
     <row r="27" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B27" s="462"/>
-      <c r="C27" s="465"/>
+      <c r="B27" s="474"/>
+      <c r="C27" s="477"/>
       <c r="D27" s="322"/>
       <c r="E27" s="315"/>
       <c r="F27" s="340"/>
@@ -11431,8 +11446,8 @@
       <c r="I27" s="314"/>
     </row>
     <row r="28" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B28" s="462"/>
-      <c r="C28" s="465"/>
+      <c r="B28" s="474"/>
+      <c r="C28" s="477"/>
       <c r="D28" s="322"/>
       <c r="E28" s="315" t="s">
         <v>298</v>
@@ -11447,8 +11462,8 @@
       <c r="I28" s="314"/>
     </row>
     <row r="29" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B29" s="462"/>
-      <c r="C29" s="465"/>
+      <c r="B29" s="474"/>
+      <c r="C29" s="477"/>
       <c r="D29" s="322"/>
       <c r="E29" s="315" t="s">
         <v>299</v>
@@ -11459,8 +11474,8 @@
       <c r="I29" s="314"/>
     </row>
     <row r="30" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B30" s="462"/>
-      <c r="C30" s="465"/>
+      <c r="B30" s="474"/>
+      <c r="C30" s="477"/>
       <c r="D30" s="322"/>
       <c r="E30" s="315" t="s">
         <v>300</v>
@@ -11471,8 +11486,8 @@
       <c r="I30" s="314"/>
     </row>
     <row r="31" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B31" s="462"/>
-      <c r="C31" s="465"/>
+      <c r="B31" s="474"/>
+      <c r="C31" s="477"/>
       <c r="D31" s="322"/>
       <c r="E31" s="315"/>
       <c r="F31" s="340"/>
@@ -11481,8 +11496,8 @@
       <c r="I31" s="314"/>
     </row>
     <row r="32" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B32" s="462"/>
-      <c r="C32" s="465"/>
+      <c r="B32" s="474"/>
+      <c r="C32" s="477"/>
       <c r="D32" s="330"/>
       <c r="E32" s="323" t="s">
         <v>301</v>
@@ -11497,8 +11512,8 @@
       <c r="I32" s="329"/>
     </row>
     <row r="33" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B33" s="462"/>
-      <c r="C33" s="465"/>
+      <c r="B33" s="474"/>
+      <c r="C33" s="477"/>
       <c r="D33" s="330"/>
       <c r="E33" s="323" t="s">
         <v>302</v>
@@ -11509,8 +11524,8 @@
       <c r="I33" s="329"/>
     </row>
     <row r="34" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B34" s="462"/>
-      <c r="C34" s="465"/>
+      <c r="B34" s="474"/>
+      <c r="C34" s="477"/>
       <c r="D34" s="330"/>
       <c r="E34" s="323" t="s">
         <v>303</v>
@@ -11521,8 +11536,8 @@
       <c r="I34" s="329"/>
     </row>
     <row r="35" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B35" s="462"/>
-      <c r="C35" s="465"/>
+      <c r="B35" s="474"/>
+      <c r="C35" s="477"/>
       <c r="D35" s="322"/>
       <c r="E35" s="315"/>
       <c r="F35" s="340"/>
@@ -11531,8 +11546,8 @@
       <c r="I35" s="314"/>
     </row>
     <row r="36" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B36" s="462"/>
-      <c r="C36" s="465"/>
+      <c r="B36" s="474"/>
+      <c r="C36" s="477"/>
       <c r="D36" s="322"/>
       <c r="E36" s="315" t="s">
         <v>304</v>
@@ -11547,8 +11562,8 @@
       <c r="I36" s="314"/>
     </row>
     <row r="37" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B37" s="462"/>
-      <c r="C37" s="465"/>
+      <c r="B37" s="474"/>
+      <c r="C37" s="477"/>
       <c r="D37" s="322"/>
       <c r="E37" s="315" t="s">
         <v>305</v>
@@ -11559,8 +11574,8 @@
       <c r="I37" s="314"/>
     </row>
     <row r="38" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="462"/>
-      <c r="C38" s="465"/>
+      <c r="B38" s="474"/>
+      <c r="C38" s="477"/>
       <c r="D38" s="322"/>
       <c r="E38" s="315" t="s">
         <v>306</v>
@@ -11571,8 +11586,8 @@
       <c r="I38" s="314"/>
     </row>
     <row r="39" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="462"/>
-      <c r="C39" s="465"/>
+      <c r="B39" s="474"/>
+      <c r="C39" s="477"/>
       <c r="D39" s="322"/>
       <c r="E39" s="315"/>
       <c r="F39" s="340"/>
@@ -11581,8 +11596,8 @@
       <c r="I39" s="314"/>
     </row>
     <row r="40" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B40" s="462"/>
-      <c r="C40" s="465"/>
+      <c r="B40" s="474"/>
+      <c r="C40" s="477"/>
       <c r="D40" s="330"/>
       <c r="E40" s="323" t="s">
         <v>307</v>
@@ -11597,8 +11612,8 @@
       <c r="I40" s="329"/>
     </row>
     <row r="41" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B41" s="462"/>
-      <c r="C41" s="465"/>
+      <c r="B41" s="474"/>
+      <c r="C41" s="477"/>
       <c r="D41" s="330"/>
       <c r="E41" s="323" t="s">
         <v>308</v>
@@ -11609,8 +11624,8 @@
       <c r="I41" s="329"/>
     </row>
     <row r="42" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B42" s="462"/>
-      <c r="C42" s="465"/>
+      <c r="B42" s="474"/>
+      <c r="C42" s="477"/>
       <c r="D42" s="330"/>
       <c r="E42" s="323" t="s">
         <v>309</v>
@@ -11621,8 +11636,8 @@
       <c r="I42" s="329"/>
     </row>
     <row r="43" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B43" s="462"/>
-      <c r="C43" s="465"/>
+      <c r="B43" s="474"/>
+      <c r="C43" s="477"/>
       <c r="D43" s="322"/>
       <c r="E43" s="315"/>
       <c r="F43" s="340"/>
@@ -11631,8 +11646,8 @@
       <c r="I43" s="314"/>
     </row>
     <row r="44" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="462"/>
-      <c r="C44" s="465"/>
+      <c r="B44" s="474"/>
+      <c r="C44" s="477"/>
       <c r="D44" s="322"/>
       <c r="E44" s="315" t="s">
         <v>310</v>
@@ -11647,8 +11662,8 @@
       <c r="I44" s="314"/>
     </row>
     <row r="45" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="462"/>
-      <c r="C45" s="465"/>
+      <c r="B45" s="474"/>
+      <c r="C45" s="477"/>
       <c r="D45" s="322"/>
       <c r="E45" s="315" t="s">
         <v>311</v>
@@ -11659,8 +11674,8 @@
       <c r="I45" s="314"/>
     </row>
     <row r="46" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="462"/>
-      <c r="C46" s="465"/>
+      <c r="B46" s="474"/>
+      <c r="C46" s="477"/>
       <c r="D46" s="322"/>
       <c r="E46" s="315"/>
       <c r="F46" s="341"/>
@@ -11669,8 +11684,8 @@
       <c r="I46" s="314"/>
     </row>
     <row r="47" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="462"/>
-      <c r="C47" s="465"/>
+      <c r="B47" s="474"/>
+      <c r="C47" s="477"/>
       <c r="D47" s="330"/>
       <c r="E47" s="323" t="s">
         <v>312</v>
@@ -11685,8 +11700,8 @@
       <c r="I47" s="329"/>
     </row>
     <row r="48" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="462"/>
-      <c r="C48" s="465"/>
+      <c r="B48" s="474"/>
+      <c r="C48" s="477"/>
       <c r="D48" s="330"/>
       <c r="E48" s="323" t="s">
         <v>313</v>
@@ -11697,8 +11712,8 @@
       <c r="I48" s="329"/>
     </row>
     <row r="49" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="462"/>
-      <c r="C49" s="465"/>
+      <c r="B49" s="474"/>
+      <c r="C49" s="477"/>
       <c r="D49" s="322"/>
       <c r="E49" s="315"/>
       <c r="F49" s="340"/>
@@ -11707,8 +11722,8 @@
       <c r="I49" s="314"/>
     </row>
     <row r="50" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="462"/>
-      <c r="C50" s="465"/>
+      <c r="B50" s="474"/>
+      <c r="C50" s="477"/>
       <c r="D50" s="322"/>
       <c r="E50" s="315" t="s">
         <v>314</v>
@@ -11723,8 +11738,8 @@
       <c r="I50" s="314"/>
     </row>
     <row r="51" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="462"/>
-      <c r="C51" s="465"/>
+      <c r="B51" s="474"/>
+      <c r="C51" s="477"/>
       <c r="D51" s="312"/>
       <c r="E51" s="312"/>
       <c r="F51" s="343"/>
@@ -11733,8 +11748,8 @@
       <c r="I51" s="318"/>
     </row>
     <row r="52" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="462"/>
-      <c r="C52" s="465"/>
+      <c r="B52" s="474"/>
+      <c r="C52" s="477"/>
       <c r="D52" s="312"/>
       <c r="E52" s="315"/>
       <c r="F52" s="343"/>
@@ -11743,8 +11758,8 @@
       <c r="I52" s="318"/>
     </row>
     <row r="53" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="462"/>
-      <c r="C53" s="465"/>
+      <c r="B53" s="474"/>
+      <c r="C53" s="477"/>
       <c r="D53" s="312"/>
       <c r="E53" s="315"/>
       <c r="F53" s="343"/>
@@ -11753,8 +11768,8 @@
       <c r="I53" s="318"/>
     </row>
     <row r="54" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="462"/>
-      <c r="C54" s="465"/>
+      <c r="B54" s="474"/>
+      <c r="C54" s="477"/>
       <c r="D54" s="312"/>
       <c r="E54" s="319" t="s">
         <v>281</v>
@@ -11765,8 +11780,8 @@
       <c r="I54" s="318"/>
     </row>
     <row r="55" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="462"/>
-      <c r="C55" s="465"/>
+      <c r="B55" s="474"/>
+      <c r="C55" s="477"/>
       <c r="D55" s="312"/>
       <c r="E55" s="319" t="s">
         <v>282</v>
@@ -11777,8 +11792,8 @@
       <c r="I55" s="318"/>
     </row>
     <row r="56" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="462"/>
-      <c r="C56" s="465"/>
+      <c r="B56" s="474"/>
+      <c r="C56" s="477"/>
       <c r="D56" s="312"/>
       <c r="E56" s="319" t="s">
         <v>283</v>
@@ -11789,8 +11804,8 @@
       <c r="I56" s="318"/>
     </row>
     <row r="57" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="462"/>
-      <c r="C57" s="465"/>
+      <c r="B57" s="474"/>
+      <c r="C57" s="477"/>
       <c r="D57" s="312"/>
       <c r="E57" s="319"/>
       <c r="F57" s="312"/>
@@ -11799,8 +11814,8 @@
       <c r="I57" s="318"/>
     </row>
     <row r="58" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="462"/>
-      <c r="C58" s="465"/>
+      <c r="B58" s="474"/>
+      <c r="C58" s="477"/>
       <c r="D58" s="322"/>
       <c r="E58" s="319" t="s">
         <v>316</v>
@@ -11811,8 +11826,8 @@
       <c r="I58" s="318"/>
     </row>
     <row r="59" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="462"/>
-      <c r="C59" s="465"/>
+      <c r="B59" s="474"/>
+      <c r="C59" s="477"/>
       <c r="D59" s="336"/>
       <c r="E59" s="319" t="s">
         <v>317</v>
@@ -11823,8 +11838,8 @@
       <c r="I59" s="318"/>
     </row>
     <row r="60" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="462"/>
-      <c r="C60" s="465"/>
+      <c r="B60" s="474"/>
+      <c r="C60" s="477"/>
       <c r="D60" s="336"/>
       <c r="E60" s="319" t="s">
         <v>318</v>
@@ -11835,8 +11850,8 @@
       <c r="I60" s="318"/>
     </row>
     <row r="61" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="462"/>
-      <c r="C61" s="465"/>
+      <c r="B61" s="474"/>
+      <c r="C61" s="477"/>
       <c r="D61" s="336"/>
       <c r="E61" s="319" t="s">
         <v>319</v>
@@ -11847,8 +11862,8 @@
       <c r="I61" s="318"/>
     </row>
     <row r="62" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="462"/>
-      <c r="C62" s="465"/>
+      <c r="B62" s="474"/>
+      <c r="C62" s="477"/>
       <c r="D62" s="336"/>
       <c r="E62" s="319"/>
       <c r="F62" s="312"/>
@@ -11857,8 +11872,8 @@
       <c r="I62" s="318"/>
     </row>
     <row r="63" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="462"/>
-      <c r="C63" s="465"/>
+      <c r="B63" s="474"/>
+      <c r="C63" s="477"/>
       <c r="D63" s="312"/>
       <c r="E63" s="319" t="s">
         <v>320</v>
@@ -11869,8 +11884,8 @@
       <c r="I63" s="318"/>
     </row>
     <row r="64" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="462"/>
-      <c r="C64" s="465"/>
+      <c r="B64" s="474"/>
+      <c r="C64" s="477"/>
       <c r="D64" s="312"/>
       <c r="E64" s="319" t="s">
         <v>321</v>
@@ -11881,8 +11896,8 @@
       <c r="I64" s="318"/>
     </row>
     <row r="65" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="462"/>
-      <c r="C65" s="465"/>
+      <c r="B65" s="474"/>
+      <c r="C65" s="477"/>
       <c r="D65" s="312"/>
       <c r="E65" s="319" t="s">
         <v>322</v>
@@ -11893,8 +11908,8 @@
       <c r="I65" s="318"/>
     </row>
     <row r="66" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="462"/>
-      <c r="C66" s="465"/>
+      <c r="B66" s="474"/>
+      <c r="C66" s="477"/>
       <c r="D66" s="312"/>
       <c r="E66" s="319" t="s">
         <v>323</v>
@@ -11905,8 +11920,8 @@
       <c r="I66" s="318"/>
     </row>
     <row r="67" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="462"/>
-      <c r="C67" s="465"/>
+      <c r="B67" s="474"/>
+      <c r="C67" s="477"/>
       <c r="D67" s="312"/>
       <c r="E67" s="315"/>
       <c r="F67" s="312"/>
@@ -11915,8 +11930,8 @@
       <c r="I67" s="318"/>
     </row>
     <row r="68" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="462"/>
-      <c r="C68" s="465"/>
+      <c r="B68" s="474"/>
+      <c r="C68" s="477"/>
       <c r="D68" s="312"/>
       <c r="E68" s="315"/>
       <c r="F68" s="312"/>
@@ -11925,8 +11940,8 @@
       <c r="I68" s="318"/>
     </row>
     <row r="69" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="462"/>
-      <c r="C69" s="465"/>
+      <c r="B69" s="474"/>
+      <c r="C69" s="477"/>
       <c r="D69" s="312"/>
       <c r="E69" s="312"/>
       <c r="F69" s="312"/>
@@ -11935,8 +11950,8 @@
       <c r="I69" s="318"/>
     </row>
     <row r="70" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="462"/>
-      <c r="C70" s="465"/>
+      <c r="B70" s="474"/>
+      <c r="C70" s="477"/>
       <c r="D70" s="312"/>
       <c r="E70" s="312"/>
       <c r="F70" s="312"/>
@@ -11945,8 +11960,8 @@
       <c r="I70" s="318"/>
     </row>
     <row r="71" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="462"/>
-      <c r="C71" s="465"/>
+      <c r="B71" s="474"/>
+      <c r="C71" s="477"/>
       <c r="D71" s="312"/>
       <c r="E71" s="312"/>
       <c r="F71" s="312"/>
@@ -11955,8 +11970,8 @@
       <c r="I71" s="318"/>
     </row>
     <row r="72" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="463"/>
-      <c r="C72" s="466"/>
+      <c r="B72" s="475"/>
+      <c r="C72" s="478"/>
       <c r="D72" s="320"/>
       <c r="E72" s="320"/>
       <c r="F72" s="320"/>
@@ -11999,13 +12014,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I85"/>
+  <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13:D16"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12014,7 +12029,7 @@
     <col min="2" max="2" width="4.44140625" style="310" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="310" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="310" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" style="310" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" style="310" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="310" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="310" customWidth="1"/>
     <col min="8" max="8" width="61.77734375" style="310" customWidth="1"/>
@@ -12023,15 +12038,15 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" s="332" customFormat="1" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="474" t="s">
+      <c r="B2" s="379" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="475"/>
-      <c r="D2" s="475"/>
-      <c r="E2" s="475"/>
-      <c r="F2" s="475"/>
-      <c r="G2" s="475"/>
-      <c r="H2" s="476"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="381"/>
       <c r="I2" s="334"/>
     </row>
     <row r="3" spans="2:9" s="349" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12059,11 +12074,11 @@
       <c r="I3" s="348"/>
     </row>
     <row r="4" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="471" t="s">
+      <c r="B4" s="376" t="s">
         <v>344</v>
       </c>
       <c r="C4" s="352"/>
-      <c r="D4" s="477" t="s">
+      <c r="D4" s="382" t="s">
         <v>333</v>
       </c>
       <c r="E4" s="353" t="s">
@@ -12074,9 +12089,9 @@
       <c r="H4" s="367"/>
     </row>
     <row r="5" spans="2:9" s="327" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="472"/>
+      <c r="B5" s="377"/>
       <c r="C5" s="328"/>
-      <c r="D5" s="478"/>
+      <c r="D5" s="383"/>
       <c r="E5" s="356" t="s">
         <v>349</v>
       </c>
@@ -12085,42 +12100,42 @@
       <c r="H5" s="368"/>
     </row>
     <row r="6" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="472"/>
+      <c r="B6" s="377"/>
       <c r="C6" s="322"/>
-      <c r="D6" s="478"/>
+      <c r="D6" s="383"/>
       <c r="E6" s="357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
       <c r="H6" s="368"/>
     </row>
     <row r="7" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="472"/>
+      <c r="B7" s="377"/>
       <c r="C7" s="322"/>
-      <c r="D7" s="478"/>
+      <c r="D7" s="383"/>
       <c r="E7" s="357" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
       <c r="H7" s="368"/>
     </row>
     <row r="8" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="472"/>
+      <c r="B8" s="377"/>
       <c r="C8" s="322"/>
-      <c r="D8" s="479"/>
+      <c r="D8" s="384"/>
       <c r="E8" s="315" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
       <c r="H8" s="368"/>
     </row>
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="472"/>
+      <c r="B9" s="377"/>
       <c r="C9" s="358"/>
-      <c r="D9" s="480" t="s">
+      <c r="D9" s="360" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="315" t="s">
@@ -12131,9 +12146,9 @@
       <c r="H9" s="368"/>
     </row>
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="472"/>
+      <c r="B10" s="377"/>
       <c r="C10" s="358"/>
-      <c r="D10" s="421"/>
+      <c r="D10" s="295"/>
       <c r="E10" s="315" t="s">
         <v>353</v>
       </c>
@@ -12142,9 +12157,9 @@
       <c r="H10" s="368"/>
     </row>
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="472"/>
+      <c r="B11" s="377"/>
       <c r="C11" s="358"/>
-      <c r="D11" s="421"/>
+      <c r="D11" s="295"/>
       <c r="E11" s="315" t="s">
         <v>352</v>
       </c>
@@ -12153,9 +12168,9 @@
       <c r="H11" s="368"/>
     </row>
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="472"/>
+      <c r="B12" s="377"/>
       <c r="C12" s="358"/>
-      <c r="D12" s="422"/>
+      <c r="D12" s="375"/>
       <c r="E12" s="315" t="s">
         <v>355</v>
       </c>
@@ -12164,424 +12179,434 @@
       <c r="H12" s="368"/>
     </row>
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="472"/>
-      <c r="C13" s="322"/>
-      <c r="D13" s="480" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="315"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="385" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="315" t="s">
+        <v>359</v>
+      </c>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
       <c r="H13" s="368"/>
     </row>
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="472"/>
-      <c r="C14" s="330"/>
-      <c r="D14" s="421"/>
-      <c r="E14" s="315"/>
+      <c r="B14" s="377"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="315" t="s">
+        <v>360</v>
+      </c>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
       <c r="H14" s="368"/>
     </row>
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="472"/>
-      <c r="C15" s="330"/>
-      <c r="D15" s="421"/>
-      <c r="E15" s="315"/>
+      <c r="B15" s="377"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="315" t="s">
+        <v>361</v>
+      </c>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
       <c r="H15" s="368"/>
     </row>
-    <row r="16" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="472"/>
-      <c r="C16" s="322"/>
-      <c r="D16" s="422"/>
-      <c r="E16" s="315"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="351"/>
-      <c r="H16" s="368"/>
+    <row r="16" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="377"/>
+      <c r="C16" s="355"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="315" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="355"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="369"/>
     </row>
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="472"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="480" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" s="315"/>
+      <c r="B17" s="377"/>
+      <c r="C17" s="358"/>
+      <c r="D17" s="386"/>
+      <c r="E17" s="315" t="s">
+        <v>362</v>
+      </c>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
       <c r="H17" s="368"/>
     </row>
     <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="472"/>
+      <c r="B18" s="377"/>
       <c r="C18" s="322"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="315"/>
+      <c r="D18" s="360" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="315" t="s">
+        <v>364</v>
+      </c>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="368"/>
     </row>
     <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="472"/>
+      <c r="B19" s="377"/>
       <c r="C19" s="330"/>
-      <c r="D19" s="421"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="356"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="315" t="s">
+        <v>365</v>
+      </c>
+      <c r="F19" s="315"/>
       <c r="G19" s="351"/>
       <c r="H19" s="368"/>
     </row>
     <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="472"/>
+      <c r="B20" s="377"/>
       <c r="C20" s="330"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="315"/>
+      <c r="D20" s="295"/>
+      <c r="E20" s="315" t="s">
+        <v>366</v>
+      </c>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
       <c r="H20" s="368"/>
     </row>
     <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="472"/>
+      <c r="B21" s="377"/>
       <c r="C21" s="330"/>
-      <c r="D21" s="480" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="315"/>
+      <c r="D21" s="295"/>
+      <c r="E21" s="315" t="s">
+        <v>367</v>
+      </c>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
       <c r="H21" s="368"/>
     </row>
     <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="472"/>
+      <c r="B22" s="377"/>
       <c r="C22" s="322"/>
-      <c r="D22" s="421"/>
-      <c r="E22" s="315"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="315" t="s">
+        <v>368</v>
+      </c>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="368"/>
     </row>
     <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="472"/>
+      <c r="B23" s="377"/>
       <c r="C23" s="322"/>
-      <c r="D23" s="421"/>
+      <c r="D23" s="360" t="s">
+        <v>336</v>
+      </c>
       <c r="E23" s="315"/>
       <c r="F23" s="315"/>
       <c r="G23" s="351"/>
       <c r="H23" s="368"/>
     </row>
     <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="472"/>
-      <c r="C24" s="358"/>
-      <c r="D24" s="421"/>
+      <c r="B24" s="377"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="315"/>
       <c r="F24" s="315"/>
       <c r="G24" s="351"/>
       <c r="H24" s="368"/>
     </row>
     <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="472"/>
-      <c r="C25" s="358"/>
-      <c r="D25" s="480" t="s">
-        <v>337</v>
-      </c>
+      <c r="B25" s="377"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="315"/>
       <c r="F25" s="356"/>
       <c r="G25" s="351"/>
       <c r="H25" s="368"/>
     </row>
     <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="472"/>
-      <c r="C26" s="358"/>
-      <c r="D26" s="421"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="315"/>
       <c r="F26" s="315"/>
       <c r="G26" s="351"/>
       <c r="H26" s="368"/>
     </row>
     <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="472"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="421"/>
+      <c r="B27" s="377"/>
+      <c r="C27" s="330"/>
+      <c r="D27" s="360" t="s">
+        <v>341</v>
+      </c>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
       <c r="H27" s="368"/>
     </row>
     <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="472"/>
-      <c r="C28" s="358"/>
-      <c r="D28" s="421"/>
+      <c r="B28" s="377"/>
+      <c r="C28" s="322"/>
+      <c r="D28" s="295"/>
       <c r="E28" s="315"/>
       <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="368"/>
     </row>
     <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="472"/>
-      <c r="C29" s="358"/>
-      <c r="D29" s="480" t="s">
-        <v>342</v>
-      </c>
+      <c r="B29" s="377"/>
+      <c r="C29" s="322"/>
+      <c r="D29" s="295"/>
       <c r="E29" s="315"/>
       <c r="F29" s="315"/>
       <c r="G29" s="351"/>
       <c r="H29" s="368"/>
     </row>
     <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="472"/>
+      <c r="B30" s="377"/>
       <c r="C30" s="358"/>
-      <c r="D30" s="421"/>
+      <c r="D30" s="295"/>
       <c r="E30" s="315"/>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
       <c r="H30" s="368"/>
     </row>
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="472"/>
+      <c r="B31" s="377"/>
       <c r="C31" s="358"/>
-      <c r="D31" s="421"/>
+      <c r="D31" s="360" t="s">
+        <v>337</v>
+      </c>
       <c r="E31" s="315"/>
-      <c r="F31" s="315"/>
+      <c r="F31" s="356"/>
       <c r="G31" s="351"/>
       <c r="H31" s="368"/>
     </row>
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="472"/>
+      <c r="B32" s="377"/>
       <c r="C32" s="358"/>
-      <c r="D32" s="421"/>
+      <c r="D32" s="295"/>
       <c r="E32" s="315"/>
       <c r="F32" s="315"/>
       <c r="G32" s="351"/>
       <c r="H32" s="368"/>
     </row>
     <row r="33" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="472"/>
+      <c r="B33" s="377"/>
       <c r="C33" s="358"/>
-      <c r="D33" s="480" t="s">
-        <v>340</v>
-      </c>
+      <c r="D33" s="295"/>
       <c r="E33" s="315"/>
       <c r="F33" s="315"/>
       <c r="G33" s="351"/>
       <c r="H33" s="368"/>
     </row>
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="472"/>
+      <c r="B34" s="377"/>
       <c r="C34" s="358"/>
-      <c r="D34" s="421"/>
+      <c r="D34" s="295"/>
       <c r="E34" s="315"/>
-      <c r="F34" s="315"/>
+      <c r="F34" s="356"/>
       <c r="G34" s="351"/>
       <c r="H34" s="368"/>
     </row>
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="472"/>
+      <c r="B35" s="377"/>
       <c r="C35" s="358"/>
-      <c r="D35" s="421"/>
+      <c r="D35" s="360" t="s">
+        <v>342</v>
+      </c>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
       <c r="G35" s="351"/>
       <c r="H35" s="368"/>
     </row>
-    <row r="36" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="472"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="359"/>
-      <c r="H36" s="369"/>
+    <row r="36" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="377"/>
+      <c r="C36" s="358"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="351"/>
+      <c r="H36" s="368"/>
     </row>
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="472"/>
+      <c r="B37" s="377"/>
       <c r="C37" s="358"/>
-      <c r="D37" s="481" t="s">
-        <v>339</v>
-      </c>
+      <c r="D37" s="295"/>
       <c r="E37" s="315"/>
       <c r="F37" s="315"/>
       <c r="G37" s="351"/>
       <c r="H37" s="368"/>
     </row>
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="472"/>
+      <c r="B38" s="377"/>
       <c r="C38" s="358"/>
-      <c r="D38" s="482"/>
+      <c r="D38" s="295"/>
       <c r="E38" s="315"/>
       <c r="F38" s="315"/>
       <c r="G38" s="351"/>
       <c r="H38" s="368"/>
     </row>
     <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="472"/>
+      <c r="B39" s="377"/>
       <c r="C39" s="358"/>
-      <c r="D39" s="482"/>
+      <c r="D39" s="360" t="s">
+        <v>340</v>
+      </c>
       <c r="E39" s="315"/>
       <c r="F39" s="315"/>
       <c r="G39" s="351"/>
       <c r="H39" s="368"/>
     </row>
-    <row r="40" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="472"/>
-      <c r="C40" s="355"/>
-      <c r="D40" s="482"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="369"/>
+    <row r="40" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="377"/>
+      <c r="C40" s="358"/>
+      <c r="D40" s="295"/>
+      <c r="E40" s="315"/>
+      <c r="F40" s="315"/>
+      <c r="G40" s="351"/>
+      <c r="H40" s="368"/>
     </row>
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="472"/>
+      <c r="B41" s="377"/>
       <c r="C41" s="358"/>
-      <c r="D41" s="481" t="s">
-        <v>346</v>
-      </c>
+      <c r="D41" s="295"/>
       <c r="E41" s="315"/>
       <c r="F41" s="315"/>
       <c r="G41" s="351"/>
       <c r="H41" s="368"/>
     </row>
-    <row r="42" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="472"/>
-      <c r="C42" s="358"/>
-      <c r="D42" s="482"/>
-      <c r="E42" s="315"/>
-      <c r="F42" s="315"/>
-      <c r="G42" s="351"/>
-      <c r="H42" s="368"/>
+    <row r="42" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="377"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="295"/>
+      <c r="E42" s="355"/>
+      <c r="F42" s="355"/>
+      <c r="G42" s="359"/>
+      <c r="H42" s="369"/>
     </row>
     <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="472"/>
+      <c r="B43" s="377"/>
       <c r="C43" s="358"/>
-      <c r="D43" s="482"/>
+      <c r="D43" s="385" t="s">
+        <v>339</v>
+      </c>
       <c r="E43" s="315"/>
       <c r="F43" s="315"/>
       <c r="G43" s="351"/>
       <c r="H43" s="368"/>
     </row>
-    <row r="44" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="472"/>
-      <c r="C44" s="355"/>
-      <c r="D44" s="482"/>
-      <c r="E44" s="355"/>
-      <c r="F44" s="355"/>
-      <c r="G44" s="359"/>
-      <c r="H44" s="369"/>
+    <row r="44" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="377"/>
+      <c r="C44" s="358"/>
+      <c r="D44" s="386"/>
+      <c r="E44" s="315"/>
+      <c r="F44" s="315"/>
+      <c r="G44" s="351"/>
+      <c r="H44" s="368"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="472"/>
+      <c r="B45" s="377"/>
       <c r="C45" s="358"/>
-      <c r="D45" s="481" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="315" t="s">
-        <v>360</v>
-      </c>
+      <c r="D45" s="386"/>
+      <c r="E45" s="315"/>
       <c r="F45" s="315"/>
       <c r="G45" s="351"/>
       <c r="H45" s="368"/>
     </row>
-    <row r="46" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="472"/>
-      <c r="C46" s="358"/>
-      <c r="D46" s="482"/>
-      <c r="E46" s="315" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="315"/>
-      <c r="G46" s="351"/>
-      <c r="H46" s="368"/>
+    <row r="46" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="377"/>
+      <c r="C46" s="355"/>
+      <c r="D46" s="386"/>
+      <c r="E46" s="355"/>
+      <c r="F46" s="355"/>
+      <c r="G46" s="359"/>
+      <c r="H46" s="369"/>
     </row>
     <row r="47" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="472"/>
+      <c r="B47" s="377"/>
       <c r="C47" s="358"/>
-      <c r="D47" s="482"/>
-      <c r="E47" s="315" t="s">
-        <v>362</v>
-      </c>
+      <c r="D47" s="385" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="315"/>
       <c r="F47" s="315"/>
       <c r="G47" s="351"/>
       <c r="H47" s="368"/>
     </row>
-    <row r="48" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="472"/>
-      <c r="C48" s="355"/>
-      <c r="D48" s="482"/>
-      <c r="E48" s="315" t="s">
-        <v>364</v>
-      </c>
-      <c r="F48" s="355"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="369"/>
+    <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="377"/>
+      <c r="C48" s="358"/>
+      <c r="D48" s="386"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="315"/>
+      <c r="G48" s="351"/>
+      <c r="H48" s="368"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="472"/>
+      <c r="B49" s="377"/>
       <c r="C49" s="358"/>
-      <c r="D49" s="482"/>
-      <c r="E49" s="315" t="s">
-        <v>363</v>
-      </c>
+      <c r="D49" s="386"/>
+      <c r="E49" s="315"/>
       <c r="F49" s="315"/>
       <c r="G49" s="351"/>
       <c r="H49" s="368"/>
     </row>
-    <row r="50" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="472"/>
-      <c r="C50" s="358"/>
-      <c r="D50" s="481" t="s">
+    <row r="50" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="377"/>
+      <c r="C50" s="355"/>
+      <c r="D50" s="386"/>
+      <c r="E50" s="355"/>
+      <c r="F50" s="355"/>
+      <c r="G50" s="359"/>
+      <c r="H50" s="369"/>
+    </row>
+    <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="377"/>
+      <c r="C51" s="358"/>
+      <c r="D51" s="385" t="s">
         <v>338</v>
       </c>
-      <c r="E50" s="315"/>
-      <c r="F50" s="315"/>
-      <c r="G50" s="351"/>
-      <c r="H50" s="368"/>
-    </row>
-    <row r="51" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="472"/>
-      <c r="C51" s="355"/>
-      <c r="D51" s="482"/>
-      <c r="E51" s="355"/>
-      <c r="F51" s="355"/>
-      <c r="G51" s="359"/>
-      <c r="H51" s="369"/>
-    </row>
-    <row r="52" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="472"/>
-      <c r="C52" s="358"/>
-      <c r="D52" s="482"/>
-      <c r="E52" s="315"/>
-      <c r="F52" s="315"/>
-      <c r="G52" s="351"/>
-      <c r="H52" s="368"/>
+      <c r="E51" s="315"/>
+      <c r="F51" s="315"/>
+      <c r="G51" s="351"/>
+      <c r="H51" s="368"/>
+    </row>
+    <row r="52" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="377"/>
+      <c r="C52" s="355"/>
+      <c r="D52" s="386"/>
+      <c r="E52" s="355"/>
+      <c r="F52" s="355"/>
+      <c r="G52" s="359"/>
+      <c r="H52" s="369"/>
     </row>
     <row r="53" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="472"/>
+      <c r="B53" s="377"/>
       <c r="C53" s="358"/>
-      <c r="D53" s="482"/>
+      <c r="D53" s="386"/>
       <c r="E53" s="315"/>
       <c r="F53" s="315"/>
       <c r="G53" s="351"/>
       <c r="H53" s="368"/>
     </row>
-    <row r="54" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="472"/>
-      <c r="C54" s="355"/>
-      <c r="D54" s="355"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="355"/>
-      <c r="G54" s="359"/>
-      <c r="H54" s="369"/>
-    </row>
-    <row r="55" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="472"/>
-      <c r="C55" s="358"/>
-      <c r="D55" s="358"/>
-      <c r="E55" s="315"/>
-      <c r="F55" s="315"/>
-      <c r="G55" s="351"/>
-      <c r="H55" s="368"/>
+    <row r="54" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="377"/>
+      <c r="C54" s="358"/>
+      <c r="D54" s="386"/>
+      <c r="E54" s="315"/>
+      <c r="F54" s="315"/>
+      <c r="G54" s="351"/>
+      <c r="H54" s="368"/>
+    </row>
+    <row r="55" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="377"/>
+      <c r="C55" s="355"/>
+      <c r="D55" s="355"/>
+      <c r="E55" s="355"/>
+      <c r="F55" s="355"/>
+      <c r="G55" s="359"/>
+      <c r="H55" s="369"/>
     </row>
     <row r="56" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="472"/>
+      <c r="B56" s="377"/>
       <c r="C56" s="358"/>
       <c r="D56" s="358"/>
       <c r="E56" s="315"/>
@@ -12589,26 +12614,26 @@
       <c r="G56" s="351"/>
       <c r="H56" s="368"/>
     </row>
-    <row r="57" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="472"/>
-      <c r="C57" s="355"/>
-      <c r="D57" s="355"/>
-      <c r="E57" s="355"/>
-      <c r="F57" s="355"/>
-      <c r="G57" s="359"/>
-      <c r="H57" s="369"/>
-    </row>
-    <row r="58" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="472"/>
-      <c r="C58" s="358"/>
-      <c r="D58" s="358"/>
-      <c r="E58" s="315"/>
-      <c r="F58" s="315"/>
-      <c r="G58" s="351"/>
-      <c r="H58" s="368"/>
+    <row r="57" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="377"/>
+      <c r="C57" s="358"/>
+      <c r="D57" s="358"/>
+      <c r="E57" s="315"/>
+      <c r="F57" s="315"/>
+      <c r="G57" s="351"/>
+      <c r="H57" s="368"/>
+    </row>
+    <row r="58" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="377"/>
+      <c r="C58" s="355"/>
+      <c r="D58" s="355"/>
+      <c r="E58" s="355"/>
+      <c r="F58" s="355"/>
+      <c r="G58" s="359"/>
+      <c r="H58" s="369"/>
     </row>
     <row r="59" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="472"/>
+      <c r="B59" s="377"/>
       <c r="C59" s="358"/>
       <c r="D59" s="358"/>
       <c r="E59" s="315"/>
@@ -12616,26 +12641,26 @@
       <c r="G59" s="351"/>
       <c r="H59" s="368"/>
     </row>
-    <row r="60" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="472"/>
-      <c r="C60" s="355"/>
-      <c r="D60" s="355"/>
-      <c r="E60" s="355"/>
-      <c r="F60" s="355"/>
-      <c r="G60" s="359"/>
-      <c r="H60" s="369"/>
-    </row>
-    <row r="61" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="472"/>
-      <c r="C61" s="358"/>
-      <c r="D61" s="358"/>
-      <c r="E61" s="315"/>
-      <c r="F61" s="315"/>
-      <c r="G61" s="351"/>
-      <c r="H61" s="368"/>
+    <row r="60" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="377"/>
+      <c r="C60" s="358"/>
+      <c r="D60" s="358"/>
+      <c r="E60" s="315"/>
+      <c r="F60" s="315"/>
+      <c r="G60" s="351"/>
+      <c r="H60" s="368"/>
+    </row>
+    <row r="61" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="377"/>
+      <c r="C61" s="355"/>
+      <c r="D61" s="355"/>
+      <c r="E61" s="355"/>
+      <c r="F61" s="355"/>
+      <c r="G61" s="359"/>
+      <c r="H61" s="369"/>
     </row>
     <row r="62" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="472"/>
+      <c r="B62" s="377"/>
       <c r="C62" s="358"/>
       <c r="D62" s="358"/>
       <c r="E62" s="315"/>
@@ -12643,26 +12668,26 @@
       <c r="G62" s="351"/>
       <c r="H62" s="368"/>
     </row>
-    <row r="63" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="472"/>
-      <c r="C63" s="355"/>
-      <c r="D63" s="355"/>
-      <c r="E63" s="355"/>
-      <c r="F63" s="355"/>
-      <c r="G63" s="359"/>
-      <c r="H63" s="369"/>
-    </row>
-    <row r="64" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="472"/>
-      <c r="C64" s="358"/>
-      <c r="D64" s="358"/>
-      <c r="E64" s="315"/>
-      <c r="F64" s="315"/>
-      <c r="G64" s="351"/>
-      <c r="H64" s="368"/>
+    <row r="63" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="377"/>
+      <c r="C63" s="358"/>
+      <c r="D63" s="358"/>
+      <c r="E63" s="315"/>
+      <c r="F63" s="315"/>
+      <c r="G63" s="351"/>
+      <c r="H63" s="368"/>
+    </row>
+    <row r="64" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="377"/>
+      <c r="C64" s="355"/>
+      <c r="D64" s="355"/>
+      <c r="E64" s="355"/>
+      <c r="F64" s="355"/>
+      <c r="G64" s="359"/>
+      <c r="H64" s="369"/>
     </row>
     <row r="65" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="472"/>
+      <c r="B65" s="377"/>
       <c r="C65" s="358"/>
       <c r="D65" s="358"/>
       <c r="E65" s="315"/>
@@ -12670,26 +12695,26 @@
       <c r="G65" s="351"/>
       <c r="H65" s="368"/>
     </row>
-    <row r="66" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="472"/>
-      <c r="C66" s="355"/>
-      <c r="D66" s="355"/>
-      <c r="E66" s="355"/>
-      <c r="F66" s="355"/>
-      <c r="G66" s="359"/>
-      <c r="H66" s="369"/>
-    </row>
-    <row r="67" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="472"/>
-      <c r="C67" s="358"/>
-      <c r="D67" s="358"/>
-      <c r="E67" s="315"/>
-      <c r="F67" s="315"/>
-      <c r="G67" s="351"/>
-      <c r="H67" s="368"/>
+    <row r="66" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="377"/>
+      <c r="C66" s="358"/>
+      <c r="D66" s="358"/>
+      <c r="E66" s="315"/>
+      <c r="F66" s="315"/>
+      <c r="G66" s="351"/>
+      <c r="H66" s="368"/>
+    </row>
+    <row r="67" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="377"/>
+      <c r="C67" s="355"/>
+      <c r="D67" s="355"/>
+      <c r="E67" s="355"/>
+      <c r="F67" s="355"/>
+      <c r="G67" s="359"/>
+      <c r="H67" s="369"/>
     </row>
     <row r="68" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="472"/>
+      <c r="B68" s="377"/>
       <c r="C68" s="358"/>
       <c r="D68" s="358"/>
       <c r="E68" s="315"/>
@@ -12697,26 +12722,26 @@
       <c r="G68" s="351"/>
       <c r="H68" s="368"/>
     </row>
-    <row r="69" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="472"/>
-      <c r="C69" s="355"/>
-      <c r="D69" s="355"/>
-      <c r="E69" s="355"/>
-      <c r="F69" s="355"/>
-      <c r="G69" s="359"/>
-      <c r="H69" s="369"/>
-    </row>
-    <row r="70" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="472"/>
-      <c r="C70" s="358"/>
-      <c r="D70" s="358"/>
-      <c r="E70" s="315"/>
-      <c r="F70" s="315"/>
-      <c r="G70" s="351"/>
-      <c r="H70" s="368"/>
+    <row r="69" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="377"/>
+      <c r="C69" s="358"/>
+      <c r="D69" s="358"/>
+      <c r="E69" s="315"/>
+      <c r="F69" s="315"/>
+      <c r="G69" s="351"/>
+      <c r="H69" s="368"/>
+    </row>
+    <row r="70" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="377"/>
+      <c r="C70" s="355"/>
+      <c r="D70" s="355"/>
+      <c r="E70" s="355"/>
+      <c r="F70" s="355"/>
+      <c r="G70" s="359"/>
+      <c r="H70" s="369"/>
     </row>
     <row r="71" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="472"/>
+      <c r="B71" s="377"/>
       <c r="C71" s="358"/>
       <c r="D71" s="358"/>
       <c r="E71" s="315"/>
@@ -12724,26 +12749,26 @@
       <c r="G71" s="351"/>
       <c r="H71" s="368"/>
     </row>
-    <row r="72" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="472"/>
-      <c r="C72" s="355"/>
-      <c r="D72" s="355"/>
-      <c r="E72" s="355"/>
-      <c r="F72" s="355"/>
-      <c r="G72" s="359"/>
-      <c r="H72" s="369"/>
-    </row>
-    <row r="73" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="472"/>
-      <c r="C73" s="358"/>
-      <c r="D73" s="358"/>
-      <c r="E73" s="315"/>
-      <c r="F73" s="315"/>
-      <c r="G73" s="351"/>
-      <c r="H73" s="368"/>
+    <row r="72" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="377"/>
+      <c r="C72" s="358"/>
+      <c r="D72" s="358"/>
+      <c r="E72" s="315"/>
+      <c r="F72" s="315"/>
+      <c r="G72" s="351"/>
+      <c r="H72" s="368"/>
+    </row>
+    <row r="73" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="377"/>
+      <c r="C73" s="355"/>
+      <c r="D73" s="355"/>
+      <c r="E73" s="355"/>
+      <c r="F73" s="355"/>
+      <c r="G73" s="359"/>
+      <c r="H73" s="369"/>
     </row>
     <row r="74" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="472"/>
+      <c r="B74" s="377"/>
       <c r="C74" s="358"/>
       <c r="D74" s="358"/>
       <c r="E74" s="315"/>
@@ -12751,36 +12776,36 @@
       <c r="G74" s="351"/>
       <c r="H74" s="368"/>
     </row>
-    <row r="75" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="472"/>
-      <c r="C75" s="355"/>
-      <c r="D75" s="355"/>
-      <c r="E75" s="355"/>
-      <c r="F75" s="355"/>
-      <c r="G75" s="359"/>
-      <c r="H75" s="369"/>
-    </row>
-    <row r="76" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="472"/>
-      <c r="C76" s="358"/>
-      <c r="D76" s="358"/>
-      <c r="E76" s="315"/>
-      <c r="F76" s="315"/>
-      <c r="G76" s="351"/>
-      <c r="H76" s="368"/>
+    <row r="75" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="377"/>
+      <c r="C75" s="358"/>
+      <c r="D75" s="358"/>
+      <c r="E75" s="315"/>
+      <c r="F75" s="315"/>
+      <c r="G75" s="351"/>
+      <c r="H75" s="368"/>
+    </row>
+    <row r="76" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="377"/>
+      <c r="C76" s="355"/>
+      <c r="D76" s="355"/>
+      <c r="E76" s="355"/>
+      <c r="F76" s="355"/>
+      <c r="G76" s="359"/>
+      <c r="H76" s="369"/>
     </row>
     <row r="77" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="472"/>
-      <c r="C77" s="360"/>
+      <c r="B77" s="377"/>
+      <c r="C77" s="358"/>
       <c r="D77" s="358"/>
       <c r="E77" s="315"/>
       <c r="F77" s="315"/>
       <c r="G77" s="351"/>
       <c r="H77" s="368"/>
     </row>
-    <row r="78" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="472"/>
-      <c r="C78" s="331"/>
+    <row r="78" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="377"/>
+      <c r="C78" s="360"/>
       <c r="D78" s="358"/>
       <c r="E78" s="315"/>
       <c r="F78" s="315"/>
@@ -12788,7 +12813,7 @@
       <c r="H78" s="368"/>
     </row>
     <row r="79" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="472"/>
+      <c r="B79" s="377"/>
       <c r="C79" s="331"/>
       <c r="D79" s="358"/>
       <c r="E79" s="315"/>
@@ -12796,25 +12821,25 @@
       <c r="G79" s="351"/>
       <c r="H79" s="368"/>
     </row>
-    <row r="80" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="473"/>
-      <c r="C80" s="370"/>
-      <c r="D80" s="371"/>
-      <c r="E80" s="372"/>
-      <c r="F80" s="372"/>
-      <c r="G80" s="373"/>
-      <c r="H80" s="374"/>
-    </row>
-    <row r="81" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="331"/>
-      <c r="C81" s="331"/>
-      <c r="D81" s="331"/>
-      <c r="E81" s="362"/>
-      <c r="F81" s="363"/>
-      <c r="G81" s="364"/>
-      <c r="H81" s="331"/>
-    </row>
-    <row r="82" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="377"/>
+      <c r="C80" s="331"/>
+      <c r="D80" s="358"/>
+      <c r="E80" s="315"/>
+      <c r="F80" s="315"/>
+      <c r="G80" s="351"/>
+      <c r="H80" s="368"/>
+    </row>
+    <row r="81" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="378"/>
+      <c r="C81" s="370"/>
+      <c r="D81" s="371"/>
+      <c r="E81" s="372"/>
+      <c r="F81" s="372"/>
+      <c r="G81" s="373"/>
+      <c r="H81" s="374"/>
+    </row>
+    <row r="82" spans="2:8" ht="11.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B82" s="331"/>
       <c r="C82" s="331"/>
       <c r="D82" s="331"/>
@@ -12832,25 +12857,18 @@
       <c r="G83" s="364"/>
       <c r="H83" s="331"/>
     </row>
-    <row r="84" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="331"/>
+      <c r="C84" s="331"/>
+      <c r="D84" s="331"/>
+      <c r="E84" s="362"/>
+      <c r="F84" s="363"/>
+      <c r="G84" s="364"/>
+      <c r="H84" s="331"/>
+    </row>
     <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B4:B80"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D9:D12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12905,10 +12923,10 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="409" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="409" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="486"/>
@@ -12916,12 +12934,12 @@
       <c r="J3" s="488"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="408"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12932,7 +12950,7 @@
       <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -12953,7 +12971,7 @@
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="401"/>
-      <c r="C6" s="403"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -12972,7 +12990,7 @@
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="402"/>
-      <c r="C7" s="377"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -12993,7 +13011,7 @@
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="402"/>
-      <c r="C8" s="377"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13012,7 +13030,7 @@
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="402"/>
-      <c r="C9" s="377"/>
+      <c r="C9" s="405"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13031,7 +13049,7 @@
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="402"/>
-      <c r="C10" s="377"/>
+      <c r="C10" s="405"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13050,7 +13068,7 @@
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="402"/>
-      <c r="C11" s="377"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13069,7 +13087,7 @@
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="402"/>
-      <c r="C12" s="377"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13088,7 +13106,7 @@
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="402"/>
-      <c r="C13" s="377"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13107,7 +13125,7 @@
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="402"/>
-      <c r="C14" s="377"/>
+      <c r="C14" s="405"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13126,7 +13144,7 @@
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="402"/>
-      <c r="C15" s="377"/>
+      <c r="C15" s="405"/>
       <c r="D15" s="490" t="s">
         <v>50</v>
       </c>
@@ -13145,7 +13163,7 @@
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="402"/>
-      <c r="C16" s="378"/>
+      <c r="C16" s="406"/>
       <c r="D16" s="491"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -13156,7 +13174,7 @@
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="402"/>
-      <c r="C17" s="406" t="s">
+      <c r="C17" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13982,17 +14000,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
+      <c r="M2" s="524"/>
+      <c r="N2" s="524"/>
+      <c r="O2" s="524"/>
+      <c r="P2" s="524"/>
+      <c r="Q2" s="524"/>
+      <c r="R2" s="524"/>
+      <c r="S2" s="524"/>
+      <c r="T2" s="524"/>
+      <c r="U2" s="524"/>
+      <c r="V2" s="524"/>
+      <c r="W2" s="524"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -14010,16 +14028,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="409" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="409" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="409" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -14028,83 +14046,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="526" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="522" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="522" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="516" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="518" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="518" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="520" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="506"/>
+      <c r="Z3" s="507"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="408"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="525"/>
+      <c r="K4" s="525"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="529"/>
+      <c r="N4" s="523"/>
+      <c r="O4" s="523"/>
+      <c r="P4" s="523"/>
+      <c r="Q4" s="515"/>
+      <c r="R4" s="517"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="519"/>
+      <c r="U4" s="519"/>
+      <c r="V4" s="521"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="508"/>
+      <c r="Y4" s="508"/>
+      <c r="Z4" s="509"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14156,8 +14174,8 @@
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="401"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="509"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14185,8 +14203,8 @@
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="401"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="510" t="s">
+      <c r="C7" s="404"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14228,8 +14246,8 @@
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="401"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="510"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14255,8 +14273,8 @@
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="402"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="511" t="s">
+      <c r="C9" s="405"/>
+      <c r="D9" s="495" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14302,8 +14320,8 @@
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="402"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="512"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="496"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14329,8 +14347,8 @@
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="402"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="511" t="s">
+      <c r="C11" s="405"/>
+      <c r="D11" s="495" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14372,8 +14390,8 @@
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="402"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="512"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="496"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14401,8 +14419,8 @@
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="402"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="513" t="s">
+      <c r="C13" s="405"/>
+      <c r="D13" s="501" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14436,8 +14454,8 @@
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="402"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="514"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="513"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14465,8 +14483,8 @@
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="402"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="511" t="s">
+      <c r="C15" s="405"/>
+      <c r="D15" s="495" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14504,8 +14522,8 @@
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="402"/>
-      <c r="C16" s="377"/>
-      <c r="D16" s="512"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="496"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14533,8 +14551,8 @@
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="402"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="511" t="s">
+      <c r="C17" s="405"/>
+      <c r="D17" s="495" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14578,8 +14596,8 @@
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="402"/>
-      <c r="C18" s="377"/>
-      <c r="D18" s="512"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="496"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14607,8 +14625,8 @@
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="402"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="511" t="s">
+      <c r="C19" s="405"/>
+      <c r="D19" s="495" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14646,8 +14664,8 @@
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="402"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="512"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="496"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14675,8 +14693,8 @@
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="402"/>
-      <c r="C21" s="377"/>
-      <c r="D21" s="523" t="s">
+      <c r="C21" s="405"/>
+      <c r="D21" s="497" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14710,8 +14728,8 @@
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="402"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="524"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14739,7 +14757,7 @@
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="402"/>
-      <c r="C23" s="377"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14780,7 +14798,7 @@
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="402"/>
-      <c r="C24" s="377"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14807,7 +14825,7 @@
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="402"/>
-      <c r="C25" s="377"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -14846,8 +14864,8 @@
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="402"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="525"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="499"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14875,10 +14893,10 @@
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="402"/>
-      <c r="C27" s="406" t="s">
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="500" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14917,7 +14935,7 @@
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="402"/>
       <c r="C28" s="401"/>
-      <c r="D28" s="512"/>
+      <c r="D28" s="496"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -14946,7 +14964,7 @@
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="402"/>
       <c r="C29" s="402"/>
-      <c r="D29" s="511" t="s">
+      <c r="D29" s="495" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -14985,7 +15003,7 @@
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="402"/>
       <c r="C30" s="402"/>
-      <c r="D30" s="512"/>
+      <c r="D30" s="496"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15014,7 +15032,7 @@
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="402"/>
       <c r="C31" s="402"/>
-      <c r="D31" s="511" t="s">
+      <c r="D31" s="495" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15053,7 +15071,7 @@
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="402"/>
       <c r="C32" s="402"/>
-      <c r="D32" s="512"/>
+      <c r="D32" s="496"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15082,7 +15100,7 @@
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="402"/>
       <c r="C33" s="402"/>
-      <c r="D33" s="511" t="s">
+      <c r="D33" s="495" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15121,7 +15139,7 @@
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="402"/>
       <c r="C34" s="402"/>
-      <c r="D34" s="512"/>
+      <c r="D34" s="496"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15150,7 +15168,7 @@
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="402"/>
       <c r="C35" s="402"/>
-      <c r="D35" s="511" t="s">
+      <c r="D35" s="495" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15189,7 +15207,7 @@
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="402"/>
       <c r="C36" s="402"/>
-      <c r="D36" s="512"/>
+      <c r="D36" s="496"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15218,7 +15236,7 @@
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="402"/>
       <c r="C37" s="402"/>
-      <c r="D37" s="511" t="s">
+      <c r="D37" s="495" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15257,7 +15275,7 @@
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="402"/>
       <c r="C38" s="402"/>
-      <c r="D38" s="512"/>
+      <c r="D38" s="496"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15286,7 +15304,7 @@
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="402"/>
       <c r="C39" s="402"/>
-      <c r="D39" s="513" t="s">
+      <c r="D39" s="501" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15319,7 +15337,7 @@
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="402"/>
       <c r="C40" s="402"/>
-      <c r="D40" s="527"/>
+      <c r="D40" s="502"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15348,7 +15366,7 @@
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="402"/>
       <c r="C41" s="402"/>
-      <c r="D41" s="528" t="s">
+      <c r="D41" s="503" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15383,7 +15401,7 @@
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="402"/>
       <c r="C42" s="402"/>
-      <c r="D42" s="529"/>
+      <c r="D42" s="504"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15410,13 +15428,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="375" t="s">
+      <c r="B43" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="379" t="s">
+      <c r="C43" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="383" t="s">
+      <c r="D43" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15451,9 +15469,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="376"/>
-      <c r="C44" s="380"/>
-      <c r="D44" s="384"/>
+      <c r="B44" s="419"/>
+      <c r="C44" s="421"/>
+      <c r="D44" s="425"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15469,9 +15487,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="377"/>
-      <c r="C45" s="381"/>
-      <c r="D45" s="384"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="425"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15487,9 +15505,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="377"/>
-      <c r="C46" s="381"/>
-      <c r="D46" s="385" t="s">
+      <c r="B46" s="405"/>
+      <c r="C46" s="422"/>
+      <c r="D46" s="426" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15504,18 +15522,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="377"/>
-      <c r="C47" s="381"/>
-      <c r="D47" s="385"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="422"/>
+      <c r="D47" s="426"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="377"/>
-      <c r="C48" s="381"/>
-      <c r="D48" s="385" t="s">
+      <c r="B48" s="405"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15530,18 +15548,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="377"/>
-      <c r="C49" s="381"/>
-      <c r="D49" s="385"/>
+      <c r="B49" s="405"/>
+      <c r="C49" s="422"/>
+      <c r="D49" s="426"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="377"/>
-      <c r="C50" s="381"/>
-      <c r="D50" s="385" t="s">
+      <c r="B50" s="405"/>
+      <c r="C50" s="422"/>
+      <c r="D50" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15556,9 +15574,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="378"/>
-      <c r="C51" s="382"/>
-      <c r="D51" s="386"/>
+      <c r="B51" s="406"/>
+      <c r="C51" s="423"/>
+      <c r="D51" s="427"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15869,18 +15887,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="X3:Z4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
@@ -15897,28 +15925,18 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15975,17 +15993,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
+      <c r="M2" s="524"/>
+      <c r="N2" s="524"/>
+      <c r="O2" s="524"/>
+      <c r="P2" s="524"/>
+      <c r="Q2" s="524"/>
+      <c r="R2" s="524"/>
+      <c r="S2" s="524"/>
+      <c r="T2" s="524"/>
+      <c r="U2" s="524"/>
+      <c r="V2" s="524"/>
+      <c r="W2" s="524"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -16003,16 +16021,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="409" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="409" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="409" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -16021,83 +16039,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="526" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="522" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="522" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="516" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="518" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="518" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="520" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="506"/>
+      <c r="Z3" s="507"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="408"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="525"/>
+      <c r="K4" s="525"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="529"/>
+      <c r="N4" s="523"/>
+      <c r="O4" s="523"/>
+      <c r="P4" s="523"/>
+      <c r="Q4" s="515"/>
+      <c r="R4" s="517"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="519"/>
+      <c r="U4" s="519"/>
+      <c r="V4" s="521"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="508"/>
+      <c r="Y4" s="508"/>
+      <c r="Z4" s="509"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16149,8 +16167,8 @@
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="401"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="509"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16178,8 +16196,8 @@
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="401"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="510" t="s">
+      <c r="C7" s="404"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16221,8 +16239,8 @@
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="401"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="510"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16248,8 +16266,8 @@
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="402"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="511" t="s">
+      <c r="C9" s="405"/>
+      <c r="D9" s="495" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16295,8 +16313,8 @@
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="402"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="512"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="496"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16322,8 +16340,8 @@
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="402"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="511" t="s">
+      <c r="C11" s="405"/>
+      <c r="D11" s="495" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16365,8 +16383,8 @@
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="402"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="512"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="496"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16394,8 +16412,8 @@
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="402"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="513" t="s">
+      <c r="C13" s="405"/>
+      <c r="D13" s="501" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16429,8 +16447,8 @@
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="402"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="514"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="513"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16458,8 +16476,8 @@
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="402"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="511" t="s">
+      <c r="C15" s="405"/>
+      <c r="D15" s="495" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16497,8 +16515,8 @@
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="402"/>
-      <c r="C16" s="377"/>
-      <c r="D16" s="512"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="496"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16526,8 +16544,8 @@
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="402"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="511" t="s">
+      <c r="C17" s="405"/>
+      <c r="D17" s="495" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16571,8 +16589,8 @@
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="402"/>
-      <c r="C18" s="377"/>
-      <c r="D18" s="512"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="496"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16600,8 +16618,8 @@
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="402"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="511" t="s">
+      <c r="C19" s="405"/>
+      <c r="D19" s="495" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16639,8 +16657,8 @@
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="402"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="512"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="496"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16668,8 +16686,8 @@
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="402"/>
-      <c r="C21" s="377"/>
-      <c r="D21" s="523" t="s">
+      <c r="C21" s="405"/>
+      <c r="D21" s="497" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16705,8 +16723,8 @@
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="402"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="524"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="498"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16734,7 +16752,7 @@
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="402"/>
-      <c r="C23" s="377"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16775,7 +16793,7 @@
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="402"/>
-      <c r="C24" s="377"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16802,7 +16820,7 @@
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="402"/>
-      <c r="C25" s="377"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -16841,8 +16859,8 @@
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="402"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="525"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="499"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16870,10 +16888,10 @@
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="402"/>
-      <c r="C27" s="406" t="s">
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="500" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16912,7 +16930,7 @@
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="402"/>
       <c r="C28" s="401"/>
-      <c r="D28" s="512"/>
+      <c r="D28" s="496"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16941,7 +16959,7 @@
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="402"/>
       <c r="C29" s="402"/>
-      <c r="D29" s="511" t="s">
+      <c r="D29" s="495" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -16980,7 +16998,7 @@
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="402"/>
       <c r="C30" s="402"/>
-      <c r="D30" s="512"/>
+      <c r="D30" s="496"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17009,7 +17027,7 @@
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="402"/>
       <c r="C31" s="402"/>
-      <c r="D31" s="511" t="s">
+      <c r="D31" s="495" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17048,7 +17066,7 @@
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="402"/>
       <c r="C32" s="402"/>
-      <c r="D32" s="512"/>
+      <c r="D32" s="496"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17077,7 +17095,7 @@
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="402"/>
       <c r="C33" s="402"/>
-      <c r="D33" s="511" t="s">
+      <c r="D33" s="495" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17116,7 +17134,7 @@
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="402"/>
       <c r="C34" s="402"/>
-      <c r="D34" s="512"/>
+      <c r="D34" s="496"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17145,7 +17163,7 @@
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="402"/>
       <c r="C35" s="402"/>
-      <c r="D35" s="511" t="s">
+      <c r="D35" s="495" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17184,7 +17202,7 @@
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="402"/>
       <c r="C36" s="402"/>
-      <c r="D36" s="512"/>
+      <c r="D36" s="496"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17213,7 +17231,7 @@
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="402"/>
       <c r="C37" s="402"/>
-      <c r="D37" s="511" t="s">
+      <c r="D37" s="495" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17252,7 +17270,7 @@
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="402"/>
       <c r="C38" s="402"/>
-      <c r="D38" s="512"/>
+      <c r="D38" s="496"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17281,7 +17299,7 @@
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="402"/>
       <c r="C39" s="402"/>
-      <c r="D39" s="513" t="s">
+      <c r="D39" s="501" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17314,7 +17332,7 @@
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="402"/>
       <c r="C40" s="402"/>
-      <c r="D40" s="527"/>
+      <c r="D40" s="502"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17741,16 +17759,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17767,24 +17793,16 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17872,16 +17890,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="409" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="409" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="409" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -17893,34 +17911,34 @@
       <c r="L3" s="493" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="522" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="522" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="514" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="516" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="518" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="518" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="532" t="s">
+      <c r="V3" s="544" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="540" t="s">
@@ -17938,51 +17956,51 @@
       <c r="AA3" s="538" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="530" t="s">
+      <c r="AB3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="504"/>
-      <c r="AD3" s="505"/>
+      <c r="AC3" s="506"/>
+      <c r="AD3" s="507"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="408"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="533"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="525"/>
+      <c r="K4" s="525"/>
+      <c r="L4" s="525"/>
+      <c r="M4" s="529"/>
+      <c r="N4" s="523"/>
+      <c r="O4" s="523"/>
+      <c r="P4" s="523"/>
+      <c r="Q4" s="515"/>
+      <c r="R4" s="517"/>
+      <c r="S4" s="519"/>
+      <c r="T4" s="519"/>
+      <c r="U4" s="519"/>
+      <c r="V4" s="545"/>
       <c r="W4" s="541"/>
       <c r="X4" s="537"/>
       <c r="Y4" s="537"/>
       <c r="Z4" s="537"/>
       <c r="AA4" s="539"/>
-      <c r="AB4" s="531"/>
-      <c r="AC4" s="506"/>
-      <c r="AD4" s="507"/>
+      <c r="AB4" s="543"/>
+      <c r="AC4" s="508"/>
+      <c r="AD4" s="509"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18038,8 +18056,8 @@
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="401"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="509"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18071,8 +18089,8 @@
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="401"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="510" t="s">
+      <c r="C7" s="404"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18114,8 +18132,8 @@
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="401"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="510"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18145,8 +18163,8 @@
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="402"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="534" t="s">
+      <c r="C9" s="405"/>
+      <c r="D9" s="533" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18198,8 +18216,8 @@
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="402"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="535"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="534"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18229,8 +18247,8 @@
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="402"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="534" t="s">
+      <c r="C11" s="405"/>
+      <c r="D11" s="533" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18278,8 +18296,8 @@
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="402"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="535"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="534"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18311,8 +18329,8 @@
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="402"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="511" t="s">
+      <c r="C13" s="405"/>
+      <c r="D13" s="495" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18350,8 +18368,8 @@
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="402"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="512"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="496"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18383,8 +18401,8 @@
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="402"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="534" t="s">
+      <c r="C15" s="405"/>
+      <c r="D15" s="533" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18426,8 +18444,8 @@
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="402"/>
-      <c r="C16" s="377"/>
-      <c r="D16" s="535"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="534"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18459,8 +18477,8 @@
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="402"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="534" t="s">
+      <c r="C17" s="405"/>
+      <c r="D17" s="533" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18510,8 +18528,8 @@
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="402"/>
-      <c r="C18" s="377"/>
-      <c r="D18" s="535"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="534"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18543,8 +18561,8 @@
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="402"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="511" t="s">
+      <c r="C19" s="405"/>
+      <c r="D19" s="495" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18584,8 +18602,8 @@
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="402"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="512"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="496"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18617,7 +18635,7 @@
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="402"/>
-      <c r="C21" s="377"/>
+      <c r="C21" s="405"/>
       <c r="D21" s="490" t="s">
         <v>32</v>
       </c>
@@ -18660,8 +18678,8 @@
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="402"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="544"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="532"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18693,7 +18711,7 @@
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="402"/>
-      <c r="C23" s="377"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18736,7 +18754,7 @@
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="402"/>
-      <c r="C24" s="377"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18767,7 +18785,7 @@
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="402"/>
-      <c r="C25" s="377"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -18808,8 +18826,8 @@
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="402"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="525"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="499"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18841,10 +18859,10 @@
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="402"/>
-      <c r="C27" s="406" t="s">
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="500" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18887,7 +18905,7 @@
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="402"/>
       <c r="C28" s="401"/>
-      <c r="D28" s="512"/>
+      <c r="D28" s="496"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18920,7 +18938,7 @@
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="402"/>
       <c r="C29" s="402"/>
-      <c r="D29" s="511" t="s">
+      <c r="D29" s="495" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18961,7 +18979,7 @@
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="402"/>
       <c r="C30" s="402"/>
-      <c r="D30" s="512"/>
+      <c r="D30" s="496"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -18994,7 +19012,7 @@
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="402"/>
       <c r="C31" s="402"/>
-      <c r="D31" s="511" t="s">
+      <c r="D31" s="495" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19035,7 +19053,7 @@
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="402"/>
       <c r="C32" s="402"/>
-      <c r="D32" s="512"/>
+      <c r="D32" s="496"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19068,7 +19086,7 @@
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="402"/>
       <c r="C33" s="402"/>
-      <c r="D33" s="511" t="s">
+      <c r="D33" s="495" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19109,7 +19127,7 @@
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="402"/>
       <c r="C34" s="402"/>
-      <c r="D34" s="512"/>
+      <c r="D34" s="496"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19142,7 +19160,7 @@
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="402"/>
       <c r="C35" s="402"/>
-      <c r="D35" s="534" t="s">
+      <c r="D35" s="533" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19185,7 +19203,7 @@
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="402"/>
       <c r="C36" s="402"/>
-      <c r="D36" s="535"/>
+      <c r="D36" s="534"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19218,7 +19236,7 @@
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="402"/>
       <c r="C37" s="402"/>
-      <c r="D37" s="534" t="s">
+      <c r="D37" s="533" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19259,7 +19277,7 @@
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="402"/>
       <c r="C38" s="402"/>
-      <c r="D38" s="535"/>
+      <c r="D38" s="534"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19292,7 +19310,7 @@
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="402"/>
       <c r="C39" s="402"/>
-      <c r="D39" s="511" t="s">
+      <c r="D39" s="495" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19329,7 +19347,7 @@
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="402"/>
       <c r="C40" s="402"/>
-      <c r="D40" s="545"/>
+      <c r="D40" s="535"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19362,7 +19380,7 @@
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="402"/>
       <c r="C41" s="402"/>
-      <c r="D41" s="542" t="s">
+      <c r="D41" s="530" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19403,7 +19421,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="489"/>
       <c r="C42" s="489"/>
-      <c r="D42" s="543"/>
+      <c r="D42" s="531"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19766,23 +19784,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="D5:D6"/>
@@ -19799,22 +19816,23 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E45EA37-EABF-4AA2-9D16-89823FEA1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B015EA65-CFB1-47DA-B79F-CAAA11D34AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,23 @@
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="0" hidden="1">'Backlog Funcional'!$6:$6,'Backlog Funcional'!$50:$50,'Backlog Funcional'!$58:$58,'Backlog Funcional'!$65:$65</definedName>
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="4" hidden="1">'Backlog Status Procesos 121121'!$3:$3,'Backlog Status Procesos 121121'!$6:$6,'Backlog Status Procesos 121121'!$16:$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
     <customWorkbookView name="Usuario de Windows - Vista personalizada" guid="{5A3D1950-3803-405C-80C5-3BF9571F0071}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="761" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1881,15 +1894,9 @@
     <t>HU-MID-NYA-004- Consultar Bandeja Notificaciones y Alertas</t>
   </si>
   <si>
-    <t>HU-MID-ENT-001-Cambio de estado Entidad</t>
-  </si>
-  <si>
     <t>HU-MID-ENT-003-Consultar Entidad</t>
   </si>
   <si>
-    <t>HU-MID-ENT-001-Consultar Bandeja de Entidades</t>
-  </si>
-  <si>
     <t>HU-MID-TRA-001- Registrar Transacciones Generales</t>
   </si>
   <si>
@@ -1920,8 +1927,13 @@
     <t>HU-MID-DESC-005- Consultar BandejaTransacción Descuento Entidad</t>
   </si>
   <si>
-    <t>Gestionar Transacciones Generales
-Transacciones</t>
+    <t>Gestionar Transacciones Generales</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-004-Consultar Bandeja de Entidades</t>
+  </si>
+  <si>
+    <t>HU-MID-ENT-005-Cambio de estado Entidad</t>
   </si>
 </sst>
 </file>
@@ -4036,7 +4048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5014,6 +5026,42 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5062,18 +5110,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5110,36 +5149,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5188,90 +5284,6 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5338,12 +5350,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5356,9 +5446,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5368,79 +5455,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5452,43 +5500,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5937,62 +5958,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="401" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="392"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="404"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="410" t="s">
+      <c r="B3" s="419" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="412" t="s">
+      <c r="D3" s="421" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="414" t="s">
+      <c r="E3" s="423" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="417" t="s">
+      <c r="G3" s="426" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="398" t="s">
+      <c r="H3" s="410" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="393" t="s">
+      <c r="M3" s="405" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="387" t="s">
+      <c r="N3" s="399" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="418"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="427"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -6006,14 +6027,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="394"/>
-      <c r="N4" s="388"/>
+      <c r="M4" s="406"/>
+      <c r="N4" s="400"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="387" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6034,8 +6055,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="415"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6051,8 +6072,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="402"/>
-      <c r="C7" s="405"/>
+      <c r="B7" s="414"/>
+      <c r="C7" s="389"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6071,8 +6092,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="402"/>
-      <c r="C8" s="405"/>
+      <c r="B8" s="414"/>
+      <c r="C8" s="389"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6091,9 +6112,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="395" t="s">
+      <c r="B9" s="414"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="407" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6124,9 +6145,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="396"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="408"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6145,9 +6166,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="396"/>
+      <c r="B11" s="414"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="408"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6166,9 +6187,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="396"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="408"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6187,9 +6208,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="396"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="408"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6207,9 +6228,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="396"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="408"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6227,9 +6248,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="396"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="408"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6247,9 +6268,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="396"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="408"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6267,9 +6288,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="396"/>
+      <c r="B17" s="414"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="408"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6288,9 +6309,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="396"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="408"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6309,9 +6330,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="396"/>
+      <c r="B19" s="414"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="408"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6328,9 +6349,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="396"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="408"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6347,9 +6368,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="396"/>
+      <c r="B21" s="414"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="408"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6366,9 +6387,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="396"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="408"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6385,9 +6406,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
-      <c r="D23" s="396"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="389"/>
+      <c r="D23" s="408"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6404,9 +6425,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
-      <c r="D24" s="396"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="389"/>
+      <c r="D24" s="408"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6423,9 +6444,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="396"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="389"/>
+      <c r="D25" s="408"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6439,9 +6460,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="402"/>
-      <c r="C26" s="405"/>
-      <c r="D26" s="396"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="408"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6455,9 +6476,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="405"/>
-      <c r="D27" s="396"/>
+      <c r="B27" s="414"/>
+      <c r="C27" s="389"/>
+      <c r="D27" s="408"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6471,9 +6492,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="405"/>
-      <c r="D28" s="396"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="389"/>
+      <c r="D28" s="408"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6487,9 +6508,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="396"/>
+      <c r="B29" s="414"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="408"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6503,9 +6524,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="405"/>
-      <c r="D30" s="396"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="389"/>
+      <c r="D30" s="408"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6519,9 +6540,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="396"/>
+      <c r="B31" s="414"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="408"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6535,9 +6556,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="405"/>
-      <c r="D32" s="396"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="408"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6551,9 +6572,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="405"/>
-      <c r="D33" s="396"/>
+      <c r="B33" s="414"/>
+      <c r="C33" s="389"/>
+      <c r="D33" s="408"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6567,9 +6588,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="405"/>
-      <c r="D34" s="396"/>
+      <c r="B34" s="414"/>
+      <c r="C34" s="389"/>
+      <c r="D34" s="408"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6583,9 +6604,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="405"/>
-      <c r="D35" s="396"/>
+      <c r="B35" s="414"/>
+      <c r="C35" s="389"/>
+      <c r="D35" s="408"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6599,9 +6620,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="405"/>
-      <c r="D36" s="396"/>
+      <c r="B36" s="414"/>
+      <c r="C36" s="389"/>
+      <c r="D36" s="408"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6615,9 +6636,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="396"/>
+      <c r="B37" s="414"/>
+      <c r="C37" s="389"/>
+      <c r="D37" s="408"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6631,9 +6652,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="405"/>
-      <c r="D38" s="396"/>
+      <c r="B38" s="414"/>
+      <c r="C38" s="389"/>
+      <c r="D38" s="408"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6647,9 +6668,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="405"/>
-      <c r="D39" s="396"/>
+      <c r="B39" s="414"/>
+      <c r="C39" s="389"/>
+      <c r="D39" s="408"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6663,9 +6684,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="405"/>
-      <c r="D40" s="396"/>
+      <c r="B40" s="414"/>
+      <c r="C40" s="389"/>
+      <c r="D40" s="408"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6679,9 +6700,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="405"/>
-      <c r="D41" s="396"/>
+      <c r="B41" s="414"/>
+      <c r="C41" s="389"/>
+      <c r="D41" s="408"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6695,9 +6716,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="402"/>
-      <c r="C42" s="405"/>
-      <c r="D42" s="396"/>
+      <c r="B42" s="414"/>
+      <c r="C42" s="389"/>
+      <c r="D42" s="408"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6711,9 +6732,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="402"/>
-      <c r="C43" s="405"/>
-      <c r="D43" s="397"/>
+      <c r="B43" s="414"/>
+      <c r="C43" s="389"/>
+      <c r="D43" s="409"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6726,8 +6747,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="402"/>
-      <c r="C44" s="405"/>
+      <c r="B44" s="414"/>
+      <c r="C44" s="389"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6749,8 +6770,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="402"/>
-      <c r="C45" s="405"/>
+      <c r="B45" s="414"/>
+      <c r="C45" s="389"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6769,8 +6790,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="402"/>
-      <c r="C46" s="405"/>
+      <c r="B46" s="414"/>
+      <c r="C46" s="389"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6792,8 +6813,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="402"/>
-      <c r="C47" s="405"/>
+      <c r="B47" s="414"/>
+      <c r="C47" s="389"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6816,8 +6837,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="402"/>
-      <c r="C48" s="405"/>
+      <c r="B48" s="414"/>
+      <c r="C48" s="389"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6839,9 +6860,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="402"/>
-      <c r="C49" s="405"/>
-      <c r="D49" s="407" t="s">
+      <c r="B49" s="414"/>
+      <c r="C49" s="389"/>
+      <c r="D49" s="416" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6862,9 +6883,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="402"/>
-      <c r="C50" s="406"/>
-      <c r="D50" s="408"/>
+      <c r="B50" s="414"/>
+      <c r="C50" s="390"/>
+      <c r="D50" s="417"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6875,8 +6896,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="402"/>
-      <c r="C51" s="409" t="s">
+      <c r="B51" s="414"/>
+      <c r="C51" s="418" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6897,8 +6918,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="402"/>
-      <c r="C52" s="402"/>
+      <c r="B52" s="414"/>
+      <c r="C52" s="414"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6920,8 +6941,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="402"/>
-      <c r="C53" s="402"/>
+      <c r="B53" s="414"/>
+      <c r="C53" s="414"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6943,8 +6964,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="402"/>
-      <c r="C54" s="402"/>
+      <c r="B54" s="414"/>
+      <c r="C54" s="414"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6963,8 +6984,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="402"/>
-      <c r="C55" s="402"/>
+      <c r="B55" s="414"/>
+      <c r="C55" s="414"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6986,8 +7007,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="402"/>
-      <c r="C56" s="402"/>
+      <c r="B56" s="414"/>
+      <c r="C56" s="414"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -7009,8 +7030,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="402"/>
-      <c r="C57" s="402"/>
+      <c r="B57" s="414"/>
+      <c r="C57" s="414"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7036,8 +7057,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="402"/>
-      <c r="C58" s="402"/>
+      <c r="B58" s="414"/>
+      <c r="C58" s="414"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7051,13 +7072,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="403" t="s">
+      <c r="B59" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="420" t="s">
+      <c r="C59" s="391" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="424" t="s">
+      <c r="D59" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7077,9 +7098,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="419"/>
-      <c r="C60" s="421"/>
-      <c r="D60" s="425"/>
+      <c r="B60" s="388"/>
+      <c r="C60" s="392"/>
+      <c r="D60" s="396"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7096,9 +7117,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="405"/>
-      <c r="C61" s="422"/>
-      <c r="D61" s="425"/>
+      <c r="B61" s="389"/>
+      <c r="C61" s="393"/>
+      <c r="D61" s="396"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7116,8 +7137,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="405"/>
-      <c r="C62" s="422"/>
+      <c r="B62" s="389"/>
+      <c r="C62" s="393"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7144,9 +7165,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="405"/>
-      <c r="C63" s="422"/>
-      <c r="D63" s="426" t="s">
+      <c r="B63" s="389"/>
+      <c r="C63" s="393"/>
+      <c r="D63" s="397" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7177,9 +7198,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="405"/>
-      <c r="C64" s="422"/>
-      <c r="D64" s="426"/>
+      <c r="B64" s="389"/>
+      <c r="C64" s="393"/>
+      <c r="D64" s="397"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7206,9 +7227,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="405"/>
-      <c r="C65" s="422"/>
-      <c r="D65" s="426"/>
+      <c r="B65" s="389"/>
+      <c r="C65" s="393"/>
+      <c r="D65" s="397"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7221,9 +7242,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="405"/>
-      <c r="C66" s="422"/>
-      <c r="D66" s="426" t="s">
+      <c r="B66" s="389"/>
+      <c r="C66" s="393"/>
+      <c r="D66" s="397" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7245,9 +7266,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="406"/>
-      <c r="C67" s="423"/>
-      <c r="D67" s="427"/>
+      <c r="B67" s="390"/>
+      <c r="C67" s="394"/>
+      <c r="D67" s="398"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7944,11 +7965,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7964,6 +7980,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8005,66 +8026,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="459" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="432"/>
-      <c r="K2" s="432"/>
-      <c r="L2" s="432"/>
-      <c r="M2" s="432"/>
-      <c r="N2" s="432"/>
-      <c r="O2" s="432"/>
-      <c r="P2" s="433"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
+      <c r="K2" s="460"/>
+      <c r="L2" s="460"/>
+      <c r="M2" s="460"/>
+      <c r="N2" s="460"/>
+      <c r="O2" s="460"/>
+      <c r="P2" s="461"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="462" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="436" t="s">
+      <c r="C3" s="464" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="436" t="s">
+      <c r="D3" s="464" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="439" t="s">
+      <c r="E3" s="467" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="436" t="s">
+      <c r="F3" s="464" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="436" t="s">
+      <c r="G3" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="436" t="s">
+      <c r="H3" s="464" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="436" t="s">
+      <c r="I3" s="464" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="469"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="436" t="s">
+      <c r="M3" s="464" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="436" t="s">
+      <c r="N3" s="464" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="436" t="s">
+      <c r="O3" s="464" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="443" t="s">
+      <c r="P3" s="471" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8073,13 +8094,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="435"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="438"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="437"/>
-      <c r="G4" s="437"/>
-      <c r="H4" s="437"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="465"/>
+      <c r="G4" s="465"/>
+      <c r="H4" s="465"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8092,10 +8113,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="437"/>
-      <c r="N4" s="437"/>
-      <c r="O4" s="442"/>
-      <c r="P4" s="444"/>
+      <c r="M4" s="465"/>
+      <c r="N4" s="465"/>
+      <c r="O4" s="470"/>
+      <c r="P4" s="472"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8198,14 +8219,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="455" t="s">
+      <c r="B9" s="438" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="458" t="s">
+      <c r="C9" s="441" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="460" t="s">
+      <c r="E9" s="443" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8236,10 +8257,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="456"/>
-      <c r="C10" s="459"/>
+      <c r="B10" s="439"/>
+      <c r="C10" s="442"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="461"/>
+      <c r="E10" s="444"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8261,10 +8282,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="456"/>
-      <c r="C11" s="459"/>
+      <c r="B11" s="439"/>
+      <c r="C11" s="442"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="461"/>
+      <c r="E11" s="444"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8286,10 +8307,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="456"/>
-      <c r="C12" s="459"/>
+      <c r="B12" s="439"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="461"/>
+      <c r="E12" s="444"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8311,10 +8332,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="456"/>
-      <c r="C13" s="459"/>
+      <c r="B13" s="439"/>
+      <c r="C13" s="442"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="462" t="s">
+      <c r="E13" s="445" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8337,10 +8358,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="456"/>
-      <c r="C14" s="459"/>
+      <c r="B14" s="439"/>
+      <c r="C14" s="442"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="462"/>
+      <c r="E14" s="445"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8361,10 +8382,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="456"/>
-      <c r="C15" s="459"/>
+      <c r="B15" s="439"/>
+      <c r="C15" s="442"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="462"/>
+      <c r="E15" s="445"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8386,10 +8407,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="456"/>
-      <c r="C16" s="459"/>
+      <c r="B16" s="439"/>
+      <c r="C16" s="442"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="462"/>
+      <c r="E16" s="445"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8411,10 +8432,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="456"/>
-      <c r="C17" s="459"/>
+      <c r="B17" s="439"/>
+      <c r="C17" s="442"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="462"/>
+      <c r="E17" s="445"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8436,10 +8457,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="456"/>
-      <c r="C18" s="459"/>
+      <c r="B18" s="439"/>
+      <c r="C18" s="442"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="462"/>
+      <c r="E18" s="445"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8461,10 +8482,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="456"/>
-      <c r="C19" s="459"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="442"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="462"/>
+      <c r="E19" s="445"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8485,10 +8506,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="456"/>
-      <c r="C20" s="459"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="462"/>
+      <c r="E20" s="445"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8509,10 +8530,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="456"/>
-      <c r="C21" s="459"/>
+      <c r="B21" s="439"/>
+      <c r="C21" s="442"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="461" t="s">
+      <c r="E21" s="444" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8536,10 +8557,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="456"/>
-      <c r="C22" s="459"/>
+      <c r="B22" s="439"/>
+      <c r="C22" s="442"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="461"/>
+      <c r="E22" s="444"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8561,10 +8582,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="456"/>
-      <c r="C23" s="459"/>
+      <c r="B23" s="439"/>
+      <c r="C23" s="442"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="461"/>
+      <c r="E23" s="444"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8586,10 +8607,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="456"/>
-      <c r="C24" s="448"/>
+      <c r="B24" s="439"/>
+      <c r="C24" s="431"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="461"/>
+      <c r="E24" s="444"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8611,10 +8632,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="456"/>
-      <c r="C25" s="448"/>
+      <c r="B25" s="439"/>
+      <c r="C25" s="431"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="463" t="s">
+      <c r="E25" s="446" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8638,10 +8659,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="456"/>
-      <c r="C26" s="448"/>
+      <c r="B26" s="439"/>
+      <c r="C26" s="431"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="463"/>
+      <c r="E26" s="446"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8663,10 +8684,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="456"/>
-      <c r="C27" s="448"/>
+      <c r="B27" s="439"/>
+      <c r="C27" s="431"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="463"/>
+      <c r="E27" s="446"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8688,10 +8709,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="456"/>
-      <c r="C28" s="448"/>
+      <c r="B28" s="439"/>
+      <c r="C28" s="431"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="463"/>
+      <c r="E28" s="446"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8713,10 +8734,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="456"/>
-      <c r="C29" s="448"/>
+      <c r="B29" s="439"/>
+      <c r="C29" s="431"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="461" t="s">
+      <c r="E29" s="444" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8740,10 +8761,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="456"/>
-      <c r="C30" s="448"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="431"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="461"/>
+      <c r="E30" s="444"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8765,10 +8786,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="456"/>
-      <c r="C31" s="448"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="431"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="461"/>
+      <c r="E31" s="444"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8790,10 +8811,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="456"/>
-      <c r="C32" s="448"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="431"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="461"/>
+      <c r="E32" s="444"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8815,10 +8836,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="456"/>
-      <c r="C33" s="448"/>
+      <c r="B33" s="439"/>
+      <c r="C33" s="431"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="462"/>
+      <c r="E33" s="445"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8834,10 +8855,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="456"/>
-      <c r="C34" s="448"/>
+      <c r="B34" s="439"/>
+      <c r="C34" s="431"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="462"/>
+      <c r="E34" s="445"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8853,10 +8874,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="456"/>
-      <c r="C35" s="448"/>
+      <c r="B35" s="439"/>
+      <c r="C35" s="431"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="462"/>
+      <c r="E35" s="445"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8872,10 +8893,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="456"/>
-      <c r="C36" s="448"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="431"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="428"/>
+      <c r="E36" s="447"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8891,7 +8912,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="456"/>
+      <c r="B37" s="439"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8910,12 +8931,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="456"/>
-      <c r="C38" s="464" t="s">
+      <c r="B38" s="439"/>
+      <c r="C38" s="448" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="467" t="s">
+      <c r="E38" s="451" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8939,10 +8960,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="456"/>
-      <c r="C39" s="465"/>
+      <c r="B39" s="439"/>
+      <c r="C39" s="449"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="468"/>
+      <c r="E39" s="452"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8964,10 +8985,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="456"/>
-      <c r="C40" s="465"/>
+      <c r="B40" s="439"/>
+      <c r="C40" s="449"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="468"/>
+      <c r="E40" s="452"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8989,10 +9010,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="456"/>
-      <c r="C41" s="465"/>
+      <c r="B41" s="439"/>
+      <c r="C41" s="449"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="469"/>
+      <c r="E41" s="453"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9014,8 +9035,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="456"/>
-      <c r="C42" s="465"/>
+      <c r="B42" s="439"/>
+      <c r="C42" s="449"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9033,8 +9054,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="456"/>
-      <c r="C43" s="465"/>
+      <c r="B43" s="439"/>
+      <c r="C43" s="449"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9051,8 +9072,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="456"/>
-      <c r="C44" s="465"/>
+      <c r="B44" s="439"/>
+      <c r="C44" s="449"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9069,8 +9090,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="456"/>
-      <c r="C45" s="465"/>
+      <c r="B45" s="439"/>
+      <c r="C45" s="449"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9087,8 +9108,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="456"/>
-      <c r="C46" s="466"/>
+      <c r="B46" s="439"/>
+      <c r="C46" s="450"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9105,12 +9126,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="456"/>
-      <c r="C47" s="464" t="s">
+      <c r="B47" s="439"/>
+      <c r="C47" s="448" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="471" t="s">
+      <c r="E47" s="455" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9133,10 +9154,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="456"/>
-      <c r="C48" s="465"/>
+      <c r="B48" s="439"/>
+      <c r="C48" s="449"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="472"/>
+      <c r="E48" s="456"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9157,10 +9178,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="456"/>
-      <c r="C49" s="465"/>
+      <c r="B49" s="439"/>
+      <c r="C49" s="449"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="472"/>
+      <c r="E49" s="456"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9181,10 +9202,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="456"/>
-      <c r="C50" s="465"/>
+      <c r="B50" s="439"/>
+      <c r="C50" s="449"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="472"/>
+      <c r="E50" s="456"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9205,10 +9226,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="456"/>
-      <c r="C51" s="465"/>
+      <c r="B51" s="439"/>
+      <c r="C51" s="449"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="472"/>
+      <c r="E51" s="456"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9229,10 +9250,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="456"/>
-      <c r="C52" s="465"/>
+      <c r="B52" s="439"/>
+      <c r="C52" s="449"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="472"/>
+      <c r="E52" s="456"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9253,10 +9274,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="456"/>
-      <c r="C53" s="465"/>
+      <c r="B53" s="439"/>
+      <c r="C53" s="449"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="472"/>
+      <c r="E53" s="456"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9277,10 +9298,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="456"/>
-      <c r="C54" s="465"/>
+      <c r="B54" s="439"/>
+      <c r="C54" s="449"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="472"/>
+      <c r="E54" s="456"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9301,10 +9322,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="456"/>
-      <c r="C55" s="465"/>
+      <c r="B55" s="439"/>
+      <c r="C55" s="449"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="472"/>
+      <c r="E55" s="456"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9325,10 +9346,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="456"/>
-      <c r="C56" s="465"/>
+      <c r="B56" s="439"/>
+      <c r="C56" s="449"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="472"/>
+      <c r="E56" s="456"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9349,10 +9370,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="456"/>
-      <c r="C57" s="465"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="449"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="472"/>
+      <c r="E57" s="456"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9373,10 +9394,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="456"/>
-      <c r="C58" s="465"/>
+      <c r="B58" s="439"/>
+      <c r="C58" s="449"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="472"/>
+      <c r="E58" s="456"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9397,10 +9418,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="456"/>
-      <c r="C59" s="465"/>
+      <c r="B59" s="439"/>
+      <c r="C59" s="449"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="428" t="s">
+      <c r="E59" s="447" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9423,10 +9444,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="456"/>
-      <c r="C60" s="465"/>
+      <c r="B60" s="439"/>
+      <c r="C60" s="449"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="429"/>
+      <c r="E60" s="457"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9447,10 +9468,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="456"/>
-      <c r="C61" s="465"/>
+      <c r="B61" s="439"/>
+      <c r="C61" s="449"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="429"/>
+      <c r="E61" s="457"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9471,10 +9492,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="456"/>
-      <c r="C62" s="465"/>
+      <c r="B62" s="439"/>
+      <c r="C62" s="449"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="429"/>
+      <c r="E62" s="457"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9495,10 +9516,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="456"/>
-      <c r="C63" s="465"/>
+      <c r="B63" s="439"/>
+      <c r="C63" s="449"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="429"/>
+      <c r="E63" s="457"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9519,10 +9540,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="456"/>
-      <c r="C64" s="465"/>
+      <c r="B64" s="439"/>
+      <c r="C64" s="449"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="429"/>
+      <c r="E64" s="457"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9543,10 +9564,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="456"/>
-      <c r="C65" s="465"/>
+      <c r="B65" s="439"/>
+      <c r="C65" s="449"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="429"/>
+      <c r="E65" s="457"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9567,10 +9588,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="456"/>
-      <c r="C66" s="465"/>
+      <c r="B66" s="439"/>
+      <c r="C66" s="449"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="429"/>
+      <c r="E66" s="457"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9591,10 +9612,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="456"/>
-      <c r="C67" s="465"/>
+      <c r="B67" s="439"/>
+      <c r="C67" s="449"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="429"/>
+      <c r="E67" s="457"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9615,10 +9636,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="456"/>
-      <c r="C68" s="465"/>
+      <c r="B68" s="439"/>
+      <c r="C68" s="449"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="429"/>
+      <c r="E68" s="457"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9639,10 +9660,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="456"/>
-      <c r="C69" s="465"/>
+      <c r="B69" s="439"/>
+      <c r="C69" s="449"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="429"/>
+      <c r="E69" s="457"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9663,10 +9684,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="456"/>
-      <c r="C70" s="465"/>
+      <c r="B70" s="439"/>
+      <c r="C70" s="449"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="429"/>
+      <c r="E70" s="457"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9687,10 +9708,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="456"/>
-      <c r="C71" s="465"/>
+      <c r="B71" s="439"/>
+      <c r="C71" s="449"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="429"/>
+      <c r="E71" s="457"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9711,10 +9732,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="456"/>
-      <c r="C72" s="465"/>
+      <c r="B72" s="439"/>
+      <c r="C72" s="449"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="429"/>
+      <c r="E72" s="457"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9735,10 +9756,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="456"/>
-      <c r="C73" s="465"/>
+      <c r="B73" s="439"/>
+      <c r="C73" s="449"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="429"/>
+      <c r="E73" s="457"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9759,10 +9780,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="456"/>
-      <c r="C74" s="470"/>
+      <c r="B74" s="439"/>
+      <c r="C74" s="454"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="429"/>
+      <c r="E74" s="457"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9783,10 +9804,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="456"/>
+      <c r="B75" s="439"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="429"/>
+      <c r="E75" s="457"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9807,10 +9828,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="456"/>
+      <c r="B76" s="439"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="429"/>
+      <c r="E76" s="457"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9831,10 +9852,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="456"/>
+      <c r="B77" s="439"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="429"/>
+      <c r="E77" s="457"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9855,10 +9876,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="456"/>
+      <c r="B78" s="439"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="429"/>
+      <c r="E78" s="457"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9879,10 +9900,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="456"/>
+      <c r="B79" s="439"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="429"/>
+      <c r="E79" s="457"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9903,10 +9924,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="456"/>
+      <c r="B80" s="439"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="429"/>
+      <c r="E80" s="457"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9927,10 +9948,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="456"/>
+      <c r="B81" s="439"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="429"/>
+      <c r="E81" s="457"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9951,10 +9972,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="456"/>
+      <c r="B82" s="439"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="429"/>
+      <c r="E82" s="457"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9975,10 +9996,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="456"/>
+      <c r="B83" s="439"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="429"/>
+      <c r="E83" s="457"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -9999,10 +10020,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="456"/>
+      <c r="B84" s="439"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="429"/>
+      <c r="E84" s="457"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10023,10 +10044,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="456"/>
+      <c r="B85" s="439"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="429"/>
+      <c r="E85" s="457"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10047,10 +10068,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="456"/>
+      <c r="B86" s="439"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="430"/>
+      <c r="E86" s="458"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10071,10 +10092,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="456"/>
+      <c r="B87" s="439"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="429" t="s">
+      <c r="E87" s="457" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10097,10 +10118,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="456"/>
+      <c r="B88" s="439"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="429"/>
+      <c r="E88" s="457"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10121,10 +10142,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="456"/>
+      <c r="B89" s="439"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="429"/>
+      <c r="E89" s="457"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10145,10 +10166,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="456"/>
+      <c r="B90" s="439"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="429"/>
+      <c r="E90" s="457"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10169,7 +10190,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="456"/>
+      <c r="B91" s="439"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10187,7 +10208,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="457"/>
+      <c r="B92" s="440"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10205,14 +10226,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="445" t="s">
+      <c r="B93" s="428" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="447" t="s">
+      <c r="C93" s="430" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="449" t="s">
+      <c r="E93" s="432" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10233,10 +10254,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="446"/>
-      <c r="C94" s="448"/>
+      <c r="B94" s="429"/>
+      <c r="C94" s="431"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="450"/>
+      <c r="E94" s="433"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10253,10 +10274,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="446"/>
-      <c r="C95" s="448"/>
+      <c r="B95" s="429"/>
+      <c r="C95" s="431"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="450"/>
+      <c r="E95" s="433"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10273,10 +10294,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="446"/>
-      <c r="C96" s="448"/>
+      <c r="B96" s="429"/>
+      <c r="C96" s="431"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="451"/>
+      <c r="E96" s="434"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10293,8 +10314,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="446"/>
-      <c r="C97" s="448"/>
+      <c r="B97" s="429"/>
+      <c r="C97" s="431"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10311,8 +10332,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="446"/>
-      <c r="C98" s="448"/>
+      <c r="B98" s="429"/>
+      <c r="C98" s="431"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10329,8 +10350,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="446"/>
-      <c r="C99" s="448"/>
+      <c r="B99" s="429"/>
+      <c r="C99" s="431"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10347,7 +10368,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="446"/>
+      <c r="B100" s="429"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10365,7 +10386,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="446"/>
+      <c r="B101" s="429"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10383,7 +10404,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="446"/>
+      <c r="B102" s="429"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10401,7 +10422,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="446"/>
+      <c r="B103" s="429"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10419,7 +10440,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="446"/>
+      <c r="B104" s="429"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10438,7 +10459,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="452" t="s">
+      <c r="C105" s="435" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10458,7 +10479,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="453"/>
+      <c r="C106" s="436"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10476,7 +10497,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="453"/>
+      <c r="C107" s="436"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10494,7 +10515,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="453"/>
+      <c r="C108" s="436"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10512,7 +10533,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="453"/>
+      <c r="C109" s="436"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10530,7 +10551,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="453"/>
+      <c r="C110" s="436"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10548,7 +10569,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="453"/>
+      <c r="C111" s="436"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10566,7 +10587,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="453"/>
+      <c r="C112" s="436"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10584,7 +10605,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="453"/>
+      <c r="C113" s="436"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10602,7 +10623,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="453"/>
+      <c r="C114" s="436"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10620,7 +10641,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="453"/>
+      <c r="C115" s="436"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10638,7 +10659,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="454"/>
+      <c r="C116" s="437"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11023,6 +11044,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11039,21 +11075,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -12017,10 +12038,10 @@
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12104,7 +12125,7 @@
       <c r="C6" s="322"/>
       <c r="D6" s="383"/>
       <c r="E6" s="357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
@@ -12115,7 +12136,7 @@
       <c r="C7" s="322"/>
       <c r="D7" s="383"/>
       <c r="E7" s="357" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
@@ -12126,7 +12147,7 @@
       <c r="C8" s="322"/>
       <c r="D8" s="384"/>
       <c r="E8" s="315" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
@@ -12135,7 +12156,7 @@
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="377"/>
       <c r="C9" s="358"/>
-      <c r="D9" s="360" t="s">
+      <c r="D9" s="546" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="315" t="s">
@@ -12148,7 +12169,7 @@
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="377"/>
       <c r="C10" s="358"/>
-      <c r="D10" s="295"/>
+      <c r="D10" s="547"/>
       <c r="E10" s="315" t="s">
         <v>353</v>
       </c>
@@ -12159,7 +12180,7 @@
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="377"/>
       <c r="C11" s="358"/>
-      <c r="D11" s="295"/>
+      <c r="D11" s="547"/>
       <c r="E11" s="315" t="s">
         <v>352</v>
       </c>
@@ -12170,7 +12191,7 @@
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="377"/>
       <c r="C12" s="358"/>
-      <c r="D12" s="375"/>
+      <c r="D12" s="548"/>
       <c r="E12" s="315" t="s">
         <v>355</v>
       </c>
@@ -12181,11 +12202,11 @@
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="377"/>
       <c r="C13" s="358"/>
-      <c r="D13" s="385" t="s">
-        <v>369</v>
+      <c r="D13" s="546" t="s">
+        <v>367</v>
       </c>
       <c r="E13" s="315" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
@@ -12194,9 +12215,9 @@
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="377"/>
       <c r="C14" s="358"/>
-      <c r="D14" s="386"/>
+      <c r="D14" s="547"/>
       <c r="E14" s="315" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
@@ -12205,9 +12226,9 @@
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="377"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="386"/>
+      <c r="D15" s="547"/>
       <c r="E15" s="315" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
@@ -12216,9 +12237,9 @@
     <row r="16" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="377"/>
       <c r="C16" s="355"/>
-      <c r="D16" s="386"/>
+      <c r="D16" s="547"/>
       <c r="E16" s="315" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="359"/>
@@ -12227,9 +12248,9 @@
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="377"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="386"/>
+      <c r="D17" s="548"/>
       <c r="E17" s="315" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
@@ -12242,7 +12263,7 @@
         <v>335</v>
       </c>
       <c r="E18" s="315" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
@@ -12253,7 +12274,7 @@
       <c r="C19" s="330"/>
       <c r="D19" s="295"/>
       <c r="E19" s="315" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F19" s="315"/>
       <c r="G19" s="351"/>
@@ -12264,7 +12285,7 @@
       <c r="C20" s="330"/>
       <c r="D20" s="295"/>
       <c r="E20" s="315" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
@@ -12275,7 +12296,7 @@
       <c r="C21" s="330"/>
       <c r="D21" s="295"/>
       <c r="E21" s="315" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
@@ -12286,7 +12307,7 @@
       <c r="C22" s="322"/>
       <c r="D22" s="375"/>
       <c r="E22" s="315" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
@@ -12869,6 +12890,10 @@
     <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D9:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12923,10 +12948,10 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="421" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="486"/>
@@ -12934,12 +12959,12 @@
       <c r="J3" s="488"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12947,10 +12972,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="387" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -12970,8 +12995,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="415"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -12989,8 +13014,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="402"/>
-      <c r="C7" s="405"/>
+      <c r="B7" s="414"/>
+      <c r="C7" s="389"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13010,8 +13035,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="402"/>
-      <c r="C8" s="405"/>
+      <c r="B8" s="414"/>
+      <c r="C8" s="389"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13029,8 +13054,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
+      <c r="B9" s="414"/>
+      <c r="C9" s="389"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13048,8 +13073,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="389"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13067,8 +13092,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
+      <c r="B11" s="414"/>
+      <c r="C11" s="389"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13086,8 +13111,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="389"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13105,8 +13130,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="389"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13124,8 +13149,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="389"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13143,8 +13168,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="389"/>
       <c r="D15" s="490" t="s">
         <v>50</v>
       </c>
@@ -13162,8 +13187,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="402"/>
-      <c r="C16" s="406"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="390"/>
       <c r="D16" s="491"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -13173,8 +13198,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="409" t="s">
+      <c r="B17" s="414"/>
+      <c r="C17" s="418" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13194,8 +13219,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="402"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="414"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13213,8 +13238,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="402"/>
+      <c r="B19" s="414"/>
+      <c r="C19" s="414"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13232,8 +13257,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="402"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="414"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13251,8 +13276,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="402"/>
+      <c r="B21" s="414"/>
+      <c r="C21" s="414"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13270,8 +13295,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="402"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="414"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -14000,17 +14025,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -14028,16 +14053,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="421" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="421" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="421" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -14046,83 +14071,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="387" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14173,9 +14198,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="415"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14202,9 +14227,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="413"/>
+      <c r="C7" s="415"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14245,9 +14270,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14272,9 +14297,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="414"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14319,9 +14344,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14346,9 +14371,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="414"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14389,9 +14414,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14418,9 +14443,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="414"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14453,9 +14478,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14482,9 +14507,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="414"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14521,9 +14546,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14550,9 +14575,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="414"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14595,9 +14620,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14624,9 +14649,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="414"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14663,9 +14688,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14692,9 +14717,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="414"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14727,9 +14752,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14756,8 +14781,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="389"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14797,8 +14822,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="389"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14824,8 +14849,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="389"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -14863,9 +14888,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14892,11 +14917,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="414"/>
+      <c r="C27" s="418" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14933,9 +14958,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="413"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -14962,9 +14987,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="414"/>
+      <c r="C29" s="414"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15001,9 +15026,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="414"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15030,9 +15055,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="414"/>
+      <c r="C31" s="414"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15069,9 +15094,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="414"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15098,9 +15123,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="414"/>
+      <c r="C33" s="414"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15137,9 +15162,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="414"/>
+      <c r="C34" s="414"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15166,9 +15191,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="414"/>
+      <c r="C35" s="414"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15205,9 +15230,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="414"/>
+      <c r="C36" s="414"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15234,9 +15259,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="414"/>
+      <c r="C37" s="414"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15273,9 +15298,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="414"/>
+      <c r="C38" s="414"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15302,9 +15327,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="414"/>
+      <c r="C39" s="414"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15335,9 +15360,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="414"/>
+      <c r="C40" s="414"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15364,9 +15389,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
-      <c r="D41" s="503" t="s">
+      <c r="B41" s="414"/>
+      <c r="C41" s="414"/>
+      <c r="D41" s="528" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15399,9 +15424,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="402"/>
-      <c r="C42" s="402"/>
-      <c r="D42" s="504"/>
+      <c r="B42" s="414"/>
+      <c r="C42" s="414"/>
+      <c r="D42" s="529"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15428,13 +15453,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="403" t="s">
+      <c r="B43" s="387" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="420" t="s">
+      <c r="C43" s="391" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="424" t="s">
+      <c r="D43" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15469,9 +15494,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="419"/>
-      <c r="C44" s="421"/>
-      <c r="D44" s="425"/>
+      <c r="B44" s="388"/>
+      <c r="C44" s="392"/>
+      <c r="D44" s="396"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15487,9 +15512,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="405"/>
-      <c r="C45" s="422"/>
-      <c r="D45" s="425"/>
+      <c r="B45" s="389"/>
+      <c r="C45" s="393"/>
+      <c r="D45" s="396"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15505,9 +15530,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="405"/>
-      <c r="C46" s="422"/>
-      <c r="D46" s="426" t="s">
+      <c r="B46" s="389"/>
+      <c r="C46" s="393"/>
+      <c r="D46" s="397" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15522,18 +15547,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="405"/>
-      <c r="C47" s="422"/>
-      <c r="D47" s="426"/>
+      <c r="B47" s="389"/>
+      <c r="C47" s="393"/>
+      <c r="D47" s="397"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="405"/>
-      <c r="C48" s="422"/>
-      <c r="D48" s="426" t="s">
+      <c r="B48" s="389"/>
+      <c r="C48" s="393"/>
+      <c r="D48" s="397" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15548,18 +15573,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="405"/>
-      <c r="C49" s="422"/>
-      <c r="D49" s="426"/>
+      <c r="B49" s="389"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="397"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="405"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="426" t="s">
+      <c r="B50" s="389"/>
+      <c r="C50" s="393"/>
+      <c r="D50" s="397" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15574,9 +15599,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="406"/>
-      <c r="C51" s="423"/>
-      <c r="D51" s="427"/>
+      <c r="B51" s="390"/>
+      <c r="C51" s="394"/>
+      <c r="D51" s="398"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15887,12 +15912,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X3:Z4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:B4"/>
@@ -15909,34 +15956,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X3:Z4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15993,17 +16018,17 @@
       <c r="J2" s="484"/>
       <c r="K2" s="484"/>
       <c r="L2" s="484"/>
-      <c r="M2" s="524"/>
-      <c r="N2" s="524"/>
-      <c r="O2" s="524"/>
-      <c r="P2" s="524"/>
-      <c r="Q2" s="524"/>
-      <c r="R2" s="524"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="524"/>
-      <c r="V2" s="524"/>
-      <c r="W2" s="524"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
+      <c r="O2" s="497"/>
+      <c r="P2" s="497"/>
+      <c r="Q2" s="497"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="497"/>
+      <c r="T2" s="497"/>
+      <c r="U2" s="497"/>
+      <c r="V2" s="497"/>
+      <c r="W2" s="497"/>
       <c r="X2" s="484"/>
       <c r="Y2" s="484"/>
       <c r="Z2" s="485"/>
@@ -16021,16 +16046,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="421" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="421" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="421" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -16039,83 +16064,83 @@
       <c r="K3" s="493" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="499" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="520" t="s">
+      <c r="V3" s="521" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="503" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="521"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="522"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="506"/>
+      <c r="Y4" s="506"/>
+      <c r="Z4" s="507"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="387" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16166,9 +16191,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="415"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16195,9 +16220,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="413"/>
+      <c r="C7" s="415"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16238,9 +16263,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16265,9 +16290,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="495" t="s">
+      <c r="B9" s="414"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="511" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16312,9 +16337,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="496"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="512"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16339,9 +16364,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="495" t="s">
+      <c r="B11" s="414"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="511" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16382,9 +16407,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="496"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="512"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16411,9 +16436,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="501" t="s">
+      <c r="B13" s="414"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16446,9 +16471,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="513"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16475,9 +16500,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="495" t="s">
+      <c r="B15" s="414"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="511" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16514,9 +16539,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="496"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="512"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16543,9 +16568,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="495" t="s">
+      <c r="B17" s="414"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="511" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16588,9 +16613,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="496"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="512"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16617,9 +16642,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="414"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16656,9 +16681,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16685,9 +16710,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="497" t="s">
+      <c r="B21" s="414"/>
+      <c r="C21" s="389"/>
+      <c r="D21" s="523" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16722,9 +16747,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="498"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="524"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16751,8 +16776,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="389"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16792,8 +16817,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="389"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16819,8 +16844,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="389"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -16858,9 +16883,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16887,11 +16912,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="414"/>
+      <c r="C27" s="418" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16928,9 +16953,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="413"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16957,9 +16982,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="414"/>
+      <c r="C29" s="414"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -16996,9 +17021,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="414"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17025,9 +17050,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="414"/>
+      <c r="C31" s="414"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17064,9 +17089,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="414"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17093,9 +17118,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="414"/>
+      <c r="C33" s="414"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17132,9 +17157,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="414"/>
+      <c r="C34" s="414"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17161,9 +17186,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="495" t="s">
+      <c r="B35" s="414"/>
+      <c r="C35" s="414"/>
+      <c r="D35" s="511" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17200,9 +17225,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="496"/>
+      <c r="B36" s="414"/>
+      <c r="C36" s="414"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17229,9 +17254,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="495" t="s">
+      <c r="B37" s="414"/>
+      <c r="C37" s="414"/>
+      <c r="D37" s="511" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17268,9 +17293,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="496"/>
+      <c r="B38" s="414"/>
+      <c r="C38" s="414"/>
+      <c r="D38" s="512"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17297,9 +17322,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="501" t="s">
+      <c r="B39" s="414"/>
+      <c r="C39" s="414"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17330,9 +17355,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="502"/>
+      <c r="B40" s="414"/>
+      <c r="C40" s="414"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17359,8 +17384,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
+      <c r="B41" s="414"/>
+      <c r="C41" s="414"/>
       <c r="D41" s="490" t="s">
         <v>25</v>
       </c>
@@ -17759,24 +17784,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17793,16 +17810,24 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17890,16 +17915,16 @@
       <c r="E3" s="494" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="421" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="421" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="421" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="493" t="s">
@@ -17911,34 +17936,34 @@
       <c r="L3" s="493" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="528" t="s">
+      <c r="M3" s="501" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="522" t="s">
+      <c r="N3" s="495" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="522" t="s">
+      <c r="O3" s="495" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="514" t="s">
+      <c r="Q3" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="518" t="s">
+      <c r="S3" s="519" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="518" t="s">
+      <c r="T3" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="518" t="s">
+      <c r="U3" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="544" t="s">
+      <c r="V3" s="532" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="540" t="s">
@@ -17956,51 +17981,51 @@
       <c r="AA3" s="538" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="542" t="s">
+      <c r="AB3" s="530" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="506"/>
-      <c r="AD3" s="507"/>
+      <c r="AC3" s="504"/>
+      <c r="AD3" s="505"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="525"/>
-      <c r="K4" s="525"/>
-      <c r="L4" s="525"/>
-      <c r="M4" s="529"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523"/>
-      <c r="P4" s="523"/>
-      <c r="Q4" s="515"/>
-      <c r="R4" s="517"/>
-      <c r="S4" s="519"/>
-      <c r="T4" s="519"/>
-      <c r="U4" s="519"/>
-      <c r="V4" s="545"/>
+      <c r="B4" s="420"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="502"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="520"/>
+      <c r="U4" s="520"/>
+      <c r="V4" s="533"/>
       <c r="W4" s="541"/>
       <c r="X4" s="537"/>
       <c r="Y4" s="537"/>
       <c r="Z4" s="537"/>
       <c r="AA4" s="539"/>
-      <c r="AB4" s="543"/>
-      <c r="AC4" s="508"/>
-      <c r="AD4" s="509"/>
+      <c r="AB4" s="531"/>
+      <c r="AC4" s="506"/>
+      <c r="AD4" s="507"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="412" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="387" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="508" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18055,9 +18080,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="415"/>
+      <c r="D6" s="509"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18088,9 +18113,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="413"/>
+      <c r="C7" s="415"/>
+      <c r="D7" s="510" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18131,9 +18156,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="510"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18162,9 +18187,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="533" t="s">
+      <c r="B9" s="414"/>
+      <c r="C9" s="389"/>
+      <c r="D9" s="534" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18215,9 +18240,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="534"/>
+      <c r="B10" s="414"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="535"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18246,9 +18271,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="533" t="s">
+      <c r="B11" s="414"/>
+      <c r="C11" s="389"/>
+      <c r="D11" s="534" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18295,9 +18320,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="534"/>
+      <c r="B12" s="414"/>
+      <c r="C12" s="389"/>
+      <c r="D12" s="535"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18328,9 +18353,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="495" t="s">
+      <c r="B13" s="414"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="511" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18367,9 +18392,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="496"/>
+      <c r="B14" s="414"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="512"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18400,9 +18425,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="533" t="s">
+      <c r="B15" s="414"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="534" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18443,9 +18468,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="534"/>
+      <c r="B16" s="414"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="535"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18476,9 +18501,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="533" t="s">
+      <c r="B17" s="414"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="534" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18527,9 +18552,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="534"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="535"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18560,9 +18585,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="495" t="s">
+      <c r="B19" s="414"/>
+      <c r="C19" s="389"/>
+      <c r="D19" s="511" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18601,9 +18626,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="496"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="389"/>
+      <c r="D20" s="512"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18634,8 +18659,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
+      <c r="B21" s="414"/>
+      <c r="C21" s="389"/>
       <c r="D21" s="490" t="s">
         <v>32</v>
       </c>
@@ -18677,9 +18702,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="532"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="544"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18710,8 +18735,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="389"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18753,8 +18778,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="414"/>
+      <c r="C24" s="389"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18784,8 +18809,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="389"/>
       <c r="D25" s="490" t="s">
         <v>50</v>
       </c>
@@ -18825,9 +18850,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="499"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="525"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18858,11 +18883,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="414"/>
+      <c r="C27" s="418" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="500" t="s">
+      <c r="D27" s="526" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18903,9 +18928,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="496"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="413"/>
+      <c r="D28" s="512"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18936,9 +18961,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="495" t="s">
+      <c r="B29" s="414"/>
+      <c r="C29" s="414"/>
+      <c r="D29" s="511" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18977,9 +19002,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="496"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="414"/>
+      <c r="D30" s="512"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19010,9 +19035,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="495" t="s">
+      <c r="B31" s="414"/>
+      <c r="C31" s="414"/>
+      <c r="D31" s="511" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19051,9 +19076,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="496"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="414"/>
+      <c r="D32" s="512"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19084,9 +19109,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="495" t="s">
+      <c r="B33" s="414"/>
+      <c r="C33" s="414"/>
+      <c r="D33" s="511" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19125,9 +19150,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="496"/>
+      <c r="B34" s="414"/>
+      <c r="C34" s="414"/>
+      <c r="D34" s="512"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19158,9 +19183,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="533" t="s">
+      <c r="B35" s="414"/>
+      <c r="C35" s="414"/>
+      <c r="D35" s="534" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19201,9 +19226,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="534"/>
+      <c r="B36" s="414"/>
+      <c r="C36" s="414"/>
+      <c r="D36" s="535"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19234,9 +19259,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="533" t="s">
+      <c r="B37" s="414"/>
+      <c r="C37" s="414"/>
+      <c r="D37" s="534" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19275,9 +19300,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="534"/>
+      <c r="B38" s="414"/>
+      <c r="C38" s="414"/>
+      <c r="D38" s="535"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19308,9 +19333,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="495" t="s">
+      <c r="B39" s="414"/>
+      <c r="C39" s="414"/>
+      <c r="D39" s="511" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19345,9 +19370,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="535"/>
+      <c r="B40" s="414"/>
+      <c r="C40" s="414"/>
+      <c r="D40" s="545"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19378,9 +19403,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
-      <c r="D41" s="530" t="s">
+      <c r="B41" s="414"/>
+      <c r="C41" s="414"/>
+      <c r="D41" s="542" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19421,7 +19446,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="489"/>
       <c r="C42" s="489"/>
-      <c r="D42" s="531"/>
+      <c r="D42" s="543"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19784,6 +19809,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -19800,39 +19858,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B015EA65-CFB1-47DA-B79F-CAAA11D34AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA2B9F9-9EBF-4A5E-9960-A45741DAA169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,23 +34,10 @@
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="0" hidden="1">'Backlog Funcional'!$6:$6,'Backlog Funcional'!$50:$50,'Backlog Funcional'!$58:$58,'Backlog Funcional'!$65:$65</definedName>
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="4" hidden="1">'Backlog Status Procesos 121121'!$3:$3,'Backlog Status Procesos 121121'!$6:$6,'Backlog Status Procesos 121121'!$16:$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Usuario de Windows - Vista personalizada" guid="{5A3D1950-3803-405C-80C5-3BF9571F0071}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="761" activeSheetId="1"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1909,9 +1896,6 @@
     <t>HU-MID-TRA-005 - Consultar Bandeja de Transacciones Generales</t>
   </si>
   <si>
-    <t>HU-MID-TRA-004 - Registrar bajaTransacciones Generales</t>
-  </si>
-  <si>
     <t>HU-MID-DESC-001- Registrar Transacción Descuento Entidad</t>
   </si>
   <si>
@@ -1934,6 +1918,9 @@
   </si>
   <si>
     <t>HU-MID-ENT-005-Cambio de estado Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-TRA-004 - Cambio de estadoTransacciones Generales</t>
   </si>
 </sst>
 </file>
@@ -5026,18 +5013,105 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5062,91 +5136,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5206,9 +5244,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5236,54 +5271,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5314,6 +5301,15 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5350,6 +5346,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5374,86 +5451,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5465,51 +5497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5958,62 +5945,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="401" t="s">
+      <c r="B2" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
-      <c r="L2" s="402"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="404"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="392"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="410" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="421" t="s">
+      <c r="D3" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="423" t="s">
+      <c r="E3" s="414" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="426" t="s">
+      <c r="G3" s="417" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="410" t="s">
+      <c r="H3" s="398" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="411"/>
-      <c r="J3" s="411"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="405" t="s">
+      <c r="M3" s="393" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="399" t="s">
+      <c r="N3" s="387" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="427"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="418"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -6027,14 +6014,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="406"/>
-      <c r="N4" s="400"/>
+      <c r="M4" s="394"/>
+      <c r="N4" s="388"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6055,8 +6042,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6072,8 +6059,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="414"/>
-      <c r="C7" s="389"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6092,8 +6079,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="414"/>
-      <c r="C8" s="389"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6112,9 +6099,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="407" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="395" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6145,9 +6132,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="408"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="396"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6166,9 +6153,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="408"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="396"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6187,9 +6174,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="408"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="396"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6208,9 +6195,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="408"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="396"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6228,9 +6215,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="408"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="396"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6248,9 +6235,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="408"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="396"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6268,9 +6255,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="408"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="396"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6288,9 +6275,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="408"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="396"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6309,9 +6296,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="408"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="396"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6330,9 +6317,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="408"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="396"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6349,9 +6336,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="408"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="396"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6368,9 +6355,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="408"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="396"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6387,9 +6374,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="408"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="396"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6406,9 +6393,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
-      <c r="D23" s="408"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
+      <c r="D23" s="396"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6425,9 +6412,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
-      <c r="D24" s="408"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="396"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6444,9 +6431,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="408"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="396"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6460,9 +6447,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="414"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="408"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="396"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6476,9 +6463,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="389"/>
-      <c r="D27" s="408"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="396"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6492,9 +6479,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="389"/>
-      <c r="D28" s="408"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="405"/>
+      <c r="D28" s="396"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6508,9 +6495,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="389"/>
-      <c r="D29" s="408"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="396"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6524,9 +6511,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="389"/>
-      <c r="D30" s="408"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="396"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6540,9 +6527,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="389"/>
-      <c r="D31" s="408"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6556,9 +6543,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="389"/>
-      <c r="D32" s="408"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6572,9 +6559,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="389"/>
-      <c r="D33" s="408"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6588,9 +6575,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="389"/>
-      <c r="D34" s="408"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6604,9 +6591,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="389"/>
-      <c r="D35" s="408"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="405"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6620,9 +6607,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="389"/>
-      <c r="D36" s="408"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6636,9 +6623,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="389"/>
-      <c r="D37" s="408"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6652,9 +6639,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="389"/>
-      <c r="D38" s="408"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6668,9 +6655,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="389"/>
-      <c r="D39" s="408"/>
+      <c r="B39" s="402"/>
+      <c r="C39" s="405"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6684,9 +6671,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="389"/>
-      <c r="D40" s="408"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6700,9 +6687,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="389"/>
-      <c r="D41" s="408"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="405"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6716,9 +6703,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="414"/>
-      <c r="C42" s="389"/>
-      <c r="D42" s="408"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="405"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6732,9 +6719,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="414"/>
-      <c r="C43" s="389"/>
-      <c r="D43" s="409"/>
+      <c r="B43" s="402"/>
+      <c r="C43" s="405"/>
+      <c r="D43" s="397"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6747,8 +6734,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="414"/>
-      <c r="C44" s="389"/>
+      <c r="B44" s="402"/>
+      <c r="C44" s="405"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6770,8 +6757,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="414"/>
-      <c r="C45" s="389"/>
+      <c r="B45" s="402"/>
+      <c r="C45" s="405"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6790,8 +6777,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="414"/>
-      <c r="C46" s="389"/>
+      <c r="B46" s="402"/>
+      <c r="C46" s="405"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6813,8 +6800,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="414"/>
-      <c r="C47" s="389"/>
+      <c r="B47" s="402"/>
+      <c r="C47" s="405"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6837,8 +6824,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="414"/>
-      <c r="C48" s="389"/>
+      <c r="B48" s="402"/>
+      <c r="C48" s="405"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6860,9 +6847,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="414"/>
-      <c r="C49" s="389"/>
-      <c r="D49" s="416" t="s">
+      <c r="B49" s="402"/>
+      <c r="C49" s="405"/>
+      <c r="D49" s="407" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6883,9 +6870,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="414"/>
-      <c r="C50" s="390"/>
-      <c r="D50" s="417"/>
+      <c r="B50" s="402"/>
+      <c r="C50" s="406"/>
+      <c r="D50" s="408"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6896,8 +6883,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="414"/>
-      <c r="C51" s="418" t="s">
+      <c r="B51" s="402"/>
+      <c r="C51" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6918,8 +6905,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="414"/>
-      <c r="C52" s="414"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="402"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6941,8 +6928,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="414"/>
-      <c r="C53" s="414"/>
+      <c r="B53" s="402"/>
+      <c r="C53" s="402"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6964,8 +6951,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="414"/>
-      <c r="C54" s="414"/>
+      <c r="B54" s="402"/>
+      <c r="C54" s="402"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6984,8 +6971,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="414"/>
-      <c r="C55" s="414"/>
+      <c r="B55" s="402"/>
+      <c r="C55" s="402"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -7007,8 +6994,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="414"/>
-      <c r="C56" s="414"/>
+      <c r="B56" s="402"/>
+      <c r="C56" s="402"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -7030,8 +7017,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="414"/>
-      <c r="C57" s="414"/>
+      <c r="B57" s="402"/>
+      <c r="C57" s="402"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7057,8 +7044,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="414"/>
-      <c r="C58" s="414"/>
+      <c r="B58" s="402"/>
+      <c r="C58" s="402"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7072,13 +7059,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="387" t="s">
+      <c r="B59" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="391" t="s">
+      <c r="C59" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="395" t="s">
+      <c r="D59" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7098,9 +7085,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="388"/>
-      <c r="C60" s="392"/>
-      <c r="D60" s="396"/>
+      <c r="B60" s="419"/>
+      <c r="C60" s="421"/>
+      <c r="D60" s="425"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7117,9 +7104,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="389"/>
-      <c r="C61" s="393"/>
-      <c r="D61" s="396"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="422"/>
+      <c r="D61" s="425"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7137,8 +7124,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="389"/>
-      <c r="C62" s="393"/>
+      <c r="B62" s="405"/>
+      <c r="C62" s="422"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7165,9 +7152,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="389"/>
-      <c r="C63" s="393"/>
-      <c r="D63" s="397" t="s">
+      <c r="B63" s="405"/>
+      <c r="C63" s="422"/>
+      <c r="D63" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7198,9 +7185,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="389"/>
-      <c r="C64" s="393"/>
-      <c r="D64" s="397"/>
+      <c r="B64" s="405"/>
+      <c r="C64" s="422"/>
+      <c r="D64" s="426"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7227,9 +7214,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="389"/>
-      <c r="C65" s="393"/>
-      <c r="D65" s="397"/>
+      <c r="B65" s="405"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="426"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7242,9 +7229,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="389"/>
-      <c r="C66" s="393"/>
-      <c r="D66" s="397" t="s">
+      <c r="B66" s="405"/>
+      <c r="C66" s="422"/>
+      <c r="D66" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7266,9 +7253,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="390"/>
-      <c r="C67" s="394"/>
-      <c r="D67" s="398"/>
+      <c r="B67" s="406"/>
+      <c r="C67" s="423"/>
+      <c r="D67" s="427"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7965,6 +7952,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7980,11 +7972,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8026,66 +8013,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="459" t="s">
+      <c r="B2" s="431" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
-      <c r="L2" s="460"/>
-      <c r="M2" s="460"/>
-      <c r="N2" s="460"/>
-      <c r="O2" s="460"/>
-      <c r="P2" s="461"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="432"/>
+      <c r="K2" s="432"/>
+      <c r="L2" s="432"/>
+      <c r="M2" s="432"/>
+      <c r="N2" s="432"/>
+      <c r="O2" s="432"/>
+      <c r="P2" s="433"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="462" t="s">
+      <c r="B3" s="434" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="464" t="s">
+      <c r="C3" s="436" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="464" t="s">
+      <c r="D3" s="436" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="467" t="s">
+      <c r="E3" s="439" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="464" t="s">
+      <c r="F3" s="436" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="464" t="s">
+      <c r="G3" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="464" t="s">
+      <c r="H3" s="436" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="464" t="s">
+      <c r="I3" s="436" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="469"/>
-      <c r="K3" s="469"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="441"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="464" t="s">
+      <c r="M3" s="436" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="464" t="s">
+      <c r="N3" s="436" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="464" t="s">
+      <c r="O3" s="436" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="471" t="s">
+      <c r="P3" s="443" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8094,13 +8081,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="463"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
+      <c r="H4" s="437"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8113,10 +8100,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="465"/>
-      <c r="N4" s="465"/>
-      <c r="O4" s="470"/>
-      <c r="P4" s="472"/>
+      <c r="M4" s="437"/>
+      <c r="N4" s="437"/>
+      <c r="O4" s="442"/>
+      <c r="P4" s="444"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8219,14 +8206,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="438" t="s">
+      <c r="B9" s="455" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="441" t="s">
+      <c r="C9" s="458" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="460" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8257,10 +8244,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="439"/>
-      <c r="C10" s="442"/>
+      <c r="B10" s="456"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="444"/>
+      <c r="E10" s="461"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8282,10 +8269,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="439"/>
-      <c r="C11" s="442"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="459"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="444"/>
+      <c r="E11" s="461"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8307,10 +8294,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="439"/>
-      <c r="C12" s="442"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="459"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="444"/>
+      <c r="E12" s="461"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8332,10 +8319,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="439"/>
-      <c r="C13" s="442"/>
+      <c r="B13" s="456"/>
+      <c r="C13" s="459"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="445" t="s">
+      <c r="E13" s="462" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8358,10 +8345,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="439"/>
-      <c r="C14" s="442"/>
+      <c r="B14" s="456"/>
+      <c r="C14" s="459"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="445"/>
+      <c r="E14" s="462"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8382,10 +8369,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="439"/>
-      <c r="C15" s="442"/>
+      <c r="B15" s="456"/>
+      <c r="C15" s="459"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="445"/>
+      <c r="E15" s="462"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8407,10 +8394,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="439"/>
-      <c r="C16" s="442"/>
+      <c r="B16" s="456"/>
+      <c r="C16" s="459"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="445"/>
+      <c r="E16" s="462"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8432,10 +8419,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="439"/>
-      <c r="C17" s="442"/>
+      <c r="B17" s="456"/>
+      <c r="C17" s="459"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="445"/>
+      <c r="E17" s="462"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8457,10 +8444,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="439"/>
-      <c r="C18" s="442"/>
+      <c r="B18" s="456"/>
+      <c r="C18" s="459"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="445"/>
+      <c r="E18" s="462"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8482,10 +8469,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="439"/>
-      <c r="C19" s="442"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="459"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="445"/>
+      <c r="E19" s="462"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8506,10 +8493,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="439"/>
-      <c r="C20" s="442"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="459"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="445"/>
+      <c r="E20" s="462"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8530,10 +8517,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="439"/>
-      <c r="C21" s="442"/>
+      <c r="B21" s="456"/>
+      <c r="C21" s="459"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="444" t="s">
+      <c r="E21" s="461" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8557,10 +8544,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="439"/>
-      <c r="C22" s="442"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="459"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="444"/>
+      <c r="E22" s="461"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8582,10 +8569,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="439"/>
-      <c r="C23" s="442"/>
+      <c r="B23" s="456"/>
+      <c r="C23" s="459"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="444"/>
+      <c r="E23" s="461"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8607,10 +8594,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="439"/>
-      <c r="C24" s="431"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="448"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="444"/>
+      <c r="E24" s="461"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8632,10 +8619,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="439"/>
-      <c r="C25" s="431"/>
+      <c r="B25" s="456"/>
+      <c r="C25" s="448"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="446" t="s">
+      <c r="E25" s="463" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8659,10 +8646,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="439"/>
-      <c r="C26" s="431"/>
+      <c r="B26" s="456"/>
+      <c r="C26" s="448"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="446"/>
+      <c r="E26" s="463"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8684,10 +8671,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="439"/>
-      <c r="C27" s="431"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="448"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="446"/>
+      <c r="E27" s="463"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8709,10 +8696,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="439"/>
-      <c r="C28" s="431"/>
+      <c r="B28" s="456"/>
+      <c r="C28" s="448"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="446"/>
+      <c r="E28" s="463"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8734,10 +8721,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="439"/>
-      <c r="C29" s="431"/>
+      <c r="B29" s="456"/>
+      <c r="C29" s="448"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="444" t="s">
+      <c r="E29" s="461" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8761,10 +8748,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="439"/>
-      <c r="C30" s="431"/>
+      <c r="B30" s="456"/>
+      <c r="C30" s="448"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="444"/>
+      <c r="E30" s="461"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8786,10 +8773,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="439"/>
-      <c r="C31" s="431"/>
+      <c r="B31" s="456"/>
+      <c r="C31" s="448"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="444"/>
+      <c r="E31" s="461"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8811,10 +8798,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="439"/>
-      <c r="C32" s="431"/>
+      <c r="B32" s="456"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="444"/>
+      <c r="E32" s="461"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8836,10 +8823,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="439"/>
-      <c r="C33" s="431"/>
+      <c r="B33" s="456"/>
+      <c r="C33" s="448"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="445"/>
+      <c r="E33" s="462"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8855,10 +8842,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="439"/>
-      <c r="C34" s="431"/>
+      <c r="B34" s="456"/>
+      <c r="C34" s="448"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="445"/>
+      <c r="E34" s="462"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8874,10 +8861,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="439"/>
-      <c r="C35" s="431"/>
+      <c r="B35" s="456"/>
+      <c r="C35" s="448"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="445"/>
+      <c r="E35" s="462"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8893,10 +8880,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="439"/>
-      <c r="C36" s="431"/>
+      <c r="B36" s="456"/>
+      <c r="C36" s="448"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="447"/>
+      <c r="E36" s="428"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8912,7 +8899,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="439"/>
+      <c r="B37" s="456"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8931,12 +8918,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="439"/>
-      <c r="C38" s="448" t="s">
+      <c r="B38" s="456"/>
+      <c r="C38" s="464" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="451" t="s">
+      <c r="E38" s="467" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8960,10 +8947,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="439"/>
-      <c r="C39" s="449"/>
+      <c r="B39" s="456"/>
+      <c r="C39" s="465"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="452"/>
+      <c r="E39" s="468"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8985,10 +8972,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="439"/>
-      <c r="C40" s="449"/>
+      <c r="B40" s="456"/>
+      <c r="C40" s="465"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="452"/>
+      <c r="E40" s="468"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -9010,10 +8997,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="439"/>
-      <c r="C41" s="449"/>
+      <c r="B41" s="456"/>
+      <c r="C41" s="465"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="453"/>
+      <c r="E41" s="469"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9035,8 +9022,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="439"/>
-      <c r="C42" s="449"/>
+      <c r="B42" s="456"/>
+      <c r="C42" s="465"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9054,8 +9041,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="439"/>
-      <c r="C43" s="449"/>
+      <c r="B43" s="456"/>
+      <c r="C43" s="465"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9072,8 +9059,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="439"/>
-      <c r="C44" s="449"/>
+      <c r="B44" s="456"/>
+      <c r="C44" s="465"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9090,8 +9077,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="439"/>
-      <c r="C45" s="449"/>
+      <c r="B45" s="456"/>
+      <c r="C45" s="465"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9108,8 +9095,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="439"/>
-      <c r="C46" s="450"/>
+      <c r="B46" s="456"/>
+      <c r="C46" s="466"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9126,12 +9113,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="439"/>
-      <c r="C47" s="448" t="s">
+      <c r="B47" s="456"/>
+      <c r="C47" s="464" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="455" t="s">
+      <c r="E47" s="471" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9154,10 +9141,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="439"/>
-      <c r="C48" s="449"/>
+      <c r="B48" s="456"/>
+      <c r="C48" s="465"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="456"/>
+      <c r="E48" s="472"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9178,10 +9165,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="439"/>
-      <c r="C49" s="449"/>
+      <c r="B49" s="456"/>
+      <c r="C49" s="465"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="456"/>
+      <c r="E49" s="472"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9202,10 +9189,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="439"/>
-      <c r="C50" s="449"/>
+      <c r="B50" s="456"/>
+      <c r="C50" s="465"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="456"/>
+      <c r="E50" s="472"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9226,10 +9213,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="439"/>
-      <c r="C51" s="449"/>
+      <c r="B51" s="456"/>
+      <c r="C51" s="465"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="456"/>
+      <c r="E51" s="472"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9250,10 +9237,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="439"/>
-      <c r="C52" s="449"/>
+      <c r="B52" s="456"/>
+      <c r="C52" s="465"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="456"/>
+      <c r="E52" s="472"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9274,10 +9261,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="439"/>
-      <c r="C53" s="449"/>
+      <c r="B53" s="456"/>
+      <c r="C53" s="465"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="456"/>
+      <c r="E53" s="472"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9298,10 +9285,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="439"/>
-      <c r="C54" s="449"/>
+      <c r="B54" s="456"/>
+      <c r="C54" s="465"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="456"/>
+      <c r="E54" s="472"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9322,10 +9309,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="439"/>
-      <c r="C55" s="449"/>
+      <c r="B55" s="456"/>
+      <c r="C55" s="465"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="456"/>
+      <c r="E55" s="472"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9346,10 +9333,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="439"/>
-      <c r="C56" s="449"/>
+      <c r="B56" s="456"/>
+      <c r="C56" s="465"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="456"/>
+      <c r="E56" s="472"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9370,10 +9357,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="439"/>
-      <c r="C57" s="449"/>
+      <c r="B57" s="456"/>
+      <c r="C57" s="465"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="456"/>
+      <c r="E57" s="472"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9394,10 +9381,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="439"/>
-      <c r="C58" s="449"/>
+      <c r="B58" s="456"/>
+      <c r="C58" s="465"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="456"/>
+      <c r="E58" s="472"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9418,10 +9405,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="439"/>
-      <c r="C59" s="449"/>
+      <c r="B59" s="456"/>
+      <c r="C59" s="465"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="447" t="s">
+      <c r="E59" s="428" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9444,10 +9431,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="439"/>
-      <c r="C60" s="449"/>
+      <c r="B60" s="456"/>
+      <c r="C60" s="465"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="457"/>
+      <c r="E60" s="429"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9468,10 +9455,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="439"/>
-      <c r="C61" s="449"/>
+      <c r="B61" s="456"/>
+      <c r="C61" s="465"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="457"/>
+      <c r="E61" s="429"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9492,10 +9479,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="439"/>
-      <c r="C62" s="449"/>
+      <c r="B62" s="456"/>
+      <c r="C62" s="465"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="457"/>
+      <c r="E62" s="429"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9516,10 +9503,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="439"/>
-      <c r="C63" s="449"/>
+      <c r="B63" s="456"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="457"/>
+      <c r="E63" s="429"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9540,10 +9527,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="439"/>
-      <c r="C64" s="449"/>
+      <c r="B64" s="456"/>
+      <c r="C64" s="465"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="457"/>
+      <c r="E64" s="429"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9564,10 +9551,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="439"/>
-      <c r="C65" s="449"/>
+      <c r="B65" s="456"/>
+      <c r="C65" s="465"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="457"/>
+      <c r="E65" s="429"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9588,10 +9575,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="439"/>
-      <c r="C66" s="449"/>
+      <c r="B66" s="456"/>
+      <c r="C66" s="465"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="457"/>
+      <c r="E66" s="429"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9612,10 +9599,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="439"/>
-      <c r="C67" s="449"/>
+      <c r="B67" s="456"/>
+      <c r="C67" s="465"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="457"/>
+      <c r="E67" s="429"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9636,10 +9623,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="439"/>
-      <c r="C68" s="449"/>
+      <c r="B68" s="456"/>
+      <c r="C68" s="465"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="457"/>
+      <c r="E68" s="429"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9660,10 +9647,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="439"/>
-      <c r="C69" s="449"/>
+      <c r="B69" s="456"/>
+      <c r="C69" s="465"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="457"/>
+      <c r="E69" s="429"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9684,10 +9671,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="439"/>
-      <c r="C70" s="449"/>
+      <c r="B70" s="456"/>
+      <c r="C70" s="465"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="457"/>
+      <c r="E70" s="429"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9708,10 +9695,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="439"/>
-      <c r="C71" s="449"/>
+      <c r="B71" s="456"/>
+      <c r="C71" s="465"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="457"/>
+      <c r="E71" s="429"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9732,10 +9719,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="439"/>
-      <c r="C72" s="449"/>
+      <c r="B72" s="456"/>
+      <c r="C72" s="465"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="457"/>
+      <c r="E72" s="429"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9756,10 +9743,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="439"/>
-      <c r="C73" s="449"/>
+      <c r="B73" s="456"/>
+      <c r="C73" s="465"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="457"/>
+      <c r="E73" s="429"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9780,10 +9767,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="439"/>
-      <c r="C74" s="454"/>
+      <c r="B74" s="456"/>
+      <c r="C74" s="470"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="457"/>
+      <c r="E74" s="429"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9804,10 +9791,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="439"/>
+      <c r="B75" s="456"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="457"/>
+      <c r="E75" s="429"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9828,10 +9815,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="439"/>
+      <c r="B76" s="456"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="457"/>
+      <c r="E76" s="429"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9852,10 +9839,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="439"/>
+      <c r="B77" s="456"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="457"/>
+      <c r="E77" s="429"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9876,10 +9863,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="439"/>
+      <c r="B78" s="456"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="457"/>
+      <c r="E78" s="429"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9900,10 +9887,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="439"/>
+      <c r="B79" s="456"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="457"/>
+      <c r="E79" s="429"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9924,10 +9911,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="439"/>
+      <c r="B80" s="456"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="457"/>
+      <c r="E80" s="429"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9948,10 +9935,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="439"/>
+      <c r="B81" s="456"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="457"/>
+      <c r="E81" s="429"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9972,10 +9959,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="439"/>
+      <c r="B82" s="456"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="457"/>
+      <c r="E82" s="429"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9996,10 +9983,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="439"/>
+      <c r="B83" s="456"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="457"/>
+      <c r="E83" s="429"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -10020,10 +10007,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="439"/>
+      <c r="B84" s="456"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="457"/>
+      <c r="E84" s="429"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10044,10 +10031,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="439"/>
+      <c r="B85" s="456"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="457"/>
+      <c r="E85" s="429"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10068,10 +10055,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="439"/>
+      <c r="B86" s="456"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="458"/>
+      <c r="E86" s="430"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10092,10 +10079,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="439"/>
+      <c r="B87" s="456"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="457" t="s">
+      <c r="E87" s="429" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10118,10 +10105,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="439"/>
+      <c r="B88" s="456"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="457"/>
+      <c r="E88" s="429"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10142,10 +10129,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="439"/>
+      <c r="B89" s="456"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="457"/>
+      <c r="E89" s="429"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10166,10 +10153,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="439"/>
+      <c r="B90" s="456"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="457"/>
+      <c r="E90" s="429"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10190,7 +10177,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="439"/>
+      <c r="B91" s="456"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10208,7 +10195,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="440"/>
+      <c r="B92" s="457"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10226,14 +10213,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="428" t="s">
+      <c r="B93" s="445" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="430" t="s">
+      <c r="C93" s="447" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="432" t="s">
+      <c r="E93" s="449" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10254,10 +10241,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="429"/>
-      <c r="C94" s="431"/>
+      <c r="B94" s="446"/>
+      <c r="C94" s="448"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="433"/>
+      <c r="E94" s="450"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10274,10 +10261,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="429"/>
-      <c r="C95" s="431"/>
+      <c r="B95" s="446"/>
+      <c r="C95" s="448"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="433"/>
+      <c r="E95" s="450"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10294,10 +10281,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="429"/>
-      <c r="C96" s="431"/>
+      <c r="B96" s="446"/>
+      <c r="C96" s="448"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="434"/>
+      <c r="E96" s="451"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10314,8 +10301,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="429"/>
-      <c r="C97" s="431"/>
+      <c r="B97" s="446"/>
+      <c r="C97" s="448"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10332,8 +10319,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="429"/>
-      <c r="C98" s="431"/>
+      <c r="B98" s="446"/>
+      <c r="C98" s="448"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10350,8 +10337,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="429"/>
-      <c r="C99" s="431"/>
+      <c r="B99" s="446"/>
+      <c r="C99" s="448"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10368,7 +10355,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="429"/>
+      <c r="B100" s="446"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10386,7 +10373,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="429"/>
+      <c r="B101" s="446"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10404,7 +10391,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="429"/>
+      <c r="B102" s="446"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10422,7 +10409,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="429"/>
+      <c r="B103" s="446"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10440,7 +10427,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="429"/>
+      <c r="B104" s="446"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10459,7 +10446,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="435" t="s">
+      <c r="C105" s="452" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10479,7 +10466,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="436"/>
+      <c r="C106" s="453"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10497,7 +10484,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="436"/>
+      <c r="C107" s="453"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10515,7 +10502,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="436"/>
+      <c r="C108" s="453"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10533,7 +10520,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="436"/>
+      <c r="C109" s="453"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10551,7 +10538,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="436"/>
+      <c r="C110" s="453"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10569,7 +10556,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="436"/>
+      <c r="C111" s="453"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10587,7 +10574,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="436"/>
+      <c r="C112" s="453"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10605,7 +10592,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="436"/>
+      <c r="C113" s="453"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10623,7 +10610,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="436"/>
+      <c r="C114" s="453"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10641,7 +10628,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="436"/>
+      <c r="C115" s="453"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10659,7 +10646,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="437"/>
+      <c r="C116" s="454"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11044,21 +11031,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11075,6 +11047,21 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -12041,7 +12028,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12136,7 +12123,7 @@
       <c r="C7" s="322"/>
       <c r="D7" s="383"/>
       <c r="E7" s="357" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
@@ -12147,7 +12134,7 @@
       <c r="C8" s="322"/>
       <c r="D8" s="384"/>
       <c r="E8" s="315" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
@@ -12156,7 +12143,7 @@
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="377"/>
       <c r="C9" s="358"/>
-      <c r="D9" s="546" t="s">
+      <c r="D9" s="483" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="315" t="s">
@@ -12169,7 +12156,7 @@
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="377"/>
       <c r="C10" s="358"/>
-      <c r="D10" s="547"/>
+      <c r="D10" s="484"/>
       <c r="E10" s="315" t="s">
         <v>353</v>
       </c>
@@ -12180,7 +12167,7 @@
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="377"/>
       <c r="C11" s="358"/>
-      <c r="D11" s="547"/>
+      <c r="D11" s="484"/>
       <c r="E11" s="315" t="s">
         <v>352</v>
       </c>
@@ -12191,7 +12178,7 @@
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="377"/>
       <c r="C12" s="358"/>
-      <c r="D12" s="548"/>
+      <c r="D12" s="485"/>
       <c r="E12" s="315" t="s">
         <v>355</v>
       </c>
@@ -12202,8 +12189,8 @@
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="377"/>
       <c r="C13" s="358"/>
-      <c r="D13" s="546" t="s">
-        <v>367</v>
+      <c r="D13" s="483" t="s">
+        <v>366</v>
       </c>
       <c r="E13" s="315" t="s">
         <v>357</v>
@@ -12215,7 +12202,7 @@
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="377"/>
       <c r="C14" s="358"/>
-      <c r="D14" s="547"/>
+      <c r="D14" s="484"/>
       <c r="E14" s="315" t="s">
         <v>358</v>
       </c>
@@ -12226,7 +12213,7 @@
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="377"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="547"/>
+      <c r="D15" s="484"/>
       <c r="E15" s="315" t="s">
         <v>359</v>
       </c>
@@ -12237,9 +12224,9 @@
     <row r="16" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="377"/>
       <c r="C16" s="355"/>
-      <c r="D16" s="547"/>
+      <c r="D16" s="484"/>
       <c r="E16" s="315" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="359"/>
@@ -12248,7 +12235,7 @@
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="377"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="548"/>
+      <c r="D17" s="485"/>
       <c r="E17" s="315" t="s">
         <v>360</v>
       </c>
@@ -12263,7 +12250,7 @@
         <v>335</v>
       </c>
       <c r="E18" s="315" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
@@ -12274,7 +12261,7 @@
       <c r="C19" s="330"/>
       <c r="D19" s="295"/>
       <c r="E19" s="315" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F19" s="315"/>
       <c r="G19" s="351"/>
@@ -12285,7 +12272,7 @@
       <c r="C20" s="330"/>
       <c r="D20" s="295"/>
       <c r="E20" s="315" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
@@ -12296,7 +12283,7 @@
       <c r="C21" s="330"/>
       <c r="D21" s="295"/>
       <c r="E21" s="315" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
@@ -12307,7 +12294,7 @@
       <c r="C22" s="322"/>
       <c r="D22" s="375"/>
       <c r="E22" s="315" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
@@ -12923,48 +12910,48 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="62.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="488"/>
     </row>
     <row r="3" spans="2:10" ht="4.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="486"/>
-      <c r="I3" s="487"/>
-      <c r="J3" s="488"/>
+      <c r="H3" s="489"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="491"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12972,10 +12959,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -12995,8 +12982,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -13014,8 +13001,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="414"/>
-      <c r="C7" s="389"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13035,8 +13022,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="414"/>
-      <c r="C8" s="389"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13054,8 +13041,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13073,8 +13060,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13092,8 +13079,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13111,8 +13098,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13130,8 +13117,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13149,8 +13136,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13168,9 +13155,9 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="490" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="22">
@@ -13187,9 +13174,9 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="414"/>
-      <c r="C16" s="390"/>
-      <c r="D16" s="491"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="406"/>
+      <c r="D16" s="494"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
       <c r="G16" s="113"/>
@@ -13198,8 +13185,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="418" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="409" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13219,8 +13206,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="414"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="402"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13238,8 +13225,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="414"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13257,8 +13244,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="414"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="402"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13276,8 +13263,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="414"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13295,8 +13282,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="414"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -13314,8 +13301,8 @@
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="489"/>
-      <c r="C23" s="489"/>
+      <c r="B23" s="492"/>
+      <c r="C23" s="492"/>
       <c r="D23" s="143" t="s">
         <v>137</v>
       </c>
@@ -14012,142 +13999,142 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="488"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14198,9 +14185,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14227,9 +14214,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14270,9 +14257,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14297,9 +14284,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="511" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14344,9 +14331,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="512"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14371,9 +14358,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="511" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14414,9 +14401,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="512"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14443,9 +14430,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="513" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14478,9 +14465,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="514"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14507,9 +14494,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="511" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14546,9 +14533,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="512"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14575,9 +14562,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="511" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14620,9 +14607,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="512"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14649,9 +14636,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14688,9 +14675,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14717,9 +14704,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="523" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14752,9 +14739,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="524"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14781,8 +14768,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14822,8 +14809,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14849,9 +14836,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -14888,9 +14875,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14917,11 +14904,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14958,9 +14945,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -14987,9 +14974,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15026,9 +15013,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15055,9 +15042,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15094,9 +15081,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15123,9 +15110,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15162,9 +15149,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15191,9 +15178,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="511" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15230,9 +15217,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="512"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15259,9 +15246,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="511" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15298,9 +15285,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="512"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15327,9 +15314,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="513" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15360,9 +15347,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="527"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15389,9 +15376,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="528" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="506" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15424,9 +15411,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="414"/>
-      <c r="C42" s="414"/>
-      <c r="D42" s="529"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="402"/>
+      <c r="D42" s="507"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15453,13 +15440,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="387" t="s">
+      <c r="B43" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="391" t="s">
+      <c r="C43" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="395" t="s">
+      <c r="D43" s="424" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15494,9 +15481,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="388"/>
-      <c r="C44" s="392"/>
-      <c r="D44" s="396"/>
+      <c r="B44" s="419"/>
+      <c r="C44" s="421"/>
+      <c r="D44" s="425"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15512,9 +15499,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="389"/>
-      <c r="C45" s="393"/>
-      <c r="D45" s="396"/>
+      <c r="B45" s="405"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="425"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15530,9 +15517,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="389"/>
-      <c r="C46" s="393"/>
-      <c r="D46" s="397" t="s">
+      <c r="B46" s="405"/>
+      <c r="C46" s="422"/>
+      <c r="D46" s="426" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15547,18 +15534,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="389"/>
-      <c r="C47" s="393"/>
-      <c r="D47" s="397"/>
+      <c r="B47" s="405"/>
+      <c r="C47" s="422"/>
+      <c r="D47" s="426"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="389"/>
-      <c r="C48" s="393"/>
-      <c r="D48" s="397" t="s">
+      <c r="B48" s="405"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="426" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15573,18 +15560,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="389"/>
-      <c r="C49" s="393"/>
-      <c r="D49" s="397"/>
+      <c r="B49" s="405"/>
+      <c r="C49" s="422"/>
+      <c r="D49" s="426"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="389"/>
-      <c r="C50" s="393"/>
-      <c r="D50" s="397" t="s">
+      <c r="B50" s="405"/>
+      <c r="C50" s="422"/>
+      <c r="D50" s="426" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15599,9 +15586,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="390"/>
-      <c r="C51" s="394"/>
-      <c r="D51" s="398"/>
+      <c r="B51" s="406"/>
+      <c r="C51" s="423"/>
+      <c r="D51" s="427"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15912,18 +15899,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="X3:Z4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
@@ -15940,28 +15937,18 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -16005,142 +15992,142 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
-      <c r="O2" s="497"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
-      <c r="R2" s="497"/>
-      <c r="S2" s="497"/>
-      <c r="T2" s="497"/>
-      <c r="U2" s="497"/>
-      <c r="V2" s="497"/>
-      <c r="W2" s="497"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="527"/>
+      <c r="N2" s="527"/>
+      <c r="O2" s="527"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
+      <c r="R2" s="527"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="527"/>
+      <c r="V2" s="527"/>
+      <c r="W2" s="527"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="488"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="499" t="s">
+      <c r="L3" s="529" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="521" t="s">
+      <c r="V3" s="523" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="503" t="s">
+      <c r="X3" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
+      <c r="Y3" s="509"/>
+      <c r="Z3" s="510"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="522"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="524"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="506"/>
-      <c r="Y4" s="506"/>
-      <c r="Z4" s="507"/>
+      <c r="X4" s="511"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="512"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16191,9 +16178,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16220,9 +16207,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16263,9 +16250,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16290,9 +16277,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="511" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="498" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16337,9 +16324,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="512"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="499"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16364,9 +16351,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="511" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="498" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16407,9 +16394,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="512"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="499"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16436,9 +16423,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="513" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="504" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16471,9 +16458,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="514"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16500,9 +16487,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="511" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="498" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16539,9 +16526,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="512"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="499"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16568,9 +16555,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="511" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="498" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16613,9 +16600,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="512"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="499"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16642,9 +16629,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16681,9 +16668,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16710,9 +16697,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="523" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="500" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16747,9 +16734,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="524"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="501"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16776,8 +16763,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16817,8 +16804,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16844,9 +16831,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -16883,9 +16870,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16912,11 +16899,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16953,9 +16940,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16982,9 +16969,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -17021,9 +17008,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17050,9 +17037,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17089,9 +17076,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17118,9 +17105,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17157,9 +17144,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17186,9 +17173,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="511" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="498" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17225,9 +17212,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="512"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17254,9 +17241,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="511" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="498" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17293,9 +17280,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="512"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17322,9 +17309,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="513" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="504" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17355,9 +17342,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="527"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="505"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17384,9 +17371,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="490" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="493" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -17421,9 +17408,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="489"/>
-      <c r="C42" s="489"/>
-      <c r="D42" s="491"/>
+      <c r="B42" s="492"/>
+      <c r="C42" s="492"/>
+      <c r="D42" s="494"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -17784,16 +17771,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17810,24 +17805,16 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17870,162 +17857,162 @@
   <sheetData>
     <row r="1" spans="2:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="484"/>
-      <c r="O2" s="484"/>
-      <c r="P2" s="484"/>
-      <c r="Q2" s="484"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="484"/>
-      <c r="T2" s="484"/>
-      <c r="U2" s="484"/>
-      <c r="V2" s="484"/>
-      <c r="W2" s="484"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="484"/>
-      <c r="AA2" s="484"/>
-      <c r="AB2" s="484"/>
-      <c r="AC2" s="484"/>
-      <c r="AD2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="487"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="487"/>
+      <c r="P2" s="487"/>
+      <c r="Q2" s="487"/>
+      <c r="R2" s="487"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="487"/>
+      <c r="U2" s="487"/>
+      <c r="V2" s="487"/>
+      <c r="W2" s="487"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="487"/>
+      <c r="AA2" s="487"/>
+      <c r="AB2" s="487"/>
+      <c r="AC2" s="487"/>
+      <c r="AD2" s="488"/>
     </row>
     <row r="3" spans="2:30" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="492" t="s">
+      <c r="B3" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="493" t="s">
+      <c r="C3" s="496" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="493" t="s">
+      <c r="D3" s="496" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="494" t="s">
+      <c r="E3" s="497" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="421" t="s">
+      <c r="F3" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="421" t="s">
+      <c r="G3" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="412" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="493" t="s">
+      <c r="J3" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="496" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="493" t="s">
+      <c r="L3" s="496" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="501" t="s">
+      <c r="M3" s="531" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="495" t="s">
+      <c r="N3" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="495" t="s">
+      <c r="P3" s="525" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="517" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="519" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="519" t="s">
+      <c r="S3" s="521" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="519" t="s">
+      <c r="T3" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="519" t="s">
+      <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="532" t="s">
+      <c r="V3" s="547" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="540" t="s">
+      <c r="W3" s="543" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="536" t="s">
+      <c r="X3" s="539" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="536" t="s">
+      <c r="Y3" s="539" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="536" t="s">
+      <c r="Z3" s="539" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="538" t="s">
+      <c r="AA3" s="541" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="530" t="s">
+      <c r="AB3" s="545" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="504"/>
-      <c r="AD3" s="505"/>
+      <c r="AC3" s="509"/>
+      <c r="AD3" s="510"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="420"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="502"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="520"/>
-      <c r="U4" s="520"/>
-      <c r="V4" s="533"/>
-      <c r="W4" s="541"/>
-      <c r="X4" s="537"/>
-      <c r="Y4" s="537"/>
-      <c r="Z4" s="537"/>
-      <c r="AA4" s="539"/>
-      <c r="AB4" s="531"/>
-      <c r="AC4" s="506"/>
-      <c r="AD4" s="507"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="416"/>
+      <c r="G4" s="416"/>
+      <c r="H4" s="416"/>
+      <c r="I4" s="416"/>
+      <c r="J4" s="528"/>
+      <c r="K4" s="528"/>
+      <c r="L4" s="528"/>
+      <c r="M4" s="532"/>
+      <c r="N4" s="526"/>
+      <c r="O4" s="526"/>
+      <c r="P4" s="526"/>
+      <c r="Q4" s="518"/>
+      <c r="R4" s="520"/>
+      <c r="S4" s="522"/>
+      <c r="T4" s="522"/>
+      <c r="U4" s="522"/>
+      <c r="V4" s="548"/>
+      <c r="W4" s="544"/>
+      <c r="X4" s="540"/>
+      <c r="Y4" s="540"/>
+      <c r="Z4" s="540"/>
+      <c r="AA4" s="542"/>
+      <c r="AB4" s="546"/>
+      <c r="AC4" s="511"/>
+      <c r="AD4" s="512"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="508" t="s">
+      <c r="D5" s="513" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18080,9 +18067,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="413"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="509"/>
+      <c r="B6" s="401"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18113,9 +18100,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="415"/>
-      <c r="D7" s="510" t="s">
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="515" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18156,9 +18143,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="510"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="515"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18187,9 +18174,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="414"/>
-      <c r="C9" s="389"/>
-      <c r="D9" s="534" t="s">
+      <c r="B9" s="402"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="536" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18240,9 +18227,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="414"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="535"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="537"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18271,9 +18258,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="414"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="534" t="s">
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="536" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18320,9 +18307,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="414"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="535"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="537"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18353,9 +18340,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="414"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="511" t="s">
+      <c r="B13" s="402"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="498" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18392,9 +18379,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="414"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="512"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="499"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18425,9 +18412,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="414"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="534" t="s">
+      <c r="B15" s="402"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="536" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18468,9 +18455,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="414"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="535"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="537"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18501,9 +18488,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="414"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="534" t="s">
+      <c r="B17" s="402"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="536" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18552,9 +18539,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="414"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="535"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="537"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18585,9 +18572,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="414"/>
-      <c r="C19" s="389"/>
-      <c r="D19" s="511" t="s">
+      <c r="B19" s="402"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="498" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18626,9 +18613,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="414"/>
-      <c r="C20" s="389"/>
-      <c r="D20" s="512"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="499"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18659,9 +18646,9 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="414"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="490" t="s">
+      <c r="B21" s="402"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="493" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -18702,9 +18689,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="414"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="544"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="535"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18735,8 +18722,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="414"/>
-      <c r="C23" s="389"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="405"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18778,8 +18765,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="414"/>
-      <c r="C24" s="389"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18809,9 +18796,9 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="414"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="490" t="s">
+      <c r="B25" s="402"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="493" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -18850,9 +18837,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="414"/>
-      <c r="C26" s="390"/>
-      <c r="D26" s="525"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="502"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18883,11 +18870,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="414"/>
-      <c r="C27" s="418" t="s">
+      <c r="B27" s="402"/>
+      <c r="C27" s="409" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="526" t="s">
+      <c r="D27" s="503" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18928,9 +18915,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="414"/>
-      <c r="C28" s="413"/>
-      <c r="D28" s="512"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18961,9 +18948,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="414"/>
-      <c r="C29" s="414"/>
-      <c r="D29" s="511" t="s">
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="498" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -19002,9 +18989,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="414"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="512"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19035,9 +19022,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="414"/>
-      <c r="C31" s="414"/>
-      <c r="D31" s="511" t="s">
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="498" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19076,9 +19063,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="414"/>
-      <c r="C32" s="414"/>
-      <c r="D32" s="512"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19109,9 +19096,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="414"/>
-      <c r="C33" s="414"/>
-      <c r="D33" s="511" t="s">
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="498" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19150,9 +19137,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="414"/>
-      <c r="C34" s="414"/>
-      <c r="D34" s="512"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19183,9 +19170,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="414"/>
-      <c r="C35" s="414"/>
-      <c r="D35" s="534" t="s">
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="536" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19226,9 +19213,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="414"/>
-      <c r="C36" s="414"/>
-      <c r="D36" s="535"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="537"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19259,9 +19246,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="414"/>
-      <c r="C37" s="414"/>
-      <c r="D37" s="534" t="s">
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="536" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19300,9 +19287,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="414"/>
-      <c r="C38" s="414"/>
-      <c r="D38" s="535"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="537"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19333,9 +19320,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="414"/>
-      <c r="C39" s="414"/>
-      <c r="D39" s="511" t="s">
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="498" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19370,9 +19357,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="414"/>
-      <c r="C40" s="414"/>
-      <c r="D40" s="545"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="538"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19403,9 +19390,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="414"/>
-      <c r="C41" s="414"/>
-      <c r="D41" s="542" t="s">
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="533" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19444,9 +19431,9 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="489"/>
-      <c r="C42" s="489"/>
-      <c r="D42" s="543"/>
+      <c r="B42" s="492"/>
+      <c r="C42" s="492"/>
+      <c r="D42" s="534"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19809,23 +19796,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="D5:D6"/>
@@ -19842,22 +19828,23 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA2B9F9-9EBF-4A5E-9960-A45741DAA169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA7BFB-E1B3-4CE2-BEE2-6568C3E9E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,10 +1807,6 @@
 Listado Backlog BACKLOG 1a Versión</t>
   </si>
   <si>
-    <t>Gestionar Descuentos
-(armado de codiguera)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gestionar asignación Descuento Persona
 (info beneficiario con descuentos a realizar) (CUIL) </t>
   </si>
@@ -1896,21 +1892,6 @@
     <t>HU-MID-TRA-005 - Consultar Bandeja de Transacciones Generales</t>
   </si>
   <si>
-    <t>HU-MID-DESC-001- Registrar Transacción Descuento Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-DESC-002- Editar Transacción Descuento Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-DESC-003 - Consultar Transacción Descuento Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-DESC-004- Baja Transacción Descuento Entidad</t>
-  </si>
-  <si>
-    <t>HU-MID-DESC-005- Consultar BandejaTransacción Descuento Entidad</t>
-  </si>
-  <si>
     <t>Gestionar Transacciones Generales</t>
   </si>
   <si>
@@ -1921,6 +1902,25 @@
   </si>
   <si>
     <t>HU-MID-TRA-004 - Cambio de estadoTransacciones Generales</t>
+  </si>
+  <si>
+    <t>Gestionar Transacciones por Entidad
+(armado de codiguera)</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-001- Registrar Transacciones por Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-002- Editar Transacción por Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-003 - Consultar Transacción por Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-004- Baja Transacción por Entidad</t>
+  </si>
+  <si>
+    <t>HU-MID-DESC-005- Consultar BandejaTransacción por Entidad</t>
   </si>
 </sst>
 </file>
@@ -4035,7 +4035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4977,168 +4977,249 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5187,90 +5268,6 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5346,12 +5343,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5364,9 +5439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5376,79 +5448,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5460,44 +5493,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5945,62 +5942,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="400" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="392"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="403"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="410" t="s">
+      <c r="B3" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="420" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="412" t="s">
+      <c r="D3" s="420" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="414" t="s">
+      <c r="E3" s="422" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="417" t="s">
+      <c r="G3" s="425" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="398" t="s">
+      <c r="H3" s="409" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
+      <c r="I3" s="410"/>
+      <c r="J3" s="410"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="393" t="s">
+      <c r="M3" s="404" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="387" t="s">
+      <c r="N3" s="398" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="418"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="426"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -6014,14 +6011,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="394"/>
-      <c r="N4" s="388"/>
+      <c r="M4" s="405"/>
+      <c r="N4" s="399"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="386" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6042,8 +6039,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="414"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6059,8 +6056,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="402"/>
-      <c r="C7" s="405"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="388"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6079,8 +6076,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="402"/>
-      <c r="C8" s="405"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="388"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6099,9 +6096,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="395" t="s">
+      <c r="B9" s="413"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="406" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6132,9 +6129,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="396"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="407"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6153,9 +6150,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="396"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="388"/>
+      <c r="D11" s="407"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6174,9 +6171,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="396"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="407"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6195,9 +6192,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="396"/>
+      <c r="B13" s="413"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="407"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6215,9 +6212,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="396"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="407"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6235,9 +6232,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="396"/>
+      <c r="B15" s="413"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="407"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6255,9 +6252,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="396"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="388"/>
+      <c r="D16" s="407"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6275,9 +6272,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="396"/>
+      <c r="B17" s="413"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="407"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6296,9 +6293,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="396"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="407"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6317,9 +6314,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="396"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="407"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6336,9 +6333,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="396"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="407"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6355,9 +6352,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="396"/>
+      <c r="B21" s="413"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="407"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6374,9 +6371,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="396"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="407"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6393,9 +6390,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
-      <c r="D23" s="396"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="388"/>
+      <c r="D23" s="407"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6412,9 +6409,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
-      <c r="D24" s="396"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="407"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6431,9 +6428,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="396"/>
+      <c r="B25" s="413"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="407"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6447,9 +6444,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="402"/>
-      <c r="C26" s="405"/>
-      <c r="D26" s="396"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="388"/>
+      <c r="D26" s="407"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6463,9 +6460,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="405"/>
-      <c r="D27" s="396"/>
+      <c r="B27" s="413"/>
+      <c r="C27" s="388"/>
+      <c r="D27" s="407"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6479,9 +6476,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="405"/>
-      <c r="D28" s="396"/>
+      <c r="B28" s="413"/>
+      <c r="C28" s="388"/>
+      <c r="D28" s="407"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6495,9 +6492,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="396"/>
+      <c r="B29" s="413"/>
+      <c r="C29" s="388"/>
+      <c r="D29" s="407"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6511,9 +6508,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="405"/>
-      <c r="D30" s="396"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="388"/>
+      <c r="D30" s="407"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6527,9 +6524,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="396"/>
+      <c r="B31" s="413"/>
+      <c r="C31" s="388"/>
+      <c r="D31" s="407"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6543,9 +6540,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="405"/>
-      <c r="D32" s="396"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="388"/>
+      <c r="D32" s="407"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6559,9 +6556,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="405"/>
-      <c r="D33" s="396"/>
+      <c r="B33" s="413"/>
+      <c r="C33" s="388"/>
+      <c r="D33" s="407"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6575,9 +6572,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="405"/>
-      <c r="D34" s="396"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="388"/>
+      <c r="D34" s="407"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6591,9 +6588,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="405"/>
-      <c r="D35" s="396"/>
+      <c r="B35" s="413"/>
+      <c r="C35" s="388"/>
+      <c r="D35" s="407"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6607,9 +6604,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="405"/>
-      <c r="D36" s="396"/>
+      <c r="B36" s="413"/>
+      <c r="C36" s="388"/>
+      <c r="D36" s="407"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6623,9 +6620,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="396"/>
+      <c r="B37" s="413"/>
+      <c r="C37" s="388"/>
+      <c r="D37" s="407"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6639,9 +6636,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="405"/>
-      <c r="D38" s="396"/>
+      <c r="B38" s="413"/>
+      <c r="C38" s="388"/>
+      <c r="D38" s="407"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6655,9 +6652,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="405"/>
-      <c r="D39" s="396"/>
+      <c r="B39" s="413"/>
+      <c r="C39" s="388"/>
+      <c r="D39" s="407"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6671,9 +6668,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="405"/>
-      <c r="D40" s="396"/>
+      <c r="B40" s="413"/>
+      <c r="C40" s="388"/>
+      <c r="D40" s="407"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6687,9 +6684,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="405"/>
-      <c r="D41" s="396"/>
+      <c r="B41" s="413"/>
+      <c r="C41" s="388"/>
+      <c r="D41" s="407"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6703,9 +6700,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="402"/>
-      <c r="C42" s="405"/>
-      <c r="D42" s="396"/>
+      <c r="B42" s="413"/>
+      <c r="C42" s="388"/>
+      <c r="D42" s="407"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6719,9 +6716,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="402"/>
-      <c r="C43" s="405"/>
-      <c r="D43" s="397"/>
+      <c r="B43" s="413"/>
+      <c r="C43" s="388"/>
+      <c r="D43" s="408"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6734,8 +6731,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="402"/>
-      <c r="C44" s="405"/>
+      <c r="B44" s="413"/>
+      <c r="C44" s="388"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6757,8 +6754,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="402"/>
-      <c r="C45" s="405"/>
+      <c r="B45" s="413"/>
+      <c r="C45" s="388"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6777,8 +6774,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="402"/>
-      <c r="C46" s="405"/>
+      <c r="B46" s="413"/>
+      <c r="C46" s="388"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6800,8 +6797,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="402"/>
-      <c r="C47" s="405"/>
+      <c r="B47" s="413"/>
+      <c r="C47" s="388"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6824,8 +6821,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="402"/>
-      <c r="C48" s="405"/>
+      <c r="B48" s="413"/>
+      <c r="C48" s="388"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6847,9 +6844,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="402"/>
-      <c r="C49" s="405"/>
-      <c r="D49" s="407" t="s">
+      <c r="B49" s="413"/>
+      <c r="C49" s="388"/>
+      <c r="D49" s="415" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6870,9 +6867,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="402"/>
-      <c r="C50" s="406"/>
-      <c r="D50" s="408"/>
+      <c r="B50" s="413"/>
+      <c r="C50" s="389"/>
+      <c r="D50" s="416"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6883,8 +6880,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="402"/>
-      <c r="C51" s="409" t="s">
+      <c r="B51" s="413"/>
+      <c r="C51" s="417" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6905,8 +6902,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="402"/>
-      <c r="C52" s="402"/>
+      <c r="B52" s="413"/>
+      <c r="C52" s="413"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6928,8 +6925,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="402"/>
-      <c r="C53" s="402"/>
+      <c r="B53" s="413"/>
+      <c r="C53" s="413"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6951,8 +6948,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="402"/>
-      <c r="C54" s="402"/>
+      <c r="B54" s="413"/>
+      <c r="C54" s="413"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6971,8 +6968,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="402"/>
-      <c r="C55" s="402"/>
+      <c r="B55" s="413"/>
+      <c r="C55" s="413"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6994,8 +6991,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="402"/>
-      <c r="C56" s="402"/>
+      <c r="B56" s="413"/>
+      <c r="C56" s="413"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -7017,8 +7014,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="402"/>
-      <c r="C57" s="402"/>
+      <c r="B57" s="413"/>
+      <c r="C57" s="413"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7044,8 +7041,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="402"/>
-      <c r="C58" s="402"/>
+      <c r="B58" s="413"/>
+      <c r="C58" s="413"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7059,13 +7056,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="403" t="s">
+      <c r="B59" s="386" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="420" t="s">
+      <c r="C59" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="424" t="s">
+      <c r="D59" s="394" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7085,9 +7082,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="419"/>
-      <c r="C60" s="421"/>
-      <c r="D60" s="425"/>
+      <c r="B60" s="387"/>
+      <c r="C60" s="391"/>
+      <c r="D60" s="395"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7104,9 +7101,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="405"/>
-      <c r="C61" s="422"/>
-      <c r="D61" s="425"/>
+      <c r="B61" s="388"/>
+      <c r="C61" s="392"/>
+      <c r="D61" s="395"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7124,8 +7121,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="405"/>
-      <c r="C62" s="422"/>
+      <c r="B62" s="388"/>
+      <c r="C62" s="392"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7152,9 +7149,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="405"/>
-      <c r="C63" s="422"/>
-      <c r="D63" s="426" t="s">
+      <c r="B63" s="388"/>
+      <c r="C63" s="392"/>
+      <c r="D63" s="396" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7185,9 +7182,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="405"/>
-      <c r="C64" s="422"/>
-      <c r="D64" s="426"/>
+      <c r="B64" s="388"/>
+      <c r="C64" s="392"/>
+      <c r="D64" s="396"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7214,9 +7211,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="405"/>
-      <c r="C65" s="422"/>
-      <c r="D65" s="426"/>
+      <c r="B65" s="388"/>
+      <c r="C65" s="392"/>
+      <c r="D65" s="396"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7229,9 +7226,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="405"/>
-      <c r="C66" s="422"/>
-      <c r="D66" s="426" t="s">
+      <c r="B66" s="388"/>
+      <c r="C66" s="392"/>
+      <c r="D66" s="396" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7253,9 +7250,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="406"/>
-      <c r="C67" s="423"/>
-      <c r="D67" s="427"/>
+      <c r="B67" s="389"/>
+      <c r="C67" s="393"/>
+      <c r="D67" s="397"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7952,11 +7949,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7972,6 +7964,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8013,66 +8010,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="458" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="432"/>
-      <c r="K2" s="432"/>
-      <c r="L2" s="432"/>
-      <c r="M2" s="432"/>
-      <c r="N2" s="432"/>
-      <c r="O2" s="432"/>
-      <c r="P2" s="433"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="459"/>
+      <c r="K2" s="459"/>
+      <c r="L2" s="459"/>
+      <c r="M2" s="459"/>
+      <c r="N2" s="459"/>
+      <c r="O2" s="459"/>
+      <c r="P2" s="460"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="461" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="436" t="s">
+      <c r="C3" s="463" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="436" t="s">
+      <c r="D3" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="439" t="s">
+      <c r="E3" s="466" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="436" t="s">
+      <c r="F3" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="436" t="s">
+      <c r="G3" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="436" t="s">
+      <c r="H3" s="463" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="436" t="s">
+      <c r="I3" s="463" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="436" t="s">
+      <c r="M3" s="463" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="436" t="s">
+      <c r="N3" s="463" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="436" t="s">
+      <c r="O3" s="463" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="443" t="s">
+      <c r="P3" s="470" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8081,13 +8078,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="435"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="438"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="437"/>
-      <c r="G4" s="437"/>
-      <c r="H4" s="437"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="464"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8100,10 +8097,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="437"/>
-      <c r="N4" s="437"/>
-      <c r="O4" s="442"/>
-      <c r="P4" s="444"/>
+      <c r="M4" s="464"/>
+      <c r="N4" s="464"/>
+      <c r="O4" s="469"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8206,14 +8203,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="455" t="s">
+      <c r="B9" s="437" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="458" t="s">
+      <c r="C9" s="440" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="460" t="s">
+      <c r="E9" s="442" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8244,10 +8241,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="456"/>
-      <c r="C10" s="459"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="441"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="461"/>
+      <c r="E10" s="443"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8269,10 +8266,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="456"/>
-      <c r="C11" s="459"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="441"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="461"/>
+      <c r="E11" s="443"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8294,10 +8291,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="456"/>
-      <c r="C12" s="459"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="441"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="461"/>
+      <c r="E12" s="443"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8319,10 +8316,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="456"/>
-      <c r="C13" s="459"/>
+      <c r="B13" s="438"/>
+      <c r="C13" s="441"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="462" t="s">
+      <c r="E13" s="444" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8345,10 +8342,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="456"/>
-      <c r="C14" s="459"/>
+      <c r="B14" s="438"/>
+      <c r="C14" s="441"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="462"/>
+      <c r="E14" s="444"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8369,10 +8366,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="456"/>
-      <c r="C15" s="459"/>
+      <c r="B15" s="438"/>
+      <c r="C15" s="441"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="462"/>
+      <c r="E15" s="444"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8394,10 +8391,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="456"/>
-      <c r="C16" s="459"/>
+      <c r="B16" s="438"/>
+      <c r="C16" s="441"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="462"/>
+      <c r="E16" s="444"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8419,10 +8416,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="456"/>
-      <c r="C17" s="459"/>
+      <c r="B17" s="438"/>
+      <c r="C17" s="441"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="462"/>
+      <c r="E17" s="444"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8444,10 +8441,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="456"/>
-      <c r="C18" s="459"/>
+      <c r="B18" s="438"/>
+      <c r="C18" s="441"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="462"/>
+      <c r="E18" s="444"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8469,10 +8466,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="456"/>
-      <c r="C19" s="459"/>
+      <c r="B19" s="438"/>
+      <c r="C19" s="441"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="462"/>
+      <c r="E19" s="444"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8493,10 +8490,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="456"/>
-      <c r="C20" s="459"/>
+      <c r="B20" s="438"/>
+      <c r="C20" s="441"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="462"/>
+      <c r="E20" s="444"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8517,10 +8514,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="456"/>
-      <c r="C21" s="459"/>
+      <c r="B21" s="438"/>
+      <c r="C21" s="441"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="461" t="s">
+      <c r="E21" s="443" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8544,10 +8541,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="456"/>
-      <c r="C22" s="459"/>
+      <c r="B22" s="438"/>
+      <c r="C22" s="441"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="461"/>
+      <c r="E22" s="443"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8569,10 +8566,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="456"/>
-      <c r="C23" s="459"/>
+      <c r="B23" s="438"/>
+      <c r="C23" s="441"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="461"/>
+      <c r="E23" s="443"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8594,10 +8591,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="456"/>
-      <c r="C24" s="448"/>
+      <c r="B24" s="438"/>
+      <c r="C24" s="430"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="461"/>
+      <c r="E24" s="443"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8619,10 +8616,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="456"/>
-      <c r="C25" s="448"/>
+      <c r="B25" s="438"/>
+      <c r="C25" s="430"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="463" t="s">
+      <c r="E25" s="445" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8646,10 +8643,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="456"/>
-      <c r="C26" s="448"/>
+      <c r="B26" s="438"/>
+      <c r="C26" s="430"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="463"/>
+      <c r="E26" s="445"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8671,10 +8668,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="456"/>
-      <c r="C27" s="448"/>
+      <c r="B27" s="438"/>
+      <c r="C27" s="430"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="463"/>
+      <c r="E27" s="445"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8696,10 +8693,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="456"/>
-      <c r="C28" s="448"/>
+      <c r="B28" s="438"/>
+      <c r="C28" s="430"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="463"/>
+      <c r="E28" s="445"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8721,10 +8718,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="456"/>
-      <c r="C29" s="448"/>
+      <c r="B29" s="438"/>
+      <c r="C29" s="430"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="461" t="s">
+      <c r="E29" s="443" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8748,10 +8745,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="456"/>
-      <c r="C30" s="448"/>
+      <c r="B30" s="438"/>
+      <c r="C30" s="430"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="461"/>
+      <c r="E30" s="443"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8773,10 +8770,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="456"/>
-      <c r="C31" s="448"/>
+      <c r="B31" s="438"/>
+      <c r="C31" s="430"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="461"/>
+      <c r="E31" s="443"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8798,10 +8795,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="456"/>
-      <c r="C32" s="448"/>
+      <c r="B32" s="438"/>
+      <c r="C32" s="430"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="461"/>
+      <c r="E32" s="443"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8823,10 +8820,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="456"/>
-      <c r="C33" s="448"/>
+      <c r="B33" s="438"/>
+      <c r="C33" s="430"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="462"/>
+      <c r="E33" s="444"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8842,10 +8839,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="456"/>
-      <c r="C34" s="448"/>
+      <c r="B34" s="438"/>
+      <c r="C34" s="430"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="462"/>
+      <c r="E34" s="444"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8861,10 +8858,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="456"/>
-      <c r="C35" s="448"/>
+      <c r="B35" s="438"/>
+      <c r="C35" s="430"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="462"/>
+      <c r="E35" s="444"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8880,10 +8877,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="456"/>
-      <c r="C36" s="448"/>
+      <c r="B36" s="438"/>
+      <c r="C36" s="430"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="428"/>
+      <c r="E36" s="446"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8899,7 +8896,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="456"/>
+      <c r="B37" s="438"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8918,12 +8915,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="456"/>
-      <c r="C38" s="464" t="s">
+      <c r="B38" s="438"/>
+      <c r="C38" s="447" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="467" t="s">
+      <c r="E38" s="450" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8947,10 +8944,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="456"/>
-      <c r="C39" s="465"/>
+      <c r="B39" s="438"/>
+      <c r="C39" s="448"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="468"/>
+      <c r="E39" s="451"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8972,10 +8969,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="456"/>
-      <c r="C40" s="465"/>
+      <c r="B40" s="438"/>
+      <c r="C40" s="448"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="468"/>
+      <c r="E40" s="451"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8997,10 +8994,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="456"/>
-      <c r="C41" s="465"/>
+      <c r="B41" s="438"/>
+      <c r="C41" s="448"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="469"/>
+      <c r="E41" s="452"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9022,8 +9019,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="456"/>
-      <c r="C42" s="465"/>
+      <c r="B42" s="438"/>
+      <c r="C42" s="448"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9041,8 +9038,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="456"/>
-      <c r="C43" s="465"/>
+      <c r="B43" s="438"/>
+      <c r="C43" s="448"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9059,8 +9056,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="456"/>
-      <c r="C44" s="465"/>
+      <c r="B44" s="438"/>
+      <c r="C44" s="448"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9077,8 +9074,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="456"/>
-      <c r="C45" s="465"/>
+      <c r="B45" s="438"/>
+      <c r="C45" s="448"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9095,8 +9092,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="456"/>
-      <c r="C46" s="466"/>
+      <c r="B46" s="438"/>
+      <c r="C46" s="449"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9113,12 +9110,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="456"/>
-      <c r="C47" s="464" t="s">
+      <c r="B47" s="438"/>
+      <c r="C47" s="447" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="471" t="s">
+      <c r="E47" s="454" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9141,10 +9138,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="456"/>
-      <c r="C48" s="465"/>
+      <c r="B48" s="438"/>
+      <c r="C48" s="448"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="472"/>
+      <c r="E48" s="455"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9165,10 +9162,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="456"/>
-      <c r="C49" s="465"/>
+      <c r="B49" s="438"/>
+      <c r="C49" s="448"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="472"/>
+      <c r="E49" s="455"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9189,10 +9186,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="456"/>
-      <c r="C50" s="465"/>
+      <c r="B50" s="438"/>
+      <c r="C50" s="448"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="472"/>
+      <c r="E50" s="455"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9213,10 +9210,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="456"/>
-      <c r="C51" s="465"/>
+      <c r="B51" s="438"/>
+      <c r="C51" s="448"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="472"/>
+      <c r="E51" s="455"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9237,10 +9234,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="456"/>
-      <c r="C52" s="465"/>
+      <c r="B52" s="438"/>
+      <c r="C52" s="448"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="472"/>
+      <c r="E52" s="455"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9261,10 +9258,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="456"/>
-      <c r="C53" s="465"/>
+      <c r="B53" s="438"/>
+      <c r="C53" s="448"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="472"/>
+      <c r="E53" s="455"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9285,10 +9282,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="456"/>
-      <c r="C54" s="465"/>
+      <c r="B54" s="438"/>
+      <c r="C54" s="448"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="472"/>
+      <c r="E54" s="455"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9309,10 +9306,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="456"/>
-      <c r="C55" s="465"/>
+      <c r="B55" s="438"/>
+      <c r="C55" s="448"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="472"/>
+      <c r="E55" s="455"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9333,10 +9330,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="456"/>
-      <c r="C56" s="465"/>
+      <c r="B56" s="438"/>
+      <c r="C56" s="448"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="472"/>
+      <c r="E56" s="455"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9357,10 +9354,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="456"/>
-      <c r="C57" s="465"/>
+      <c r="B57" s="438"/>
+      <c r="C57" s="448"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="472"/>
+      <c r="E57" s="455"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9381,10 +9378,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="456"/>
-      <c r="C58" s="465"/>
+      <c r="B58" s="438"/>
+      <c r="C58" s="448"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="472"/>
+      <c r="E58" s="455"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9405,10 +9402,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="456"/>
-      <c r="C59" s="465"/>
+      <c r="B59" s="438"/>
+      <c r="C59" s="448"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="428" t="s">
+      <c r="E59" s="446" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9431,10 +9428,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="456"/>
-      <c r="C60" s="465"/>
+      <c r="B60" s="438"/>
+      <c r="C60" s="448"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="429"/>
+      <c r="E60" s="456"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9455,10 +9452,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="456"/>
-      <c r="C61" s="465"/>
+      <c r="B61" s="438"/>
+      <c r="C61" s="448"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="429"/>
+      <c r="E61" s="456"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9479,10 +9476,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="456"/>
-      <c r="C62" s="465"/>
+      <c r="B62" s="438"/>
+      <c r="C62" s="448"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="429"/>
+      <c r="E62" s="456"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9503,10 +9500,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="456"/>
-      <c r="C63" s="465"/>
+      <c r="B63" s="438"/>
+      <c r="C63" s="448"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="429"/>
+      <c r="E63" s="456"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9527,10 +9524,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="456"/>
-      <c r="C64" s="465"/>
+      <c r="B64" s="438"/>
+      <c r="C64" s="448"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="429"/>
+      <c r="E64" s="456"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9551,10 +9548,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="456"/>
-      <c r="C65" s="465"/>
+      <c r="B65" s="438"/>
+      <c r="C65" s="448"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="429"/>
+      <c r="E65" s="456"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9575,10 +9572,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="456"/>
-      <c r="C66" s="465"/>
+      <c r="B66" s="438"/>
+      <c r="C66" s="448"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="429"/>
+      <c r="E66" s="456"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9599,10 +9596,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="456"/>
-      <c r="C67" s="465"/>
+      <c r="B67" s="438"/>
+      <c r="C67" s="448"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="429"/>
+      <c r="E67" s="456"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9623,10 +9620,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="456"/>
-      <c r="C68" s="465"/>
+      <c r="B68" s="438"/>
+      <c r="C68" s="448"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="429"/>
+      <c r="E68" s="456"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9647,10 +9644,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="456"/>
-      <c r="C69" s="465"/>
+      <c r="B69" s="438"/>
+      <c r="C69" s="448"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="429"/>
+      <c r="E69" s="456"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9671,10 +9668,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="456"/>
-      <c r="C70" s="465"/>
+      <c r="B70" s="438"/>
+      <c r="C70" s="448"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="429"/>
+      <c r="E70" s="456"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9695,10 +9692,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="456"/>
-      <c r="C71" s="465"/>
+      <c r="B71" s="438"/>
+      <c r="C71" s="448"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="429"/>
+      <c r="E71" s="456"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9719,10 +9716,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="456"/>
-      <c r="C72" s="465"/>
+      <c r="B72" s="438"/>
+      <c r="C72" s="448"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="429"/>
+      <c r="E72" s="456"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9743,10 +9740,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="456"/>
-      <c r="C73" s="465"/>
+      <c r="B73" s="438"/>
+      <c r="C73" s="448"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="429"/>
+      <c r="E73" s="456"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9767,10 +9764,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="456"/>
-      <c r="C74" s="470"/>
+      <c r="B74" s="438"/>
+      <c r="C74" s="453"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="429"/>
+      <c r="E74" s="456"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9791,10 +9788,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="456"/>
+      <c r="B75" s="438"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="429"/>
+      <c r="E75" s="456"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9815,10 +9812,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="456"/>
+      <c r="B76" s="438"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="429"/>
+      <c r="E76" s="456"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9839,10 +9836,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="456"/>
+      <c r="B77" s="438"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="429"/>
+      <c r="E77" s="456"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9863,10 +9860,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="456"/>
+      <c r="B78" s="438"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="429"/>
+      <c r="E78" s="456"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9887,10 +9884,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="456"/>
+      <c r="B79" s="438"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="429"/>
+      <c r="E79" s="456"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9911,10 +9908,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="456"/>
+      <c r="B80" s="438"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="429"/>
+      <c r="E80" s="456"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9935,10 +9932,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="456"/>
+      <c r="B81" s="438"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="429"/>
+      <c r="E81" s="456"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9959,10 +9956,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="456"/>
+      <c r="B82" s="438"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="429"/>
+      <c r="E82" s="456"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9983,10 +9980,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="456"/>
+      <c r="B83" s="438"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="429"/>
+      <c r="E83" s="456"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -10007,10 +10004,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="456"/>
+      <c r="B84" s="438"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="429"/>
+      <c r="E84" s="456"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10031,10 +10028,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="456"/>
+      <c r="B85" s="438"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="429"/>
+      <c r="E85" s="456"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10055,10 +10052,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="456"/>
+      <c r="B86" s="438"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="430"/>
+      <c r="E86" s="457"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10079,10 +10076,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="456"/>
+      <c r="B87" s="438"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="429" t="s">
+      <c r="E87" s="456" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10105,10 +10102,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="456"/>
+      <c r="B88" s="438"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="429"/>
+      <c r="E88" s="456"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10129,10 +10126,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="456"/>
+      <c r="B89" s="438"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="429"/>
+      <c r="E89" s="456"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10153,10 +10150,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="456"/>
+      <c r="B90" s="438"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="429"/>
+      <c r="E90" s="456"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10177,7 +10174,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="456"/>
+      <c r="B91" s="438"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10195,7 +10192,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="457"/>
+      <c r="B92" s="439"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10213,14 +10210,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="445" t="s">
+      <c r="B93" s="427" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="447" t="s">
+      <c r="C93" s="429" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="449" t="s">
+      <c r="E93" s="431" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10241,10 +10238,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="446"/>
-      <c r="C94" s="448"/>
+      <c r="B94" s="428"/>
+      <c r="C94" s="430"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="450"/>
+      <c r="E94" s="432"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10261,10 +10258,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="446"/>
-      <c r="C95" s="448"/>
+      <c r="B95" s="428"/>
+      <c r="C95" s="430"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="450"/>
+      <c r="E95" s="432"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10281,10 +10278,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="446"/>
-      <c r="C96" s="448"/>
+      <c r="B96" s="428"/>
+      <c r="C96" s="430"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="451"/>
+      <c r="E96" s="433"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10301,8 +10298,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="446"/>
-      <c r="C97" s="448"/>
+      <c r="B97" s="428"/>
+      <c r="C97" s="430"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10319,8 +10316,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="446"/>
-      <c r="C98" s="448"/>
+      <c r="B98" s="428"/>
+      <c r="C98" s="430"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10337,8 +10334,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="446"/>
-      <c r="C99" s="448"/>
+      <c r="B99" s="428"/>
+      <c r="C99" s="430"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10355,7 +10352,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="446"/>
+      <c r="B100" s="428"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10373,7 +10370,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="446"/>
+      <c r="B101" s="428"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10391,7 +10388,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="446"/>
+      <c r="B102" s="428"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10409,7 +10406,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="446"/>
+      <c r="B103" s="428"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10427,7 +10424,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="446"/>
+      <c r="B104" s="428"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10446,7 +10443,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="452" t="s">
+      <c r="C105" s="434" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10466,7 +10463,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="453"/>
+      <c r="C106" s="435"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10484,7 +10481,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="453"/>
+      <c r="C107" s="435"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10502,7 +10499,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="453"/>
+      <c r="C108" s="435"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10520,7 +10517,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="453"/>
+      <c r="C109" s="435"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10538,7 +10535,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="453"/>
+      <c r="C110" s="435"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10556,7 +10553,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="453"/>
+      <c r="C111" s="435"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10574,7 +10571,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="453"/>
+      <c r="C112" s="435"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="453"/>
+      <c r="C113" s="435"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10610,7 +10607,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="453"/>
+      <c r="C114" s="435"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10628,7 +10625,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="453"/>
+      <c r="C115" s="435"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10646,7 +10643,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="454"/>
+      <c r="C116" s="436"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11031,6 +11028,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11047,21 +11059,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -11101,44 +11098,44 @@
   <sheetData>
     <row r="1" spans="2:48" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:48" s="332" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="479" t="s">
+      <c r="B2" s="478" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="481"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="480"/>
       <c r="J2" s="334"/>
       <c r="AV2" s="332" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:48" s="333" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="482" t="s">
+      <c r="B3" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="482" t="s">
+      <c r="C3" s="481" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="482" t="s">
+      <c r="D3" s="481" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="482" t="s">
+      <c r="E3" s="481" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="482" t="s">
+      <c r="F3" s="481" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="482" t="s">
+      <c r="G3" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="481" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="482" t="s">
+      <c r="I3" s="481" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="335"/>
@@ -11148,24 +11145,24 @@
       </c>
     </row>
     <row r="4" spans="2:48" s="333" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="335"/>
       <c r="AV4" s="333" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="472" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="476" t="s">
+      <c r="C5" s="475" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="324"/>
@@ -11182,8 +11179,8 @@
       <c r="I5" s="326"/>
     </row>
     <row r="6" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="474"/>
-      <c r="C6" s="477"/>
+      <c r="B6" s="473"/>
+      <c r="C6" s="476"/>
       <c r="D6" s="312"/>
       <c r="E6" s="312"/>
       <c r="F6" s="338"/>
@@ -11192,8 +11189,8 @@
       <c r="I6" s="314"/>
     </row>
     <row r="7" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="474"/>
-      <c r="C7" s="477"/>
+      <c r="B7" s="473"/>
+      <c r="C7" s="476"/>
       <c r="D7" s="328"/>
       <c r="E7" s="323" t="s">
         <v>325</v>
@@ -11208,8 +11205,8 @@
       <c r="I7" s="329"/>
     </row>
     <row r="8" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="474"/>
-      <c r="C8" s="477"/>
+      <c r="B8" s="473"/>
+      <c r="C8" s="476"/>
       <c r="D8" s="328"/>
       <c r="E8" s="337" t="s">
         <v>284</v>
@@ -11220,8 +11217,8 @@
       <c r="I8" s="329"/>
     </row>
     <row r="9" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="474"/>
-      <c r="C9" s="477"/>
+      <c r="B9" s="473"/>
+      <c r="C9" s="476"/>
       <c r="D9" s="328"/>
       <c r="E9" s="337" t="s">
         <v>285</v>
@@ -11232,8 +11229,8 @@
       <c r="I9" s="329"/>
     </row>
     <row r="10" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="474"/>
-      <c r="C10" s="477"/>
+      <c r="B10" s="473"/>
+      <c r="C10" s="476"/>
       <c r="D10" s="322"/>
       <c r="E10" s="316"/>
       <c r="F10" s="340"/>
@@ -11242,8 +11239,8 @@
       <c r="I10" s="314"/>
     </row>
     <row r="11" spans="2:48" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="474"/>
-      <c r="C11" s="477"/>
+      <c r="B11" s="473"/>
+      <c r="C11" s="476"/>
       <c r="D11" s="322"/>
       <c r="E11" s="317" t="s">
         <v>286</v>
@@ -11258,8 +11255,8 @@
       <c r="I11" s="314"/>
     </row>
     <row r="12" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B12" s="474"/>
-      <c r="C12" s="477"/>
+      <c r="B12" s="473"/>
+      <c r="C12" s="476"/>
       <c r="D12" s="322"/>
       <c r="E12" s="315" t="s">
         <v>287</v>
@@ -11270,8 +11267,8 @@
       <c r="I12" s="314"/>
     </row>
     <row r="13" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="474"/>
-      <c r="C13" s="477"/>
+      <c r="B13" s="473"/>
+      <c r="C13" s="476"/>
       <c r="D13" s="322"/>
       <c r="E13" s="315" t="s">
         <v>288</v>
@@ -11282,8 +11279,8 @@
       <c r="I13" s="314"/>
     </row>
     <row r="14" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="474"/>
-      <c r="C14" s="477"/>
+      <c r="B14" s="473"/>
+      <c r="C14" s="476"/>
       <c r="D14" s="322"/>
       <c r="E14" s="315" t="s">
         <v>315</v>
@@ -11294,8 +11291,8 @@
       <c r="I14" s="314"/>
     </row>
     <row r="15" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="474"/>
-      <c r="C15" s="477"/>
+      <c r="B15" s="473"/>
+      <c r="C15" s="476"/>
       <c r="D15" s="322"/>
       <c r="E15" s="316"/>
       <c r="F15" s="340"/>
@@ -11304,8 +11301,8 @@
       <c r="I15" s="314"/>
     </row>
     <row r="16" spans="2:48" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="474"/>
-      <c r="C16" s="477"/>
+      <c r="B16" s="473"/>
+      <c r="C16" s="476"/>
       <c r="D16" s="330"/>
       <c r="E16" s="323" t="s">
         <v>289</v>
@@ -11320,8 +11317,8 @@
       <c r="I16" s="329"/>
     </row>
     <row r="17" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="474"/>
-      <c r="C17" s="477"/>
+      <c r="B17" s="473"/>
+      <c r="C17" s="476"/>
       <c r="D17" s="330"/>
       <c r="E17" s="323" t="s">
         <v>290</v>
@@ -11332,8 +11329,8 @@
       <c r="I17" s="329"/>
     </row>
     <row r="18" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="474"/>
-      <c r="C18" s="477"/>
+      <c r="B18" s="473"/>
+      <c r="C18" s="476"/>
       <c r="D18" s="330"/>
       <c r="E18" s="323" t="s">
         <v>291</v>
@@ -11344,8 +11341,8 @@
       <c r="I18" s="329"/>
     </row>
     <row r="19" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="474"/>
-      <c r="C19" s="477"/>
+      <c r="B19" s="473"/>
+      <c r="C19" s="476"/>
       <c r="D19" s="322"/>
       <c r="E19" s="315"/>
       <c r="F19" s="340"/>
@@ -11354,8 +11351,8 @@
       <c r="I19" s="314"/>
     </row>
     <row r="20" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B20" s="474"/>
-      <c r="C20" s="477"/>
+      <c r="B20" s="473"/>
+      <c r="C20" s="476"/>
       <c r="D20" s="322"/>
       <c r="E20" s="315" t="s">
         <v>292</v>
@@ -11370,8 +11367,8 @@
       <c r="I20" s="314"/>
     </row>
     <row r="21" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B21" s="474"/>
-      <c r="C21" s="477"/>
+      <c r="B21" s="473"/>
+      <c r="C21" s="476"/>
       <c r="D21" s="322"/>
       <c r="E21" s="315" t="s">
         <v>293</v>
@@ -11382,8 +11379,8 @@
       <c r="I21" s="314"/>
     </row>
     <row r="22" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B22" s="474"/>
-      <c r="C22" s="477"/>
+      <c r="B22" s="473"/>
+      <c r="C22" s="476"/>
       <c r="D22" s="322"/>
       <c r="E22" s="315" t="s">
         <v>294</v>
@@ -11394,8 +11391,8 @@
       <c r="I22" s="314"/>
     </row>
     <row r="23" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B23" s="474"/>
-      <c r="C23" s="477"/>
+      <c r="B23" s="473"/>
+      <c r="C23" s="476"/>
       <c r="D23" s="322"/>
       <c r="E23" s="315"/>
       <c r="F23" s="340"/>
@@ -11404,8 +11401,8 @@
       <c r="I23" s="314"/>
     </row>
     <row r="24" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B24" s="474"/>
-      <c r="C24" s="477"/>
+      <c r="B24" s="473"/>
+      <c r="C24" s="476"/>
       <c r="D24" s="330"/>
       <c r="E24" s="323" t="s">
         <v>295</v>
@@ -11420,8 +11417,8 @@
       <c r="I24" s="329"/>
     </row>
     <row r="25" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B25" s="474"/>
-      <c r="C25" s="477"/>
+      <c r="B25" s="473"/>
+      <c r="C25" s="476"/>
       <c r="D25" s="330"/>
       <c r="E25" s="323" t="s">
         <v>296</v>
@@ -11432,8 +11429,8 @@
       <c r="I25" s="329"/>
     </row>
     <row r="26" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B26" s="474"/>
-      <c r="C26" s="477"/>
+      <c r="B26" s="473"/>
+      <c r="C26" s="476"/>
       <c r="D26" s="330"/>
       <c r="E26" s="323" t="s">
         <v>297</v>
@@ -11444,8 +11441,8 @@
       <c r="I26" s="329"/>
     </row>
     <row r="27" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B27" s="474"/>
-      <c r="C27" s="477"/>
+      <c r="B27" s="473"/>
+      <c r="C27" s="476"/>
       <c r="D27" s="322"/>
       <c r="E27" s="315"/>
       <c r="F27" s="340"/>
@@ -11454,8 +11451,8 @@
       <c r="I27" s="314"/>
     </row>
     <row r="28" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B28" s="474"/>
-      <c r="C28" s="477"/>
+      <c r="B28" s="473"/>
+      <c r="C28" s="476"/>
       <c r="D28" s="322"/>
       <c r="E28" s="315" t="s">
         <v>298</v>
@@ -11470,8 +11467,8 @@
       <c r="I28" s="314"/>
     </row>
     <row r="29" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B29" s="474"/>
-      <c r="C29" s="477"/>
+      <c r="B29" s="473"/>
+      <c r="C29" s="476"/>
       <c r="D29" s="322"/>
       <c r="E29" s="315" t="s">
         <v>299</v>
@@ -11482,8 +11479,8 @@
       <c r="I29" s="314"/>
     </row>
     <row r="30" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B30" s="474"/>
-      <c r="C30" s="477"/>
+      <c r="B30" s="473"/>
+      <c r="C30" s="476"/>
       <c r="D30" s="322"/>
       <c r="E30" s="315" t="s">
         <v>300</v>
@@ -11494,8 +11491,8 @@
       <c r="I30" s="314"/>
     </row>
     <row r="31" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B31" s="474"/>
-      <c r="C31" s="477"/>
+      <c r="B31" s="473"/>
+      <c r="C31" s="476"/>
       <c r="D31" s="322"/>
       <c r="E31" s="315"/>
       <c r="F31" s="340"/>
@@ -11504,8 +11501,8 @@
       <c r="I31" s="314"/>
     </row>
     <row r="32" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B32" s="474"/>
-      <c r="C32" s="477"/>
+      <c r="B32" s="473"/>
+      <c r="C32" s="476"/>
       <c r="D32" s="330"/>
       <c r="E32" s="323" t="s">
         <v>301</v>
@@ -11520,8 +11517,8 @@
       <c r="I32" s="329"/>
     </row>
     <row r="33" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B33" s="474"/>
-      <c r="C33" s="477"/>
+      <c r="B33" s="473"/>
+      <c r="C33" s="476"/>
       <c r="D33" s="330"/>
       <c r="E33" s="323" t="s">
         <v>302</v>
@@ -11532,8 +11529,8 @@
       <c r="I33" s="329"/>
     </row>
     <row r="34" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B34" s="474"/>
-      <c r="C34" s="477"/>
+      <c r="B34" s="473"/>
+      <c r="C34" s="476"/>
       <c r="D34" s="330"/>
       <c r="E34" s="323" t="s">
         <v>303</v>
@@ -11544,8 +11541,8 @@
       <c r="I34" s="329"/>
     </row>
     <row r="35" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B35" s="474"/>
-      <c r="C35" s="477"/>
+      <c r="B35" s="473"/>
+      <c r="C35" s="476"/>
       <c r="D35" s="322"/>
       <c r="E35" s="315"/>
       <c r="F35" s="340"/>
@@ -11554,8 +11551,8 @@
       <c r="I35" s="314"/>
     </row>
     <row r="36" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B36" s="474"/>
-      <c r="C36" s="477"/>
+      <c r="B36" s="473"/>
+      <c r="C36" s="476"/>
       <c r="D36" s="322"/>
       <c r="E36" s="315" t="s">
         <v>304</v>
@@ -11570,8 +11567,8 @@
       <c r="I36" s="314"/>
     </row>
     <row r="37" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B37" s="474"/>
-      <c r="C37" s="477"/>
+      <c r="B37" s="473"/>
+      <c r="C37" s="476"/>
       <c r="D37" s="322"/>
       <c r="E37" s="315" t="s">
         <v>305</v>
@@ -11582,8 +11579,8 @@
       <c r="I37" s="314"/>
     </row>
     <row r="38" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="474"/>
-      <c r="C38" s="477"/>
+      <c r="B38" s="473"/>
+      <c r="C38" s="476"/>
       <c r="D38" s="322"/>
       <c r="E38" s="315" t="s">
         <v>306</v>
@@ -11594,8 +11591,8 @@
       <c r="I38" s="314"/>
     </row>
     <row r="39" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="474"/>
-      <c r="C39" s="477"/>
+      <c r="B39" s="473"/>
+      <c r="C39" s="476"/>
       <c r="D39" s="322"/>
       <c r="E39" s="315"/>
       <c r="F39" s="340"/>
@@ -11604,8 +11601,8 @@
       <c r="I39" s="314"/>
     </row>
     <row r="40" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B40" s="474"/>
-      <c r="C40" s="477"/>
+      <c r="B40" s="473"/>
+      <c r="C40" s="476"/>
       <c r="D40" s="330"/>
       <c r="E40" s="323" t="s">
         <v>307</v>
@@ -11620,8 +11617,8 @@
       <c r="I40" s="329"/>
     </row>
     <row r="41" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B41" s="474"/>
-      <c r="C41" s="477"/>
+      <c r="B41" s="473"/>
+      <c r="C41" s="476"/>
       <c r="D41" s="330"/>
       <c r="E41" s="323" t="s">
         <v>308</v>
@@ -11632,8 +11629,8 @@
       <c r="I41" s="329"/>
     </row>
     <row r="42" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B42" s="474"/>
-      <c r="C42" s="477"/>
+      <c r="B42" s="473"/>
+      <c r="C42" s="476"/>
       <c r="D42" s="330"/>
       <c r="E42" s="323" t="s">
         <v>309</v>
@@ -11644,8 +11641,8 @@
       <c r="I42" s="329"/>
     </row>
     <row r="43" spans="2:9" s="327" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="B43" s="474"/>
-      <c r="C43" s="477"/>
+      <c r="B43" s="473"/>
+      <c r="C43" s="476"/>
       <c r="D43" s="322"/>
       <c r="E43" s="315"/>
       <c r="F43" s="340"/>
@@ -11654,8 +11651,8 @@
       <c r="I43" s="314"/>
     </row>
     <row r="44" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="474"/>
-      <c r="C44" s="477"/>
+      <c r="B44" s="473"/>
+      <c r="C44" s="476"/>
       <c r="D44" s="322"/>
       <c r="E44" s="315" t="s">
         <v>310</v>
@@ -11670,8 +11667,8 @@
       <c r="I44" s="314"/>
     </row>
     <row r="45" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="474"/>
-      <c r="C45" s="477"/>
+      <c r="B45" s="473"/>
+      <c r="C45" s="476"/>
       <c r="D45" s="322"/>
       <c r="E45" s="315" t="s">
         <v>311</v>
@@ -11682,8 +11679,8 @@
       <c r="I45" s="314"/>
     </row>
     <row r="46" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="474"/>
-      <c r="C46" s="477"/>
+      <c r="B46" s="473"/>
+      <c r="C46" s="476"/>
       <c r="D46" s="322"/>
       <c r="E46" s="315"/>
       <c r="F46" s="341"/>
@@ -11692,8 +11689,8 @@
       <c r="I46" s="314"/>
     </row>
     <row r="47" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="474"/>
-      <c r="C47" s="477"/>
+      <c r="B47" s="473"/>
+      <c r="C47" s="476"/>
       <c r="D47" s="330"/>
       <c r="E47" s="323" t="s">
         <v>312</v>
@@ -11708,8 +11705,8 @@
       <c r="I47" s="329"/>
     </row>
     <row r="48" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="474"/>
-      <c r="C48" s="477"/>
+      <c r="B48" s="473"/>
+      <c r="C48" s="476"/>
       <c r="D48" s="330"/>
       <c r="E48" s="323" t="s">
         <v>313</v>
@@ -11720,8 +11717,8 @@
       <c r="I48" s="329"/>
     </row>
     <row r="49" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="474"/>
-      <c r="C49" s="477"/>
+      <c r="B49" s="473"/>
+      <c r="C49" s="476"/>
       <c r="D49" s="322"/>
       <c r="E49" s="315"/>
       <c r="F49" s="340"/>
@@ -11730,8 +11727,8 @@
       <c r="I49" s="314"/>
     </row>
     <row r="50" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="474"/>
-      <c r="C50" s="477"/>
+      <c r="B50" s="473"/>
+      <c r="C50" s="476"/>
       <c r="D50" s="322"/>
       <c r="E50" s="315" t="s">
         <v>314</v>
@@ -11746,8 +11743,8 @@
       <c r="I50" s="314"/>
     </row>
     <row r="51" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="474"/>
-      <c r="C51" s="477"/>
+      <c r="B51" s="473"/>
+      <c r="C51" s="476"/>
       <c r="D51" s="312"/>
       <c r="E51" s="312"/>
       <c r="F51" s="343"/>
@@ -11756,8 +11753,8 @@
       <c r="I51" s="318"/>
     </row>
     <row r="52" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="474"/>
-      <c r="C52" s="477"/>
+      <c r="B52" s="473"/>
+      <c r="C52" s="476"/>
       <c r="D52" s="312"/>
       <c r="E52" s="315"/>
       <c r="F52" s="343"/>
@@ -11766,8 +11763,8 @@
       <c r="I52" s="318"/>
     </row>
     <row r="53" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="474"/>
-      <c r="C53" s="477"/>
+      <c r="B53" s="473"/>
+      <c r="C53" s="476"/>
       <c r="D53" s="312"/>
       <c r="E53" s="315"/>
       <c r="F53" s="343"/>
@@ -11776,8 +11773,8 @@
       <c r="I53" s="318"/>
     </row>
     <row r="54" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="474"/>
-      <c r="C54" s="477"/>
+      <c r="B54" s="473"/>
+      <c r="C54" s="476"/>
       <c r="D54" s="312"/>
       <c r="E54" s="319" t="s">
         <v>281</v>
@@ -11788,8 +11785,8 @@
       <c r="I54" s="318"/>
     </row>
     <row r="55" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="474"/>
-      <c r="C55" s="477"/>
+      <c r="B55" s="473"/>
+      <c r="C55" s="476"/>
       <c r="D55" s="312"/>
       <c r="E55" s="319" t="s">
         <v>282</v>
@@ -11800,8 +11797,8 @@
       <c r="I55" s="318"/>
     </row>
     <row r="56" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="474"/>
-      <c r="C56" s="477"/>
+      <c r="B56" s="473"/>
+      <c r="C56" s="476"/>
       <c r="D56" s="312"/>
       <c r="E56" s="319" t="s">
         <v>283</v>
@@ -11812,8 +11809,8 @@
       <c r="I56" s="318"/>
     </row>
     <row r="57" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="474"/>
-      <c r="C57" s="477"/>
+      <c r="B57" s="473"/>
+      <c r="C57" s="476"/>
       <c r="D57" s="312"/>
       <c r="E57" s="319"/>
       <c r="F57" s="312"/>
@@ -11822,8 +11819,8 @@
       <c r="I57" s="318"/>
     </row>
     <row r="58" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="474"/>
-      <c r="C58" s="477"/>
+      <c r="B58" s="473"/>
+      <c r="C58" s="476"/>
       <c r="D58" s="322"/>
       <c r="E58" s="319" t="s">
         <v>316</v>
@@ -11834,8 +11831,8 @@
       <c r="I58" s="318"/>
     </row>
     <row r="59" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="474"/>
-      <c r="C59" s="477"/>
+      <c r="B59" s="473"/>
+      <c r="C59" s="476"/>
       <c r="D59" s="336"/>
       <c r="E59" s="319" t="s">
         <v>317</v>
@@ -11846,8 +11843,8 @@
       <c r="I59" s="318"/>
     </row>
     <row r="60" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="474"/>
-      <c r="C60" s="477"/>
+      <c r="B60" s="473"/>
+      <c r="C60" s="476"/>
       <c r="D60" s="336"/>
       <c r="E60" s="319" t="s">
         <v>318</v>
@@ -11858,8 +11855,8 @@
       <c r="I60" s="318"/>
     </row>
     <row r="61" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="474"/>
-      <c r="C61" s="477"/>
+      <c r="B61" s="473"/>
+      <c r="C61" s="476"/>
       <c r="D61" s="336"/>
       <c r="E61" s="319" t="s">
         <v>319</v>
@@ -11870,8 +11867,8 @@
       <c r="I61" s="318"/>
     </row>
     <row r="62" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="474"/>
-      <c r="C62" s="477"/>
+      <c r="B62" s="473"/>
+      <c r="C62" s="476"/>
       <c r="D62" s="336"/>
       <c r="E62" s="319"/>
       <c r="F62" s="312"/>
@@ -11880,8 +11877,8 @@
       <c r="I62" s="318"/>
     </row>
     <row r="63" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="474"/>
-      <c r="C63" s="477"/>
+      <c r="B63" s="473"/>
+      <c r="C63" s="476"/>
       <c r="D63" s="312"/>
       <c r="E63" s="319" t="s">
         <v>320</v>
@@ -11892,8 +11889,8 @@
       <c r="I63" s="318"/>
     </row>
     <row r="64" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="474"/>
-      <c r="C64" s="477"/>
+      <c r="B64" s="473"/>
+      <c r="C64" s="476"/>
       <c r="D64" s="312"/>
       <c r="E64" s="319" t="s">
         <v>321</v>
@@ -11904,8 +11901,8 @@
       <c r="I64" s="318"/>
     </row>
     <row r="65" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="474"/>
-      <c r="C65" s="477"/>
+      <c r="B65" s="473"/>
+      <c r="C65" s="476"/>
       <c r="D65" s="312"/>
       <c r="E65" s="319" t="s">
         <v>322</v>
@@ -11916,8 +11913,8 @@
       <c r="I65" s="318"/>
     </row>
     <row r="66" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="474"/>
-      <c r="C66" s="477"/>
+      <c r="B66" s="473"/>
+      <c r="C66" s="476"/>
       <c r="D66" s="312"/>
       <c r="E66" s="319" t="s">
         <v>323</v>
@@ -11928,8 +11925,8 @@
       <c r="I66" s="318"/>
     </row>
     <row r="67" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="474"/>
-      <c r="C67" s="477"/>
+      <c r="B67" s="473"/>
+      <c r="C67" s="476"/>
       <c r="D67" s="312"/>
       <c r="E67" s="315"/>
       <c r="F67" s="312"/>
@@ -11938,8 +11935,8 @@
       <c r="I67" s="318"/>
     </row>
     <row r="68" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="474"/>
-      <c r="C68" s="477"/>
+      <c r="B68" s="473"/>
+      <c r="C68" s="476"/>
       <c r="D68" s="312"/>
       <c r="E68" s="315"/>
       <c r="F68" s="312"/>
@@ -11948,8 +11945,8 @@
       <c r="I68" s="318"/>
     </row>
     <row r="69" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="474"/>
-      <c r="C69" s="477"/>
+      <c r="B69" s="473"/>
+      <c r="C69" s="476"/>
       <c r="D69" s="312"/>
       <c r="E69" s="312"/>
       <c r="F69" s="312"/>
@@ -11958,8 +11955,8 @@
       <c r="I69" s="318"/>
     </row>
     <row r="70" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="474"/>
-      <c r="C70" s="477"/>
+      <c r="B70" s="473"/>
+      <c r="C70" s="476"/>
       <c r="D70" s="312"/>
       <c r="E70" s="312"/>
       <c r="F70" s="312"/>
@@ -11968,8 +11965,8 @@
       <c r="I70" s="318"/>
     </row>
     <row r="71" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="474"/>
-      <c r="C71" s="477"/>
+      <c r="B71" s="473"/>
+      <c r="C71" s="476"/>
       <c r="D71" s="312"/>
       <c r="E71" s="312"/>
       <c r="F71" s="312"/>
@@ -11978,8 +11975,8 @@
       <c r="I71" s="318"/>
     </row>
     <row r="72" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="475"/>
-      <c r="C72" s="478"/>
+      <c r="B72" s="474"/>
+      <c r="C72" s="477"/>
       <c r="D72" s="320"/>
       <c r="E72" s="320"/>
       <c r="F72" s="320"/>
@@ -12025,10 +12022,10 @@
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12046,265 +12043,265 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" s="332" customFormat="1" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="378" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="381"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="380"/>
       <c r="I2" s="334"/>
     </row>
     <row r="3" spans="2:9" s="349" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="365" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="361" t="s">
         <v>332</v>
       </c>
       <c r="D3" s="361" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="361" t="s">
         <v>154</v>
       </c>
       <c r="F3" s="361" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G3" s="361" t="s">
         <v>189</v>
       </c>
       <c r="H3" s="366" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I3" s="348"/>
     </row>
     <row r="4" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="376" t="s">
-        <v>344</v>
+      <c r="B4" s="375" t="s">
+        <v>343</v>
       </c>
       <c r="C4" s="352"/>
-      <c r="D4" s="382" t="s">
+      <c r="D4" s="381" t="s">
         <v>333</v>
       </c>
       <c r="E4" s="353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="353"/>
       <c r="G4" s="354"/>
       <c r="H4" s="367"/>
     </row>
     <row r="5" spans="2:9" s="327" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="377"/>
+      <c r="B5" s="376"/>
       <c r="C5" s="328"/>
-      <c r="D5" s="383"/>
+      <c r="D5" s="382"/>
       <c r="E5" s="356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="356"/>
       <c r="G5" s="350"/>
       <c r="H5" s="368"/>
     </row>
     <row r="6" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="377"/>
+      <c r="B6" s="376"/>
       <c r="C6" s="322"/>
-      <c r="D6" s="383"/>
+      <c r="D6" s="382"/>
       <c r="E6" s="357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
       <c r="H6" s="368"/>
     </row>
     <row r="7" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="377"/>
+      <c r="B7" s="376"/>
       <c r="C7" s="322"/>
-      <c r="D7" s="383"/>
+      <c r="D7" s="382"/>
       <c r="E7" s="357" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
       <c r="H7" s="368"/>
     </row>
     <row r="8" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="377"/>
+      <c r="B8" s="376"/>
       <c r="C8" s="322"/>
-      <c r="D8" s="384"/>
+      <c r="D8" s="383"/>
       <c r="E8" s="315" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
       <c r="H8" s="368"/>
     </row>
     <row r="9" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="377"/>
+      <c r="B9" s="376"/>
       <c r="C9" s="358"/>
-      <c r="D9" s="483" t="s">
-        <v>351</v>
+      <c r="D9" s="482" t="s">
+        <v>350</v>
       </c>
       <c r="E9" s="315" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" s="315"/>
       <c r="G9" s="351"/>
       <c r="H9" s="368"/>
     </row>
     <row r="10" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="377"/>
+      <c r="B10" s="376"/>
       <c r="C10" s="358"/>
-      <c r="D10" s="484"/>
+      <c r="D10" s="483"/>
       <c r="E10" s="315" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F10" s="315"/>
       <c r="G10" s="351"/>
       <c r="H10" s="368"/>
     </row>
     <row r="11" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="377"/>
+      <c r="B11" s="376"/>
       <c r="C11" s="358"/>
-      <c r="D11" s="484"/>
+      <c r="D11" s="483"/>
       <c r="E11" s="315" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F11" s="315"/>
       <c r="G11" s="351"/>
       <c r="H11" s="368"/>
     </row>
     <row r="12" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="377"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="358"/>
-      <c r="D12" s="485"/>
+      <c r="D12" s="484"/>
       <c r="E12" s="315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F12" s="315"/>
       <c r="G12" s="351"/>
       <c r="H12" s="368"/>
     </row>
     <row r="13" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="377"/>
+      <c r="B13" s="376"/>
       <c r="C13" s="358"/>
-      <c r="D13" s="483" t="s">
-        <v>366</v>
+      <c r="D13" s="482" t="s">
+        <v>360</v>
       </c>
       <c r="E13" s="315" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
       <c r="H13" s="368"/>
     </row>
     <row r="14" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="377"/>
+      <c r="B14" s="376"/>
       <c r="C14" s="358"/>
-      <c r="D14" s="484"/>
+      <c r="D14" s="483"/>
       <c r="E14" s="315" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
       <c r="H14" s="368"/>
     </row>
     <row r="15" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="377"/>
+      <c r="B15" s="376"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="484"/>
+      <c r="D15" s="483"/>
       <c r="E15" s="315" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
       <c r="H15" s="368"/>
     </row>
     <row r="16" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="377"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="355"/>
-      <c r="D16" s="484"/>
+      <c r="D16" s="483"/>
       <c r="E16" s="315" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="359"/>
       <c r="H16" s="369"/>
     </row>
     <row r="17" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="377"/>
+      <c r="B17" s="376"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="485"/>
+      <c r="D17" s="484"/>
       <c r="E17" s="315" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
       <c r="H17" s="368"/>
     </row>
     <row r="18" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="377"/>
+      <c r="B18" s="376"/>
       <c r="C18" s="322"/>
-      <c r="D18" s="360" t="s">
-        <v>335</v>
+      <c r="D18" s="482" t="s">
+        <v>364</v>
       </c>
       <c r="E18" s="315" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
       <c r="H18" s="368"/>
     </row>
     <row r="19" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="377"/>
+      <c r="B19" s="376"/>
       <c r="C19" s="330"/>
-      <c r="D19" s="295"/>
+      <c r="D19" s="483"/>
       <c r="E19" s="315" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F19" s="315"/>
       <c r="G19" s="351"/>
       <c r="H19" s="368"/>
     </row>
     <row r="20" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="377"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="330"/>
-      <c r="D20" s="295"/>
+      <c r="D20" s="483"/>
       <c r="E20" s="315" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
       <c r="H20" s="368"/>
     </row>
     <row r="21" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="377"/>
+      <c r="B21" s="376"/>
       <c r="C21" s="330"/>
-      <c r="D21" s="295"/>
+      <c r="D21" s="483"/>
       <c r="E21" s="315" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
       <c r="H21" s="368"/>
     </row>
     <row r="22" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="377"/>
+      <c r="B22" s="376"/>
       <c r="C22" s="322"/>
-      <c r="D22" s="375"/>
+      <c r="D22" s="484"/>
       <c r="E22" s="315" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
       <c r="H22" s="368"/>
     </row>
     <row r="23" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="377"/>
+      <c r="B23" s="376"/>
       <c r="C23" s="322"/>
       <c r="D23" s="360" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="315"/>
       <c r="F23" s="315"/>
@@ -12312,7 +12309,7 @@
       <c r="H23" s="368"/>
     </row>
     <row r="24" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="377"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="322"/>
       <c r="D24" s="295"/>
       <c r="E24" s="315"/>
@@ -12321,7 +12318,7 @@
       <c r="H24" s="368"/>
     </row>
     <row r="25" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="377"/>
+      <c r="B25" s="376"/>
       <c r="C25" s="330"/>
       <c r="D25" s="295"/>
       <c r="E25" s="315"/>
@@ -12330,7 +12327,7 @@
       <c r="H25" s="368"/>
     </row>
     <row r="26" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="377"/>
+      <c r="B26" s="376"/>
       <c r="C26" s="330"/>
       <c r="D26" s="295"/>
       <c r="E26" s="315"/>
@@ -12339,10 +12336,10 @@
       <c r="H26" s="368"/>
     </row>
     <row r="27" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="377"/>
+      <c r="B27" s="376"/>
       <c r="C27" s="330"/>
       <c r="D27" s="360" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E27" s="315"/>
       <c r="F27" s="315"/>
@@ -12350,7 +12347,7 @@
       <c r="H27" s="368"/>
     </row>
     <row r="28" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="377"/>
+      <c r="B28" s="376"/>
       <c r="C28" s="322"/>
       <c r="D28" s="295"/>
       <c r="E28" s="315"/>
@@ -12359,7 +12356,7 @@
       <c r="H28" s="368"/>
     </row>
     <row r="29" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="377"/>
+      <c r="B29" s="376"/>
       <c r="C29" s="322"/>
       <c r="D29" s="295"/>
       <c r="E29" s="315"/>
@@ -12368,7 +12365,7 @@
       <c r="H29" s="368"/>
     </row>
     <row r="30" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="377"/>
+      <c r="B30" s="376"/>
       <c r="C30" s="358"/>
       <c r="D30" s="295"/>
       <c r="E30" s="315"/>
@@ -12377,10 +12374,10 @@
       <c r="H30" s="368"/>
     </row>
     <row r="31" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="377"/>
+      <c r="B31" s="376"/>
       <c r="C31" s="358"/>
       <c r="D31" s="360" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E31" s="315"/>
       <c r="F31" s="356"/>
@@ -12388,7 +12385,7 @@
       <c r="H31" s="368"/>
     </row>
     <row r="32" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="377"/>
+      <c r="B32" s="376"/>
       <c r="C32" s="358"/>
       <c r="D32" s="295"/>
       <c r="E32" s="315"/>
@@ -12397,7 +12394,7 @@
       <c r="H32" s="368"/>
     </row>
     <row r="33" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="377"/>
+      <c r="B33" s="376"/>
       <c r="C33" s="358"/>
       <c r="D33" s="295"/>
       <c r="E33" s="315"/>
@@ -12406,7 +12403,7 @@
       <c r="H33" s="368"/>
     </row>
     <row r="34" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="377"/>
+      <c r="B34" s="376"/>
       <c r="C34" s="358"/>
       <c r="D34" s="295"/>
       <c r="E34" s="315"/>
@@ -12415,10 +12412,10 @@
       <c r="H34" s="368"/>
     </row>
     <row r="35" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="377"/>
+      <c r="B35" s="376"/>
       <c r="C35" s="358"/>
       <c r="D35" s="360" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
@@ -12426,7 +12423,7 @@
       <c r="H35" s="368"/>
     </row>
     <row r="36" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="377"/>
+      <c r="B36" s="376"/>
       <c r="C36" s="358"/>
       <c r="D36" s="295"/>
       <c r="E36" s="315"/>
@@ -12435,7 +12432,7 @@
       <c r="H36" s="368"/>
     </row>
     <row r="37" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="377"/>
+      <c r="B37" s="376"/>
       <c r="C37" s="358"/>
       <c r="D37" s="295"/>
       <c r="E37" s="315"/>
@@ -12444,7 +12441,7 @@
       <c r="H37" s="368"/>
     </row>
     <row r="38" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="377"/>
+      <c r="B38" s="376"/>
       <c r="C38" s="358"/>
       <c r="D38" s="295"/>
       <c r="E38" s="315"/>
@@ -12453,10 +12450,10 @@
       <c r="H38" s="368"/>
     </row>
     <row r="39" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="377"/>
+      <c r="B39" s="376"/>
       <c r="C39" s="358"/>
       <c r="D39" s="360" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39" s="315"/>
       <c r="F39" s="315"/>
@@ -12464,7 +12461,7 @@
       <c r="H39" s="368"/>
     </row>
     <row r="40" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="377"/>
+      <c r="B40" s="376"/>
       <c r="C40" s="358"/>
       <c r="D40" s="295"/>
       <c r="E40" s="315"/>
@@ -12473,7 +12470,7 @@
       <c r="H40" s="368"/>
     </row>
     <row r="41" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="377"/>
+      <c r="B41" s="376"/>
       <c r="C41" s="358"/>
       <c r="D41" s="295"/>
       <c r="E41" s="315"/>
@@ -12482,7 +12479,7 @@
       <c r="H41" s="368"/>
     </row>
     <row r="42" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="377"/>
+      <c r="B42" s="376"/>
       <c r="C42" s="355"/>
       <c r="D42" s="295"/>
       <c r="E42" s="355"/>
@@ -12491,10 +12488,10 @@
       <c r="H42" s="369"/>
     </row>
     <row r="43" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="377"/>
+      <c r="B43" s="376"/>
       <c r="C43" s="358"/>
-      <c r="D43" s="385" t="s">
-        <v>339</v>
+      <c r="D43" s="384" t="s">
+        <v>338</v>
       </c>
       <c r="E43" s="315"/>
       <c r="F43" s="315"/>
@@ -12502,37 +12499,37 @@
       <c r="H43" s="368"/>
     </row>
     <row r="44" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="377"/>
+      <c r="B44" s="376"/>
       <c r="C44" s="358"/>
-      <c r="D44" s="386"/>
+      <c r="D44" s="385"/>
       <c r="E44" s="315"/>
       <c r="F44" s="315"/>
       <c r="G44" s="351"/>
       <c r="H44" s="368"/>
     </row>
     <row r="45" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="377"/>
+      <c r="B45" s="376"/>
       <c r="C45" s="358"/>
-      <c r="D45" s="386"/>
+      <c r="D45" s="385"/>
       <c r="E45" s="315"/>
       <c r="F45" s="315"/>
       <c r="G45" s="351"/>
       <c r="H45" s="368"/>
     </row>
     <row r="46" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="377"/>
+      <c r="B46" s="376"/>
       <c r="C46" s="355"/>
-      <c r="D46" s="386"/>
+      <c r="D46" s="385"/>
       <c r="E46" s="355"/>
       <c r="F46" s="355"/>
       <c r="G46" s="359"/>
       <c r="H46" s="369"/>
     </row>
     <row r="47" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="377"/>
+      <c r="B47" s="376"/>
       <c r="C47" s="358"/>
-      <c r="D47" s="385" t="s">
-        <v>346</v>
+      <c r="D47" s="384" t="s">
+        <v>345</v>
       </c>
       <c r="E47" s="315"/>
       <c r="F47" s="315"/>
@@ -12540,37 +12537,37 @@
       <c r="H47" s="368"/>
     </row>
     <row r="48" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="377"/>
+      <c r="B48" s="376"/>
       <c r="C48" s="358"/>
-      <c r="D48" s="386"/>
+      <c r="D48" s="385"/>
       <c r="E48" s="315"/>
       <c r="F48" s="315"/>
       <c r="G48" s="351"/>
       <c r="H48" s="368"/>
     </row>
     <row r="49" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="377"/>
+      <c r="B49" s="376"/>
       <c r="C49" s="358"/>
-      <c r="D49" s="386"/>
+      <c r="D49" s="385"/>
       <c r="E49" s="315"/>
       <c r="F49" s="315"/>
       <c r="G49" s="351"/>
       <c r="H49" s="368"/>
     </row>
     <row r="50" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="377"/>
+      <c r="B50" s="376"/>
       <c r="C50" s="355"/>
-      <c r="D50" s="386"/>
+      <c r="D50" s="385"/>
       <c r="E50" s="355"/>
       <c r="F50" s="355"/>
       <c r="G50" s="359"/>
       <c r="H50" s="369"/>
     </row>
     <row r="51" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="377"/>
+      <c r="B51" s="376"/>
       <c r="C51" s="358"/>
-      <c r="D51" s="385" t="s">
-        <v>338</v>
+      <c r="D51" s="384" t="s">
+        <v>337</v>
       </c>
       <c r="E51" s="315"/>
       <c r="F51" s="315"/>
@@ -12578,34 +12575,34 @@
       <c r="H51" s="368"/>
     </row>
     <row r="52" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="377"/>
+      <c r="B52" s="376"/>
       <c r="C52" s="355"/>
-      <c r="D52" s="386"/>
+      <c r="D52" s="385"/>
       <c r="E52" s="355"/>
       <c r="F52" s="355"/>
       <c r="G52" s="359"/>
       <c r="H52" s="369"/>
     </row>
     <row r="53" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="377"/>
+      <c r="B53" s="376"/>
       <c r="C53" s="358"/>
-      <c r="D53" s="386"/>
+      <c r="D53" s="385"/>
       <c r="E53" s="315"/>
       <c r="F53" s="315"/>
       <c r="G53" s="351"/>
       <c r="H53" s="368"/>
     </row>
     <row r="54" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="377"/>
+      <c r="B54" s="376"/>
       <c r="C54" s="358"/>
-      <c r="D54" s="386"/>
+      <c r="D54" s="385"/>
       <c r="E54" s="315"/>
       <c r="F54" s="315"/>
       <c r="G54" s="351"/>
       <c r="H54" s="368"/>
     </row>
     <row r="55" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="377"/>
+      <c r="B55" s="376"/>
       <c r="C55" s="355"/>
       <c r="D55" s="355"/>
       <c r="E55" s="355"/>
@@ -12614,7 +12611,7 @@
       <c r="H55" s="369"/>
     </row>
     <row r="56" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="377"/>
+      <c r="B56" s="376"/>
       <c r="C56" s="358"/>
       <c r="D56" s="358"/>
       <c r="E56" s="315"/>
@@ -12623,7 +12620,7 @@
       <c r="H56" s="368"/>
     </row>
     <row r="57" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="377"/>
+      <c r="B57" s="376"/>
       <c r="C57" s="358"/>
       <c r="D57" s="358"/>
       <c r="E57" s="315"/>
@@ -12632,7 +12629,7 @@
       <c r="H57" s="368"/>
     </row>
     <row r="58" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="377"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="355"/>
       <c r="D58" s="355"/>
       <c r="E58" s="355"/>
@@ -12641,7 +12638,7 @@
       <c r="H58" s="369"/>
     </row>
     <row r="59" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="377"/>
+      <c r="B59" s="376"/>
       <c r="C59" s="358"/>
       <c r="D59" s="358"/>
       <c r="E59" s="315"/>
@@ -12650,7 +12647,7 @@
       <c r="H59" s="368"/>
     </row>
     <row r="60" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="377"/>
+      <c r="B60" s="376"/>
       <c r="C60" s="358"/>
       <c r="D60" s="358"/>
       <c r="E60" s="315"/>
@@ -12659,7 +12656,7 @@
       <c r="H60" s="368"/>
     </row>
     <row r="61" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="377"/>
+      <c r="B61" s="376"/>
       <c r="C61" s="355"/>
       <c r="D61" s="355"/>
       <c r="E61" s="355"/>
@@ -12668,7 +12665,7 @@
       <c r="H61" s="369"/>
     </row>
     <row r="62" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="377"/>
+      <c r="B62" s="376"/>
       <c r="C62" s="358"/>
       <c r="D62" s="358"/>
       <c r="E62" s="315"/>
@@ -12677,7 +12674,7 @@
       <c r="H62" s="368"/>
     </row>
     <row r="63" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="377"/>
+      <c r="B63" s="376"/>
       <c r="C63" s="358"/>
       <c r="D63" s="358"/>
       <c r="E63" s="315"/>
@@ -12686,7 +12683,7 @@
       <c r="H63" s="368"/>
     </row>
     <row r="64" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="377"/>
+      <c r="B64" s="376"/>
       <c r="C64" s="355"/>
       <c r="D64" s="355"/>
       <c r="E64" s="355"/>
@@ -12695,7 +12692,7 @@
       <c r="H64" s="369"/>
     </row>
     <row r="65" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="377"/>
+      <c r="B65" s="376"/>
       <c r="C65" s="358"/>
       <c r="D65" s="358"/>
       <c r="E65" s="315"/>
@@ -12704,7 +12701,7 @@
       <c r="H65" s="368"/>
     </row>
     <row r="66" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="377"/>
+      <c r="B66" s="376"/>
       <c r="C66" s="358"/>
       <c r="D66" s="358"/>
       <c r="E66" s="315"/>
@@ -12713,7 +12710,7 @@
       <c r="H66" s="368"/>
     </row>
     <row r="67" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="377"/>
+      <c r="B67" s="376"/>
       <c r="C67" s="355"/>
       <c r="D67" s="355"/>
       <c r="E67" s="355"/>
@@ -12722,7 +12719,7 @@
       <c r="H67" s="369"/>
     </row>
     <row r="68" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="377"/>
+      <c r="B68" s="376"/>
       <c r="C68" s="358"/>
       <c r="D68" s="358"/>
       <c r="E68" s="315"/>
@@ -12731,7 +12728,7 @@
       <c r="H68" s="368"/>
     </row>
     <row r="69" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="377"/>
+      <c r="B69" s="376"/>
       <c r="C69" s="358"/>
       <c r="D69" s="358"/>
       <c r="E69" s="315"/>
@@ -12740,7 +12737,7 @@
       <c r="H69" s="368"/>
     </row>
     <row r="70" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="377"/>
+      <c r="B70" s="376"/>
       <c r="C70" s="355"/>
       <c r="D70" s="355"/>
       <c r="E70" s="355"/>
@@ -12749,7 +12746,7 @@
       <c r="H70" s="369"/>
     </row>
     <row r="71" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="377"/>
+      <c r="B71" s="376"/>
       <c r="C71" s="358"/>
       <c r="D71" s="358"/>
       <c r="E71" s="315"/>
@@ -12758,7 +12755,7 @@
       <c r="H71" s="368"/>
     </row>
     <row r="72" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="377"/>
+      <c r="B72" s="376"/>
       <c r="C72" s="358"/>
       <c r="D72" s="358"/>
       <c r="E72" s="315"/>
@@ -12767,7 +12764,7 @@
       <c r="H72" s="368"/>
     </row>
     <row r="73" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="377"/>
+      <c r="B73" s="376"/>
       <c r="C73" s="355"/>
       <c r="D73" s="355"/>
       <c r="E73" s="355"/>
@@ -12776,7 +12773,7 @@
       <c r="H73" s="369"/>
     </row>
     <row r="74" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="377"/>
+      <c r="B74" s="376"/>
       <c r="C74" s="358"/>
       <c r="D74" s="358"/>
       <c r="E74" s="315"/>
@@ -12785,7 +12782,7 @@
       <c r="H74" s="368"/>
     </row>
     <row r="75" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="377"/>
+      <c r="B75" s="376"/>
       <c r="C75" s="358"/>
       <c r="D75" s="358"/>
       <c r="E75" s="315"/>
@@ -12794,7 +12791,7 @@
       <c r="H75" s="368"/>
     </row>
     <row r="76" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="377"/>
+      <c r="B76" s="376"/>
       <c r="C76" s="355"/>
       <c r="D76" s="355"/>
       <c r="E76" s="355"/>
@@ -12803,7 +12800,7 @@
       <c r="H76" s="369"/>
     </row>
     <row r="77" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="377"/>
+      <c r="B77" s="376"/>
       <c r="C77" s="358"/>
       <c r="D77" s="358"/>
       <c r="E77" s="315"/>
@@ -12812,7 +12809,7 @@
       <c r="H77" s="368"/>
     </row>
     <row r="78" spans="2:8" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="377"/>
+      <c r="B78" s="376"/>
       <c r="C78" s="360"/>
       <c r="D78" s="358"/>
       <c r="E78" s="315"/>
@@ -12821,7 +12818,7 @@
       <c r="H78" s="368"/>
     </row>
     <row r="79" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="377"/>
+      <c r="B79" s="376"/>
       <c r="C79" s="331"/>
       <c r="D79" s="358"/>
       <c r="E79" s="315"/>
@@ -12830,7 +12827,7 @@
       <c r="H79" s="368"/>
     </row>
     <row r="80" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="377"/>
+      <c r="B80" s="376"/>
       <c r="C80" s="331"/>
       <c r="D80" s="358"/>
       <c r="E80" s="315"/>
@@ -12839,7 +12836,7 @@
       <c r="H80" s="368"/>
     </row>
     <row r="81" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="378"/>
+      <c r="B81" s="377"/>
       <c r="C81" s="370"/>
       <c r="D81" s="371"/>
       <c r="E81" s="372"/>
@@ -12877,9 +12874,10 @@
     <row r="85" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D18:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12910,48 +12908,48 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="62.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="486" t="s">
+      <c r="B2" s="485" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="488"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="487"/>
     </row>
     <row r="3" spans="2:10" ht="4.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="496" t="s">
+      <c r="C3" s="495" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="497" t="s">
+      <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="420" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="489"/>
-      <c r="I3" s="490"/>
-      <c r="J3" s="491"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="489"/>
+      <c r="J3" s="490"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12959,10 +12957,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="386" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -12982,8 +12980,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="414"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -13001,8 +12999,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="402"/>
-      <c r="C7" s="405"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="388"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13022,8 +13020,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="402"/>
-      <c r="C8" s="405"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="388"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13041,8 +13039,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
+      <c r="B9" s="413"/>
+      <c r="C9" s="388"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13060,8 +13058,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="388"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13079,8 +13077,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="388"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13098,8 +13096,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="388"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13117,8 +13115,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
+      <c r="B13" s="413"/>
+      <c r="C13" s="388"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13136,8 +13134,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="388"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13155,9 +13153,9 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="493" t="s">
+      <c r="B15" s="413"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="492" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="22">
@@ -13174,9 +13172,9 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="402"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="494"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="493"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
       <c r="G16" s="113"/>
@@ -13185,8 +13183,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="409" t="s">
+      <c r="B17" s="413"/>
+      <c r="C17" s="417" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13206,8 +13204,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="402"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="413"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13225,8 +13223,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="402"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="413"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13244,8 +13242,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="402"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="413"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13263,8 +13261,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="402"/>
+      <c r="B21" s="413"/>
+      <c r="C21" s="413"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13282,8 +13280,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="402"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="413"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -13301,8 +13299,8 @@
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="492"/>
-      <c r="C23" s="492"/>
+      <c r="B23" s="491"/>
+      <c r="C23" s="491"/>
       <c r="D23" s="143" t="s">
         <v>137</v>
       </c>
@@ -13999,78 +13997,78 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="486" t="s">
+      <c r="B2" s="485" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
-      <c r="M2" s="527"/>
-      <c r="N2" s="527"/>
-      <c r="O2" s="527"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
-      <c r="R2" s="527"/>
-      <c r="S2" s="527"/>
-      <c r="T2" s="527"/>
-      <c r="U2" s="527"/>
-      <c r="V2" s="527"/>
-      <c r="W2" s="527"/>
-      <c r="X2" s="487"/>
-      <c r="Y2" s="487"/>
-      <c r="Z2" s="488"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="499"/>
+      <c r="N2" s="499"/>
+      <c r="O2" s="499"/>
+      <c r="P2" s="499"/>
+      <c r="Q2" s="499"/>
+      <c r="R2" s="499"/>
+      <c r="S2" s="499"/>
+      <c r="T2" s="499"/>
+      <c r="U2" s="499"/>
+      <c r="V2" s="499"/>
+      <c r="W2" s="499"/>
+      <c r="X2" s="486"/>
+      <c r="Y2" s="486"/>
+      <c r="Z2" s="487"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="496" t="s">
+      <c r="C3" s="495" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="497" t="s">
+      <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="420" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="420" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="496" t="s">
+      <c r="J3" s="495" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="496" t="s">
+      <c r="K3" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="529" t="s">
+      <c r="L3" s="501" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="497" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="497" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="517" t="s">
@@ -14092,28 +14090,28 @@
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="508" t="s">
+      <c r="X3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="509"/>
-      <c r="Z3" s="510"/>
+      <c r="Y3" s="506"/>
+      <c r="Z3" s="507"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="502"/>
+      <c r="M4" s="504"/>
+      <c r="N4" s="498"/>
+      <c r="O4" s="498"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="518"/>
       <c r="R4" s="520"/>
       <c r="S4" s="522"/>
@@ -14123,18 +14121,18 @@
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="511"/>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="512"/>
+      <c r="X4" s="508"/>
+      <c r="Y4" s="508"/>
+      <c r="Z4" s="509"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="386" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14185,9 +14183,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14214,9 +14212,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="412"/>
+      <c r="C7" s="414"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14257,9 +14255,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14284,9 +14282,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="498" t="s">
+      <c r="B9" s="413"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="513" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14331,9 +14329,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="499"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="514"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14358,9 +14356,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="498" t="s">
+      <c r="B11" s="413"/>
+      <c r="C11" s="388"/>
+      <c r="D11" s="513" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14401,9 +14399,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="499"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="514"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14430,9 +14428,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="504" t="s">
+      <c r="B13" s="413"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="515" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14465,8 +14463,8 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="388"/>
       <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
@@ -14494,9 +14492,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="498" t="s">
+      <c r="B15" s="413"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="513" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14533,9 +14531,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="499"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="388"/>
+      <c r="D16" s="514"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14562,9 +14560,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="498" t="s">
+      <c r="B17" s="413"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="513" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14607,9 +14605,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="499"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="514"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14636,9 +14634,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="413"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="513" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14675,9 +14673,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="514"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14704,9 +14702,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="500" t="s">
+      <c r="B21" s="413"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="525" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14739,9 +14737,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="501"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="526"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14768,8 +14766,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="388"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14809,8 +14807,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="388"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14836,9 +14834,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="493" t="s">
+      <c r="B25" s="413"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -14875,9 +14873,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="527"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14904,11 +14902,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="413"/>
+      <c r="C27" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="528" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14945,9 +14943,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="413"/>
+      <c r="C28" s="412"/>
+      <c r="D28" s="514"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -14974,9 +14972,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="413"/>
+      <c r="C29" s="413"/>
+      <c r="D29" s="513" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15013,9 +15011,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="413"/>
+      <c r="D30" s="514"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15042,9 +15040,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="413"/>
+      <c r="C31" s="413"/>
+      <c r="D31" s="513" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15081,9 +15079,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="413"/>
+      <c r="D32" s="514"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15110,9 +15108,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="413"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="513" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15149,9 +15147,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="413"/>
+      <c r="D34" s="514"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15178,9 +15176,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="498" t="s">
+      <c r="B35" s="413"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="513" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15217,9 +15215,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="499"/>
+      <c r="B36" s="413"/>
+      <c r="C36" s="413"/>
+      <c r="D36" s="514"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15246,9 +15244,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="498" t="s">
+      <c r="B37" s="413"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="513" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15285,9 +15283,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="499"/>
+      <c r="B38" s="413"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="514"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15314,9 +15312,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="504" t="s">
+      <c r="B39" s="413"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="515" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15347,9 +15345,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="505"/>
+      <c r="B40" s="413"/>
+      <c r="C40" s="413"/>
+      <c r="D40" s="529"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15376,9 +15374,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
-      <c r="D41" s="506" t="s">
+      <c r="B41" s="413"/>
+      <c r="C41" s="413"/>
+      <c r="D41" s="530" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15411,9 +15409,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="402"/>
-      <c r="C42" s="402"/>
-      <c r="D42" s="507"/>
+      <c r="B42" s="413"/>
+      <c r="C42" s="413"/>
+      <c r="D42" s="531"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15440,13 +15438,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="403" t="s">
+      <c r="B43" s="386" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="420" t="s">
+      <c r="C43" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="424" t="s">
+      <c r="D43" s="394" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15481,9 +15479,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="419"/>
-      <c r="C44" s="421"/>
-      <c r="D44" s="425"/>
+      <c r="B44" s="387"/>
+      <c r="C44" s="391"/>
+      <c r="D44" s="395"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15499,9 +15497,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="405"/>
-      <c r="C45" s="422"/>
-      <c r="D45" s="425"/>
+      <c r="B45" s="388"/>
+      <c r="C45" s="392"/>
+      <c r="D45" s="395"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15517,9 +15515,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="405"/>
-      <c r="C46" s="422"/>
-      <c r="D46" s="426" t="s">
+      <c r="B46" s="388"/>
+      <c r="C46" s="392"/>
+      <c r="D46" s="396" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15534,18 +15532,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="405"/>
-      <c r="C47" s="422"/>
-      <c r="D47" s="426"/>
+      <c r="B47" s="388"/>
+      <c r="C47" s="392"/>
+      <c r="D47" s="396"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="405"/>
-      <c r="C48" s="422"/>
-      <c r="D48" s="426" t="s">
+      <c r="B48" s="388"/>
+      <c r="C48" s="392"/>
+      <c r="D48" s="396" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15560,18 +15558,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="405"/>
-      <c r="C49" s="422"/>
-      <c r="D49" s="426"/>
+      <c r="B49" s="388"/>
+      <c r="C49" s="392"/>
+      <c r="D49" s="396"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="405"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="426" t="s">
+      <c r="B50" s="388"/>
+      <c r="C50" s="392"/>
+      <c r="D50" s="396" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15586,9 +15584,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="406"/>
-      <c r="C51" s="423"/>
-      <c r="D51" s="427"/>
+      <c r="B51" s="389"/>
+      <c r="C51" s="393"/>
+      <c r="D51" s="397"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15899,12 +15897,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="X3:Z4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:B4"/>
@@ -15921,34 +15941,12 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="X3:Z4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15992,78 +15990,78 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="486" t="s">
+      <c r="B2" s="485" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
-      <c r="M2" s="527"/>
-      <c r="N2" s="527"/>
-      <c r="O2" s="527"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
-      <c r="R2" s="527"/>
-      <c r="S2" s="527"/>
-      <c r="T2" s="527"/>
-      <c r="U2" s="527"/>
-      <c r="V2" s="527"/>
-      <c r="W2" s="527"/>
-      <c r="X2" s="487"/>
-      <c r="Y2" s="487"/>
-      <c r="Z2" s="488"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="499"/>
+      <c r="N2" s="499"/>
+      <c r="O2" s="499"/>
+      <c r="P2" s="499"/>
+      <c r="Q2" s="499"/>
+      <c r="R2" s="499"/>
+      <c r="S2" s="499"/>
+      <c r="T2" s="499"/>
+      <c r="U2" s="499"/>
+      <c r="V2" s="499"/>
+      <c r="W2" s="499"/>
+      <c r="X2" s="486"/>
+      <c r="Y2" s="486"/>
+      <c r="Z2" s="487"/>
     </row>
     <row r="3" spans="2:26" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="496" t="s">
+      <c r="C3" s="495" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="497" t="s">
+      <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="420" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="420" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="496" t="s">
+      <c r="J3" s="495" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="496" t="s">
+      <c r="K3" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="529" t="s">
+      <c r="L3" s="501" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="497" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="497" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="517" t="s">
@@ -16085,28 +16083,28 @@
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="508" t="s">
+      <c r="X3" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="509"/>
-      <c r="Z3" s="510"/>
+      <c r="Y3" s="506"/>
+      <c r="Z3" s="507"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="502"/>
+      <c r="M4" s="504"/>
+      <c r="N4" s="498"/>
+      <c r="O4" s="498"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="518"/>
       <c r="R4" s="520"/>
       <c r="S4" s="522"/>
@@ -16116,18 +16114,18 @@
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="511"/>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="512"/>
+      <c r="X4" s="508"/>
+      <c r="Y4" s="508"/>
+      <c r="Z4" s="509"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="386" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16178,9 +16176,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16207,9 +16205,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="412"/>
+      <c r="C7" s="414"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16250,9 +16248,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16277,9 +16275,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="498" t="s">
+      <c r="B9" s="413"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="513" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16324,9 +16322,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
-      <c r="D10" s="499"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="514"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16351,9 +16349,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="498" t="s">
+      <c r="B11" s="413"/>
+      <c r="C11" s="388"/>
+      <c r="D11" s="513" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16394,9 +16392,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="499"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="514"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16423,9 +16421,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="504" t="s">
+      <c r="B13" s="413"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="515" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16458,8 +16456,8 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="388"/>
       <c r="D14" s="516"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
@@ -16487,9 +16485,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="498" t="s">
+      <c r="B15" s="413"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="513" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16526,9 +16524,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="499"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="388"/>
+      <c r="D16" s="514"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16555,9 +16553,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="498" t="s">
+      <c r="B17" s="413"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="513" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16600,9 +16598,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="499"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="514"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16629,9 +16627,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="413"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="513" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16668,9 +16666,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="514"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16697,9 +16695,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="500" t="s">
+      <c r="B21" s="413"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="525" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16734,9 +16732,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="501"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="526"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16763,8 +16761,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="388"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16804,8 +16802,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="388"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16831,9 +16829,9 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="493" t="s">
+      <c r="B25" s="413"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -16870,9 +16868,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="527"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16899,11 +16897,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="413"/>
+      <c r="C27" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="528" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16940,9 +16938,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="413"/>
+      <c r="C28" s="412"/>
+      <c r="D28" s="514"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16969,9 +16967,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="413"/>
+      <c r="C29" s="413"/>
+      <c r="D29" s="513" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -17008,9 +17006,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="413"/>
+      <c r="D30" s="514"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17037,9 +17035,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="413"/>
+      <c r="C31" s="413"/>
+      <c r="D31" s="513" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17076,9 +17074,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="413"/>
+      <c r="D32" s="514"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17105,9 +17103,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="413"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="513" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17144,9 +17142,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="413"/>
+      <c r="D34" s="514"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17173,9 +17171,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="498" t="s">
+      <c r="B35" s="413"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="513" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17212,9 +17210,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
-      <c r="D36" s="499"/>
+      <c r="B36" s="413"/>
+      <c r="C36" s="413"/>
+      <c r="D36" s="514"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17241,9 +17239,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
-      <c r="D37" s="498" t="s">
+      <c r="B37" s="413"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="513" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17280,9 +17278,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="499"/>
+      <c r="B38" s="413"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="514"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17309,9 +17307,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="504" t="s">
+      <c r="B39" s="413"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="515" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17342,9 +17340,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="505"/>
+      <c r="B40" s="413"/>
+      <c r="C40" s="413"/>
+      <c r="D40" s="529"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17371,9 +17369,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
-      <c r="D41" s="493" t="s">
+      <c r="B41" s="413"/>
+      <c r="C41" s="413"/>
+      <c r="D41" s="492" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -17408,9 +17406,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="492"/>
-      <c r="C42" s="492"/>
-      <c r="D42" s="494"/>
+      <c r="B42" s="491"/>
+      <c r="C42" s="491"/>
+      <c r="D42" s="493"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -17771,24 +17769,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17805,16 +17795,24 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17857,82 +17855,82 @@
   <sheetData>
     <row r="1" spans="2:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" s="2" customFormat="1" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="486" t="s">
+      <c r="B2" s="485" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
-      <c r="M2" s="487"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="487"/>
-      <c r="P2" s="487"/>
-      <c r="Q2" s="487"/>
-      <c r="R2" s="487"/>
-      <c r="S2" s="487"/>
-      <c r="T2" s="487"/>
-      <c r="U2" s="487"/>
-      <c r="V2" s="487"/>
-      <c r="W2" s="487"/>
-      <c r="X2" s="487"/>
-      <c r="Y2" s="487"/>
-      <c r="Z2" s="487"/>
-      <c r="AA2" s="487"/>
-      <c r="AB2" s="487"/>
-      <c r="AC2" s="487"/>
-      <c r="AD2" s="488"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="486"/>
+      <c r="O2" s="486"/>
+      <c r="P2" s="486"/>
+      <c r="Q2" s="486"/>
+      <c r="R2" s="486"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="486"/>
+      <c r="U2" s="486"/>
+      <c r="V2" s="486"/>
+      <c r="W2" s="486"/>
+      <c r="X2" s="486"/>
+      <c r="Y2" s="486"/>
+      <c r="Z2" s="486"/>
+      <c r="AA2" s="486"/>
+      <c r="AB2" s="486"/>
+      <c r="AC2" s="486"/>
+      <c r="AD2" s="487"/>
     </row>
     <row r="3" spans="2:30" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="494" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="496" t="s">
+      <c r="C3" s="495" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="495" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="497" t="s">
+      <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="412" t="s">
+      <c r="G3" s="420" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="420" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="496" t="s">
+      <c r="J3" s="495" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="496" t="s">
+      <c r="K3" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="496" t="s">
+      <c r="L3" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="525" t="s">
+      <c r="N3" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="525" t="s">
+      <c r="O3" s="497" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="525" t="s">
+      <c r="P3" s="497" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="517" t="s">
@@ -17950,69 +17948,69 @@
       <c r="U3" s="521" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="547" t="s">
+      <c r="V3" s="534" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="543" t="s">
+      <c r="W3" s="542" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="539" t="s">
+      <c r="X3" s="538" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="539" t="s">
+      <c r="Y3" s="538" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="539" t="s">
+      <c r="Z3" s="538" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="541" t="s">
+      <c r="AA3" s="540" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="545" t="s">
+      <c r="AB3" s="532" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="510"/>
+      <c r="AC3" s="506"/>
+      <c r="AD3" s="507"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="411"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="415"/>
-      <c r="F4" s="416"/>
-      <c r="G4" s="416"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="528"/>
-      <c r="K4" s="528"/>
-      <c r="L4" s="528"/>
-      <c r="M4" s="532"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="504"/>
+      <c r="N4" s="498"/>
+      <c r="O4" s="498"/>
+      <c r="P4" s="498"/>
       <c r="Q4" s="518"/>
       <c r="R4" s="520"/>
       <c r="S4" s="522"/>
       <c r="T4" s="522"/>
       <c r="U4" s="522"/>
-      <c r="V4" s="548"/>
-      <c r="W4" s="544"/>
-      <c r="X4" s="540"/>
-      <c r="Y4" s="540"/>
-      <c r="Z4" s="540"/>
-      <c r="AA4" s="542"/>
-      <c r="AB4" s="546"/>
-      <c r="AC4" s="511"/>
-      <c r="AD4" s="512"/>
+      <c r="V4" s="535"/>
+      <c r="W4" s="543"/>
+      <c r="X4" s="539"/>
+      <c r="Y4" s="539"/>
+      <c r="Z4" s="539"/>
+      <c r="AA4" s="541"/>
+      <c r="AB4" s="533"/>
+      <c r="AC4" s="508"/>
+      <c r="AD4" s="509"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="400" t="s">
+      <c r="B5" s="411" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="403" t="s">
+      <c r="C5" s="386" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="513" t="s">
+      <c r="D5" s="510" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18067,9 +18065,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="401"/>
-      <c r="C6" s="404"/>
-      <c r="D6" s="514"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="511"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18100,9 +18098,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="401"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="515" t="s">
+      <c r="B7" s="412"/>
+      <c r="C7" s="414"/>
+      <c r="D7" s="512" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18143,9 +18141,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="515"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="512"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18174,8 +18172,8 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="402"/>
-      <c r="C9" s="405"/>
+      <c r="B9" s="413"/>
+      <c r="C9" s="388"/>
       <c r="D9" s="536" t="s">
         <v>28</v>
       </c>
@@ -18227,8 +18225,8 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="402"/>
-      <c r="C10" s="405"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="388"/>
       <c r="D10" s="537"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
@@ -18258,8 +18256,8 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="388"/>
       <c r="D11" s="536" t="s">
         <v>49</v>
       </c>
@@ -18307,8 +18305,8 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="402"/>
-      <c r="C12" s="405"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="388"/>
       <c r="D12" s="537"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
@@ -18340,9 +18338,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="402"/>
-      <c r="C13" s="405"/>
-      <c r="D13" s="498" t="s">
+      <c r="B13" s="413"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="513" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18379,9 +18377,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="499"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18412,8 +18410,8 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="402"/>
-      <c r="C15" s="405"/>
+      <c r="B15" s="413"/>
+      <c r="C15" s="388"/>
       <c r="D15" s="536" t="s">
         <v>30</v>
       </c>
@@ -18455,8 +18453,8 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="402"/>
-      <c r="C16" s="405"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="388"/>
       <c r="D16" s="537"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
@@ -18488,8 +18486,8 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="402"/>
-      <c r="C17" s="405"/>
+      <c r="B17" s="413"/>
+      <c r="C17" s="388"/>
       <c r="D17" s="536" t="s">
         <v>31</v>
       </c>
@@ -18539,8 +18537,8 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="388"/>
       <c r="D18" s="537"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
@@ -18572,9 +18570,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="402"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="498" t="s">
+      <c r="B19" s="413"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="513" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18613,9 +18611,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="499"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="514"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18646,9 +18644,9 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="402"/>
-      <c r="C21" s="405"/>
-      <c r="D21" s="493" t="s">
+      <c r="B21" s="413"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="492" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -18689,9 +18687,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="535"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="546"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18722,8 +18720,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="402"/>
-      <c r="C23" s="405"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="388"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18765,8 +18763,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="388"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18796,9 +18794,9 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="402"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="493" t="s">
+      <c r="B25" s="413"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="22">
@@ -18837,9 +18835,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="402"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="502"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="527"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18870,11 +18868,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="402"/>
-      <c r="C27" s="409" t="s">
+      <c r="B27" s="413"/>
+      <c r="C27" s="417" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="503" t="s">
+      <c r="D27" s="528" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18915,9 +18913,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="402"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="413"/>
+      <c r="C28" s="412"/>
+      <c r="D28" s="514"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18948,9 +18946,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="402"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="498" t="s">
+      <c r="B29" s="413"/>
+      <c r="C29" s="413"/>
+      <c r="D29" s="513" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18989,9 +18987,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="402"/>
-      <c r="C30" s="402"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="413"/>
+      <c r="D30" s="514"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19022,9 +19020,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="402"/>
-      <c r="C31" s="402"/>
-      <c r="D31" s="498" t="s">
+      <c r="B31" s="413"/>
+      <c r="C31" s="413"/>
+      <c r="D31" s="513" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19063,9 +19061,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="402"/>
-      <c r="C32" s="402"/>
-      <c r="D32" s="499"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="413"/>
+      <c r="D32" s="514"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19096,9 +19094,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="498" t="s">
+      <c r="B33" s="413"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="513" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19137,9 +19135,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="499"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="413"/>
+      <c r="D34" s="514"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19170,8 +19168,8 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
+      <c r="B35" s="413"/>
+      <c r="C35" s="413"/>
       <c r="D35" s="536" t="s">
         <v>22</v>
       </c>
@@ -19213,8 +19211,8 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="402"/>
-      <c r="C36" s="402"/>
+      <c r="B36" s="413"/>
+      <c r="C36" s="413"/>
       <c r="D36" s="537"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
@@ -19246,8 +19244,8 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="402"/>
-      <c r="C37" s="402"/>
+      <c r="B37" s="413"/>
+      <c r="C37" s="413"/>
       <c r="D37" s="536" t="s">
         <v>23</v>
       </c>
@@ -19287,8 +19285,8 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
+      <c r="B38" s="413"/>
+      <c r="C38" s="413"/>
       <c r="D38" s="537"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
@@ -19320,9 +19318,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="402"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="498" t="s">
+      <c r="B39" s="413"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="513" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19357,9 +19355,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="402"/>
-      <c r="C40" s="402"/>
-      <c r="D40" s="538"/>
+      <c r="B40" s="413"/>
+      <c r="C40" s="413"/>
+      <c r="D40" s="547"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19390,9 +19388,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="402"/>
-      <c r="C41" s="402"/>
-      <c r="D41" s="533" t="s">
+      <c r="B41" s="413"/>
+      <c r="C41" s="413"/>
+      <c r="D41" s="544" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19431,9 +19429,9 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="492"/>
-      <c r="C42" s="492"/>
-      <c r="D42" s="534"/>
+      <c r="B42" s="491"/>
+      <c r="C42" s="491"/>
+      <c r="D42" s="545"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19796,6 +19794,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B42"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -19812,39 +19843,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B5:B42"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/02- Backlog/MID - Backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\02- Backlog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA7BFB-E1B3-4CE2-BEE2-6568C3E9E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog Funcional" sheetId="3" state="hidden" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="0" hidden="1">'Backlog Funcional'!$6:$6,'Backlog Funcional'!$50:$50,'Backlog Funcional'!$58:$58,'Backlog Funcional'!$65:$65</definedName>
     <definedName name="Z_5A3D1950_3803_405C_80C5_3BF9571F0071_.wvu.Rows" localSheetId="4" hidden="1">'Backlog Status Procesos 121121'!$3:$3,'Backlog Status Procesos 121121'!$6:$6,'Backlog Status Procesos 121121'!$16:$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <customWorkbookViews>
     <customWorkbookView name="Usuario de Windows - Vista personalizada" guid="{5A3D1950-3803-405C-80C5-3BF9571F0071}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="761" activeSheetId="1"/>
   </customWorkbookViews>
@@ -42,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,12 +78,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="E36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="E40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="E47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="E48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,12 +460,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,12 +502,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,12 +572,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,12 +642,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -718,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="374">
   <si>
     <t>N°</t>
   </si>
@@ -1828,10 +1822,6 @@
 Liquidación</t>
   </si>
   <si>
-    <t>Gestionar Cta Cte 
-Beneficiario</t>
-  </si>
-  <si>
     <t>Gestionar Pago 
 Entidades
 (Bancos, etc)</t>
@@ -1921,12 +1911,28 @@
   </si>
   <si>
     <t>HU-MID-DESC-005- Consultar BandejaTransacción por Entidad</t>
+  </si>
+  <si>
+    <t>Gestionar Oficio Judicial
+Beneficiario</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-001-Registrar Oficio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-002-Editar Oficio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-003-Consultar Oficio</t>
+  </si>
+  <si>
+    <t>HU-MID-OFI-004-Baja Oficio?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5010,18 +5016,105 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5046,91 +5139,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5190,9 +5247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5220,54 +5274,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -5343,6 +5349,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5367,86 +5454,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5459,42 +5501,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5547,7 +5553,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5636,7 +5642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5669,26 +5675,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5721,23 +5710,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5913,7 +5885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA217"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -5942,62 +5914,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="2" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="400" t="s">
+      <c r="B2" s="388" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="402"/>
-      <c r="N2" s="403"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="389"/>
+      <c r="I2" s="389"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="391"/>
     </row>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="418" t="s">
+      <c r="B3" s="409" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="420" t="s">
+      <c r="C3" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="420" t="s">
+      <c r="D3" s="411" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="422" t="s">
+      <c r="E3" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="420" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="425" t="s">
+      <c r="G3" s="416" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="397" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
       <c r="K3" s="163"/>
       <c r="L3" s="163"/>
-      <c r="M3" s="404" t="s">
+      <c r="M3" s="392" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="398" t="s">
+      <c r="N3" s="386" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="419"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="426"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="417"/>
       <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
@@ -6011,14 +5983,14 @@
         <v>141</v>
       </c>
       <c r="L4" s="162"/>
-      <c r="M4" s="405"/>
-      <c r="N4" s="399"/>
+      <c r="M4" s="393"/>
+      <c r="N4" s="387"/>
     </row>
     <row r="5" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="386" t="s">
+      <c r="C5" s="402" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="147" t="s">
@@ -6039,8 +6011,8 @@
       <c r="N5" s="169"/>
     </row>
     <row r="6" spans="2:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="412"/>
-      <c r="C6" s="414"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -6056,8 +6028,8 @@
       <c r="N6" s="169"/>
     </row>
     <row r="7" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="388"/>
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="148" t="s">
         <v>28</v>
       </c>
@@ -6076,8 +6048,8 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="413"/>
-      <c r="C8" s="388"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="153" t="s">
         <v>49</v>
       </c>
@@ -6096,9 +6068,9 @@
       <c r="N8" s="185"/>
     </row>
     <row r="9" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="413"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="406" t="s">
+      <c r="B9" s="401"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="394" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="196">
@@ -6129,9 +6101,9 @@
       <c r="N9" s="204"/>
     </row>
     <row r="10" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="413"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="407"/>
+      <c r="B10" s="401"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="395"/>
       <c r="E10" s="205">
         <v>2</v>
       </c>
@@ -6150,9 +6122,9 @@
       <c r="N10" s="213"/>
     </row>
     <row r="11" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="413"/>
-      <c r="C11" s="388"/>
-      <c r="D11" s="407"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="404"/>
+      <c r="D11" s="395"/>
       <c r="E11" s="205">
         <v>3</v>
       </c>
@@ -6171,9 +6143,9 @@
       <c r="N11" s="213"/>
     </row>
     <row r="12" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="413"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="407"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="395"/>
       <c r="E12" s="205">
         <v>4</v>
       </c>
@@ -6192,9 +6164,9 @@
       <c r="N12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="413"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="407"/>
+      <c r="B13" s="401"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="395"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -6212,9 +6184,9 @@
       <c r="N13" s="169"/>
     </row>
     <row r="14" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="413"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="407"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="404"/>
+      <c r="D14" s="395"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
@@ -6232,9 +6204,9 @@
       <c r="N14" s="169"/>
     </row>
     <row r="15" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="413"/>
-      <c r="C15" s="388"/>
-      <c r="D15" s="407"/>
+      <c r="B15" s="401"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="395"/>
       <c r="E15" s="22">
         <v>7</v>
       </c>
@@ -6252,9 +6224,9 @@
       <c r="N15" s="169"/>
     </row>
     <row r="16" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="413"/>
-      <c r="C16" s="388"/>
-      <c r="D16" s="407"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="395"/>
       <c r="E16" s="22">
         <v>8</v>
       </c>
@@ -6272,9 +6244,9 @@
       <c r="N16" s="169"/>
     </row>
     <row r="17" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="413"/>
-      <c r="C17" s="388"/>
-      <c r="D17" s="407"/>
+      <c r="B17" s="401"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="395"/>
       <c r="E17" s="205">
         <v>9</v>
       </c>
@@ -6293,9 +6265,9 @@
       <c r="N17" s="213"/>
     </row>
     <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="413"/>
-      <c r="C18" s="388"/>
-      <c r="D18" s="407"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="395"/>
       <c r="E18" s="205">
         <v>10</v>
       </c>
@@ -6314,9 +6286,9 @@
       <c r="N18" s="213"/>
     </row>
     <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="413"/>
-      <c r="C19" s="388"/>
-      <c r="D19" s="407"/>
+      <c r="B19" s="401"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="395"/>
       <c r="E19" s="22">
         <v>11</v>
       </c>
@@ -6333,9 +6305,9 @@
       <c r="N19" s="169"/>
     </row>
     <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="413"/>
-      <c r="C20" s="388"/>
-      <c r="D20" s="407"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="395"/>
       <c r="E20" s="22">
         <v>12</v>
       </c>
@@ -6352,9 +6324,9 @@
       <c r="N20" s="169"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="413"/>
-      <c r="C21" s="388"/>
-      <c r="D21" s="407"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="395"/>
       <c r="E21" s="205">
         <v>13</v>
       </c>
@@ -6371,9 +6343,9 @@
       <c r="N21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="413"/>
-      <c r="C22" s="388"/>
-      <c r="D22" s="407"/>
+      <c r="B22" s="401"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="395"/>
       <c r="E22" s="205">
         <v>14</v>
       </c>
@@ -6390,9 +6362,9 @@
       <c r="N22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="413"/>
-      <c r="C23" s="388"/>
-      <c r="D23" s="407"/>
+      <c r="B23" s="401"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="395"/>
       <c r="E23" s="22">
         <v>15</v>
       </c>
@@ -6409,9 +6381,9 @@
       <c r="N23" s="169"/>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="413"/>
-      <c r="C24" s="388"/>
-      <c r="D24" s="407"/>
+      <c r="B24" s="401"/>
+      <c r="C24" s="404"/>
+      <c r="D24" s="395"/>
       <c r="E24" s="22">
         <v>16</v>
       </c>
@@ -6428,9 +6400,9 @@
       <c r="N24" s="169"/>
     </row>
     <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="413"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="407"/>
+      <c r="B25" s="401"/>
+      <c r="C25" s="404"/>
+      <c r="D25" s="395"/>
       <c r="E25" s="22">
         <v>17</v>
       </c>
@@ -6444,9 +6416,9 @@
       <c r="N25" s="185"/>
     </row>
     <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="413"/>
-      <c r="C26" s="388"/>
-      <c r="D26" s="407"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="395"/>
       <c r="E26" s="22">
         <v>18</v>
       </c>
@@ -6460,9 +6432,9 @@
       <c r="N26" s="185"/>
     </row>
     <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="413"/>
-      <c r="C27" s="388"/>
-      <c r="D27" s="407"/>
+      <c r="B27" s="401"/>
+      <c r="C27" s="404"/>
+      <c r="D27" s="395"/>
       <c r="E27" s="22">
         <v>19</v>
       </c>
@@ -6476,9 +6448,9 @@
       <c r="N27" s="185"/>
     </row>
     <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="413"/>
-      <c r="C28" s="388"/>
-      <c r="D28" s="407"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="395"/>
       <c r="E28" s="22">
         <v>20</v>
       </c>
@@ -6492,9 +6464,9 @@
       <c r="N28" s="185"/>
     </row>
     <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="413"/>
-      <c r="C29" s="388"/>
-      <c r="D29" s="407"/>
+      <c r="B29" s="401"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="395"/>
       <c r="E29" s="22">
         <v>21</v>
       </c>
@@ -6508,9 +6480,9 @@
       <c r="N29" s="185"/>
     </row>
     <row r="30" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="413"/>
-      <c r="C30" s="388"/>
-      <c r="D30" s="407"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="395"/>
       <c r="E30" s="22">
         <v>22</v>
       </c>
@@ -6524,9 +6496,9 @@
       <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="413"/>
-      <c r="C31" s="388"/>
-      <c r="D31" s="407"/>
+      <c r="B31" s="401"/>
+      <c r="C31" s="404"/>
+      <c r="D31" s="395"/>
       <c r="E31" s="22">
         <v>23</v>
       </c>
@@ -6540,9 +6512,9 @@
       <c r="N31" s="185"/>
     </row>
     <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="413"/>
-      <c r="C32" s="388"/>
-      <c r="D32" s="407"/>
+      <c r="B32" s="401"/>
+      <c r="C32" s="404"/>
+      <c r="D32" s="395"/>
       <c r="E32" s="22">
         <v>24</v>
       </c>
@@ -6556,9 +6528,9 @@
       <c r="N32" s="185"/>
     </row>
     <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="413"/>
-      <c r="C33" s="388"/>
-      <c r="D33" s="407"/>
+      <c r="B33" s="401"/>
+      <c r="C33" s="404"/>
+      <c r="D33" s="395"/>
       <c r="E33" s="22">
         <v>25</v>
       </c>
@@ -6572,9 +6544,9 @@
       <c r="N33" s="185"/>
     </row>
     <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="413"/>
-      <c r="C34" s="388"/>
-      <c r="D34" s="407"/>
+      <c r="B34" s="401"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="395"/>
       <c r="E34" s="22">
         <v>26</v>
       </c>
@@ -6588,9 +6560,9 @@
       <c r="N34" s="185"/>
     </row>
     <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="413"/>
-      <c r="C35" s="388"/>
-      <c r="D35" s="407"/>
+      <c r="B35" s="401"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="395"/>
       <c r="E35" s="22">
         <v>27</v>
       </c>
@@ -6604,9 +6576,9 @@
       <c r="N35" s="185"/>
     </row>
     <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="413"/>
-      <c r="C36" s="388"/>
-      <c r="D36" s="407"/>
+      <c r="B36" s="401"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="395"/>
       <c r="E36" s="22">
         <v>28</v>
       </c>
@@ -6620,9 +6592,9 @@
       <c r="N36" s="185"/>
     </row>
     <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="413"/>
-      <c r="C37" s="388"/>
-      <c r="D37" s="407"/>
+      <c r="B37" s="401"/>
+      <c r="C37" s="404"/>
+      <c r="D37" s="395"/>
       <c r="E37" s="22">
         <v>29</v>
       </c>
@@ -6636,9 +6608,9 @@
       <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="413"/>
-      <c r="C38" s="388"/>
-      <c r="D38" s="407"/>
+      <c r="B38" s="401"/>
+      <c r="C38" s="404"/>
+      <c r="D38" s="395"/>
       <c r="E38" s="22">
         <v>30</v>
       </c>
@@ -6652,9 +6624,9 @@
       <c r="N38" s="185"/>
     </row>
     <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="413"/>
-      <c r="C39" s="388"/>
-      <c r="D39" s="407"/>
+      <c r="B39" s="401"/>
+      <c r="C39" s="404"/>
+      <c r="D39" s="395"/>
       <c r="E39" s="22">
         <v>31</v>
       </c>
@@ -6668,9 +6640,9 @@
       <c r="N39" s="185"/>
     </row>
     <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="413"/>
-      <c r="C40" s="388"/>
-      <c r="D40" s="407"/>
+      <c r="B40" s="401"/>
+      <c r="C40" s="404"/>
+      <c r="D40" s="395"/>
       <c r="E40" s="22">
         <v>32</v>
       </c>
@@ -6684,9 +6656,9 @@
       <c r="N40" s="185"/>
     </row>
     <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="413"/>
-      <c r="C41" s="388"/>
-      <c r="D41" s="407"/>
+      <c r="B41" s="401"/>
+      <c r="C41" s="404"/>
+      <c r="D41" s="395"/>
       <c r="E41" s="22">
         <v>33</v>
       </c>
@@ -6700,9 +6672,9 @@
       <c r="N41" s="185"/>
     </row>
     <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="413"/>
-      <c r="C42" s="388"/>
-      <c r="D42" s="407"/>
+      <c r="B42" s="401"/>
+      <c r="C42" s="404"/>
+      <c r="D42" s="395"/>
       <c r="E42" s="22">
         <v>34</v>
       </c>
@@ -6716,9 +6688,9 @@
       <c r="N42" s="185"/>
     </row>
     <row r="43" spans="2:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="413"/>
-      <c r="C43" s="388"/>
-      <c r="D43" s="408"/>
+      <c r="B43" s="401"/>
+      <c r="C43" s="404"/>
+      <c r="D43" s="396"/>
       <c r="E43" s="114"/>
       <c r="F43" s="192"/>
       <c r="G43" s="116"/>
@@ -6731,8 +6703,8 @@
       <c r="N43" s="195"/>
     </row>
     <row r="44" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="413"/>
-      <c r="C44" s="388"/>
+      <c r="B44" s="401"/>
+      <c r="C44" s="404"/>
       <c r="D44" s="186" t="s">
         <v>30</v>
       </c>
@@ -6754,8 +6726,8 @@
       <c r="N44" s="191"/>
     </row>
     <row r="45" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="413"/>
-      <c r="C45" s="388"/>
+      <c r="B45" s="401"/>
+      <c r="C45" s="404"/>
       <c r="D45" s="148" t="s">
         <v>31</v>
       </c>
@@ -6774,8 +6746,8 @@
       <c r="N45" s="169"/>
     </row>
     <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="413"/>
-      <c r="C46" s="388"/>
+      <c r="B46" s="401"/>
+      <c r="C46" s="404"/>
       <c r="D46" s="148" t="s">
         <v>33</v>
       </c>
@@ -6797,8 +6769,8 @@
       <c r="N46" s="169"/>
     </row>
     <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="413"/>
-      <c r="C47" s="388"/>
+      <c r="B47" s="401"/>
+      <c r="C47" s="404"/>
       <c r="D47" s="154" t="s">
         <v>32</v>
       </c>
@@ -6821,8 +6793,8 @@
       <c r="N47" s="169"/>
     </row>
     <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="413"/>
-      <c r="C48" s="388"/>
+      <c r="B48" s="401"/>
+      <c r="C48" s="404"/>
       <c r="D48" s="149" t="s">
         <v>55</v>
       </c>
@@ -6844,9 +6816,9 @@
       <c r="N48" s="169"/>
     </row>
     <row r="49" spans="2:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="413"/>
-      <c r="C49" s="388"/>
-      <c r="D49" s="415" t="s">
+      <c r="B49" s="401"/>
+      <c r="C49" s="404"/>
+      <c r="D49" s="406" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="22"/>
@@ -6867,9 +6839,9 @@
       <c r="N49" s="169"/>
     </row>
     <row r="50" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="413"/>
-      <c r="C50" s="389"/>
-      <c r="D50" s="416"/>
+      <c r="B50" s="401"/>
+      <c r="C50" s="405"/>
+      <c r="D50" s="407"/>
       <c r="E50" s="19"/>
       <c r="F50" s="14"/>
       <c r="G50" s="113"/>
@@ -6880,8 +6852,8 @@
       <c r="N50" s="170"/>
     </row>
     <row r="51" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="413"/>
-      <c r="C51" s="417" t="s">
+      <c r="B51" s="401"/>
+      <c r="C51" s="408" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="150" t="s">
@@ -6902,8 +6874,8 @@
       <c r="N51" s="171"/>
     </row>
     <row r="52" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="413"/>
-      <c r="C52" s="413"/>
+      <c r="B52" s="401"/>
+      <c r="C52" s="401"/>
       <c r="D52" s="148" t="s">
         <v>19</v>
       </c>
@@ -6925,8 +6897,8 @@
       <c r="N52" s="169"/>
     </row>
     <row r="53" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="413"/>
-      <c r="C53" s="413"/>
+      <c r="B53" s="401"/>
+      <c r="C53" s="401"/>
       <c r="D53" s="148" t="s">
         <v>20</v>
       </c>
@@ -6948,8 +6920,8 @@
       <c r="N53" s="169"/>
     </row>
     <row r="54" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="413"/>
-      <c r="C54" s="413"/>
+      <c r="B54" s="401"/>
+      <c r="C54" s="401"/>
       <c r="D54" s="148" t="s">
         <v>21</v>
       </c>
@@ -6968,8 +6940,8 @@
       <c r="N54" s="169"/>
     </row>
     <row r="55" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="413"/>
-      <c r="C55" s="413"/>
+      <c r="B55" s="401"/>
+      <c r="C55" s="401"/>
       <c r="D55" s="148" t="s">
         <v>22</v>
       </c>
@@ -6991,8 +6963,8 @@
       <c r="N55" s="169"/>
     </row>
     <row r="56" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="413"/>
-      <c r="C56" s="413"/>
+      <c r="B56" s="401"/>
+      <c r="C56" s="401"/>
       <c r="D56" s="148" t="s">
         <v>23</v>
       </c>
@@ -7014,8 +6986,8 @@
       <c r="N56" s="169"/>
     </row>
     <row r="57" spans="2:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="413"/>
-      <c r="C57" s="413"/>
+      <c r="B57" s="401"/>
+      <c r="C57" s="401"/>
       <c r="D57" s="155" t="s">
         <v>24</v>
       </c>
@@ -7041,8 +7013,8 @@
       <c r="N57" s="172"/>
     </row>
     <row r="58" spans="2:16" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="413"/>
-      <c r="C58" s="413"/>
+      <c r="B58" s="401"/>
+      <c r="C58" s="401"/>
       <c r="D58" s="156" t="s">
         <v>25</v>
       </c>
@@ -7056,13 +7028,13 @@
       <c r="N58" s="173"/>
     </row>
     <row r="59" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="386" t="s">
+      <c r="B59" s="402" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="390" t="s">
+      <c r="C59" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="423" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="21"/>
@@ -7082,9 +7054,9 @@
       <c r="N59" s="171"/>
     </row>
     <row r="60" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="387"/>
-      <c r="C60" s="391"/>
-      <c r="D60" s="395"/>
+      <c r="B60" s="418"/>
+      <c r="C60" s="420"/>
+      <c r="D60" s="424"/>
       <c r="E60" s="22"/>
       <c r="G60" s="104"/>
       <c r="H60" s="110"/>
@@ -7101,9 +7073,9 @@
       <c r="N60" s="169"/>
     </row>
     <row r="61" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="388"/>
-      <c r="C61" s="392"/>
-      <c r="D61" s="395"/>
+      <c r="B61" s="404"/>
+      <c r="C61" s="421"/>
+      <c r="D61" s="424"/>
       <c r="E61" s="22"/>
       <c r="G61" s="104"/>
       <c r="H61" s="110"/>
@@ -7121,8 +7093,8 @@
       <c r="N61" s="169"/>
     </row>
     <row r="62" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="388"/>
-      <c r="C62" s="392"/>
+      <c r="B62" s="404"/>
+      <c r="C62" s="421"/>
       <c r="D62" s="152" t="s">
         <v>116</v>
       </c>
@@ -7149,9 +7121,9 @@
       </c>
     </row>
     <row r="63" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="388"/>
-      <c r="C63" s="392"/>
-      <c r="D63" s="396" t="s">
+      <c r="B63" s="404"/>
+      <c r="C63" s="421"/>
+      <c r="D63" s="425" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="22"/>
@@ -7182,9 +7154,9 @@
       </c>
     </row>
     <row r="64" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="388"/>
-      <c r="C64" s="392"/>
-      <c r="D64" s="396"/>
+      <c r="B64" s="404"/>
+      <c r="C64" s="421"/>
+      <c r="D64" s="425"/>
       <c r="E64" s="22"/>
       <c r="G64" s="104"/>
       <c r="H64" s="110" t="s">
@@ -7211,9 +7183,9 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="388"/>
-      <c r="C65" s="392"/>
-      <c r="D65" s="396"/>
+      <c r="B65" s="404"/>
+      <c r="C65" s="421"/>
+      <c r="D65" s="425"/>
       <c r="E65" s="22"/>
       <c r="G65" s="104"/>
       <c r="H65" s="110"/>
@@ -7226,9 +7198,9 @@
       <c r="N65" s="169"/>
     </row>
     <row r="66" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="388"/>
-      <c r="C66" s="392"/>
-      <c r="D66" s="396" t="s">
+      <c r="B66" s="404"/>
+      <c r="C66" s="421"/>
+      <c r="D66" s="425" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="22"/>
@@ -7250,9 +7222,9 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="389"/>
-      <c r="C67" s="393"/>
-      <c r="D67" s="397"/>
+      <c r="B67" s="405"/>
+      <c r="C67" s="422"/>
+      <c r="D67" s="426"/>
       <c r="E67" s="114"/>
       <c r="F67" s="115"/>
       <c r="G67" s="116"/>
@@ -7949,6 +7921,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M3:M4"/>
@@ -7964,11 +7941,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7977,7 +7949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BC232"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -8010,66 +7982,66 @@
       </c>
     </row>
     <row r="2" spans="2:55" s="223" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="458" t="s">
+      <c r="B2" s="430" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
-      <c r="E2" s="459"/>
-      <c r="F2" s="459"/>
-      <c r="G2" s="459"/>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="459"/>
-      <c r="K2" s="459"/>
-      <c r="L2" s="459"/>
-      <c r="M2" s="459"/>
-      <c r="N2" s="459"/>
-      <c r="O2" s="459"/>
-      <c r="P2" s="460"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="431"/>
+      <c r="J2" s="431"/>
+      <c r="K2" s="431"/>
+      <c r="L2" s="431"/>
+      <c r="M2" s="431"/>
+      <c r="N2" s="431"/>
+      <c r="O2" s="431"/>
+      <c r="P2" s="432"/>
       <c r="Q2" s="222"/>
       <c r="BC2" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:55" s="239" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="461" t="s">
+      <c r="B3" s="433" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="463" t="s">
+      <c r="C3" s="435" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="463" t="s">
+      <c r="D3" s="435" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="466" t="s">
+      <c r="E3" s="438" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="463" t="s">
+      <c r="F3" s="435" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="463" t="s">
+      <c r="G3" s="435" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="463" t="s">
+      <c r="H3" s="435" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="463" t="s">
+      <c r="I3" s="435" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="468"/>
-      <c r="K3" s="468"/>
+      <c r="J3" s="440"/>
+      <c r="K3" s="440"/>
       <c r="L3" s="301"/>
-      <c r="M3" s="463" t="s">
+      <c r="M3" s="435" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="463" t="s">
+      <c r="N3" s="435" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="463" t="s">
+      <c r="O3" s="435" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="470" t="s">
+      <c r="P3" s="442" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="238"/>
@@ -8078,13 +8050,13 @@
       </c>
     </row>
     <row r="4" spans="2:55" s="239" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="462"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="464"/>
-      <c r="G4" s="464"/>
-      <c r="H4" s="464"/>
+      <c r="B4" s="434"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="439"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="436"/>
       <c r="I4" s="302" t="s">
         <v>126</v>
       </c>
@@ -8097,10 +8069,10 @@
       <c r="L4" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="464"/>
-      <c r="N4" s="464"/>
-      <c r="O4" s="469"/>
-      <c r="P4" s="471"/>
+      <c r="M4" s="436"/>
+      <c r="N4" s="436"/>
+      <c r="O4" s="441"/>
+      <c r="P4" s="443"/>
       <c r="Q4" s="240"/>
       <c r="BC4" s="239" t="s">
         <v>178</v>
@@ -8203,14 +8175,14 @@
       <c r="Q8" s="221"/>
     </row>
     <row r="9" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="437" t="s">
+      <c r="B9" s="454" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="440" t="s">
+      <c r="C9" s="457" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="255"/>
-      <c r="E9" s="442" t="s">
+      <c r="E9" s="459" t="s">
         <v>198</v>
       </c>
       <c r="F9" s="256">
@@ -8241,10 +8213,10 @@
       <c r="Q9" s="221"/>
     </row>
     <row r="10" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="438"/>
-      <c r="C10" s="441"/>
+      <c r="B10" s="455"/>
+      <c r="C10" s="458"/>
       <c r="D10" s="249"/>
-      <c r="E10" s="443"/>
+      <c r="E10" s="460"/>
       <c r="F10" s="22">
         <v>2</v>
       </c>
@@ -8266,10 +8238,10 @@
       <c r="S10" s="219"/>
     </row>
     <row r="11" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="438"/>
-      <c r="C11" s="441"/>
+      <c r="B11" s="455"/>
+      <c r="C11" s="458"/>
       <c r="D11" s="249"/>
-      <c r="E11" s="443"/>
+      <c r="E11" s="460"/>
       <c r="F11" s="22">
         <v>3</v>
       </c>
@@ -8291,10 +8263,10 @@
       <c r="S11" s="219"/>
     </row>
     <row r="12" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="438"/>
-      <c r="C12" s="441"/>
+      <c r="B12" s="455"/>
+      <c r="C12" s="458"/>
       <c r="D12" s="249"/>
-      <c r="E12" s="443"/>
+      <c r="E12" s="460"/>
       <c r="F12" s="22">
         <v>4</v>
       </c>
@@ -8316,10 +8288,10 @@
       <c r="S12" s="219"/>
     </row>
     <row r="13" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="438"/>
-      <c r="C13" s="441"/>
+      <c r="B13" s="455"/>
+      <c r="C13" s="458"/>
       <c r="D13" s="249"/>
-      <c r="E13" s="444" t="s">
+      <c r="E13" s="461" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="35">
@@ -8342,10 +8314,10 @@
       <c r="Q13" s="221"/>
     </row>
     <row r="14" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="438"/>
-      <c r="C14" s="441"/>
+      <c r="B14" s="455"/>
+      <c r="C14" s="458"/>
       <c r="D14" s="249"/>
-      <c r="E14" s="444"/>
+      <c r="E14" s="461"/>
       <c r="F14" s="35">
         <v>6</v>
       </c>
@@ -8366,10 +8338,10 @@
       <c r="Q14" s="221"/>
     </row>
     <row r="15" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="438"/>
-      <c r="C15" s="441"/>
+      <c r="B15" s="455"/>
+      <c r="C15" s="458"/>
       <c r="D15" s="249"/>
-      <c r="E15" s="444"/>
+      <c r="E15" s="461"/>
       <c r="F15" s="35">
         <v>7</v>
       </c>
@@ -8391,10 +8363,10 @@
       <c r="S15" s="219"/>
     </row>
     <row r="16" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="438"/>
-      <c r="C16" s="441"/>
+      <c r="B16" s="455"/>
+      <c r="C16" s="458"/>
       <c r="D16" s="249"/>
-      <c r="E16" s="444"/>
+      <c r="E16" s="461"/>
       <c r="F16" s="35">
         <v>8</v>
       </c>
@@ -8416,10 +8388,10 @@
       <c r="S16" s="219"/>
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="438"/>
-      <c r="C17" s="441"/>
+      <c r="B17" s="455"/>
+      <c r="C17" s="458"/>
       <c r="D17" s="249"/>
-      <c r="E17" s="444"/>
+      <c r="E17" s="461"/>
       <c r="F17" s="18">
         <v>9</v>
       </c>
@@ -8441,10 +8413,10 @@
       <c r="S17" s="219"/>
     </row>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="438"/>
-      <c r="C18" s="441"/>
+      <c r="B18" s="455"/>
+      <c r="C18" s="458"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="444"/>
+      <c r="E18" s="461"/>
       <c r="F18" s="18">
         <v>10</v>
       </c>
@@ -8466,10 +8438,10 @@
       <c r="S18" s="219"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="438"/>
-      <c r="C19" s="441"/>
+      <c r="B19" s="455"/>
+      <c r="C19" s="458"/>
       <c r="D19" s="249"/>
-      <c r="E19" s="444"/>
+      <c r="E19" s="461"/>
       <c r="F19" s="18">
         <v>11</v>
       </c>
@@ -8490,10 +8462,10 @@
       <c r="Q19" s="221"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="438"/>
-      <c r="C20" s="441"/>
+      <c r="B20" s="455"/>
+      <c r="C20" s="458"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="444"/>
+      <c r="E20" s="461"/>
       <c r="F20" s="18">
         <v>12</v>
       </c>
@@ -8514,10 +8486,10 @@
       <c r="Q20" s="221"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="438"/>
-      <c r="C21" s="441"/>
+      <c r="B21" s="455"/>
+      <c r="C21" s="458"/>
       <c r="D21" s="249"/>
-      <c r="E21" s="443" t="s">
+      <c r="E21" s="460" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="22">
@@ -8541,10 +8513,10 @@
       <c r="S21" s="219"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="438"/>
-      <c r="C22" s="441"/>
+      <c r="B22" s="455"/>
+      <c r="C22" s="458"/>
       <c r="D22" s="249"/>
-      <c r="E22" s="443"/>
+      <c r="E22" s="460"/>
       <c r="F22" s="22">
         <v>14</v>
       </c>
@@ -8566,10 +8538,10 @@
       <c r="S22" s="219"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="438"/>
-      <c r="C23" s="441"/>
+      <c r="B23" s="455"/>
+      <c r="C23" s="458"/>
       <c r="D23" s="249"/>
-      <c r="E23" s="443"/>
+      <c r="E23" s="460"/>
       <c r="F23" s="22">
         <v>15</v>
       </c>
@@ -8591,10 +8563,10 @@
       <c r="S23" s="219"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="438"/>
-      <c r="C24" s="430"/>
+      <c r="B24" s="455"/>
+      <c r="C24" s="447"/>
       <c r="D24" s="249"/>
-      <c r="E24" s="443"/>
+      <c r="E24" s="460"/>
       <c r="F24" s="22">
         <v>16</v>
       </c>
@@ -8616,10 +8588,10 @@
       <c r="S24" s="219"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="438"/>
-      <c r="C25" s="430"/>
+      <c r="B25" s="455"/>
+      <c r="C25" s="447"/>
       <c r="D25" s="249"/>
-      <c r="E25" s="445" t="s">
+      <c r="E25" s="462" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="18">
@@ -8643,10 +8615,10 @@
       <c r="S25" s="219"/>
     </row>
     <row r="26" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="438"/>
-      <c r="C26" s="430"/>
+      <c r="B26" s="455"/>
+      <c r="C26" s="447"/>
       <c r="D26" s="249"/>
-      <c r="E26" s="445"/>
+      <c r="E26" s="462"/>
       <c r="F26" s="18">
         <v>18</v>
       </c>
@@ -8668,10 +8640,10 @@
       <c r="S26" s="219"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="438"/>
-      <c r="C27" s="430"/>
+      <c r="B27" s="455"/>
+      <c r="C27" s="447"/>
       <c r="D27" s="249"/>
-      <c r="E27" s="445"/>
+      <c r="E27" s="462"/>
       <c r="F27" s="18">
         <v>19</v>
       </c>
@@ -8693,10 +8665,10 @@
       <c r="S27" s="219"/>
     </row>
     <row r="28" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="438"/>
-      <c r="C28" s="430"/>
+      <c r="B28" s="455"/>
+      <c r="C28" s="447"/>
       <c r="D28" s="249"/>
-      <c r="E28" s="445"/>
+      <c r="E28" s="462"/>
       <c r="F28" s="18">
         <v>20</v>
       </c>
@@ -8718,10 +8690,10 @@
       <c r="S28" s="219"/>
     </row>
     <row r="29" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="438"/>
-      <c r="C29" s="430"/>
+      <c r="B29" s="455"/>
+      <c r="C29" s="447"/>
       <c r="D29" s="249"/>
-      <c r="E29" s="443" t="s">
+      <c r="E29" s="460" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="22">
@@ -8745,10 +8717,10 @@
       <c r="S29" s="219"/>
     </row>
     <row r="30" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="438"/>
-      <c r="C30" s="430"/>
+      <c r="B30" s="455"/>
+      <c r="C30" s="447"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="443"/>
+      <c r="E30" s="460"/>
       <c r="F30" s="22">
         <v>22</v>
       </c>
@@ -8770,10 +8742,10 @@
       <c r="S30" s="219"/>
     </row>
     <row r="31" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="438"/>
-      <c r="C31" s="430"/>
+      <c r="B31" s="455"/>
+      <c r="C31" s="447"/>
       <c r="D31" s="249"/>
-      <c r="E31" s="443"/>
+      <c r="E31" s="460"/>
       <c r="F31" s="22">
         <v>23</v>
       </c>
@@ -8795,10 +8767,10 @@
       <c r="S31" s="219"/>
     </row>
     <row r="32" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="438"/>
-      <c r="C32" s="430"/>
+      <c r="B32" s="455"/>
+      <c r="C32" s="447"/>
       <c r="D32" s="249"/>
-      <c r="E32" s="443"/>
+      <c r="E32" s="460"/>
       <c r="F32" s="22">
         <v>24</v>
       </c>
@@ -8820,10 +8792,10 @@
       <c r="S32" s="219"/>
     </row>
     <row r="33" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="438"/>
-      <c r="C33" s="430"/>
+      <c r="B33" s="455"/>
+      <c r="C33" s="447"/>
       <c r="D33" s="249"/>
-      <c r="E33" s="444"/>
+      <c r="E33" s="461"/>
       <c r="F33" s="18"/>
       <c r="G33" s="236"/>
       <c r="H33" s="296"/>
@@ -8839,10 +8811,10 @@
       <c r="S33" s="219"/>
     </row>
     <row r="34" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="438"/>
-      <c r="C34" s="430"/>
+      <c r="B34" s="455"/>
+      <c r="C34" s="447"/>
       <c r="D34" s="249"/>
-      <c r="E34" s="444"/>
+      <c r="E34" s="461"/>
       <c r="F34" s="18"/>
       <c r="G34" s="236"/>
       <c r="H34" s="296"/>
@@ -8858,10 +8830,10 @@
       <c r="S34" s="219"/>
     </row>
     <row r="35" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="438"/>
-      <c r="C35" s="430"/>
+      <c r="B35" s="455"/>
+      <c r="C35" s="447"/>
       <c r="D35" s="249"/>
-      <c r="E35" s="444"/>
+      <c r="E35" s="461"/>
       <c r="F35" s="18"/>
       <c r="G35" s="236"/>
       <c r="H35" s="296"/>
@@ -8877,10 +8849,10 @@
       <c r="S35" s="219"/>
     </row>
     <row r="36" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="438"/>
-      <c r="C36" s="430"/>
+      <c r="B36" s="455"/>
+      <c r="C36" s="447"/>
       <c r="D36" s="249"/>
-      <c r="E36" s="446"/>
+      <c r="E36" s="427"/>
       <c r="F36" s="18"/>
       <c r="G36" s="236"/>
       <c r="H36" s="296"/>
@@ -8896,7 +8868,7 @@
       <c r="S36" s="219"/>
     </row>
     <row r="37" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="438"/>
+      <c r="B37" s="455"/>
       <c r="C37" s="259"/>
       <c r="D37" s="260"/>
       <c r="E37" s="260"/>
@@ -8915,12 +8887,12 @@
       <c r="S37" s="219"/>
     </row>
     <row r="38" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="438"/>
-      <c r="C38" s="447" t="s">
+      <c r="B38" s="455"/>
+      <c r="C38" s="463" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="255"/>
-      <c r="E38" s="450" t="s">
+      <c r="E38" s="466" t="s">
         <v>200</v>
       </c>
       <c r="F38" s="256">
@@ -8944,10 +8916,10 @@
       <c r="S38" s="219"/>
     </row>
     <row r="39" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="438"/>
-      <c r="C39" s="448"/>
+      <c r="B39" s="455"/>
+      <c r="C39" s="464"/>
       <c r="D39" s="249"/>
-      <c r="E39" s="451"/>
+      <c r="E39" s="467"/>
       <c r="F39" s="22">
         <v>2</v>
       </c>
@@ -8969,10 +8941,10 @@
       <c r="S39" s="219"/>
     </row>
     <row r="40" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="438"/>
-      <c r="C40" s="448"/>
+      <c r="B40" s="455"/>
+      <c r="C40" s="464"/>
       <c r="D40" s="249"/>
-      <c r="E40" s="451"/>
+      <c r="E40" s="467"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
@@ -8994,10 +8966,10 @@
       <c r="S40" s="219"/>
     </row>
     <row r="41" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="438"/>
-      <c r="C41" s="448"/>
+      <c r="B41" s="455"/>
+      <c r="C41" s="464"/>
       <c r="D41" s="249"/>
-      <c r="E41" s="452"/>
+      <c r="E41" s="468"/>
       <c r="F41" s="22">
         <v>4</v>
       </c>
@@ -9019,8 +8991,8 @@
       <c r="S41" s="219"/>
     </row>
     <row r="42" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="438"/>
-      <c r="C42" s="448"/>
+      <c r="B42" s="455"/>
+      <c r="C42" s="464"/>
       <c r="D42" s="249"/>
       <c r="E42" s="249"/>
       <c r="F42" s="35"/>
@@ -9038,8 +9010,8 @@
       <c r="S42" s="219"/>
     </row>
     <row r="43" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="438"/>
-      <c r="C43" s="448"/>
+      <c r="B43" s="455"/>
+      <c r="C43" s="464"/>
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="35"/>
@@ -9056,8 +9028,8 @@
       <c r="Q43" s="221"/>
     </row>
     <row r="44" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="438"/>
-      <c r="C44" s="448"/>
+      <c r="B44" s="455"/>
+      <c r="C44" s="464"/>
       <c r="D44" s="249"/>
       <c r="E44" s="249"/>
       <c r="F44" s="35"/>
@@ -9074,8 +9046,8 @@
       <c r="Q44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="438"/>
-      <c r="C45" s="448"/>
+      <c r="B45" s="455"/>
+      <c r="C45" s="464"/>
       <c r="D45" s="249"/>
       <c r="E45" s="249"/>
       <c r="F45" s="35"/>
@@ -9092,8 +9064,8 @@
       <c r="Q45" s="221"/>
     </row>
     <row r="46" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="438"/>
-      <c r="C46" s="449"/>
+      <c r="B46" s="455"/>
+      <c r="C46" s="465"/>
       <c r="D46" s="260"/>
       <c r="E46" s="260"/>
       <c r="F46" s="261"/>
@@ -9110,12 +9082,12 @@
       <c r="Q46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="438"/>
-      <c r="C47" s="447" t="s">
+      <c r="B47" s="455"/>
+      <c r="C47" s="463" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="255"/>
-      <c r="E47" s="454" t="s">
+      <c r="E47" s="470" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="256">
@@ -9138,10 +9110,10 @@
       <c r="Q47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="438"/>
-      <c r="C48" s="448"/>
+      <c r="B48" s="455"/>
+      <c r="C48" s="464"/>
       <c r="D48" s="249"/>
-      <c r="E48" s="455"/>
+      <c r="E48" s="471"/>
       <c r="F48" s="22">
         <v>2</v>
       </c>
@@ -9162,10 +9134,10 @@
       <c r="Q48" s="221"/>
     </row>
     <row r="49" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="438"/>
-      <c r="C49" s="448"/>
+      <c r="B49" s="455"/>
+      <c r="C49" s="464"/>
       <c r="D49" s="249"/>
-      <c r="E49" s="455"/>
+      <c r="E49" s="471"/>
       <c r="F49" s="22">
         <v>3</v>
       </c>
@@ -9186,10 +9158,10 @@
       <c r="Q49" s="221"/>
     </row>
     <row r="50" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="438"/>
-      <c r="C50" s="448"/>
+      <c r="B50" s="455"/>
+      <c r="C50" s="464"/>
       <c r="D50" s="249"/>
-      <c r="E50" s="455"/>
+      <c r="E50" s="471"/>
       <c r="F50" s="22">
         <v>4</v>
       </c>
@@ -9210,10 +9182,10 @@
       <c r="Q50" s="221"/>
     </row>
     <row r="51" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="438"/>
-      <c r="C51" s="448"/>
+      <c r="B51" s="455"/>
+      <c r="C51" s="464"/>
       <c r="D51" s="249"/>
-      <c r="E51" s="455"/>
+      <c r="E51" s="471"/>
       <c r="F51" s="35">
         <v>5</v>
       </c>
@@ -9234,10 +9206,10 @@
       <c r="Q51" s="221"/>
     </row>
     <row r="52" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="438"/>
-      <c r="C52" s="448"/>
+      <c r="B52" s="455"/>
+      <c r="C52" s="464"/>
       <c r="D52" s="249"/>
-      <c r="E52" s="455"/>
+      <c r="E52" s="471"/>
       <c r="F52" s="35">
         <v>6</v>
       </c>
@@ -9258,10 +9230,10 @@
       <c r="Q52" s="221"/>
     </row>
     <row r="53" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="438"/>
-      <c r="C53" s="448"/>
+      <c r="B53" s="455"/>
+      <c r="C53" s="464"/>
       <c r="D53" s="249"/>
-      <c r="E53" s="455"/>
+      <c r="E53" s="471"/>
       <c r="F53" s="35">
         <v>7</v>
       </c>
@@ -9282,10 +9254,10 @@
       <c r="Q53" s="221"/>
     </row>
     <row r="54" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="438"/>
-      <c r="C54" s="448"/>
+      <c r="B54" s="455"/>
+      <c r="C54" s="464"/>
       <c r="D54" s="249"/>
-      <c r="E54" s="455"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="35">
         <v>8</v>
       </c>
@@ -9306,10 +9278,10 @@
       <c r="Q54" s="221"/>
     </row>
     <row r="55" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="438"/>
-      <c r="C55" s="448"/>
+      <c r="B55" s="455"/>
+      <c r="C55" s="464"/>
       <c r="D55" s="249"/>
-      <c r="E55" s="455"/>
+      <c r="E55" s="471"/>
       <c r="F55" s="22">
         <v>9</v>
       </c>
@@ -9330,10 +9302,10 @@
       <c r="Q55" s="221"/>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="438"/>
-      <c r="C56" s="448"/>
+      <c r="B56" s="455"/>
+      <c r="C56" s="464"/>
       <c r="D56" s="249"/>
-      <c r="E56" s="455"/>
+      <c r="E56" s="471"/>
       <c r="F56" s="22">
         <v>10</v>
       </c>
@@ -9354,10 +9326,10 @@
       <c r="Q56" s="221"/>
     </row>
     <row r="57" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="438"/>
-      <c r="C57" s="448"/>
+      <c r="B57" s="455"/>
+      <c r="C57" s="464"/>
       <c r="D57" s="249"/>
-      <c r="E57" s="455"/>
+      <c r="E57" s="471"/>
       <c r="F57" s="22">
         <v>11</v>
       </c>
@@ -9378,10 +9350,10 @@
       <c r="Q57" s="221"/>
     </row>
     <row r="58" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="438"/>
-      <c r="C58" s="448"/>
+      <c r="B58" s="455"/>
+      <c r="C58" s="464"/>
       <c r="D58" s="249"/>
-      <c r="E58" s="455"/>
+      <c r="E58" s="471"/>
       <c r="F58" s="22">
         <v>12</v>
       </c>
@@ -9402,10 +9374,10 @@
       <c r="Q58" s="221"/>
     </row>
     <row r="59" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="438"/>
-      <c r="C59" s="448"/>
+      <c r="B59" s="455"/>
+      <c r="C59" s="464"/>
       <c r="D59" s="249"/>
-      <c r="E59" s="446" t="s">
+      <c r="E59" s="427" t="s">
         <v>205</v>
       </c>
       <c r="F59" s="35">
@@ -9428,10 +9400,10 @@
       <c r="Q59" s="221"/>
     </row>
     <row r="60" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="438"/>
-      <c r="C60" s="448"/>
+      <c r="B60" s="455"/>
+      <c r="C60" s="464"/>
       <c r="D60" s="249"/>
-      <c r="E60" s="456"/>
+      <c r="E60" s="428"/>
       <c r="F60" s="35">
         <v>14</v>
       </c>
@@ -9452,10 +9424,10 @@
       <c r="Q60" s="221"/>
     </row>
     <row r="61" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="438"/>
-      <c r="C61" s="448"/>
+      <c r="B61" s="455"/>
+      <c r="C61" s="464"/>
       <c r="D61" s="249"/>
-      <c r="E61" s="456"/>
+      <c r="E61" s="428"/>
       <c r="F61" s="35">
         <v>15</v>
       </c>
@@ -9476,10 +9448,10 @@
       <c r="Q61" s="221"/>
     </row>
     <row r="62" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="438"/>
-      <c r="C62" s="448"/>
+      <c r="B62" s="455"/>
+      <c r="C62" s="464"/>
       <c r="D62" s="249"/>
-      <c r="E62" s="456"/>
+      <c r="E62" s="428"/>
       <c r="F62" s="35">
         <v>16</v>
       </c>
@@ -9500,10 +9472,10 @@
       <c r="Q62" s="221"/>
     </row>
     <row r="63" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="438"/>
-      <c r="C63" s="448"/>
+      <c r="B63" s="455"/>
+      <c r="C63" s="464"/>
       <c r="D63" s="249"/>
-      <c r="E63" s="456"/>
+      <c r="E63" s="428"/>
       <c r="F63" s="22">
         <v>17</v>
       </c>
@@ -9524,10 +9496,10 @@
       <c r="Q63" s="221"/>
     </row>
     <row r="64" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="438"/>
-      <c r="C64" s="448"/>
+      <c r="B64" s="455"/>
+      <c r="C64" s="464"/>
       <c r="D64" s="249"/>
-      <c r="E64" s="456"/>
+      <c r="E64" s="428"/>
       <c r="F64" s="22">
         <v>18</v>
       </c>
@@ -9548,10 +9520,10 @@
       <c r="Q64" s="221"/>
     </row>
     <row r="65" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="438"/>
-      <c r="C65" s="448"/>
+      <c r="B65" s="455"/>
+      <c r="C65" s="464"/>
       <c r="D65" s="249"/>
-      <c r="E65" s="456"/>
+      <c r="E65" s="428"/>
       <c r="F65" s="22">
         <v>19</v>
       </c>
@@ -9572,10 +9544,10 @@
       <c r="Q65" s="221"/>
     </row>
     <row r="66" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="438"/>
-      <c r="C66" s="448"/>
+      <c r="B66" s="455"/>
+      <c r="C66" s="464"/>
       <c r="D66" s="249"/>
-      <c r="E66" s="456"/>
+      <c r="E66" s="428"/>
       <c r="F66" s="22">
         <v>20</v>
       </c>
@@ -9596,10 +9568,10 @@
       <c r="Q66" s="221"/>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="438"/>
-      <c r="C67" s="448"/>
+      <c r="B67" s="455"/>
+      <c r="C67" s="464"/>
       <c r="D67" s="249"/>
-      <c r="E67" s="456"/>
+      <c r="E67" s="428"/>
       <c r="F67" s="35">
         <v>21</v>
       </c>
@@ -9620,10 +9592,10 @@
       <c r="Q67" s="221"/>
     </row>
     <row r="68" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="438"/>
-      <c r="C68" s="448"/>
+      <c r="B68" s="455"/>
+      <c r="C68" s="464"/>
       <c r="D68" s="249"/>
-      <c r="E68" s="456"/>
+      <c r="E68" s="428"/>
       <c r="F68" s="35">
         <v>22</v>
       </c>
@@ -9644,10 +9616,10 @@
       <c r="Q68" s="221"/>
     </row>
     <row r="69" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="438"/>
-      <c r="C69" s="448"/>
+      <c r="B69" s="455"/>
+      <c r="C69" s="464"/>
       <c r="D69" s="249"/>
-      <c r="E69" s="456"/>
+      <c r="E69" s="428"/>
       <c r="F69" s="35">
         <v>23</v>
       </c>
@@ -9668,10 +9640,10 @@
       <c r="Q69" s="221"/>
     </row>
     <row r="70" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="438"/>
-      <c r="C70" s="448"/>
+      <c r="B70" s="455"/>
+      <c r="C70" s="464"/>
       <c r="D70" s="249"/>
-      <c r="E70" s="456"/>
+      <c r="E70" s="428"/>
       <c r="F70" s="35">
         <v>24</v>
       </c>
@@ -9692,10 +9664,10 @@
       <c r="Q70" s="221"/>
     </row>
     <row r="71" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="438"/>
-      <c r="C71" s="448"/>
+      <c r="B71" s="455"/>
+      <c r="C71" s="464"/>
       <c r="D71" s="249"/>
-      <c r="E71" s="456"/>
+      <c r="E71" s="428"/>
       <c r="F71" s="22">
         <v>25</v>
       </c>
@@ -9716,10 +9688,10 @@
       <c r="Q71" s="221"/>
     </row>
     <row r="72" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="438"/>
-      <c r="C72" s="448"/>
+      <c r="B72" s="455"/>
+      <c r="C72" s="464"/>
       <c r="D72" s="249"/>
-      <c r="E72" s="456"/>
+      <c r="E72" s="428"/>
       <c r="F72" s="22">
         <v>26</v>
       </c>
@@ -9740,10 +9712,10 @@
       <c r="Q72" s="221"/>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="438"/>
-      <c r="C73" s="448"/>
+      <c r="B73" s="455"/>
+      <c r="C73" s="464"/>
       <c r="D73" s="249"/>
-      <c r="E73" s="456"/>
+      <c r="E73" s="428"/>
       <c r="F73" s="22">
         <v>27</v>
       </c>
@@ -9764,10 +9736,10 @@
       <c r="Q73" s="221"/>
     </row>
     <row r="74" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="438"/>
-      <c r="C74" s="453"/>
+      <c r="B74" s="455"/>
+      <c r="C74" s="469"/>
       <c r="D74" s="249"/>
-      <c r="E74" s="456"/>
+      <c r="E74" s="428"/>
       <c r="F74" s="22">
         <v>28</v>
       </c>
@@ -9788,10 +9760,10 @@
       <c r="Q74" s="221"/>
     </row>
     <row r="75" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="438"/>
+      <c r="B75" s="455"/>
       <c r="C75" s="274"/>
       <c r="D75" s="249"/>
-      <c r="E75" s="456"/>
+      <c r="E75" s="428"/>
       <c r="F75" s="281">
         <v>29</v>
       </c>
@@ -9812,10 +9784,10 @@
       <c r="Q75" s="275"/>
     </row>
     <row r="76" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="438"/>
+      <c r="B76" s="455"/>
       <c r="C76" s="274"/>
       <c r="D76" s="249"/>
-      <c r="E76" s="456"/>
+      <c r="E76" s="428"/>
       <c r="F76" s="281">
         <v>30</v>
       </c>
@@ -9836,10 +9808,10 @@
       <c r="Q76" s="275"/>
     </row>
     <row r="77" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="438"/>
+      <c r="B77" s="455"/>
       <c r="C77" s="274"/>
       <c r="D77" s="249"/>
-      <c r="E77" s="456"/>
+      <c r="E77" s="428"/>
       <c r="F77" s="281">
         <v>31</v>
       </c>
@@ -9860,10 +9832,10 @@
       <c r="Q77" s="275"/>
     </row>
     <row r="78" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="438"/>
+      <c r="B78" s="455"/>
       <c r="C78" s="274"/>
       <c r="D78" s="249"/>
-      <c r="E78" s="456"/>
+      <c r="E78" s="428"/>
       <c r="F78" s="281">
         <v>32</v>
       </c>
@@ -9884,10 +9856,10 @@
       <c r="Q78" s="275"/>
     </row>
     <row r="79" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="438"/>
+      <c r="B79" s="455"/>
       <c r="C79" s="274"/>
       <c r="D79" s="249"/>
-      <c r="E79" s="456"/>
+      <c r="E79" s="428"/>
       <c r="F79" s="178">
         <v>33</v>
       </c>
@@ -9908,10 +9880,10 @@
       <c r="Q79" s="275"/>
     </row>
     <row r="80" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="438"/>
+      <c r="B80" s="455"/>
       <c r="C80" s="274"/>
       <c r="D80" s="249"/>
-      <c r="E80" s="456"/>
+      <c r="E80" s="428"/>
       <c r="F80" s="178">
         <v>34</v>
       </c>
@@ -9932,10 +9904,10 @@
       <c r="Q80" s="275"/>
     </row>
     <row r="81" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="438"/>
+      <c r="B81" s="455"/>
       <c r="C81" s="274"/>
       <c r="D81" s="249"/>
-      <c r="E81" s="456"/>
+      <c r="E81" s="428"/>
       <c r="F81" s="178">
         <v>35</v>
       </c>
@@ -9956,10 +9928,10 @@
       <c r="Q81" s="275"/>
     </row>
     <row r="82" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="438"/>
+      <c r="B82" s="455"/>
       <c r="C82" s="274"/>
       <c r="D82" s="249"/>
-      <c r="E82" s="456"/>
+      <c r="E82" s="428"/>
       <c r="F82" s="178">
         <v>36</v>
       </c>
@@ -9980,10 +9952,10 @@
       <c r="Q82" s="275"/>
     </row>
     <row r="83" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="438"/>
+      <c r="B83" s="455"/>
       <c r="C83" s="272"/>
       <c r="D83" s="249"/>
-      <c r="E83" s="456"/>
+      <c r="E83" s="428"/>
       <c r="F83" s="228">
         <v>37</v>
       </c>
@@ -10004,10 +9976,10 @@
       <c r="Q83" s="221"/>
     </row>
     <row r="84" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="438"/>
+      <c r="B84" s="455"/>
       <c r="C84" s="272"/>
       <c r="D84" s="249"/>
-      <c r="E84" s="456"/>
+      <c r="E84" s="428"/>
       <c r="F84" s="228">
         <v>38</v>
       </c>
@@ -10028,10 +10000,10 @@
       <c r="Q84" s="221"/>
     </row>
     <row r="85" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="438"/>
+      <c r="B85" s="455"/>
       <c r="C85" s="272"/>
       <c r="D85" s="249"/>
-      <c r="E85" s="456"/>
+      <c r="E85" s="428"/>
       <c r="F85" s="228">
         <v>39</v>
       </c>
@@ -10052,10 +10024,10 @@
       <c r="Q85" s="221"/>
     </row>
     <row r="86" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="438"/>
+      <c r="B86" s="455"/>
       <c r="C86" s="272"/>
       <c r="D86" s="249"/>
-      <c r="E86" s="457"/>
+      <c r="E86" s="429"/>
       <c r="F86" s="228">
         <v>40</v>
       </c>
@@ -10076,10 +10048,10 @@
       <c r="Q86" s="221"/>
     </row>
     <row r="87" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="438"/>
+      <c r="B87" s="455"/>
       <c r="C87" s="272"/>
       <c r="D87" s="249"/>
-      <c r="E87" s="456" t="s">
+      <c r="E87" s="428" t="s">
         <v>202</v>
       </c>
       <c r="F87" s="178">
@@ -10102,10 +10074,10 @@
       <c r="Q87" s="221"/>
     </row>
     <row r="88" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="438"/>
+      <c r="B88" s="455"/>
       <c r="C88" s="272"/>
       <c r="D88" s="249"/>
-      <c r="E88" s="456"/>
+      <c r="E88" s="428"/>
       <c r="F88" s="178">
         <v>42</v>
       </c>
@@ -10126,10 +10098,10 @@
       <c r="Q88" s="221"/>
     </row>
     <row r="89" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="438"/>
+      <c r="B89" s="455"/>
       <c r="C89" s="274"/>
       <c r="D89" s="249"/>
-      <c r="E89" s="456"/>
+      <c r="E89" s="428"/>
       <c r="F89" s="178">
         <v>43</v>
       </c>
@@ -10150,10 +10122,10 @@
       <c r="Q89" s="275"/>
     </row>
     <row r="90" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="438"/>
+      <c r="B90" s="455"/>
       <c r="C90" s="274"/>
       <c r="D90" s="249"/>
-      <c r="E90" s="456"/>
+      <c r="E90" s="428"/>
       <c r="F90" s="178">
         <v>44</v>
       </c>
@@ -10174,7 +10146,7 @@
       <c r="Q90" s="275"/>
     </row>
     <row r="91" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="438"/>
+      <c r="B91" s="455"/>
       <c r="C91" s="274"/>
       <c r="D91" s="249"/>
       <c r="E91" s="249"/>
@@ -10192,7 +10164,7 @@
       <c r="Q91" s="221"/>
     </row>
     <row r="92" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="439"/>
+      <c r="B92" s="456"/>
       <c r="C92" s="285"/>
       <c r="D92" s="260"/>
       <c r="E92" s="260"/>
@@ -10210,14 +10182,14 @@
       <c r="Q92" s="221"/>
     </row>
     <row r="93" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="427" t="s">
+      <c r="B93" s="444" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="429" t="s">
+      <c r="C93" s="446" t="s">
         <v>209</v>
       </c>
       <c r="D93" s="249"/>
-      <c r="E93" s="431" t="s">
+      <c r="E93" s="448" t="s">
         <v>210</v>
       </c>
       <c r="F93" s="178">
@@ -10238,10 +10210,10 @@
       <c r="Q93" s="275"/>
     </row>
     <row r="94" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="428"/>
-      <c r="C94" s="430"/>
+      <c r="B94" s="445"/>
+      <c r="C94" s="447"/>
       <c r="D94" s="249"/>
-      <c r="E94" s="432"/>
+      <c r="E94" s="449"/>
       <c r="F94" s="178">
         <v>2</v>
       </c>
@@ -10258,10 +10230,10 @@
       <c r="Q94" s="275"/>
     </row>
     <row r="95" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="428"/>
-      <c r="C95" s="430"/>
+      <c r="B95" s="445"/>
+      <c r="C95" s="447"/>
       <c r="D95" s="249"/>
-      <c r="E95" s="432"/>
+      <c r="E95" s="449"/>
       <c r="F95" s="178">
         <v>3</v>
       </c>
@@ -10278,10 +10250,10 @@
       <c r="Q95" s="275"/>
     </row>
     <row r="96" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="428"/>
-      <c r="C96" s="430"/>
+      <c r="B96" s="445"/>
+      <c r="C96" s="447"/>
       <c r="D96" s="249"/>
-      <c r="E96" s="433"/>
+      <c r="E96" s="450"/>
       <c r="F96" s="178">
         <v>4</v>
       </c>
@@ -10298,8 +10270,8 @@
       <c r="Q96" s="275"/>
     </row>
     <row r="97" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="428"/>
-      <c r="C97" s="430"/>
+      <c r="B97" s="445"/>
+      <c r="C97" s="447"/>
       <c r="D97" s="249"/>
       <c r="E97" s="295"/>
       <c r="F97" s="286"/>
@@ -10316,8 +10288,8 @@
       <c r="Q97" s="275"/>
     </row>
     <row r="98" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="428"/>
-      <c r="C98" s="430"/>
+      <c r="B98" s="445"/>
+      <c r="C98" s="447"/>
       <c r="D98" s="249"/>
       <c r="E98" s="295"/>
       <c r="F98" s="286"/>
@@ -10334,8 +10306,8 @@
       <c r="Q98" s="275"/>
     </row>
     <row r="99" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="428"/>
-      <c r="C99" s="430"/>
+      <c r="B99" s="445"/>
+      <c r="C99" s="447"/>
       <c r="D99" s="249"/>
       <c r="E99" s="295"/>
       <c r="F99" s="286"/>
@@ -10352,7 +10324,7 @@
       <c r="Q99" s="275"/>
     </row>
     <row r="100" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="428"/>
+      <c r="B100" s="445"/>
       <c r="C100" s="274"/>
       <c r="D100" s="249"/>
       <c r="E100" s="295"/>
@@ -10370,7 +10342,7 @@
       <c r="Q100" s="275"/>
     </row>
     <row r="101" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="428"/>
+      <c r="B101" s="445"/>
       <c r="C101" s="274"/>
       <c r="D101" s="249"/>
       <c r="E101" s="295"/>
@@ -10388,7 +10360,7 @@
       <c r="Q101" s="275"/>
     </row>
     <row r="102" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="428"/>
+      <c r="B102" s="445"/>
       <c r="C102" s="274"/>
       <c r="D102" s="249"/>
       <c r="E102" s="249"/>
@@ -10406,7 +10378,7 @@
       <c r="Q102" s="275"/>
     </row>
     <row r="103" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="428"/>
+      <c r="B103" s="445"/>
       <c r="C103" s="274"/>
       <c r="D103" s="249"/>
       <c r="E103" s="249"/>
@@ -10424,7 +10396,7 @@
       <c r="Q103" s="275"/>
     </row>
     <row r="104" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="428"/>
+      <c r="B104" s="445"/>
       <c r="C104" s="274"/>
       <c r="D104" s="249"/>
       <c r="E104" s="249"/>
@@ -10443,7 +10415,7 @@
     </row>
     <row r="105" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="304"/>
-      <c r="C105" s="434" t="s">
+      <c r="C105" s="451" t="s">
         <v>276</v>
       </c>
       <c r="D105" s="255"/>
@@ -10463,7 +10435,7 @@
     </row>
     <row r="106" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="298"/>
-      <c r="C106" s="435"/>
+      <c r="C106" s="452"/>
       <c r="D106" s="249"/>
       <c r="E106" s="249"/>
       <c r="F106" s="286"/>
@@ -10481,7 +10453,7 @@
     </row>
     <row r="107" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="298"/>
-      <c r="C107" s="435"/>
+      <c r="C107" s="452"/>
       <c r="D107" s="249"/>
       <c r="E107" s="249"/>
       <c r="F107" s="286"/>
@@ -10499,7 +10471,7 @@
     </row>
     <row r="108" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="298"/>
-      <c r="C108" s="435"/>
+      <c r="C108" s="452"/>
       <c r="D108" s="249"/>
       <c r="E108" s="249"/>
       <c r="F108" s="286"/>
@@ -10517,7 +10489,7 @@
     </row>
     <row r="109" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="298"/>
-      <c r="C109" s="435"/>
+      <c r="C109" s="452"/>
       <c r="D109" s="249"/>
       <c r="E109" s="249"/>
       <c r="F109" s="286"/>
@@ -10535,7 +10507,7 @@
     </row>
     <row r="110" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="298"/>
-      <c r="C110" s="435"/>
+      <c r="C110" s="452"/>
       <c r="D110" s="249"/>
       <c r="E110" s="249"/>
       <c r="F110" s="286"/>
@@ -10553,7 +10525,7 @@
     </row>
     <row r="111" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="298"/>
-      <c r="C111" s="435"/>
+      <c r="C111" s="452"/>
       <c r="D111" s="249"/>
       <c r="E111" s="249"/>
       <c r="F111" s="286"/>
@@ -10571,7 +10543,7 @@
     </row>
     <row r="112" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="298"/>
-      <c r="C112" s="435"/>
+      <c r="C112" s="452"/>
       <c r="D112" s="249"/>
       <c r="E112" s="249"/>
       <c r="F112" s="286"/>
@@ -10589,7 +10561,7 @@
     </row>
     <row r="113" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="299"/>
-      <c r="C113" s="435"/>
+      <c r="C113" s="452"/>
       <c r="D113" s="249"/>
       <c r="E113" s="249"/>
       <c r="F113" s="286"/>
@@ -10607,7 +10579,7 @@
     </row>
     <row r="114" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="299"/>
-      <c r="C114" s="435"/>
+      <c r="C114" s="452"/>
       <c r="D114" s="249"/>
       <c r="E114" s="249"/>
       <c r="F114" s="286"/>
@@ -10625,7 +10597,7 @@
     </row>
     <row r="115" spans="2:17" s="96" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="299"/>
-      <c r="C115" s="435"/>
+      <c r="C115" s="452"/>
       <c r="D115" s="249"/>
       <c r="E115" s="249"/>
       <c r="F115" s="286"/>
@@ -10643,7 +10615,7 @@
     </row>
     <row r="116" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="300"/>
-      <c r="C116" s="436"/>
+      <c r="C116" s="453"/>
       <c r="D116" s="250"/>
       <c r="E116" s="250"/>
       <c r="F116" s="98"/>
@@ -11028,21 +11000,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E59:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B93:B104"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="E93:E96"/>
@@ -11059,9 +11016,24 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="C47:C74"/>
     <mergeCell ref="E47:E58"/>
+    <mergeCell ref="E59:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O63">
       <formula1>$BC$2:$BC$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11072,7 +11044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -12015,17 +11987,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12056,38 +12028,38 @@
     </row>
     <row r="3" spans="2:9" s="349" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="365" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="361" t="s">
         <v>332</v>
       </c>
       <c r="D3" s="361" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" s="361" t="s">
         <v>154</v>
       </c>
       <c r="F3" s="361" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="361" t="s">
         <v>189</v>
       </c>
       <c r="H3" s="366" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" s="348"/>
     </row>
     <row r="4" spans="2:9" s="327" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="375" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="352"/>
       <c r="D4" s="381" t="s">
         <v>333</v>
       </c>
       <c r="E4" s="353" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" s="353"/>
       <c r="G4" s="354"/>
@@ -12098,7 +12070,7 @@
       <c r="C5" s="328"/>
       <c r="D5" s="382"/>
       <c r="E5" s="356" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="356"/>
       <c r="G5" s="350"/>
@@ -12109,7 +12081,7 @@
       <c r="C6" s="322"/>
       <c r="D6" s="382"/>
       <c r="E6" s="357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F6" s="356"/>
       <c r="G6" s="351"/>
@@ -12120,7 +12092,7 @@
       <c r="C7" s="322"/>
       <c r="D7" s="382"/>
       <c r="E7" s="357" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F7" s="356"/>
       <c r="G7" s="351"/>
@@ -12131,7 +12103,7 @@
       <c r="C8" s="322"/>
       <c r="D8" s="383"/>
       <c r="E8" s="315" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F8" s="315"/>
       <c r="G8" s="351"/>
@@ -12141,10 +12113,10 @@
       <c r="B9" s="376"/>
       <c r="C9" s="358"/>
       <c r="D9" s="482" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="315" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="315"/>
       <c r="G9" s="351"/>
@@ -12155,7 +12127,7 @@
       <c r="C10" s="358"/>
       <c r="D10" s="483"/>
       <c r="E10" s="315" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F10" s="315"/>
       <c r="G10" s="351"/>
@@ -12166,7 +12138,7 @@
       <c r="C11" s="358"/>
       <c r="D11" s="483"/>
       <c r="E11" s="315" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F11" s="315"/>
       <c r="G11" s="351"/>
@@ -12177,7 +12149,7 @@
       <c r="C12" s="358"/>
       <c r="D12" s="484"/>
       <c r="E12" s="315" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="315"/>
       <c r="G12" s="351"/>
@@ -12187,10 +12159,10 @@
       <c r="B13" s="376"/>
       <c r="C13" s="358"/>
       <c r="D13" s="482" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E13" s="315" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F13" s="315"/>
       <c r="G13" s="351"/>
@@ -12201,7 +12173,7 @@
       <c r="C14" s="358"/>
       <c r="D14" s="483"/>
       <c r="E14" s="315" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="315"/>
       <c r="G14" s="351"/>
@@ -12212,7 +12184,7 @@
       <c r="C15" s="358"/>
       <c r="D15" s="483"/>
       <c r="E15" s="315" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F15" s="315"/>
       <c r="G15" s="351"/>
@@ -12223,7 +12195,7 @@
       <c r="C16" s="355"/>
       <c r="D16" s="483"/>
       <c r="E16" s="315" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="359"/>
@@ -12234,7 +12206,7 @@
       <c r="C17" s="358"/>
       <c r="D17" s="484"/>
       <c r="E17" s="315" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F17" s="315"/>
       <c r="G17" s="351"/>
@@ -12244,10 +12216,10 @@
       <c r="B18" s="376"/>
       <c r="C18" s="322"/>
       <c r="D18" s="482" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="315" t="s">
         <v>364</v>
-      </c>
-      <c r="E18" s="315" t="s">
-        <v>365</v>
       </c>
       <c r="F18" s="315"/>
       <c r="G18" s="351"/>
@@ -12258,7 +12230,7 @@
       <c r="C19" s="330"/>
       <c r="D19" s="483"/>
       <c r="E19" s="315" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F19" s="315"/>
       <c r="G19" s="351"/>
@@ -12269,7 +12241,7 @@
       <c r="C20" s="330"/>
       <c r="D20" s="483"/>
       <c r="E20" s="315" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F20" s="315"/>
       <c r="G20" s="351"/>
@@ -12280,7 +12252,7 @@
       <c r="C21" s="330"/>
       <c r="D21" s="483"/>
       <c r="E21" s="315" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F21" s="315"/>
       <c r="G21" s="351"/>
@@ -12291,7 +12263,7 @@
       <c r="C22" s="322"/>
       <c r="D22" s="484"/>
       <c r="E22" s="315" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F22" s="356"/>
       <c r="G22" s="351"/>
@@ -12339,9 +12311,11 @@
       <c r="B27" s="376"/>
       <c r="C27" s="330"/>
       <c r="D27" s="360" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="315"/>
+        <v>369</v>
+      </c>
+      <c r="E27" s="315" t="s">
+        <v>370</v>
+      </c>
       <c r="F27" s="315"/>
       <c r="G27" s="351"/>
       <c r="H27" s="368"/>
@@ -12350,7 +12324,9 @@
       <c r="B28" s="376"/>
       <c r="C28" s="322"/>
       <c r="D28" s="295"/>
-      <c r="E28" s="315"/>
+      <c r="E28" s="315" t="s">
+        <v>371</v>
+      </c>
       <c r="F28" s="356"/>
       <c r="G28" s="351"/>
       <c r="H28" s="368"/>
@@ -12359,7 +12335,9 @@
       <c r="B29" s="376"/>
       <c r="C29" s="322"/>
       <c r="D29" s="295"/>
-      <c r="E29" s="315"/>
+      <c r="E29" s="315" t="s">
+        <v>372</v>
+      </c>
       <c r="F29" s="315"/>
       <c r="G29" s="351"/>
       <c r="H29" s="368"/>
@@ -12368,7 +12346,9 @@
       <c r="B30" s="376"/>
       <c r="C30" s="358"/>
       <c r="D30" s="295"/>
-      <c r="E30" s="315"/>
+      <c r="E30" s="315" t="s">
+        <v>373</v>
+      </c>
       <c r="F30" s="315"/>
       <c r="G30" s="351"/>
       <c r="H30" s="368"/>
@@ -12415,7 +12395,7 @@
       <c r="B35" s="376"/>
       <c r="C35" s="358"/>
       <c r="D35" s="360" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" s="315"/>
       <c r="F35" s="315"/>
@@ -12529,7 +12509,7 @@
       <c r="B47" s="376"/>
       <c r="C47" s="358"/>
       <c r="D47" s="384" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E47" s="315"/>
       <c r="F47" s="315"/>
@@ -12885,7 +12865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12933,10 +12913,10 @@
       <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="420" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="420" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="488"/>
@@ -12944,12 +12924,12 @@
       <c r="J3" s="490"/>
     </row>
     <row r="4" spans="2:10" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="419"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
       <c r="H4" s="135" t="s">
         <v>133</v>
       </c>
@@ -12957,10 +12937,10 @@
       <c r="J4" s="122"/>
     </row>
     <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="386" t="s">
+      <c r="C5" s="402" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -12980,8 +12960,8 @@
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="412"/>
-      <c r="C6" s="414"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
       <c r="D6" s="132" t="s">
         <v>27</v>
       </c>
@@ -12999,8 +12979,8 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="413"/>
-      <c r="C7" s="388"/>
+      <c r="B7" s="401"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="129" t="s">
         <v>28</v>
       </c>
@@ -13020,8 +13000,8 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="413"/>
-      <c r="C8" s="388"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="129" t="s">
         <v>49</v>
       </c>
@@ -13039,8 +13019,8 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="413"/>
-      <c r="C9" s="388"/>
+      <c r="B9" s="401"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="137" t="s">
         <v>135</v>
       </c>
@@ -13058,8 +13038,8 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="413"/>
-      <c r="C10" s="388"/>
+      <c r="B10" s="401"/>
+      <c r="C10" s="404"/>
       <c r="D10" s="129" t="s">
         <v>30</v>
       </c>
@@ -13077,8 +13057,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="413"/>
-      <c r="C11" s="388"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="404"/>
       <c r="D11" s="129" t="s">
         <v>31</v>
       </c>
@@ -13096,8 +13076,8 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="413"/>
-      <c r="C12" s="388"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="404"/>
       <c r="D12" s="129" t="s">
         <v>33</v>
       </c>
@@ -13115,8 +13095,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="413"/>
-      <c r="C13" s="388"/>
+      <c r="B13" s="401"/>
+      <c r="C13" s="404"/>
       <c r="D13" s="141" t="s">
         <v>136</v>
       </c>
@@ -13134,8 +13114,8 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="413"/>
-      <c r="C14" s="388"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="404"/>
       <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
@@ -13153,8 +13133,8 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="413"/>
-      <c r="C15" s="388"/>
+      <c r="B15" s="401"/>
+      <c r="C15" s="404"/>
       <c r="D15" s="492" t="s">
         <v>50</v>
       </c>
@@ -13172,8 +13152,8 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10" ht="19.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="413"/>
-      <c r="C16" s="389"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="405"/>
       <c r="D16" s="493"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
@@ -13183,8 +13163,8 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="413"/>
-      <c r="C17" s="417" t="s">
+      <c r="B17" s="401"/>
+      <c r="C17" s="408" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="130" t="s">
@@ -13204,8 +13184,8 @@
       <c r="J17" s="125"/>
     </row>
     <row r="18" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="413"/>
-      <c r="C18" s="413"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="401"/>
       <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
@@ -13223,8 +13203,8 @@
       <c r="J18" s="125"/>
     </row>
     <row r="19" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="413"/>
-      <c r="C19" s="413"/>
+      <c r="B19" s="401"/>
+      <c r="C19" s="401"/>
       <c r="D19" s="129" t="s">
         <v>20</v>
       </c>
@@ -13242,8 +13222,8 @@
       <c r="J19" s="125"/>
     </row>
     <row r="20" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="413"/>
-      <c r="C20" s="413"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="401"/>
       <c r="D20" s="129" t="s">
         <v>21</v>
       </c>
@@ -13261,8 +13241,8 @@
       <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="413"/>
-      <c r="C21" s="413"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="401"/>
       <c r="D21" s="129" t="s">
         <v>22</v>
       </c>
@@ -13280,8 +13260,8 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="413"/>
-      <c r="C22" s="413"/>
+      <c r="B22" s="401"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="129" t="s">
         <v>23</v>
       </c>
@@ -13966,7 +13946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z201"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14010,17 +13990,17 @@
       <c r="J2" s="486"/>
       <c r="K2" s="486"/>
       <c r="L2" s="486"/>
-      <c r="M2" s="499"/>
-      <c r="N2" s="499"/>
-      <c r="O2" s="499"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
-      <c r="R2" s="499"/>
-      <c r="S2" s="499"/>
-      <c r="T2" s="499"/>
-      <c r="U2" s="499"/>
-      <c r="V2" s="499"/>
-      <c r="W2" s="499"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="526"/>
+      <c r="O2" s="526"/>
+      <c r="P2" s="526"/>
+      <c r="Q2" s="526"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
+      <c r="U2" s="526"/>
+      <c r="V2" s="526"/>
+      <c r="W2" s="526"/>
       <c r="X2" s="486"/>
       <c r="Y2" s="486"/>
       <c r="Z2" s="487"/>
@@ -14038,16 +14018,16 @@
       <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="420" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="420" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="420" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="420" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="495" t="s">
@@ -14056,83 +14036,83 @@
       <c r="K3" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="501" t="s">
+      <c r="L3" s="528" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="503" t="s">
+      <c r="M3" s="530" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="497" t="s">
+      <c r="N3" s="524" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="497" t="s">
+      <c r="O3" s="524" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="524" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="516" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="518" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="520" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="520" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="520" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="523" t="s">
+      <c r="V3" s="522" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="508"/>
+      <c r="Z3" s="509"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="419"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="500"/>
-      <c r="L4" s="502"/>
-      <c r="M4" s="504"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="524"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="529"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="525"/>
+      <c r="O4" s="525"/>
+      <c r="P4" s="525"/>
+      <c r="Q4" s="517"/>
+      <c r="R4" s="519"/>
+      <c r="S4" s="521"/>
+      <c r="T4" s="521"/>
+      <c r="U4" s="521"/>
+      <c r="V4" s="523"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="510"/>
+      <c r="Y4" s="510"/>
+      <c r="Z4" s="511"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="386" t="s">
+      <c r="C5" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="512" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -14183,9 +14163,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="412"/>
-      <c r="C6" s="414"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="513"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -14212,9 +14192,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="412"/>
-      <c r="C7" s="414"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="400"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="514" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -14255,9 +14235,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="412"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="514"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -14282,9 +14262,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="413"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="513" t="s">
+      <c r="B9" s="401"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="497" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -14329,9 +14309,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="413"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="514"/>
+      <c r="B10" s="401"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="498"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -14356,9 +14336,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="413"/>
-      <c r="C11" s="388"/>
-      <c r="D11" s="513" t="s">
+      <c r="B11" s="401"/>
+      <c r="C11" s="404"/>
+      <c r="D11" s="497" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -14399,9 +14379,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="413"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="514"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="498"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -14428,9 +14408,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="413"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="515" t="s">
+      <c r="B13" s="401"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="503" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -14463,9 +14443,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="413"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="516"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="404"/>
+      <c r="D14" s="515"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -14492,9 +14472,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="413"/>
-      <c r="C15" s="388"/>
-      <c r="D15" s="513" t="s">
+      <c r="B15" s="401"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="497" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -14531,9 +14511,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="413"/>
-      <c r="C16" s="388"/>
-      <c r="D16" s="514"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="498"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -14560,9 +14540,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="413"/>
-      <c r="C17" s="388"/>
-      <c r="D17" s="513" t="s">
+      <c r="B17" s="401"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="497" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -14605,9 +14585,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="413"/>
-      <c r="C18" s="388"/>
-      <c r="D18" s="514"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="498"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -14634,9 +14614,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="413"/>
-      <c r="C19" s="388"/>
-      <c r="D19" s="513" t="s">
+      <c r="B19" s="401"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="497" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -14673,9 +14653,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="413"/>
-      <c r="C20" s="388"/>
-      <c r="D20" s="514"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="498"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -14702,9 +14682,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="413"/>
-      <c r="C21" s="388"/>
-      <c r="D21" s="525" t="s">
+      <c r="B21" s="401"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="499" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -14737,9 +14717,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="413"/>
-      <c r="C22" s="388"/>
-      <c r="D22" s="526"/>
+      <c r="B22" s="401"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="500"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -14766,8 +14746,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="413"/>
-      <c r="C23" s="388"/>
+      <c r="B23" s="401"/>
+      <c r="C23" s="404"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -14807,8 +14787,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="413"/>
-      <c r="C24" s="388"/>
+      <c r="B24" s="401"/>
+      <c r="C24" s="404"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -14834,8 +14814,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="413"/>
-      <c r="C25" s="388"/>
+      <c r="B25" s="401"/>
+      <c r="C25" s="404"/>
       <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
@@ -14873,9 +14853,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="413"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="527"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="501"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -14902,11 +14882,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="413"/>
-      <c r="C27" s="417" t="s">
+      <c r="B27" s="401"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="528" t="s">
+      <c r="D27" s="502" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -14943,9 +14923,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="413"/>
-      <c r="C28" s="412"/>
-      <c r="D28" s="514"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="498"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -14972,9 +14952,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="413"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="513" t="s">
+      <c r="B29" s="401"/>
+      <c r="C29" s="401"/>
+      <c r="D29" s="497" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -15011,9 +14991,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="413"/>
-      <c r="C30" s="413"/>
-      <c r="D30" s="514"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="401"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -15040,9 +15020,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="413"/>
-      <c r="C31" s="413"/>
-      <c r="D31" s="513" t="s">
+      <c r="B31" s="401"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="497" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -15079,9 +15059,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="413"/>
-      <c r="C32" s="413"/>
-      <c r="D32" s="514"/>
+      <c r="B32" s="401"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -15108,9 +15088,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="413"/>
-      <c r="C33" s="413"/>
-      <c r="D33" s="513" t="s">
+      <c r="B33" s="401"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="497" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -15147,9 +15127,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="413"/>
-      <c r="C34" s="413"/>
-      <c r="D34" s="514"/>
+      <c r="B34" s="401"/>
+      <c r="C34" s="401"/>
+      <c r="D34" s="498"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -15176,9 +15156,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="413"/>
-      <c r="C35" s="413"/>
-      <c r="D35" s="513" t="s">
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="497" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -15215,9 +15195,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="413"/>
-      <c r="C36" s="413"/>
-      <c r="D36" s="514"/>
+      <c r="B36" s="401"/>
+      <c r="C36" s="401"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -15244,9 +15224,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="413"/>
-      <c r="C37" s="413"/>
-      <c r="D37" s="513" t="s">
+      <c r="B37" s="401"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="497" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -15283,9 +15263,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="413"/>
-      <c r="C38" s="413"/>
-      <c r="D38" s="514"/>
+      <c r="B38" s="401"/>
+      <c r="C38" s="401"/>
+      <c r="D38" s="498"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -15312,9 +15292,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="413"/>
-      <c r="C39" s="413"/>
-      <c r="D39" s="515" t="s">
+      <c r="B39" s="401"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="503" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -15345,9 +15325,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="413"/>
-      <c r="C40" s="413"/>
-      <c r="D40" s="529"/>
+      <c r="B40" s="401"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="504"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -15374,9 +15354,9 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="413"/>
-      <c r="C41" s="413"/>
-      <c r="D41" s="530" t="s">
+      <c r="B41" s="401"/>
+      <c r="C41" s="401"/>
+      <c r="D41" s="505" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="80"/>
@@ -15409,9 +15389,9 @@
       <c r="Z41" s="12"/>
     </row>
     <row r="42" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="413"/>
-      <c r="C42" s="413"/>
-      <c r="D42" s="531"/>
+      <c r="B42" s="401"/>
+      <c r="C42" s="401"/>
+      <c r="D42" s="506"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84"/>
       <c r="G42" s="85"/>
@@ -15438,13 +15418,13 @@
       <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="386" t="s">
+      <c r="B43" s="402" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="390" t="s">
+      <c r="C43" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="394" t="s">
+      <c r="D43" s="423" t="s">
         <v>115</v>
       </c>
       <c r="E43" s="21">
@@ -15479,9 +15459,9 @@
       <c r="Z43" s="95"/>
     </row>
     <row r="44" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="387"/>
-      <c r="C44" s="391"/>
-      <c r="D44" s="395"/>
+      <c r="B44" s="418"/>
+      <c r="C44" s="420"/>
+      <c r="D44" s="424"/>
       <c r="E44" s="22">
         <v>2</v>
       </c>
@@ -15497,9 +15477,9 @@
       <c r="Z44" s="97"/>
     </row>
     <row r="45" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="388"/>
-      <c r="C45" s="392"/>
-      <c r="D45" s="395"/>
+      <c r="B45" s="404"/>
+      <c r="C45" s="421"/>
+      <c r="D45" s="424"/>
       <c r="E45" s="22">
         <v>3</v>
       </c>
@@ -15515,9 +15495,9 @@
       <c r="Z45" s="97"/>
     </row>
     <row r="46" spans="2:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="388"/>
-      <c r="C46" s="392"/>
-      <c r="D46" s="396" t="s">
+      <c r="B46" s="404"/>
+      <c r="C46" s="421"/>
+      <c r="D46" s="425" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="22">
@@ -15532,18 +15512,18 @@
       <c r="Z46" s="97"/>
     </row>
     <row r="47" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="388"/>
-      <c r="C47" s="392"/>
-      <c r="D47" s="396"/>
+      <c r="B47" s="404"/>
+      <c r="C47" s="421"/>
+      <c r="D47" s="425"/>
       <c r="E47" s="35"/>
       <c r="F47" s="96"/>
       <c r="G47" s="37"/>
       <c r="Z47" s="97"/>
     </row>
     <row r="48" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="388"/>
-      <c r="C48" s="392"/>
-      <c r="D48" s="396" t="s">
+      <c r="B48" s="404"/>
+      <c r="C48" s="421"/>
+      <c r="D48" s="425" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="22">
@@ -15558,18 +15538,18 @@
       <c r="Z48" s="97"/>
     </row>
     <row r="49" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="388"/>
-      <c r="C49" s="392"/>
-      <c r="D49" s="396"/>
+      <c r="B49" s="404"/>
+      <c r="C49" s="421"/>
+      <c r="D49" s="425"/>
       <c r="E49" s="35"/>
       <c r="F49" s="96"/>
       <c r="G49" s="37"/>
       <c r="Z49" s="97"/>
     </row>
     <row r="50" spans="2:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="388"/>
-      <c r="C50" s="392"/>
-      <c r="D50" s="396" t="s">
+      <c r="B50" s="404"/>
+      <c r="C50" s="421"/>
+      <c r="D50" s="425" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="22">
@@ -15584,9 +15564,9 @@
       <c r="Z50" s="97"/>
     </row>
     <row r="51" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="389"/>
-      <c r="C51" s="393"/>
-      <c r="D51" s="397"/>
+      <c r="B51" s="405"/>
+      <c r="C51" s="422"/>
+      <c r="D51" s="426"/>
       <c r="E51" s="98"/>
       <c r="F51" s="99"/>
       <c r="G51" s="100"/>
@@ -15897,18 +15877,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C42"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="X3:Z4"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
@@ -15925,28 +15915,18 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15955,7 +15935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z200"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -16003,17 +15983,17 @@
       <c r="J2" s="486"/>
       <c r="K2" s="486"/>
       <c r="L2" s="486"/>
-      <c r="M2" s="499"/>
-      <c r="N2" s="499"/>
-      <c r="O2" s="499"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
-      <c r="R2" s="499"/>
-      <c r="S2" s="499"/>
-      <c r="T2" s="499"/>
-      <c r="U2" s="499"/>
-      <c r="V2" s="499"/>
-      <c r="W2" s="499"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="526"/>
+      <c r="O2" s="526"/>
+      <c r="P2" s="526"/>
+      <c r="Q2" s="526"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
+      <c r="U2" s="526"/>
+      <c r="V2" s="526"/>
+      <c r="W2" s="526"/>
       <c r="X2" s="486"/>
       <c r="Y2" s="486"/>
       <c r="Z2" s="487"/>
@@ -16031,16 +16011,16 @@
       <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="420" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="420" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="420" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="420" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="495" t="s">
@@ -16049,83 +16029,83 @@
       <c r="K3" s="495" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="501" t="s">
+      <c r="L3" s="528" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="503" t="s">
+      <c r="M3" s="530" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="497" t="s">
+      <c r="N3" s="524" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="497" t="s">
+      <c r="O3" s="524" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="524" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="516" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="518" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="520" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="520" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="520" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="523" t="s">
+      <c r="V3" s="522" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="68"/>
-      <c r="X3" s="505" t="s">
+      <c r="X3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="506"/>
-      <c r="Z3" s="507"/>
+      <c r="Y3" s="508"/>
+      <c r="Z3" s="509"/>
     </row>
     <row r="4" spans="2:26" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="419"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="500"/>
-      <c r="L4" s="502"/>
-      <c r="M4" s="504"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="524"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="529"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="525"/>
+      <c r="O4" s="525"/>
+      <c r="P4" s="525"/>
+      <c r="Q4" s="517"/>
+      <c r="R4" s="519"/>
+      <c r="S4" s="521"/>
+      <c r="T4" s="521"/>
+      <c r="U4" s="521"/>
+      <c r="V4" s="523"/>
       <c r="W4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="508"/>
-      <c r="Y4" s="508"/>
-      <c r="Z4" s="509"/>
+      <c r="X4" s="510"/>
+      <c r="Y4" s="510"/>
+      <c r="Z4" s="511"/>
     </row>
     <row r="5" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="386" t="s">
+      <c r="C5" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="512" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -16176,9 +16156,9 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="412"/>
-      <c r="C6" s="414"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="513"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -16205,9 +16185,9 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="412"/>
-      <c r="C7" s="414"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="400"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="514" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -16248,9 +16228,9 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="412"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="514"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -16275,9 +16255,9 @@
       <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="413"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="513" t="s">
+      <c r="B9" s="401"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="497" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -16322,9 +16302,9 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="413"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="514"/>
+      <c r="B10" s="401"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="498"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -16349,9 +16329,9 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="413"/>
-      <c r="C11" s="388"/>
-      <c r="D11" s="513" t="s">
+      <c r="B11" s="401"/>
+      <c r="C11" s="404"/>
+      <c r="D11" s="497" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -16392,9 +16372,9 @@
       <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="413"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="514"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="498"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -16421,9 +16401,9 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="413"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="515" t="s">
+      <c r="B13" s="401"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="503" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -16456,9 +16436,9 @@
       <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="413"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="516"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="404"/>
+      <c r="D14" s="515"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -16485,9 +16465,9 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="413"/>
-      <c r="C15" s="388"/>
-      <c r="D15" s="513" t="s">
+      <c r="B15" s="401"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="497" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -16524,9 +16504,9 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="413"/>
-      <c r="C16" s="388"/>
-      <c r="D16" s="514"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="498"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -16553,9 +16533,9 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="413"/>
-      <c r="C17" s="388"/>
-      <c r="D17" s="513" t="s">
+      <c r="B17" s="401"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="497" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -16598,9 +16578,9 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="413"/>
-      <c r="C18" s="388"/>
-      <c r="D18" s="514"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="498"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -16627,9 +16607,9 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="413"/>
-      <c r="C19" s="388"/>
-      <c r="D19" s="513" t="s">
+      <c r="B19" s="401"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="497" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -16666,9 +16646,9 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="413"/>
-      <c r="C20" s="388"/>
-      <c r="D20" s="514"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="498"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -16695,9 +16675,9 @@
       <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="413"/>
-      <c r="C21" s="388"/>
-      <c r="D21" s="525" t="s">
+      <c r="B21" s="401"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="499" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22">
@@ -16732,9 +16712,9 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="413"/>
-      <c r="C22" s="388"/>
-      <c r="D22" s="526"/>
+      <c r="B22" s="401"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="500"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -16761,8 +16741,8 @@
       <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="413"/>
-      <c r="C23" s="388"/>
+      <c r="B23" s="401"/>
+      <c r="C23" s="404"/>
       <c r="D23" s="46" t="s">
         <v>55</v>
       </c>
@@ -16802,8 +16782,8 @@
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="413"/>
-      <c r="C24" s="388"/>
+      <c r="B24" s="401"/>
+      <c r="C24" s="404"/>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -16829,8 +16809,8 @@
       <c r="Z24" s="12"/>
     </row>
     <row r="25" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="413"/>
-      <c r="C25" s="388"/>
+      <c r="B25" s="401"/>
+      <c r="C25" s="404"/>
       <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
@@ -16868,9 +16848,9 @@
       <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="2:26" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="413"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="527"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="501"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -16897,11 +16877,11 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="413"/>
-      <c r="C27" s="417" t="s">
+      <c r="B27" s="401"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="528" t="s">
+      <c r="D27" s="502" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -16938,9 +16918,9 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="413"/>
-      <c r="C28" s="412"/>
-      <c r="D28" s="514"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="498"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -16967,9 +16947,9 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="413"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="513" t="s">
+      <c r="B29" s="401"/>
+      <c r="C29" s="401"/>
+      <c r="D29" s="497" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -17006,9 +16986,9 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="413"/>
-      <c r="C30" s="413"/>
-      <c r="D30" s="514"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="401"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -17035,9 +17015,9 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="413"/>
-      <c r="C31" s="413"/>
-      <c r="D31" s="513" t="s">
+      <c r="B31" s="401"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="497" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -17074,9 +17054,9 @@
       <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="413"/>
-      <c r="C32" s="413"/>
-      <c r="D32" s="514"/>
+      <c r="B32" s="401"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -17103,9 +17083,9 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="413"/>
-      <c r="C33" s="413"/>
-      <c r="D33" s="513" t="s">
+      <c r="B33" s="401"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="497" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -17142,9 +17122,9 @@
       <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="413"/>
-      <c r="C34" s="413"/>
-      <c r="D34" s="514"/>
+      <c r="B34" s="401"/>
+      <c r="C34" s="401"/>
+      <c r="D34" s="498"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -17171,9 +17151,9 @@
       <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="2:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="413"/>
-      <c r="C35" s="413"/>
-      <c r="D35" s="513" t="s">
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="497" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -17210,9 +17190,9 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="413"/>
-      <c r="C36" s="413"/>
-      <c r="D36" s="514"/>
+      <c r="B36" s="401"/>
+      <c r="C36" s="401"/>
+      <c r="D36" s="498"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -17239,9 +17219,9 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="2:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="413"/>
-      <c r="C37" s="413"/>
-      <c r="D37" s="513" t="s">
+      <c r="B37" s="401"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="497" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -17278,9 +17258,9 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="413"/>
-      <c r="C38" s="413"/>
-      <c r="D38" s="514"/>
+      <c r="B38" s="401"/>
+      <c r="C38" s="401"/>
+      <c r="D38" s="498"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -17307,9 +17287,9 @@
       <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="413"/>
-      <c r="C39" s="413"/>
-      <c r="D39" s="515" t="s">
+      <c r="B39" s="401"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="503" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -17340,9 +17320,9 @@
       <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="2:26" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="413"/>
-      <c r="C40" s="413"/>
-      <c r="D40" s="529"/>
+      <c r="B40" s="401"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="504"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -17369,8 +17349,8 @@
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="2:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="413"/>
-      <c r="C41" s="413"/>
+      <c r="B41" s="401"/>
+      <c r="C41" s="401"/>
       <c r="D41" s="492" t="s">
         <v>25</v>
       </c>
@@ -17769,16 +17749,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="B5:B42"/>
     <mergeCell ref="C5:C26"/>
     <mergeCell ref="C27:C42"/>
@@ -17795,24 +17783,16 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17821,7 +17801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD200"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -17900,16 +17880,16 @@
       <c r="E3" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="420" t="s">
+      <c r="F3" s="411" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="420" t="s">
+      <c r="G3" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="420" t="s">
+      <c r="H3" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="420" t="s">
+      <c r="I3" s="411" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="495" t="s">
@@ -17921,34 +17901,34 @@
       <c r="L3" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="503" t="s">
+      <c r="M3" s="530" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="497" t="s">
+      <c r="N3" s="524" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="497" t="s">
+      <c r="O3" s="524" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="497" t="s">
+      <c r="P3" s="524" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="517" t="s">
+      <c r="Q3" s="516" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="519" t="s">
+      <c r="R3" s="518" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="520" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="521" t="s">
+      <c r="T3" s="520" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="521" t="s">
+      <c r="U3" s="520" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="534" t="s">
+      <c r="V3" s="546" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="542" t="s">
@@ -17966,51 +17946,51 @@
       <c r="AA3" s="540" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="532" t="s">
+      <c r="AB3" s="544" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="506"/>
-      <c r="AD3" s="507"/>
+      <c r="AC3" s="508"/>
+      <c r="AD3" s="509"/>
     </row>
     <row r="4" spans="2:30" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="419"/>
-      <c r="C4" s="421"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="423"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="500"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="504"/>
-      <c r="N4" s="498"/>
-      <c r="O4" s="498"/>
-      <c r="P4" s="498"/>
-      <c r="Q4" s="518"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="522"/>
-      <c r="T4" s="522"/>
-      <c r="U4" s="522"/>
-      <c r="V4" s="535"/>
+      <c r="B4" s="410"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="414"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="525"/>
+      <c r="O4" s="525"/>
+      <c r="P4" s="525"/>
+      <c r="Q4" s="517"/>
+      <c r="R4" s="519"/>
+      <c r="S4" s="521"/>
+      <c r="T4" s="521"/>
+      <c r="U4" s="521"/>
+      <c r="V4" s="547"/>
       <c r="W4" s="543"/>
       <c r="X4" s="539"/>
       <c r="Y4" s="539"/>
       <c r="Z4" s="539"/>
       <c r="AA4" s="541"/>
-      <c r="AB4" s="533"/>
-      <c r="AC4" s="508"/>
-      <c r="AD4" s="509"/>
+      <c r="AB4" s="545"/>
+      <c r="AC4" s="510"/>
+      <c r="AD4" s="511"/>
     </row>
     <row r="5" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="411" t="s">
+      <c r="B5" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="386" t="s">
+      <c r="C5" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="510" t="s">
+      <c r="D5" s="512" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="21">
@@ -18065,9 +18045,9 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="412"/>
-      <c r="C6" s="414"/>
-      <c r="D6" s="511"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="513"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -18098,9 +18078,9 @@
       <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="412"/>
-      <c r="C7" s="414"/>
-      <c r="D7" s="512" t="s">
+      <c r="B7" s="400"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="514" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="22">
@@ -18141,9 +18121,9 @@
       <c r="AD7" s="12"/>
     </row>
     <row r="8" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="412"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="512"/>
+      <c r="B8" s="400"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="514"/>
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -18172,9 +18152,9 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="413"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="536" t="s">
+      <c r="B9" s="401"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="535" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22">
@@ -18225,9 +18205,9 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="413"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="537"/>
+      <c r="B10" s="401"/>
+      <c r="C10" s="404"/>
+      <c r="D10" s="536"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -18256,9 +18236,9 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="413"/>
-      <c r="C11" s="388"/>
-      <c r="D11" s="536" t="s">
+      <c r="B11" s="401"/>
+      <c r="C11" s="404"/>
+      <c r="D11" s="535" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="22">
@@ -18305,9 +18285,9 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="413"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="537"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="536"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -18338,9 +18318,9 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="413"/>
-      <c r="C13" s="388"/>
-      <c r="D13" s="513" t="s">
+      <c r="B13" s="401"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="497" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="22">
@@ -18377,9 +18357,9 @@
       <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="413"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="514"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="404"/>
+      <c r="D14" s="498"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
@@ -18410,9 +18390,9 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="413"/>
-      <c r="C15" s="388"/>
-      <c r="D15" s="536" t="s">
+      <c r="B15" s="401"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="535" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="22">
@@ -18453,9 +18433,9 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="413"/>
-      <c r="C16" s="388"/>
-      <c r="D16" s="537"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="536"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -18486,9 +18466,9 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="413"/>
-      <c r="C17" s="388"/>
-      <c r="D17" s="536" t="s">
+      <c r="B17" s="401"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="535" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="22">
@@ -18537,9 +18517,9 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="413"/>
-      <c r="C18" s="388"/>
-      <c r="D18" s="537"/>
+      <c r="B18" s="401"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="536"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -18570,9 +18550,9 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="413"/>
-      <c r="C19" s="388"/>
-      <c r="D19" s="513" t="s">
+      <c r="B19" s="401"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="497" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="22">
@@ -18611,9 +18591,9 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30" ht="20.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="413"/>
-      <c r="C20" s="388"/>
-      <c r="D20" s="514"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="498"/>
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
@@ -18644,8 +18624,8 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="413"/>
-      <c r="C21" s="388"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="404"/>
       <c r="D21" s="492" t="s">
         <v>32</v>
       </c>
@@ -18687,9 +18667,9 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="413"/>
-      <c r="C22" s="388"/>
-      <c r="D22" s="546"/>
+      <c r="B22" s="401"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="534"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
@@ -18720,8 +18700,8 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="413"/>
-      <c r="C23" s="388"/>
+      <c r="B23" s="401"/>
+      <c r="C23" s="404"/>
       <c r="D23" s="63" t="s">
         <v>55</v>
       </c>
@@ -18763,8 +18743,8 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="413"/>
-      <c r="C24" s="388"/>
+      <c r="B24" s="401"/>
+      <c r="C24" s="404"/>
       <c r="D24" s="63"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
@@ -18794,8 +18774,8 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="413"/>
-      <c r="C25" s="388"/>
+      <c r="B25" s="401"/>
+      <c r="C25" s="404"/>
       <c r="D25" s="492" t="s">
         <v>50</v>
       </c>
@@ -18835,9 +18815,9 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="413"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="527"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="501"/>
       <c r="E26" s="19"/>
       <c r="F26" s="14"/>
       <c r="G26" s="13"/>
@@ -18868,11 +18848,11 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="413"/>
-      <c r="C27" s="417" t="s">
+      <c r="B27" s="401"/>
+      <c r="C27" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="528" t="s">
+      <c r="D27" s="502" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="21">
@@ -18913,9 +18893,9 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="413"/>
-      <c r="C28" s="412"/>
-      <c r="D28" s="514"/>
+      <c r="B28" s="401"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="498"/>
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
@@ -18946,9 +18926,9 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="413"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="513" t="s">
+      <c r="B29" s="401"/>
+      <c r="C29" s="401"/>
+      <c r="D29" s="497" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="22">
@@ -18987,9 +18967,9 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="413"/>
-      <c r="C30" s="413"/>
-      <c r="D30" s="514"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="401"/>
+      <c r="D30" s="498"/>
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -19020,9 +19000,9 @@
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="413"/>
-      <c r="C31" s="413"/>
-      <c r="D31" s="513" t="s">
+      <c r="B31" s="401"/>
+      <c r="C31" s="401"/>
+      <c r="D31" s="497" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="22">
@@ -19061,9 +19041,9 @@
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="413"/>
-      <c r="C32" s="413"/>
-      <c r="D32" s="514"/>
+      <c r="B32" s="401"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="498"/>
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -19094,9 +19074,9 @@
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="413"/>
-      <c r="C33" s="413"/>
-      <c r="D33" s="513" t="s">
+      <c r="B33" s="401"/>
+      <c r="C33" s="401"/>
+      <c r="D33" s="497" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="22">
@@ -19135,9 +19115,9 @@
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="413"/>
-      <c r="C34" s="413"/>
-      <c r="D34" s="514"/>
+      <c r="B34" s="401"/>
+      <c r="C34" s="401"/>
+      <c r="D34" s="498"/>
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -19168,9 +19148,9 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="413"/>
-      <c r="C35" s="413"/>
-      <c r="D35" s="536" t="s">
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="535" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="22">
@@ -19211,9 +19191,9 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="413"/>
-      <c r="C36" s="413"/>
-      <c r="D36" s="537"/>
+      <c r="B36" s="401"/>
+      <c r="C36" s="401"/>
+      <c r="D36" s="536"/>
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -19244,9 +19224,9 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="413"/>
-      <c r="C37" s="413"/>
-      <c r="D37" s="536" t="s">
+      <c r="B37" s="401"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="535" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="22">
@@ -19285,9 +19265,9 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="413"/>
-      <c r="C38" s="413"/>
-      <c r="D38" s="537"/>
+      <c r="B38" s="401"/>
+      <c r="C38" s="401"/>
+      <c r="D38" s="536"/>
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -19318,9 +19298,9 @@
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="413"/>
-      <c r="C39" s="413"/>
-      <c r="D39" s="513" t="s">
+      <c r="B39" s="401"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="497" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="22">
@@ -19355,9 +19335,9 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="413"/>
-      <c r="C40" s="413"/>
-      <c r="D40" s="547"/>
+      <c r="B40" s="401"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="537"/>
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -19388,9 +19368,9 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="2:30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="413"/>
-      <c r="C41" s="413"/>
-      <c r="D41" s="544" t="s">
+      <c r="B41" s="401"/>
+      <c r="C41" s="401"/>
+      <c r="D41" s="532" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="22">
@@ -19431,7 +19411,7 @@
     <row r="42" spans="2:30" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="491"/>
       <c r="C42" s="491"/>
-      <c r="D42" s="545"/>
+      <c r="D42" s="533"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
@@ -19794,23 +19774,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <me